--- a/src/OutputExcell/OutputData.xlsx
+++ b/src/OutputExcell/OutputData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>email</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>window</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -474,7 +479,70 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="f1866bbec6fce367721640b11cd59033", element="020a92aa-ba4a-446f-8f93-dcaf6de484b2")&gt;</t>
+          <t>(function(){window.google={kEI:'nbxjY9v7G-KMxc8P3-yS4AE',kEXPI:'31',kBL:'y__Z'};google.sn='webhp';google.kHL='pl';})();(function(){
+var f=this||self;var h,k=[];function l(a){for(var b;a&amp;&amp;(!a.getAttribute||!(b=a.getAttribute("eid")));)a=a.parentNode;return b||h}function m(a){for(var b=null;a&amp;&amp;(!a.getAttribute||!(b=a.getAttribute("leid")));)a=a.parentNode;return b}
+function n(a,b,c,d,g){var e="";c||-1!==b.search("&amp;ei=")||(e="&amp;ei="+l(d),-1===b.search("&amp;lei=")&amp;&amp;(d=m(d))&amp;&amp;(e+="&amp;lei="+d));d="";!c&amp;&amp;f._cshid&amp;&amp;-1===b.search("&amp;cshid=")&amp;&amp;"slh"!==a&amp;&amp;(d="&amp;cshid="+f._cshid);c=c||"/"+(g||"gen_204")+"?atyp=i&amp;ct="+a+"&amp;cad="+b+e+"&amp;zx="+Date.now()+d;/^http:/i.test(c)&amp;&amp;"https:"===window.location.protocol&amp;&amp;(google.ml&amp;&amp;google.ml(Error("a"),!1,{src:c,glmm:1}),c="");return c};h=google.kEI;google.getEI=l;google.getLEI=m;google.ml=function(){return null};google.log=function(a,b,c,d,g){if(c=n(a,b,c,d,g)){a=new Image;var e=k.length;k[e]=a;a.onerror=a.onload=a.onabort=function(){delete k[e]};a.src=c}};google.logUrl=n;}).call(this);(function(){
+google.y={};google.sy=[];google.x=function(a,b){if(a)var c=a.id;else{do c=Math.random();while(google.y[c])}google.y[c]=[a,b];return!1};google.sx=function(a){google.sy.push(a)};google.lm=[];google.plm=function(a){google.lm.push.apply(google.lm,a)};google.lq=[];google.load=function(a,b,c){google.lq.push([[a],b,c])};google.loadAll=function(a,b){google.lq.push([a,b])};google.bx=!1;google.lx=function(){};}).call(this);google.f={};(function(){
+document.documentElement.addEventListener("submit",function(b){var a;if(a=b.target){var c=a.getAttribute("data-submitfalse");a="1"===c||"q"===c&amp;&amp;!a.elements.q.value?!0:!1}else a=!1;a&amp;&amp;(b.preventDefault(),b.stopPropagation())},!0);document.documentElement.addEventListener("click",function(b){var a;a:{for(a=b.target;a&amp;&amp;a!==document.documentElement;a=a.parentElement)if("A"===a.tagName){a="1"===a.getAttribute("data-nohref");break a}a=!1}a&amp;&amp;b.preventDefault()},!0);}).call(this);(function(){google.hs={h:true,nhs:false,sie:false};})();(function(){google.c={ataf:false,btfi:false,cap:2000,fil:true,frt:false,gecoh:false,gl:true,lhc:false,llt:false,lrt:false,raf:false,sxs:false,taf:false,timl:false};})();(function(){
+var f=this||self;var g=window.performance;function h(a,b,d,c){a.addEventListener?a.addEventListener(b,d,c||!1):a.attachEvent&amp;&amp;a.attachEvent("on"+b,d)}function k(a,b,d,c){"addEventListener"in a?a.removeEventListener(b,d,c||!1):a.attachEvent&amp;&amp;a.detachEvent("on"+b,d)};google.c.iim=google.c.iim||{};function l(a){a&amp;&amp;f.google.aft(a.target)}var m;function n(){k(document.documentElement,"load",m,!0);k(document.documentElement,"error",m,!0)};google.timers={};google.startTick=function(a){google.timers[a]={t:{start:Date.now()},e:{},m:{}}};google.tick=function(a,b,d){google.timers[a]||google.startTick(a);d=void 0!==d?d:Date.now();b instanceof Array||(b=[b]);for(var c=0,e;e=b[c++];)google.timers[a].t[e]=d};google.c.e=function(a,b,d){google.timers[a].e[b]=d};google.c.b=function(a,b){b=google.timers[b||"load"].m;b[a]&amp;&amp;google.ml(Error("a"),!1,{m:a});b[a]=!0};google.c.u=function(a,b){var d=google.timers[b||"load"],c=d.m;if(c[a]){c[a]=!1;for(a in c)if(c[a])return;google.csiReport(d,"load2"===b?"all2":"all")}else{b="";for(var e in c)b+=e+":"+c[e]+";";google.ml(Error("b"),!1,{m:a,b:!1===c[a],s:b})}};google.rll=function(a,b,d){function c(e){d(e);k(a,"load",c);k(a,"error",c)}h(a,"load",c);b&amp;&amp;h(a,"error",c)};f.google.aft=function(a){a.setAttribute("data-iml",String(Date.now()))};google.startTick("load");var p=google.timers.load;a:{var q=p.t;if(g){var r=g.timing;if(r){var t=r.navigationStart,u=r.responseStart;if(u&gt;t&amp;&amp;u&lt;=q.start){q.start=u;p.wsrt=u-t;break a}}g.now&amp;&amp;(p.wsrt=Math.floor(g.now()))}}google.c.b("pr","load");google.c.b("xe","load");function v(a){if("hidden"===document.visibilityState){google.c.fh=a;var b;window.performance&amp;&amp;window.performance.timing&amp;&amp;(b=Math.floor(window.performance.timing.navigationStart+a));google.tick("load","fht",b);return!0}return!1}
+function w(a){v(a.timeStamp)&amp;&amp;k(document,"visibilitychange",w,!0)}google.c.fh=Infinity;h(document,"visibilitychange",w,!0);v(0);google.c.gl&amp;&amp;(m=l,h(document.documentElement,"load",m,!0),google.c.glu=n);}).call(this);(function(){
+function g(){return window.performance&amp;&amp;window.performance.navigation&amp;&amp;window.performance.navigation.type};function k(a,b){if(!a||m(a))return 0;if(!a.getBoundingClientRect)return 1;var c=function(d){return d.getBoundingClientRect()};return r(a,c,b)?0:t(a,c)}function r(a,b,c){a:{for(var d=a;d&amp;&amp;void 0!==d;d=d.parentElement)if("hidden"===d.style.overflow||c&amp;&amp;"G-EXPANDABLE-CONTENT"===d.tagName&amp;&amp;"hidden"===getComputedStyle(d).getPropertyValue("overflow")){c=d;break a}c=null}if(!c)return!1;a=b(a);b=b(c);return a.bottom&lt;b.top||a.top&gt;=b.bottom||a.right&lt;b.left||a.left&gt;=b.right}
+function m(a){return"none"===a.style.display?!0:document.defaultView&amp;&amp;document.defaultView.getComputedStyle?(a=document.defaultView.getComputedStyle(a),!!a&amp;&amp;("hidden"===a.visibility||"0px"===a.height&amp;&amp;"0px"===a.width)):!1}
+function t(a,b){var c=b(a);a=c.left+window.pageXOffset;b=c.top+window.pageYOffset;var d=c.width;c=c.height;var e=0;if(0&gt;=c&amp;&amp;0&gt;=d)return e;var f=window.innerHeight||document.documentElement.clientHeight;0&gt;b+c?e=2:b&gt;=f&amp;&amp;(e=4);if(0&gt;a+d||a&gt;=(window.innerWidth||document.documentElement.clientWidth))e|=8;e||(e=1,b+c&gt;f&amp;&amp;(e|=4));return e};var u=window.location,v="aft afti afts cbs cbt fht frt hct prt sct".split(" ");function w(a){return(a=u.search.match(new RegExp("[?&amp;]"+a+"=(\\d+)")))?Number(a[1]):-1}
+function x(a,b){var c=google.timers[b||"load"];b=c.m;if(!b||!b.prs){var d=g()?0:w("qsubts");0&lt;d&amp;&amp;(b=w("fbts"),0&lt;b&amp;&amp;(c.t.start=Math.max(d,b)));var e=c.t,f=e.start;b={wsrt:c.wsrt||0};if(f)for(var p=0,n;n=v[p++];){var l=e[n];l&amp;&amp;(b[n]=Math.max(l-f,0))}0&lt;d&amp;&amp;(b.gsasrt=c.t.start-d);c=c.e;a="/gen_204?s="+google.sn+"&amp;t="+a+"&amp;atyp=csi&amp;ei="+google.kEI+"&amp;rt=";d="";for(h in b)a+=""+d+h+"."+b[h],d=",";for(var q in c)a+="&amp;"+q+"="+c[q];window._cshid&amp;&amp;(a+="&amp;cshid="+window._cshid);2===g()&amp;&amp;(a+="&amp;bb=1");1===g()&amp;&amp;(a+=
+"&amp;r=1");if("gsasrt"in b){var h=w("qsd");0&lt;h&amp;&amp;(a+="&amp;qsd="+h)}google.kBL&amp;&amp;(a+="&amp;bl="+google.kBL);h=a;navigator.sendBeacon?navigator.sendBeacon(h,""):google.log("","",h)}};function y(a){a&amp;&amp;google.tick("load","cbs",a);google.tick("load","cbt");x("cap")};var z="src bsrc url ll image img-url".split(" ");function A(a){for(var b=0;b&lt;z.length;++b)if(a.getAttribute("data-"+z[b]))return!0;return!1}function B(a){var b=a.parentElement;if(b&amp;&amp;("G-IMG"===b.tagName||b.classList.contains("uhHOwf"))&amp;&amp;(b.style.height||b.style.width)){var c=b.getBoundingClientRect(),d=a.getBoundingClientRect();if(c.height&lt;=d.height||c.width&lt;=d.width)a=b}var e;return k(a,null==(e=google.c)?void 0:e.gecoh)}google.c.iim=google.c.iim||{};var C=window.innerHeight||document.documentElement.clientHeight,D=0,E=0,F=0,G=0,H=0,I=0,J=0,K=!0,L=!0,M=-1,N,P=google.c.sxs?"load2":"load";function Q(a,b,c,d){var e=google.timers[P].t[a];e&amp;&amp;(c||d&amp;&amp;null!=b&amp;&amp;b&lt;e)||google.tick(P,a,b)}function R(a,b,c){"1"===a.getAttribute("data-frt")&amp;&amp;(Q("frt",c,!1,!0),++G,S());b&amp;&amp;(Q("aft",c,!1,!0),Q("afti",c,!1,!0),++I,S());google.c.timl&amp;&amp;Q("iml",c,!1,!0);++E;a.setAttribute("data-frt","0");(google.c.timl||b)&amp;&amp;T()}
+function T(){var a=google.c.timl?E===D:H===I;!L&amp;&amp;a&amp;&amp;google.c.u("il",P)}
+function S(){if(!K){var a=I===H,b=G===F;a&amp;&amp;b&amp;&amp;(google.c.e(P,"ima",String(H)),google.c.e(P,"imad",String(J)),google.c.e(P,"aftp",String(Math.round(M))),document.getElementsByClassName("Ib7Efc").length&amp;&amp;google.c.e(P,"ddl","1"),N&amp;&amp;clearTimeout(N),x(google.c.sxs?"aft2":"aft",P));"hidden"===document.visibilityState&amp;&amp;google.c.e(P,"hddn","1");if(!google.c.sxs&amp;&amp;null!==google.aftq&amp;&amp;(2===google.fevent||3===google.fevent?google.fevent:1)&amp;((a?1:0)|(b?2:0))){google.tick("load","aftqf",Date.now());var c;for(a=
+0;b=null==(c=google.aftq)?void 0:c[a++];)try{b()}catch(d){google.ml(d,!1)}google.aftq=null}}}function U(a,b){0===b||b&amp;8||(a.setAttribute("data-frt","1"),++F)}if(0&lt;google.c.cap&amp;&amp;!google.c.sxs)a:{var V=google.c.cap;if(window.performance&amp;&amp;window.performance.timing&amp;&amp;"navigationStart"in window.performance.timing){var W=window.performance.now(),X=V-W;if(0&lt;X){N=setTimeout(y,X,Math.floor(window.performance.timing.navigationStart+W));break a}y()}N=void 0}google.c.wh=Math.floor(window.innerHeight||document.documentElement.clientHeight);google.c.e(P,"wh",String(google.c.wh));google.c.b("il",P);google.c.setup=function(a,b,c){var d=a.getAttribute("data-atf");if(d)return c=Number(d),b&amp;&amp;!a.hasAttribute("data-frt")&amp;&amp;U(a,c),c;var e="string"!==typeof a.src||!a.src,f=!!a.getAttribute("data-bsrc"),p=!!a.getAttribute("data-deferred"),n=!p&amp;&amp;A(a);n&amp;&amp;a.setAttribute("data-lzy_","1");d=B(a);a.setAttribute("data-atf",String(d));var l=!!(d&amp;1);e=(e||a.complete)&amp;&amp;!p&amp;&amp;!f&amp;&amp;!(l&amp;&amp;n);f=!google.c.lhc&amp;&amp;Number(a.getAttribute("data-iml"))||0;++D;if(e&amp;&amp;!f||a.hasAttribute("data-noaft"))a.setAttribute("data-frt","0"),++E;else{var q=google.c.btfi&amp;&amp;d&amp;4&amp;&amp;f&amp;&amp;M&lt;C;if(q){var h=a.getBoundingClientRect().top+window.pageYOffset;!c||h&lt;c?M=l?C:h:q=!1}l&amp;&amp;(++H,p&amp;&amp;++J);b&amp;&amp;U(a,d);q&amp;&amp;(Q("aft",f,!1,!0),Q("aftb",f,!1,!0));if(e&amp;&amp;f)R(a,l,google.c.btfi?0:f);else{l&amp;&amp;(!c||c&gt;=C)&amp;&amp;(M=C);var O=a.src;google.rll(a,!0,function(){google.c.fil&amp;&amp;(p||n)&amp;&amp;O&amp;&amp;O===a.src?google.rll(a,!0,function(){R(a,l,Date.now())}):R(a,l,Date.now())})}}return d};google.c.ubr=function(a,b,c,d){google.c.taf&amp;&amp;M&lt;C?(M=c||-1,Q("aft",b)):0&gt;M&amp;&amp;(c&amp;&amp;(M=c),google.c.btfi&amp;&amp;Q("aft",b));a||Q("afts",b,!0);d||(Q("aft",b,!0),K&amp;&amp;!google.c.frt&amp;&amp;(K=!1,S()),a&amp;&amp;L&amp;&amp;(Q("prt",b),google.c.timl&amp;&amp;Q("iml",b,!0),L=!1,T(),google.c.setup=function(){return 0},google.c.ubr=function(){}))};}).call(this);(function(){
+var b=[function(){google.tick&amp;&amp;google.tick("load","dcl")}];google.dclc=function(a){b.length?b.push(a):a()};function c(){for(var a=b.shift();a;)a(),a=b.shift()}window.addEventListener?(document.addEventListener("DOMContentLoaded",c,!1),window.addEventListener("load",c,!1)):window.attachEvent&amp;&amp;window.attachEvent("onload",c);}).call(this);(function(){
+var b=[];google.jsc={xx:b,x:function(a){b.push(a)},mm:[],m:function(a){google.jsc.mm.length||(google.jsc.mm=a)}};}).call(this);(function(){
+var e=this||self;
+var f={};function w(a,c){if(null===c)return!1;if("contains"in a&amp;&amp;1==c.nodeType)return a.contains(c);if("compareDocumentPosition"in a)return a==c||!!(a.compareDocumentPosition(c)&amp;16);for(;c&amp;&amp;a!=c;)c=c.parentNode;return c==a};var y=function(a,c){return function(d){d||(d=window.event);return c.call(a,d)}},z="undefined"!=typeof navigator&amp;&amp;/Macintosh/.test(navigator.userAgent),E=function(){this._mouseEventsPrevented=!0};var F=function(a){this.g=a;this.h=[]},G=function(a){for(var c=0;c&lt;a.h.length;++c){var d=a.g,b=a.h[c];d.removeEventListener?d.removeEventListener(b.eventType,b.o,b.capture):d.detachEvent&amp;&amp;d.detachEvent("on"+b.eventType,b.o)}a.h=[]};
+var H=e._jsa||{};H._cfc=void 0;H._aeh=void 0;var I=function(){this.h=this.g=null},K=function(a,c){var d=J;d.g=a;d.h=c;return d};I.prototype.i=function(){var a=this.g;this.g&amp;&amp;this.g!=this.h?this.g=this.g.__owner||this.g.parentNode:this.g=null;return a};var L=function(){var a;this.j=a=void 0===a?[]:a;this.g=0;this.h=null;this.l=!1},N=function(a,c){var d=M;d.j=a;d.g=0;d.h=c;d.l=!1;return d};L.prototype.i=function(){if(this.l)return J.i();if(this.g!=this.j.length){var a=this.j[this.g];this.g++;a!=this.h&amp;&amp;a&amp;&amp;a.__owner&amp;&amp;(this.l=!0,K(a.__owner,this.h));return a}return null};var J=new I,M=new L;
+var Q=function(){this.s=[];this.g=[];this.h=[];this.l={};this.i=null;this.j=[];P(this,"_custom")},R=function(a){return String.prototype.trim?a.trim():a.replace(/^\s+/,"").replace(/\s+$/,"")},ia=function(a,c){return function m(b,g){g=void 0===g?!0:g;var l=c;if("_custom"==l){l=b.detail;if(!l||!l._type)return;l=l._type}var k=l;"click"==k&amp;&amp;(z&amp;&amp;b.metaKey||!z&amp;&amp;b.ctrlKey||2==b.which||null==b.which&amp;&amp;4==b.button||b.shiftKey)?k="clickmod":"keydown"==k&amp;&amp;!b.a11ysc&amp;&amp;(k="maybe_click");var u=b.srcElement||b.target;l=S(k,b,u,"",null);var aa=b.path?N(b.path,this):b.composedPath?N(b.composedPath(),this):K(u,this);for(var r;r=aa.i();){var h=r;var p=void 0;r=h;var q=k,ba=b;var n=r.__jsaction;if(!n){var x;n=null;"getAttribute"in r&amp;&amp;(n=r.getAttribute("jsaction"));if(x=n){n=f[x];if(!n){n={};for(var A=x.split(ca),da=A?A.length:0,B=0;B&lt;da;B++){var v=A[B];if(v){var C=v.indexOf(":"),O=-1!=C,fa=O?R(v.substr(0,C)):ea;v=O?R(v.substr(C+1)):v;n[fa]=v}}f[x]=n}r.__jsaction=n}else n=ha,r.__jsaction=n}"maybe_click"==q&amp;&amp;n.click?(p=q,q="click"):"clickkey"==q?q="click":"click"!=q||n.click||(q="clickonly");p=H._cfc&amp;&amp;n.click?H._cfc(r,ba,n,q,p):{eventType:p?p:q,action:n[q]||"",event:null,ignore:!1};l=S(p.eventType,p.event||b,u,p.action||"",h,l.timeStamp);if(p.ignore||p.action)break}l&amp;&amp;"touchend"==l.eventType&amp;&amp;(l.event._preventMouseEvents=E);if(p&amp;&amp;p.action){if("mouseenter"==k||"mouseleave"==k||"pointerenter"==k||"pointerleave"==k)if(u=b.relatedTarget,!("mouseover"==b.type&amp;&amp;"mouseenter"==k||"mouseout"==b.type&amp;&amp;"mouseleave"==k||
+"pointerover"==b.type&amp;&amp;"pointerenter"==k||"pointerout"==b.type&amp;&amp;"pointerleave"==k)||u&amp;&amp;(u===h||w(h,u)))l.action="",l.actionElement=null;else{k={};for(var t in b)"function"!==typeof b[t]&amp;&amp;"srcElement"!==t&amp;&amp;"target"!==t&amp;&amp;(k[t]=b[t]);k.type="mouseover"==b.type?"mouseenter":"mouseout"==b.type?"mouseleave":"pointerover"==b.type?"pointerenter":"pointerleave";k.target=k.srcElement=h;k.bubbles=!1;l.event=k;l.targetElement=h}}else l.action="",l.actionElement=null;h=l;a.i&amp;&amp;!h.event.a11ysgd&amp;&amp;(t=S(h.eventType,h.event,h.targetElement,h.action,h.actionElement,h.timeStamp),"clickonly"==t.eventType&amp;&amp;(t.eventType="click"),a.i(t,!0));if(h.actionElement||"maybe_click"==h.eventType){if(a.i){if(!h.actionElement||"A"!=h.actionElement.tagName||"click"!=h.eventType&amp;&amp;"clickmod"!=h.eventType||(b.preventDefault?b.preventDefault():b.returnValue=!1),(b=a.i(h))&amp;&amp;g){m.call(this,b,!1);return}}else{if((g=e.document)&amp;&amp;!g.createEvent&amp;&amp;g.createEventObject)try{var D=g.createEventObject(b)}catch(la){D=b}else D=b;h.event=D;a.j.push(h)}H._aeh&amp;&amp;
+H._aeh(h)}}},S=function(a,c,d,b,g,m){return{eventType:a,event:c,targetElement:d,action:b,actionElement:g,timeStamp:m||Date.now()}},ja=function(a,c){return function(d){var b=a,g=c,m=!1;"mouseenter"==b?b="mouseover":"mouseleave"==b?b="mouseout":"pointerenter"==b?b="pointerover":"pointerleave"==b&amp;&amp;(b="pointerout");if(d.addEventListener){if("focus"==b||"blur"==b||"error"==b||"load"==b||"toggle"==b)m=!0;d.addEventListener(b,g,m)}else d.attachEvent&amp;&amp;("focus"==b?b="focusin":"blur"==b&amp;&amp;(b="focusout"),g=y(d,g),d.attachEvent("on"+b,g));return{eventType:b,o:g,capture:m}}},P=function(a,c){if(!a.l.hasOwnProperty(c)){var d=ia(a,c),b=ja(c,d);a.l[c]=d;a.s.push(b);for(d=0;d&lt;a.g.length;++d){var g=a.g[d];g.h.push(b.call(null,g.g))}"click"==c&amp;&amp;P(a,"keydown")}};Q.prototype.o=function(a){return this.l[a]};var W=function(a,c){var d=new F(c);a:{for(var b=0;b&lt;a.g.length;b++)if(T(a.g[b].g,c)){c=!0;break a}c=!1}if(c)return a.h.push(d),d;U(a,d);a.g.push(d);V(a);return d},V=function(a){for(var c=a.h.concat(a.g),d=[],b=[],g=0;g&lt;a.g.length;++g){var m=a.g[g];X(m,c)?(d.push(m),G(m)):b.push(m)}for(g=0;g&lt;a.h.length;++g)m=a.h[g],X(m,c)?d.push(m):(b.push(m),U(a,m));a.g=b;a.h=d},U=function(a,c){var d=c.g;ka&amp;&amp;(d.style.cursor="pointer");for(d=0;d&lt;a.s.length;++d)c.h.push(a.s[d].call(null,c.g))},Y=function(a,c){a.i=c;a.j&amp;&amp;(0&lt;a.j.length&amp;&amp;c(a.j),a.j=null)},X=function(a,c){for(var d=0;d&lt;c.length;++d)if(c[d].g!=a.g&amp;&amp;T(c[d].g,a.g))return!0;return!1},T=function(a,c){for(;a!=c&amp;&amp;c.parentNode;)c=c.parentNode;return a==c},ka="undefined"!=typeof navigator&amp;&amp;/iPhone|iPad|iPod/.test(navigator.userAgent),ca=/\s*;\s*/,ea="click",ha={};var Z=new Q;W(Z,window.document.documentElement);P(Z,"click");P(Z,"focus");P(Z,"focusin");P(Z,"blur");P(Z,"focusout");P(Z,"error");P(Z,"load");P(Z,"auxclick");P(Z,"change");P(Z,"dblclick");P(Z,"beforeinput");P(Z,"input");P(Z,"keyup");P(Z,"keydown");P(Z,"keypress");P(Z,"mousedown");P(Z,"mouseenter");P(Z,"mouseleave");P(Z,"mouseout");P(Z,"mouseover");P(Z,"mouseup");P(Z,"paste");P(Z,"touchstart");P(Z,"touchend");P(Z,"touchcancel");P(Z,"transitioncancel");P(Z,"transitionend");P(Z,"transitionrun");P(Z,"transitionstart");P(Z,"dragover");P(Z,"dragenter");P(Z,"dragleave");P(Z,"drop");P(Z,"dragstart");P(Z,"dragend");P(Z,"speech");(function(a){google.jsad=function(c){Y(a,c)};google.jsaac=function(c){return W(a,c)};google.jsarc=function(c){G(c);for(var d=!1,b=0;b&lt;a.g.length;++b)if(a.g[b]===c){a.g.splice(b,1);d=!0;break}if(!d)for(d=0;d&lt;a.h.length;++d)if(a.h[d]===c){a.h.splice(d,1);break}V(a)}})(Z);e.gws_wizbind=function(a){return{trigger:function(c){var d=a.o(c.type);d||(P(a,c.type),d=a.o(c.type));var b=c.target||c.srcElement;d&amp;&amp;d.call(b.ownerDocument.documentElement,c)},bind:function(c){Y(a,c)}}}(Z);}).call(this);(function(){window._skwEvts=[];})();(function(){window.google.erd={jsr:1,bv:1681,sd:true,de:true};})();(function(){var sdo=false;var mei=10;
+var h=this||self;var k,l=null!=(k=h.mei)?k:1,n,p=null!=(n=h.sdo)?n:!0,q=0,r,t=google.erd,v=t.jsr;google.ml=function(a,b,d,m,e){e=void 0===e?2:e;b&amp;&amp;(r=a&amp;&amp;a.message);if(google.dl)return google.dl(a,e,d),null;if(0&gt;v){window.console&amp;&amp;console.error(a,d);if(-2===v)throw a;b=!1}else b=!a||!a.message||"Error loading script"===a.message||q&gt;=l&amp;&amp;!m?!1:!0;if(!b)return null;q++;d=d||{};b=encodeURIComponent;var c="/gen_204?atyp=i&amp;ei="+b(google.kEI);google.kEXPI&amp;&amp;(c+="&amp;jexpid="+b(google.kEXPI));c+="&amp;srcpg="+b(google.sn)+"&amp;jsr="+b(t.jsr)+"&amp;bver="+b(t.bv);var f=a.lineNumber;void 0!==f&amp;&amp;(c+="&amp;line="+f);var g=
+a.fileName;g&amp;&amp;(0&lt;g.indexOf("-extension:/")&amp;&amp;(e=3),c+="&amp;script="+b(g),f&amp;&amp;g===window.location.href&amp;&amp;(f=document.documentElement.outerHTML.split("\n")[f],c+="&amp;cad="+b(f?f.substring(0,300):"No script found.")));c+="&amp;jsel="+e;for(var u in d)c+="&amp;",c+=b(u),c+="=",c+=b(d[u]);c=c+"&amp;emsg="+b(a.name+": "+a.message);c=c+"&amp;jsst="+b(a.stack||"N/A");12288&lt;=c.length&amp;&amp;(c=c.substr(0,12288));a=c;m||google.log(0,"",a);return a};window.onerror=function(a,b,d,m,e){r!==a&amp;&amp;(a=e instanceof Error?e:Error(a),void 0===d||"lineNumber"in a||(a.lineNumber=d),void 0===b||"fileName"in a||(a.fileName=b),google.ml(a,!1,void 0,!1,"SyntaxError"===a.name||"SyntaxError"===a.message.substring(0,11)||-1!==a.message.indexOf("Script error")?3:0));r=null;p&amp;&amp;q&gt;=l&amp;&amp;(window.onerror=null)};})();;this.gbar_={CONFIG:[[[0,"www.gstatic.com","og.qtm.en_US.5jB2FJqR1F4.O","pl","pl","538",0,[4,2,"","","","484929242","0"],null,"nbxjY431HMmExc8P87yYoAY",null,0,"og.qtm.8pE41sYUTwg.L.W.O","AA2YrTs00lPzmx9En6HZbOBSxvbnXpv0pA","AA2YrTuXeWsNpP9J282uZWD7GaEqvRiYYQ","",2,1,200,"POL",null,null,"1","538",1],null,[1,0.1000000014901161,2,1],[1,0.001000000047497451,1],[0,0,0,null,"","","",""],[0,0,"",1,0,0,0,0,0,0,null,0,0,null,0,0,null,null,0,0,0,"","","","","","",null,0,0,0,0,0,null,null,null,"rgba(32,33,36,1)","rgba(255,255,255,1)",0,0,1,null,null,1,0,0],null,null,["1","gci_91f30755d6a6b787dcc2a4062e6e9824.js","googleapis.client:gapi.iframes","","pl"],null,null,null,null,["m;/_/scs/abc-static/_/js/k=gapi.gapi.en.7I3T5S8x4Qg.O/d=1/rs=AHpOoo9SzNpm6HglASFo9cZ-GgP5E5f5WQ/m=__features__","https://apis.google.com","","","","",null,1,"es_plusone_gc_20221004.0_p0","pl",null,0],[0.009999999776482582,"pl","538",[null,"","0",null,1,5184000,null,null,"",null,null,null,null,null,0,null,0,0,1,0,0,0,null,null,0,0,null,0,0,0,0,0],null,null,null,0,null,null,["5061451","google\\.(com|ru|ca|by|kz|com\\.mx|com\\.tr)$",1]],[1,1,null,40400,538,"POL","pl","484929242.0",8,0.009999999776482582,0,0,null,null,null,null,"3700942",null,null,null,"nbxjY431HMmExc8P87yYoAY",0,0,0,null,2,5,"rd",184,0],[[null,null,null,"https://www.gstatic.com/og/_/js/k=og.qtm.en_US.5jB2FJqR1F4.O/rt=j/m=qabr,q_dnp,qcwid,qapid,qald/exm=qaaw,qadd,qaid,qein,qhaw,qhbr,qhch,qhga,qhid,qhin,qhpr/d=1/ed=1/rs=AA2YrTs00lPzmx9En6HZbOBSxvbnXpv0pA"],[null,null,null,"https://www.gstatic.com/og/_/ss/k=og.qtm.8pE41sYUTwg.L.W.O/m=qcwid/excm=qaaw,qadd,qaid,qein,qhaw,qhbr,qhch,qhga,qhid,qhin,qhpr/d=1/ed=1/ct=zgms/rs=AA2YrTuXeWsNpP9J282uZWD7GaEqvRiYYQ"]],null,null,null,[[[null,null,[null,null,null,"https://ogs.google.com/widget/app/so?eom=1"],0,448,328,57,4,1,0,0,63,64,8000,"https://www.google.pl/intl/pl/about/products",67,1,69,null,1,70,"Podczas wczytywania zestawu aplikacji wystąpił problem. Spróbuj ponownie za kilka minut lub przejdź na stronę %1$susług Google%2$s.",3,0,0,74,0,null,null,null,null,null,null,null,"/widget/app/so"]],0,[null,null,null,"https://www.gstatic.com/og/_/js/k=og.qtm.en_US.5jB2FJqR1F4.O/rt=j/m=qdsh/d=1/ed=1/rs=AA2YrTs00lPzmx9En6HZbOBSxvbnXpv0pA"],"1","538",1,0,null,"pl",0,null,0,0,0]]],};this.gbar_=this.gbar_||{};(function(_){var window=this;
+try{
+/*
+ Copyright The Closure Library Authors.
+ SPDX-License-Identifier: Apache-2.0
+*/
+var ka,wa,ya,za,Ca,Ea,Ga,Ha,La,Oa,Ka,Pa,Sa,Xa,Ya,Za,$a,ab,bb,db,eb,ib,jb;_.aa=function(a,b){if(Error.captureStackTrace)Error.captureStackTrace(this,_.aa);else{var c=Error().stack;c&amp;&amp;(this.stack=c)}a&amp;&amp;(this.message=String(a));void 0!==b&amp;&amp;(this.cause=b)};_.ba=function(){var a=_.n.navigator;return a&amp;&amp;(a=a.userAgent)?a:""};_.p=function(a){return-1!=_.ba().indexOf(a)};_.da=function(){return _.p("Opera")};_.ea=function(){return _.p("Trident")||_.p("MSIE")};_.fa=function(){return _.p("Firefox")||_.p("FxiOS")};
+_.ia=function(){return _.p("Safari")&amp;&amp;!(_.ha()||_.p("Coast")||_.da()||_.p("Edge")||_.p("Edg/")||_.p("OPR")||_.fa()||_.p("Silk")||_.p("Android"))};_.ha=function(){return(_.p("Chrome")||_.p("CriOS"))&amp;&amp;!_.p("Edge")||_.p("Silk")};_.ja=function(){return _.p("Android")&amp;&amp;!(_.ha()||_.fa()||_.da()||_.p("Silk"))};ka=function(){return _.p("iPhone")&amp;&amp;!_.p("iPod")&amp;&amp;!_.p("iPad")};_.la=function(){return ka()||_.p("iPad")||_.p("iPod")};
+_.ma=function(a){var b=a.length;if(0&lt;b){for(var c=Array(b),d=0;d&lt;b;d++)c[d]=a[d];return c}return[]};_.na=function(){return-1!=_.ba().toLowerCase().indexOf("webkit")&amp;&amp;!_.p("Edge")};_.pa=function(a){return oa&amp;&amp;null!=a&amp;&amp;a instanceof Uint8Array};_.ra=function(a,b){Object.isFrozen(a)||(qa?a[qa]|=b:void 0!==a.Sb?a.Sb|=b:Object.defineProperties(a,{Sb:{value:b,configurable:!0,writable:!0,enumerable:!1}}))};_.sa=function(a,b){Object.isExtensible(a)&amp;&amp;(qa?a[qa]&amp;&amp;(a[qa]&amp;=~b):void 0!==a.Sb&amp;&amp;(a.Sb&amp;=~b))};
+_.ta=function(a){var b;qa?b=a[qa]:b=a.Sb;return null==b?0:b};_.ua=function(a,b){qa?a[qa]=b:void 0!==a.Sb?a.Sb=b:Object.defineProperties(a,{Sb:{value:b,configurable:!0,writable:!0,enumerable:!1}})};_.va=function(a){_.ra(a,1);return a};wa=function(a){_.ra(a,17);return a};_.xa=function(a){return a?!!(_.ta(a)&amp;2):!1};ya=function(a,b){_.ua(b,(_.ta(a)|18)&amp;-33)};za=function(a){return null!==a&amp;&amp;"object"===typeof a&amp;&amp;!Array.isArray(a)&amp;&amp;a.constructor===Object};
+Ca=function(a){switch(typeof a){case "number":return isFinite(a)?a:String(a);case "object":if(a&amp;&amp;!Array.isArray(a)){if(_.pa(a))return _.Aa(a);if(a instanceof _.Ba){var b=a.Aa;return null==b?"":"string"===typeof b?b:a.Aa=_.Aa(b)}}}return a};Ea=function(a,b,c,d){if(null!=a){if(Array.isArray(a))a=_.Da(a,b,c,void 0!==d);else if(za(a)){var e={},f;for(f in a)e[f]=Ea(a[f],b,c,d);a=e}else a=b(a,d);return a}};
+_.Da=function(a,b,c,d){d=d?!!(_.ta(a)&amp;16):void 0;var e=Array.prototype.slice.call(a);c(a,e);for(a=0;a&lt;e.length;a++)e[a]=Ea(e[a],b,c,d);return e};Ga=function(a){return a.he===_.Fa?a.toJSON():Ca(a)};Ha=function(){};_.Ia=function(a,b){return null==a?b:a};La=function(a){if(_.xa(a)&amp;&amp;Object.isFrozen(a))return a;var b=_.Ja(a,Ka);ya(a,b);Object.freeze(b);return b};
+Oa=function(a,b){if(null!=a){if(oa&amp;&amp;a instanceof Uint8Array)return a.length?new _.Ba(new Uint8Array(a),_.Ma):_.Na();if(Array.isArray(a)){if(_.xa(a))return a;b&amp;&amp;(b=_.ta(a),b=!(b&amp;32)&amp;&amp;(!!(b&amp;16)||0===b));if(b)return _.ra(a,2),a;a=_.Da(a,Oa,ya);_.ta(a)&amp;4&amp;&amp;Object.freeze(a);return a}return a.he===_.Fa?Ka(a):a}};Ka=function(a){if(_.xa(a.na))return a;a=Pa(a);_.ra(a.na,2);return a};
+Pa=function(a){var b=new a.constructor;a.qc&amp;&amp;(b.qc=a.qc.slice());for(var c=a.na,d=!!(_.ta(c)&amp;16),e=0;e&lt;c.length;e++){var f=c[e];if(e===c.length-1&amp;&amp;za(f))for(var g in f){var h=+g;if(Number.isNaN(h))(b.Oa||(b.Oa=b.na[b.tc+b.nc]={}))[h]=f[h];else{var l=f[g],m=a.Wa&amp;&amp;a.Wa[h];m?_.Qa(b,h,La(m),!0):_.q(b,h,Oa(l,d),!0)}}else h=e-a.nc,(l=a.Wa&amp;&amp;a.Wa[h])?_.Qa(b,h,La(l),!1):_.q(b,h,Oa(f,d),!1)}return b};_.Ra=function(a){if(!_.xa(a.na))return a;var b=Pa(a);b.j=a;return b};Sa=function(a,b){return Ca(b)};
+_.t=function(a,b){return null!=a?!!a:!!b};_.u=function(a,b){void 0==b&amp;&amp;(b="");return null!=a?a:b};_.Ta=function(a,b){void 0==b&amp;&amp;(b=0);return null!=a?a:b};_.Ua=function(a,b,c){for(var d in a)b.call(c,a[d],d,a)};_.Wa=function(a,b){for(var c,d,e=1;e&lt;arguments.length;e++){d=arguments[e];for(c in d)a[c]=d[c];for(var f=0;f&lt;Va.length;f++)c=Va[f],Object.prototype.hasOwnProperty.call(d,c)&amp;&amp;(a[c]=d[c])}};Xa=function(a){var b=0;return function(){return b&lt;a.length?{done:!1,value:a[b++]}:{done:!0}}};
+Ya="function"==typeof Object.defineProperties?Object.defineProperty:function(a,b,c){if(a==Array.prototype||a==Object.prototype)return a;a[b]=c.value;return a};Za=function(a){a=["object"==typeof globalThis&amp;&amp;globalThis,a,"object"==typeof window&amp;&amp;window,"object"==typeof self&amp;&amp;self,"object"==typeof global&amp;&amp;global];for(var b=0;b&lt;a.length;++b){var c=a[b];if(c&amp;&amp;c.Math==Math)return c}throw Error("a");};$a=Za(this);
+ab=function(a,b){if(b)a:{var c=$a;a=a.split(".");for(var d=0;d&lt;a.length-1;d++){var e=a[d];if(!(e in c))break a;c=c[e]}a=a[a.length-1];d=c[a];b=b(d);b!=d&amp;&amp;null!=b&amp;&amp;Ya(c,a,{configurable:!0,writable:!0,value:b})}};
+ab("Symbol",function(a){if(a)return a;var b=function(f,g){this.j=f;Ya(this,"description",{configurable:!0,writable:!0,value:g})};b.prototype.toString=function(){return this.j};var c="jscomp_symbol_"+(1E9*Math.random()&gt;&gt;&gt;0)+"_",d=0,e=function(f){if(this instanceof e)throw new TypeError("b");return new b(c+(f||"")+"_"+d++,f)};return e});
+ab("Symbol.iterator",function(a){if(a)return a;a=Symbol("c");for(var b="Array Int8Array Uint8Array Uint8ClampedArray Int16Array Uint16Array Int32Array Uint32Array Float32Array Float64Array".split(" "),c=0;c&lt;b.length;c++){var d=$a[b[c]];"function"===typeof d&amp;&amp;"function"!=typeof d.prototype[a]&amp;&amp;Ya(d.prototype,a,{configurable:!0,writable:!0,value:function(){return bb(Xa(this))}})}return a});bb=function(a){a={next:a};a[Symbol.iterator]=function(){return this};return a};
+_.cb=function(a){var b="undefined"!=typeof Symbol&amp;&amp;Symbol.iterator&amp;&amp;a[Symbol.iterator];return b?b.call(a):{next:Xa(a)}};db="function"==typeof Object.create?Object.create:function(a){var b=function(){};b.prototype=a;return new b};if("function"==typeof Object.setPrototypeOf)eb=Object.setPrototypeOf;else{var fb;a:{var gb={a:!0},hb={};try{hb.__proto__=gb;fb=hb.a;break a}catch(a){}fb=!1}eb=fb?function(a,b){a.__proto__=b;if(a.__proto__!==b)throw new TypeError("d`"+a);return a}:null}ib=eb;
+_.w=function(a,b){a.prototype=db(b.prototype);a.prototype.constructor=a;if(ib)ib(a,b);else for(var c in b)if("prototype"!=c)if(Object.defineProperties){var d=Object.getOwnPropertyDescriptor(b,c);d&amp;&amp;Object.defineProperty(a,c,d)}else a[c]=b[c];a.Y=b.prototype};jb=function(a,b,c){if(null==a)throw new TypeError("e`"+c);if(b instanceof RegExp)throw new TypeError("f`"+c);return a+""};
+ab("String.prototype.startsWith",function(a){return a?a:function(b,c){var d=jb(this,b,"startsWith"),e=d.length,f=b.length;c=Math.max(0,Math.min(c|0,d.length));for(var g=0;g&lt;f&amp;&amp;c&lt;e;)if(d[c++]!=b[g++])return!1;return g&gt;=f}});ab("Array.prototype.find",function(a){return a?a:function(b,c){a:{var d=this;d instanceof String&amp;&amp;(d=String(d));for(var e=d.length,f=0;f&lt;e;f++){var g=d[f];if(b.call(c,g,f,d)){b=g;break a}}b=void 0}return b}});var kb=function(a,b){return Object.prototype.hasOwnProperty.call(a,b)};
+ab("WeakMap",function(a){function b(){}function c(l){var m=typeof l;return"object"===m&amp;&amp;null!==l||"function"===m}function d(l){if(!kb(l,f)){var m=new b;Ya(l,f,{value:m})}}function e(l){var m=Object[l];m&amp;&amp;(Object[l]=function(r){if(r instanceof b)return r;Object.isExtensible(r)&amp;&amp;d(r);return m(r)})}if(function(){if(!a||!Object.seal)return!1;try{var l=Object.seal({}),m=Object.seal({}),r=new a([[l,2],[m,3]]);if(2!=r.get(l)||3!=r.get(m))return!1;r.delete(l);r.set(m,4);return!r.has(l)&amp;&amp;4==r.get(m)}catch(v){return!1}}())return a;
+var f="$jscomp_hidden_"+Math.random();e("freeze");e("preventExtensions");e("seal");var g=0,h=function(l){this.j=(g+=Math.random()+1).toString();if(l){l=_.cb(l);for(var m;!(m=l.next()).done;)m=m.value,this.set(m[0],m[1])}};h.prototype.set=function(l,m){if(!c(l))throw Error("g");d(l);if(!kb(l,f))throw Error("h`"+l);l[f][this.j]=m;return this};h.prototype.get=function(l){return c(l)&amp;&amp;kb(l,f)?l[f][this.j]:void 0};h.prototype.has=function(l){return c(l)&amp;&amp;kb(l,f)&amp;&amp;kb(l[f],this.j)};h.prototype.delete=function(l){return c(l)&amp;&amp;
+kb(l,f)&amp;&amp;kb(l[f],this.j)?delete l[f][this.j]:!1};return h});
+ab("Map",function(a){if(function(){if(!a||"function"!=typeof a||!a.prototype.entries||"function"!=typeof Object.seal)return!1;try{var h=Object.seal({x:4}),l=new a(_.cb([[h,"s"]]));if("s"!=l.get(h)||1!=l.size||l.get({x:4})||l.set({x:4},"t")!=l||2!=l.size)return!1;var m=l.entries(),r=m.next();if(r.done||r.value[0]!=h||"s"!=r.value[1])return!1;r=m.next();return r.done||4!=r.value[0].x||"t"!=r.value[1]||!m.next().done?!1:!0}catch(v){return!1}}())return a;var b=new WeakMap,c=function(h){this.o={};this.j=
+f();this.size=0;if(h){h=_.cb(h);for(var l;!(l=h.next()).done;)l=l.value,this.set(l[0],l[1])}};c.prototype.set=function(h,l){h=0===h?0:h;var m=d(this,h);m.list||(m.list=this.o[m.id]=[]);m.Va?m.Va.value=l:(m.Va={next:this.j,lc:this.j.lc,head:this.j,key:h,value:l},m.list.push(m.Va),this.j.lc.next=m.Va,this.j.lc=m.Va,this.size++);return this};c.prototype.delete=function(h){h=d(this,h);return h.Va&amp;&amp;h.list?(h.list.splice(h.index,1),h.list.length||delete this.o[h.id],h.Va.lc.next=h.Va.next,h.Va.next.lc=
+h.Va.lc,h.Va.head=null,this.size--,!0):!1};c.prototype.clear=function(){this.o={};this.j=this.j.lc=f();this.size=0};c.prototype.has=function(h){return!!d(this,h).Va};c.prototype.get=function(h){return(h=d(this,h).Va)&amp;&amp;h.value};c.prototype.entries=function(){return e(this,function(h){return[h.key,h.value]})};c.prototype.keys=function(){return e(this,function(h){return h.key})};c.prototype.values=function(){return e(this,function(h){return h.value})};c.prototype.forEach=function(h,l){for(var m=this.entries(),
+r;!(r=m.next()).done;)r=r.value,h.call(l,r[1],r[0],this)};c.prototype[Symbol.iterator]=c.prototype.entries;var d=function(h,l){var m=l&amp;&amp;typeof l;"object"==m||"function"==m?b.has(l)?m=b.get(l):(m=""+ ++g,b.set(l,m)):m="p_"+l;var r=h.o[m];if(r&amp;&amp;kb(h.o,m))for(h=0;h&lt;r.length;h++){var v=r[h];if(l!==l&amp;&amp;v.key!==v.key||l===v.key)return{id:m,list:r,index:h,Va:v}}return{id:m,list:r,index:-1,Va:void 0}},e=function(h,l){var m=h.j;return bb(function(){if(m){for(;m.head!=h.j;)m=m.lc;for(;m.next!=m.head;)return m=
+m.next,{done:!1,value:l(m)};m=null}return{done:!0,value:void 0}})},f=function(){var h={};return h.lc=h.next=h.head=h},g=0;return c});ab("Number.MAX_SAFE_INTEGER",function(){return 9007199254740991});var lb=function(a,b){a instanceof String&amp;&amp;(a+="");var c=0,d=!1,e={next:function(){if(!d&amp;&amp;c&lt;a.length){var f=c++;return{value:b(f,a[f]),done:!1}}d=!0;return{done:!0,value:void 0}}};e[Symbol.iterator]=function(){return e};return e};
+ab("Array.prototype.entries",function(a){return a?a:function(){return lb(this,function(b,c){return[b,c]})}});ab("Array.from",function(a){return a?a:function(b,c,d){c=null!=c?c:function(h){return h};var e=[],f="undefined"!=typeof Symbol&amp;&amp;Symbol.iterator&amp;&amp;b[Symbol.iterator];if("function"==typeof f){b=f.call(b);for(var g=0;!(f=b.next()).done;)e.push(c.call(d,f.value,g++))}else for(f=b.length,g=0;g&lt;f;g++)e.push(c.call(d,b[g],g));return e}});
+ab("Array.prototype.keys",function(a){return a?a:function(){return lb(this,function(b){return b})}});ab("Number.isNaN",function(a){return a?a:function(b){return"number"===typeof b&amp;&amp;isNaN(b)}});ab("Array.prototype.fill",function(a){return a?a:function(b,c,d){var e=this.length||0;0&gt;c&amp;&amp;(c=Math.max(0,e+c));if(null==d||d&gt;e)d=e;d=Number(d);0&gt;d&amp;&amp;(d=Math.max(0,e+d));for(c=Number(c||0);c&lt;d;c++)this[c]=b;return this}});var mb=function(a){return a?a:Array.prototype.fill};ab("Int8Array.prototype.fill",mb);
+ab("Uint8Array.prototype.fill",mb);ab("Uint8ClampedArray.prototype.fill",mb);ab("Int16Array.prototype.fill",mb);ab("Uint16Array.prototype.fill",mb);ab("Int32Array.prototype.fill",mb);ab("Uint32Array.prototype.fill",mb);ab("Float32Array.prototype.fill",mb);ab("Float64Array.prototype.fill",mb);var nb="function"==typeof Object.assign?Object.assign:function(a,b){for(var c=1;c&lt;arguments.length;c++){var d=arguments[c];if(d)for(var e in d)kb(d,e)&amp;&amp;(a[e]=d[e])}return a};
+ab("Object.assign",function(a){return a||nb});ab("Object.entries",function(a){return a?a:function(b){var c=[],d;for(d in b)kb(b,d)&amp;&amp;c.push([d,b[d]]);return c}});ab("Array.prototype.values",function(a){return a?a:function(){return lb(this,function(b,c){return c})}});ab("Object.is",function(a){return a?a:function(b,c){return b===c?0!==b||1/b===1/c:b!==b&amp;&amp;c!==c}});
+ab("Array.prototype.includes",function(a){return a?a:function(b,c){var d=this;d instanceof String&amp;&amp;(d=String(d));var e=d.length;c=c</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>tak</t>
         </is>
       </c>
     </row>
@@ -497,7 +565,70 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="cfde2eb03d221df519c6bbb8efadc549", element="cf1233cb-482f-49c2-b3d5-0c28266c40a6")&gt;</t>
+          <t>(function(){window.google={kEI:'p7xjY4GeC7qDxc8PwYGM4AU',kEXPI:'31',kBL:'y__Z'};google.sn='webhp';google.kHL='pl';})();(function(){
+var f=this||self;var h,k=[];function l(a){for(var b;a&amp;&amp;(!a.getAttribute||!(b=a.getAttribute("eid")));)a=a.parentNode;return b||h}function m(a){for(var b=null;a&amp;&amp;(!a.getAttribute||!(b=a.getAttribute("leid")));)a=a.parentNode;return b}
+function n(a,b,c,d,g){var e="";c||-1!==b.search("&amp;ei=")||(e="&amp;ei="+l(d),-1===b.search("&amp;lei=")&amp;&amp;(d=m(d))&amp;&amp;(e+="&amp;lei="+d));d="";!c&amp;&amp;f._cshid&amp;&amp;-1===b.search("&amp;cshid=")&amp;&amp;"slh"!==a&amp;&amp;(d="&amp;cshid="+f._cshid);c=c||"/"+(g||"gen_204")+"?atyp=i&amp;ct="+a+"&amp;cad="+b+e+"&amp;zx="+Date.now()+d;/^http:/i.test(c)&amp;&amp;"https:"===window.location.protocol&amp;&amp;(google.ml&amp;&amp;google.ml(Error("a"),!1,{src:c,glmm:1}),c="");return c};h=google.kEI;google.getEI=l;google.getLEI=m;google.ml=function(){return null};google.log=function(a,b,c,d,g){if(c=n(a,b,c,d,g)){a=new Image;var e=k.length;k[e]=a;a.onerror=a.onload=a.onabort=function(){delete k[e]};a.src=c}};google.logUrl=n;}).call(this);(function(){
+google.y={};google.sy=[];google.x=function(a,b){if(a)var c=a.id;else{do c=Math.random();while(google.y[c])}google.y[c]=[a,b];return!1};google.sx=function(a){google.sy.push(a)};google.lm=[];google.plm=function(a){google.lm.push.apply(google.lm,a)};google.lq=[];google.load=function(a,b,c){google.lq.push([[a],b,c])};google.loadAll=function(a,b){google.lq.push([a,b])};google.bx=!1;google.lx=function(){};}).call(this);google.f={};(function(){
+document.documentElement.addEventListener("submit",function(b){var a;if(a=b.target){var c=a.getAttribute("data-submitfalse");a="1"===c||"q"===c&amp;&amp;!a.elements.q.value?!0:!1}else a=!1;a&amp;&amp;(b.preventDefault(),b.stopPropagation())},!0);document.documentElement.addEventListener("click",function(b){var a;a:{for(a=b.target;a&amp;&amp;a!==document.documentElement;a=a.parentElement)if("A"===a.tagName){a="1"===a.getAttribute("data-nohref");break a}a=!1}a&amp;&amp;b.preventDefault()},!0);}).call(this);(function(){google.hs={h:true,nhs:false,sie:false};})();(function(){google.c={ataf:false,btfi:false,cap:2000,fil:true,frt:false,gecoh:false,gl:true,lhc:false,llt:false,lrt:false,raf:false,sxs:false,taf:false,timl:false};})();(function(){
+var f=this||self;var g=window.performance;function h(a,b,d,c){a.addEventListener?a.addEventListener(b,d,c||!1):a.attachEvent&amp;&amp;a.attachEvent("on"+b,d)}function k(a,b,d,c){"addEventListener"in a?a.removeEventListener(b,d,c||!1):a.attachEvent&amp;&amp;a.detachEvent("on"+b,d)};google.c.iim=google.c.iim||{};function l(a){a&amp;&amp;f.google.aft(a.target)}var m;function n(){k(document.documentElement,"load",m,!0);k(document.documentElement,"error",m,!0)};google.timers={};google.startTick=function(a){google.timers[a]={t:{start:Date.now()},e:{},m:{}}};google.tick=function(a,b,d){google.timers[a]||google.startTick(a);d=void 0!==d?d:Date.now();b instanceof Array||(b=[b]);for(var c=0,e;e=b[c++];)google.timers[a].t[e]=d};google.c.e=function(a,b,d){google.timers[a].e[b]=d};google.c.b=function(a,b){b=google.timers[b||"load"].m;b[a]&amp;&amp;google.ml(Error("a"),!1,{m:a});b[a]=!0};google.c.u=function(a,b){var d=google.timers[b||"load"],c=d.m;if(c[a]){c[a]=!1;for(a in c)if(c[a])return;google.csiReport(d,"load2"===b?"all2":"all")}else{b="";for(var e in c)b+=e+":"+c[e]+";";google.ml(Error("b"),!1,{m:a,b:!1===c[a],s:b})}};google.rll=function(a,b,d){function c(e){d(e);k(a,"load",c);k(a,"error",c)}h(a,"load",c);b&amp;&amp;h(a,"error",c)};f.google.aft=function(a){a.setAttribute("data-iml",String(Date.now()))};google.startTick("load");var p=google.timers.load;a:{var q=p.t;if(g){var r=g.timing;if(r){var t=r.navigationStart,u=r.responseStart;if(u&gt;t&amp;&amp;u&lt;=q.start){q.start=u;p.wsrt=u-t;break a}}g.now&amp;&amp;(p.wsrt=Math.floor(g.now()))}}google.c.b("pr","load");google.c.b("xe","load");function v(a){if("hidden"===document.visibilityState){google.c.fh=a;var b;window.performance&amp;&amp;window.performance.timing&amp;&amp;(b=Math.floor(window.performance.timing.navigationStart+a));google.tick("load","fht",b);return!0}return!1}
+function w(a){v(a.timeStamp)&amp;&amp;k(document,"visibilitychange",w,!0)}google.c.fh=Infinity;h(document,"visibilitychange",w,!0);v(0);google.c.gl&amp;&amp;(m=l,h(document.documentElement,"load",m,!0),google.c.glu=n);}).call(this);(function(){
+function g(){return window.performance&amp;&amp;window.performance.navigation&amp;&amp;window.performance.navigation.type};function k(a,b){if(!a||m(a))return 0;if(!a.getBoundingClientRect)return 1;var c=function(d){return d.getBoundingClientRect()};return r(a,c,b)?0:t(a,c)}function r(a,b,c){a:{for(var d=a;d&amp;&amp;void 0!==d;d=d.parentElement)if("hidden"===d.style.overflow||c&amp;&amp;"G-EXPANDABLE-CONTENT"===d.tagName&amp;&amp;"hidden"===getComputedStyle(d).getPropertyValue("overflow")){c=d;break a}c=null}if(!c)return!1;a=b(a);b=b(c);return a.bottom&lt;b.top||a.top&gt;=b.bottom||a.right&lt;b.left||a.left&gt;=b.right}
+function m(a){return"none"===a.style.display?!0:document.defaultView&amp;&amp;document.defaultView.getComputedStyle?(a=document.defaultView.getComputedStyle(a),!!a&amp;&amp;("hidden"===a.visibility||"0px"===a.height&amp;&amp;"0px"===a.width)):!1}
+function t(a,b){var c=b(a);a=c.left+window.pageXOffset;b=c.top+window.pageYOffset;var d=c.width;c=c.height;var e=0;if(0&gt;=c&amp;&amp;0&gt;=d)return e;var f=window.innerHeight||document.documentElement.clientHeight;0&gt;b+c?e=2:b&gt;=f&amp;&amp;(e=4);if(0&gt;a+d||a&gt;=(window.innerWidth||document.documentElement.clientWidth))e|=8;e||(e=1,b+c&gt;f&amp;&amp;(e|=4));return e};var u=window.location,v="aft afti afts cbs cbt fht frt hct prt sct".split(" ");function w(a){return(a=u.search.match(new RegExp("[?&amp;]"+a+"=(\\d+)")))?Number(a[1]):-1}
+function x(a,b){var c=google.timers[b||"load"];b=c.m;if(!b||!b.prs){var d=g()?0:w("qsubts");0&lt;d&amp;&amp;(b=w("fbts"),0&lt;b&amp;&amp;(c.t.start=Math.max(d,b)));var e=c.t,f=e.start;b={wsrt:c.wsrt||0};if(f)for(var p=0,n;n=v[p++];){var l=e[n];l&amp;&amp;(b[n]=Math.max(l-f,0))}0&lt;d&amp;&amp;(b.gsasrt=c.t.start-d);c=c.e;a="/gen_204?s="+google.sn+"&amp;t="+a+"&amp;atyp=csi&amp;ei="+google.kEI+"&amp;rt=";d="";for(h in b)a+=""+d+h+"."+b[h],d=",";for(var q in c)a+="&amp;"+q+"="+c[q];window._cshid&amp;&amp;(a+="&amp;cshid="+window._cshid);2===g()&amp;&amp;(a+="&amp;bb=1");1===g()&amp;&amp;(a+=
+"&amp;r=1");if("gsasrt"in b){var h=w("qsd");0&lt;h&amp;&amp;(a+="&amp;qsd="+h)}google.kBL&amp;&amp;(a+="&amp;bl="+google.kBL);h=a;navigator.sendBeacon?navigator.sendBeacon(h,""):google.log("","",h)}};function y(a){a&amp;&amp;google.tick("load","cbs",a);google.tick("load","cbt");x("cap")};var z="src bsrc url ll image img-url".split(" ");function A(a){for(var b=0;b&lt;z.length;++b)if(a.getAttribute("data-"+z[b]))return!0;return!1}function B(a){var b=a.parentElement;if(b&amp;&amp;("G-IMG"===b.tagName||b.classList.contains("uhHOwf"))&amp;&amp;(b.style.height||b.style.width)){var c=b.getBoundingClientRect(),d=a.getBoundingClientRect();if(c.height&lt;=d.height||c.width&lt;=d.width)a=b}var e;return k(a,null==(e=google.c)?void 0:e.gecoh)}google.c.iim=google.c.iim||{};var C=window.innerHeight||document.documentElement.clientHeight,D=0,E=0,F=0,G=0,H=0,I=0,J=0,K=!0,L=!0,M=-1,N,P=google.c.sxs?"load2":"load";function Q(a,b,c,d){var e=google.timers[P].t[a];e&amp;&amp;(c||d&amp;&amp;null!=b&amp;&amp;b&lt;e)||google.tick(P,a,b)}function R(a,b,c){"1"===a.getAttribute("data-frt")&amp;&amp;(Q("frt",c,!1,!0),++G,S());b&amp;&amp;(Q("aft",c,!1,!0),Q("afti",c,!1,!0),++I,S());google.c.timl&amp;&amp;Q("iml",c,!1,!0);++E;a.setAttribute("data-frt","0");(google.c.timl||b)&amp;&amp;T()}
+function T(){var a=google.c.timl?E===D:H===I;!L&amp;&amp;a&amp;&amp;google.c.u("il",P)}
+function S(){if(!K){var a=I===H,b=G===F;a&amp;&amp;b&amp;&amp;(google.c.e(P,"ima",String(H)),google.c.e(P,"imad",String(J)),google.c.e(P,"aftp",String(Math.round(M))),document.getElementsByClassName("Ib7Efc").length&amp;&amp;google.c.e(P,"ddl","1"),N&amp;&amp;clearTimeout(N),x(google.c.sxs?"aft2":"aft",P));"hidden"===document.visibilityState&amp;&amp;google.c.e(P,"hddn","1");if(!google.c.sxs&amp;&amp;null!==google.aftq&amp;&amp;(2===google.fevent||3===google.fevent?google.fevent:1)&amp;((a?1:0)|(b?2:0))){google.tick("load","aftqf",Date.now());var c;for(a=
+0;b=null==(c=google.aftq)?void 0:c[a++];)try{b()}catch(d){google.ml(d,!1)}google.aftq=null}}}function U(a,b){0===b||b&amp;8||(a.setAttribute("data-frt","1"),++F)}if(0&lt;google.c.cap&amp;&amp;!google.c.sxs)a:{var V=google.c.cap;if(window.performance&amp;&amp;window.performance.timing&amp;&amp;"navigationStart"in window.performance.timing){var W=window.performance.now(),X=V-W;if(0&lt;X){N=setTimeout(y,X,Math.floor(window.performance.timing.navigationStart+W));break a}y()}N=void 0}google.c.wh=Math.floor(window.innerHeight||document.documentElement.clientHeight);google.c.e(P,"wh",String(google.c.wh));google.c.b("il",P);google.c.setup=function(a,b,c){var d=a.getAttribute("data-atf");if(d)return c=Number(d),b&amp;&amp;!a.hasAttribute("data-frt")&amp;&amp;U(a,c),c;var e="string"!==typeof a.src||!a.src,f=!!a.getAttribute("data-bsrc"),p=!!a.getAttribute("data-deferred"),n=!p&amp;&amp;A(a);n&amp;&amp;a.setAttribute("data-lzy_","1");d=B(a);a.setAttribute("data-atf",String(d));var l=!!(d&amp;1);e=(e||a.complete)&amp;&amp;!p&amp;&amp;!f&amp;&amp;!(l&amp;&amp;n);f=!google.c.lhc&amp;&amp;Number(a.getAttribute("data-iml"))||0;++D;if(e&amp;&amp;!f||a.hasAttribute("data-noaft"))a.setAttribute("data-frt","0"),++E;else{var q=google.c.btfi&amp;&amp;d&amp;4&amp;&amp;f&amp;&amp;M&lt;C;if(q){var h=a.getBoundingClientRect().top+window.pageYOffset;!c||h&lt;c?M=l?C:h:q=!1}l&amp;&amp;(++H,p&amp;&amp;++J);b&amp;&amp;U(a,d);q&amp;&amp;(Q("aft",f,!1,!0),Q("aftb",f,!1,!0));if(e&amp;&amp;f)R(a,l,google.c.btfi?0:f);else{l&amp;&amp;(!c||c&gt;=C)&amp;&amp;(M=C);var O=a.src;google.rll(a,!0,function(){google.c.fil&amp;&amp;(p||n)&amp;&amp;O&amp;&amp;O===a.src?google.rll(a,!0,function(){R(a,l,Date.now())}):R(a,l,Date.now())})}}return d};google.c.ubr=function(a,b,c,d){google.c.taf&amp;&amp;M&lt;C?(M=c||-1,Q("aft",b)):0&gt;M&amp;&amp;(c&amp;&amp;(M=c),google.c.btfi&amp;&amp;Q("aft",b));a||Q("afts",b,!0);d||(Q("aft",b,!0),K&amp;&amp;!google.c.frt&amp;&amp;(K=!1,S()),a&amp;&amp;L&amp;&amp;(Q("prt",b),google.c.timl&amp;&amp;Q("iml",b,!0),L=!1,T(),google.c.setup=function(){return 0},google.c.ubr=function(){}))};}).call(this);(function(){
+var b=[function(){google.tick&amp;&amp;google.tick("load","dcl")}];google.dclc=function(a){b.length?b.push(a):a()};function c(){for(var a=b.shift();a;)a(),a=b.shift()}window.addEventListener?(document.addEventListener("DOMContentLoaded",c,!1),window.addEventListener("load",c,!1)):window.attachEvent&amp;&amp;window.attachEvent("onload",c);}).call(this);(function(){
+var b=[];google.jsc={xx:b,x:function(a){b.push(a)},mm:[],m:function(a){google.jsc.mm.length||(google.jsc.mm=a)}};}).call(this);(function(){
+var e=this||self;
+var f={};function w(a,c){if(null===c)return!1;if("contains"in a&amp;&amp;1==c.nodeType)return a.contains(c);if("compareDocumentPosition"in a)return a==c||!!(a.compareDocumentPosition(c)&amp;16);for(;c&amp;&amp;a!=c;)c=c.parentNode;return c==a};var y=function(a,c){return function(d){d||(d=window.event);return c.call(a,d)}},z="undefined"!=typeof navigator&amp;&amp;/Macintosh/.test(navigator.userAgent),E=function(){this._mouseEventsPrevented=!0};var F=function(a){this.g=a;this.h=[]},G=function(a){for(var c=0;c&lt;a.h.length;++c){var d=a.g,b=a.h[c];d.removeEventListener?d.removeEventListener(b.eventType,b.o,b.capture):d.detachEvent&amp;&amp;d.detachEvent("on"+b.eventType,b.o)}a.h=[]};
+var H=e._jsa||{};H._cfc=void 0;H._aeh=void 0;var I=function(){this.h=this.g=null},K=function(a,c){var d=J;d.g=a;d.h=c;return d};I.prototype.i=function(){var a=this.g;this.g&amp;&amp;this.g!=this.h?this.g=this.g.__owner||this.g.parentNode:this.g=null;return a};var L=function(){var a;this.j=a=void 0===a?[]:a;this.g=0;this.h=null;this.l=!1},N=function(a,c){var d=M;d.j=a;d.g=0;d.h=c;d.l=!1;return d};L.prototype.i=function(){if(this.l)return J.i();if(this.g!=this.j.length){var a=this.j[this.g];this.g++;a!=this.h&amp;&amp;a&amp;&amp;a.__owner&amp;&amp;(this.l=!0,K(a.__owner,this.h));return a}return null};var J=new I,M=new L;
+var Q=function(){this.s=[];this.g=[];this.h=[];this.l={};this.i=null;this.j=[];P(this,"_custom")},R=function(a){return String.prototype.trim?a.trim():a.replace(/^\s+/,"").replace(/\s+$/,"")},ia=function(a,c){return function m(b,g){g=void 0===g?!0:g;var l=c;if("_custom"==l){l=b.detail;if(!l||!l._type)return;l=l._type}var k=l;"click"==k&amp;&amp;(z&amp;&amp;b.metaKey||!z&amp;&amp;b.ctrlKey||2==b.which||null==b.which&amp;&amp;4==b.button||b.shiftKey)?k="clickmod":"keydown"==k&amp;&amp;!b.a11ysc&amp;&amp;(k="maybe_click");var u=b.srcElement||b.target;l=S(k,b,u,"",null);var aa=b.path?N(b.path,this):b.composedPath?N(b.composedPath(),this):K(u,this);for(var r;r=aa.i();){var h=r;var p=void 0;r=h;var q=k,ba=b;var n=r.__jsaction;if(!n){var x;n=null;"getAttribute"in r&amp;&amp;(n=r.getAttribute("jsaction"));if(x=n){n=f[x];if(!n){n={};for(var A=x.split(ca),da=A?A.length:0,B=0;B&lt;da;B++){var v=A[B];if(v){var C=v.indexOf(":"),O=-1!=C,fa=O?R(v.substr(0,C)):ea;v=O?R(v.substr(C+1)):v;n[fa]=v}}f[x]=n}r.__jsaction=n}else n=ha,r.__jsaction=n}"maybe_click"==q&amp;&amp;n.click?(p=q,q="click"):"clickkey"==q?q="click":"click"!=q||n.click||(q="clickonly");p=H._cfc&amp;&amp;n.click?H._cfc(r,ba,n,q,p):{eventType:p?p:q,action:n[q]||"",event:null,ignore:!1};l=S(p.eventType,p.event||b,u,p.action||"",h,l.timeStamp);if(p.ignore||p.action)break}l&amp;&amp;"touchend"==l.eventType&amp;&amp;(l.event._preventMouseEvents=E);if(p&amp;&amp;p.action){if("mouseenter"==k||"mouseleave"==k||"pointerenter"==k||"pointerleave"==k)if(u=b.relatedTarget,!("mouseover"==b.type&amp;&amp;"mouseenter"==k||"mouseout"==b.type&amp;&amp;"mouseleave"==k||
+"pointerover"==b.type&amp;&amp;"pointerenter"==k||"pointerout"==b.type&amp;&amp;"pointerleave"==k)||u&amp;&amp;(u===h||w(h,u)))l.action="",l.actionElement=null;else{k={};for(var t in b)"function"!==typeof b[t]&amp;&amp;"srcElement"!==t&amp;&amp;"target"!==t&amp;&amp;(k[t]=b[t]);k.type="mouseover"==b.type?"mouseenter":"mouseout"==b.type?"mouseleave":"pointerover"==b.type?"pointerenter":"pointerleave";k.target=k.srcElement=h;k.bubbles=!1;l.event=k;l.targetElement=h}}else l.action="",l.actionElement=null;h=l;a.i&amp;&amp;!h.event.a11ysgd&amp;&amp;(t=S(h.eventType,h.event,h.targetElement,h.action,h.actionElement,h.timeStamp),"clickonly"==t.eventType&amp;&amp;(t.eventType="click"),a.i(t,!0));if(h.actionElement||"maybe_click"==h.eventType){if(a.i){if(!h.actionElement||"A"!=h.actionElement.tagName||"click"!=h.eventType&amp;&amp;"clickmod"!=h.eventType||(b.preventDefault?b.preventDefault():b.returnValue=!1),(b=a.i(h))&amp;&amp;g){m.call(this,b,!1);return}}else{if((g=e.document)&amp;&amp;!g.createEvent&amp;&amp;g.createEventObject)try{var D=g.createEventObject(b)}catch(la){D=b}else D=b;h.event=D;a.j.push(h)}H._aeh&amp;&amp;
+H._aeh(h)}}},S=function(a,c,d,b,g,m){return{eventType:a,event:c,targetElement:d,action:b,actionElement:g,timeStamp:m||Date.now()}},ja=function(a,c){return function(d){var b=a,g=c,m=!1;"mouseenter"==b?b="mouseover":"mouseleave"==b?b="mouseout":"pointerenter"==b?b="pointerover":"pointerleave"==b&amp;&amp;(b="pointerout");if(d.addEventListener){if("focus"==b||"blur"==b||"error"==b||"load"==b||"toggle"==b)m=!0;d.addEventListener(b,g,m)}else d.attachEvent&amp;&amp;("focus"==b?b="focusin":"blur"==b&amp;&amp;(b="focusout"),g=y(d,g),d.attachEvent("on"+b,g));return{eventType:b,o:g,capture:m}}},P=function(a,c){if(!a.l.hasOwnProperty(c)){var d=ia(a,c),b=ja(c,d);a.l[c]=d;a.s.push(b);for(d=0;d&lt;a.g.length;++d){var g=a.g[d];g.h.push(b.call(null,g.g))}"click"==c&amp;&amp;P(a,"keydown")}};Q.prototype.o=function(a){return this.l[a]};var W=function(a,c){var d=new F(c);a:{for(var b=0;b&lt;a.g.length;b++)if(T(a.g[b].g,c)){c=!0;break a}c=!1}if(c)return a.h.push(d),d;U(a,d);a.g.push(d);V(a);return d},V=function(a){for(var c=a.h.concat(a.g),d=[],b=[],g=0;g&lt;a.g.length;++g){var m=a.g[g];X(m,c)?(d.push(m),G(m)):b.push(m)}for(g=0;g&lt;a.h.length;++g)m=a.h[g],X(m,c)?d.push(m):(b.push(m),U(a,m));a.g=b;a.h=d},U=function(a,c){var d=c.g;ka&amp;&amp;(d.style.cursor="pointer");for(d=0;d&lt;a.s.length;++d)c.h.push(a.s[d].call(null,c.g))},Y=function(a,c){a.i=c;a.j&amp;&amp;(0&lt;a.j.length&amp;&amp;c(a.j),a.j=null)},X=function(a,c){for(var d=0;d&lt;c.length;++d)if(c[d].g!=a.g&amp;&amp;T(c[d].g,a.g))return!0;return!1},T=function(a,c){for(;a!=c&amp;&amp;c.parentNode;)c=c.parentNode;return a==c},ka="undefined"!=typeof navigator&amp;&amp;/iPhone|iPad|iPod/.test(navigator.userAgent),ca=/\s*;\s*/,ea="click",ha={};var Z=new Q;W(Z,window.document.documentElement);P(Z,"click");P(Z,"focus");P(Z,"focusin");P(Z,"blur");P(Z,"focusout");P(Z,"error");P(Z,"load");P(Z,"auxclick");P(Z,"change");P(Z,"dblclick");P(Z,"beforeinput");P(Z,"input");P(Z,"keyup");P(Z,"keydown");P(Z,"keypress");P(Z,"mousedown");P(Z,"mouseenter");P(Z,"mouseleave");P(Z,"mouseout");P(Z,"mouseover");P(Z,"mouseup");P(Z,"paste");P(Z,"touchstart");P(Z,"touchend");P(Z,"touchcancel");P(Z,"transitioncancel");P(Z,"transitionend");P(Z,"transitionrun");P(Z,"transitionstart");P(Z,"dragover");P(Z,"dragenter");P(Z,"dragleave");P(Z,"drop");P(Z,"dragstart");P(Z,"dragend");P(Z,"speech");(function(a){google.jsad=function(c){Y(a,c)};google.jsaac=function(c){return W(a,c)};google.jsarc=function(c){G(c);for(var d=!1,b=0;b&lt;a.g.length;++b)if(a.g[b]===c){a.g.splice(b,1);d=!0;break}if(!d)for(d=0;d&lt;a.h.length;++d)if(a.h[d]===c){a.h.splice(d,1);break}V(a)}})(Z);e.gws_wizbind=function(a){return{trigger:function(c){var d=a.o(c.type);d||(P(a,c.type),d=a.o(c.type));var b=c.target||c.srcElement;d&amp;&amp;d.call(b.ownerDocument.documentElement,c)},bind:function(c){Y(a,c)}}}(Z);}).call(this);(function(){window._skwEvts=[];})();(function(){window.google.erd={jsr:1,bv:1681,sd:true,de:true};})();(function(){var sdo=false;var mei=10;
+var h=this||self;var k,l=null!=(k=h.mei)?k:1,n,p=null!=(n=h.sdo)?n:!0,q=0,r,t=google.erd,v=t.jsr;google.ml=function(a,b,d,m,e){e=void 0===e?2:e;b&amp;&amp;(r=a&amp;&amp;a.message);if(google.dl)return google.dl(a,e,d),null;if(0&gt;v){window.console&amp;&amp;console.error(a,d);if(-2===v)throw a;b=!1}else b=!a||!a.message||"Error loading script"===a.message||q&gt;=l&amp;&amp;!m?!1:!0;if(!b)return null;q++;d=d||{};b=encodeURIComponent;var c="/gen_204?atyp=i&amp;ei="+b(google.kEI);google.kEXPI&amp;&amp;(c+="&amp;jexpid="+b(google.kEXPI));c+="&amp;srcpg="+b(google.sn)+"&amp;jsr="+b(t.jsr)+"&amp;bver="+b(t.bv);var f=a.lineNumber;void 0!==f&amp;&amp;(c+="&amp;line="+f);var g=
+a.fileName;g&amp;&amp;(0&lt;g.indexOf("-extension:/")&amp;&amp;(e=3),c+="&amp;script="+b(g),f&amp;&amp;g===window.location.href&amp;&amp;(f=document.documentElement.outerHTML.split("\n")[f],c+="&amp;cad="+b(f?f.substring(0,300):"No script found.")));c+="&amp;jsel="+e;for(var u in d)c+="&amp;",c+=b(u),c+="=",c+=b(d[u]);c=c+"&amp;emsg="+b(a.name+": "+a.message);c=c+"&amp;jsst="+b(a.stack||"N/A");12288&lt;=c.length&amp;&amp;(c=c.substr(0,12288));a=c;m||google.log(0,"",a);return a};window.onerror=function(a,b,d,m,e){r!==a&amp;&amp;(a=e instanceof Error?e:Error(a),void 0===d||"lineNumber"in a||(a.lineNumber=d),void 0===b||"fileName"in a||(a.fileName=b),google.ml(a,!1,void 0,!1,"SyntaxError"===a.name||"SyntaxError"===a.message.substring(0,11)||-1!==a.message.indexOf("Script error")?3:0));r=null;p&amp;&amp;q&gt;=l&amp;&amp;(window.onerror=null)};})();;this.gbar_={CONFIG:[[[0,"www.gstatic.com","og.qtm.en_US.5jB2FJqR1F4.O","pl","pl","538",0,[4,2,"","","","484929242","0"],null,"p7xjY8CsDNKAxc8PtrCOoAE",null,0,"og.qtm.8pE41sYUTwg.L.W.O","AA2YrTs00lPzmx9En6HZbOBSxvbnXpv0pA","AA2YrTuXeWsNpP9J282uZWD7GaEqvRiYYQ","",2,1,200,"POL",null,null,"1","538",1],null,[1,0.1000000014901161,2,1],[1,0.001000000047497451,1],[0,0,0,null,"","","",""],[0,0,"",1,0,0,0,0,0,0,null,0,0,null,0,0,null,null,0,0,0,"","","","","","",null,0,0,0,0,0,null,null,null,"rgba(32,33,36,1)","rgba(255,255,255,1)",0,0,1,null,null,1,0,0],null,null,["1","gci_91f30755d6a6b787dcc2a4062e6e9824.js","googleapis.client:gapi.iframes","","pl"],null,null,null,null,["m;/_/scs/abc-static/_/js/k=gapi.gapi.en.7I3T5S8x4Qg.O/d=1/rs=AHpOoo9SzNpm6HglASFo9cZ-GgP5E5f5WQ/m=__features__","https://apis.google.com","","","","",null,1,"es_plusone_gc_20221004.0_p0","pl",null,0],[0.009999999776482582,"pl","538",[null,"","0",null,1,5184000,null,null,"",null,null,null,null,null,0,null,0,0,1,0,0,0,null,null,0,0,null,0,0,0,0,0],null,null,null,0,null,null,["5061451","google\\.(com|ru|ca|by|kz|com\\.mx|com\\.tr)$",1]],[1,1,null,40400,538,"POL","pl","484929242.0",8,0.009999999776482582,0,0,null,null,null,null,"",null,null,null,"p7xjY8CsDNKAxc8PtrCOoAE",0,0,0,null,2,5,"rd",48,0],[[null,null,null,"https://www.gstatic.com/og/_/js/k=og.qtm.en_US.5jB2FJqR1F4.O/rt=j/m=qabr,q_dnp,qcwid,qapid,qald/exm=qaaw,qadd,qaid,qein,qhaw,qhbr,qhch,qhga,qhid,qhin,qhpr/d=1/ed=1/rs=AA2YrTs00lPzmx9En6HZbOBSxvbnXpv0pA"],[null,null,null,"https://www.gstatic.com/og/_/ss/k=og.qtm.8pE41sYUTwg.L.W.O/m=qcwid/excm=qaaw,qadd,qaid,qein,qhaw,qhbr,qhch,qhga,qhid,qhin,qhpr/d=1/ed=1/ct=zgms/rs=AA2YrTuXeWsNpP9J282uZWD7GaEqvRiYYQ"]],null,null,null,[[[null,null,[null,null,null,"https://ogs.google.com/widget/app/so?eom=1"],0,448,328,57,4,1,0,0,63,64,8000,"https://www.google.pl/intl/pl/about/products",67,1,69,null,1,70,"Podczas wczytywania zestawu aplikacji wystąpił problem. Spróbuj ponownie za kilka minut lub przejdź na stronę %1$susług Google%2$s.",3,0,0,74,0,null,null,null,null,null,null,null,"/widget/app/so"]],0,[null,null,null,"https://www.gstatic.com/og/_/js/k=og.qtm.en_US.5jB2FJqR1F4.O/rt=j/m=qdsh/d=1/ed=1/rs=AA2YrTs00lPzmx9En6HZbOBSxvbnXpv0pA"],"1","538",1,0,null,"pl",0,null,0,0,0]]],};this.gbar_=this.gbar_||{};(function(_){var window=this;
+try{
+/*
+ Copyright The Closure Library Authors.
+ SPDX-License-Identifier: Apache-2.0
+*/
+var ka,wa,ya,za,Ca,Ea,Ga,Ha,La,Oa,Ka,Pa,Sa,Xa,Ya,Za,$a,ab,bb,db,eb,ib,jb;_.aa=function(a,b){if(Error.captureStackTrace)Error.captureStackTrace(this,_.aa);else{var c=Error().stack;c&amp;&amp;(this.stack=c)}a&amp;&amp;(this.message=String(a));void 0!==b&amp;&amp;(this.cause=b)};_.ba=function(){var a=_.n.navigator;return a&amp;&amp;(a=a.userAgent)?a:""};_.p=function(a){return-1!=_.ba().indexOf(a)};_.da=function(){return _.p("Opera")};_.ea=function(){return _.p("Trident")||_.p("MSIE")};_.fa=function(){return _.p("Firefox")||_.p("FxiOS")};
+_.ia=function(){return _.p("Safari")&amp;&amp;!(_.ha()||_.p("Coast")||_.da()||_.p("Edge")||_.p("Edg/")||_.p("OPR")||_.fa()||_.p("Silk")||_.p("Android"))};_.ha=function(){return(_.p("Chrome")||_.p("CriOS"))&amp;&amp;!_.p("Edge")||_.p("Silk")};_.ja=function(){return _.p("Android")&amp;&amp;!(_.ha()||_.fa()||_.da()||_.p("Silk"))};ka=function(){return _.p("iPhone")&amp;&amp;!_.p("iPod")&amp;&amp;!_.p("iPad")};_.la=function(){return ka()||_.p("iPad")||_.p("iPod")};
+_.ma=function(a){var b=a.length;if(0&lt;b){for(var c=Array(b),d=0;d&lt;b;d++)c[d]=a[d];return c}return[]};_.na=function(){return-1!=_.ba().toLowerCase().indexOf("webkit")&amp;&amp;!_.p("Edge")};_.pa=function(a){return oa&amp;&amp;null!=a&amp;&amp;a instanceof Uint8Array};_.ra=function(a,b){Object.isFrozen(a)||(qa?a[qa]|=b:void 0!==a.Sb?a.Sb|=b:Object.defineProperties(a,{Sb:{value:b,configurable:!0,writable:!0,enumerable:!1}}))};_.sa=function(a,b){Object.isExtensible(a)&amp;&amp;(qa?a[qa]&amp;&amp;(a[qa]&amp;=~b):void 0!==a.Sb&amp;&amp;(a.Sb&amp;=~b))};
+_.ta=function(a){var b;qa?b=a[qa]:b=a.Sb;return null==b?0:b};_.ua=function(a,b){qa?a[qa]=b:void 0!==a.Sb?a.Sb=b:Object.defineProperties(a,{Sb:{value:b,configurable:!0,writable:!0,enumerable:!1}})};_.va=function(a){_.ra(a,1);return a};wa=function(a){_.ra(a,17);return a};_.xa=function(a){return a?!!(_.ta(a)&amp;2):!1};ya=function(a,b){_.ua(b,(_.ta(a)|18)&amp;-33)};za=function(a){return null!==a&amp;&amp;"object"===typeof a&amp;&amp;!Array.isArray(a)&amp;&amp;a.constructor===Object};
+Ca=function(a){switch(typeof a){case "number":return isFinite(a)?a:String(a);case "object":if(a&amp;&amp;!Array.isArray(a)){if(_.pa(a))return _.Aa(a);if(a instanceof _.Ba){var b=a.Aa;return null==b?"":"string"===typeof b?b:a.Aa=_.Aa(b)}}}return a};Ea=function(a,b,c,d){if(null!=a){if(Array.isArray(a))a=_.Da(a,b,c,void 0!==d);else if(za(a)){var e={},f;for(f in a)e[f]=Ea(a[f],b,c,d);a=e}else a=b(a,d);return a}};
+_.Da=function(a,b,c,d){d=d?!!(_.ta(a)&amp;16):void 0;var e=Array.prototype.slice.call(a);c(a,e);for(a=0;a&lt;e.length;a++)e[a]=Ea(e[a],b,c,d);return e};Ga=function(a){return a.he===_.Fa?a.toJSON():Ca(a)};Ha=function(){};_.Ia=function(a,b){return null==a?b:a};La=function(a){if(_.xa(a)&amp;&amp;Object.isFrozen(a))return a;var b=_.Ja(a,Ka);ya(a,b);Object.freeze(b);return b};
+Oa=function(a,b){if(null!=a){if(oa&amp;&amp;a instanceof Uint8Array)return a.length?new _.Ba(new Uint8Array(a),_.Ma):_.Na();if(Array.isArray(a)){if(_.xa(a))return a;b&amp;&amp;(b=_.ta(a),b=!(b&amp;32)&amp;&amp;(!!(b&amp;16)||0===b));if(b)return _.ra(a,2),a;a=_.Da(a,Oa,ya);_.ta(a)&amp;4&amp;&amp;Object.freeze(a);return a}return a.he===_.Fa?Ka(a):a}};Ka=function(a){if(_.xa(a.na))return a;a=Pa(a);_.ra(a.na,2);return a};
+Pa=function(a){var b=new a.constructor;a.qc&amp;&amp;(b.qc=a.qc.slice());for(var c=a.na,d=!!(_.ta(c)&amp;16),e=0;e&lt;c.length;e++){var f=c[e];if(e===c.length-1&amp;&amp;za(f))for(var g in f){var h=+g;if(Number.isNaN(h))(b.Oa||(b.Oa=b.na[b.tc+b.nc]={}))[h]=f[h];else{var l=f[g],m=a.Wa&amp;&amp;a.Wa[h];m?_.Qa(b,h,La(m),!0):_.q(b,h,Oa(l,d),!0)}}else h=e-a.nc,(l=a.Wa&amp;&amp;a.Wa[h])?_.Qa(b,h,La(l),!1):_.q(b,h,Oa(f,d),!1)}return b};_.Ra=function(a){if(!_.xa(a.na))return a;var b=Pa(a);b.j=a;return b};Sa=function(a,b){return Ca(b)};
+_.t=function(a,b){return null!=a?!!a:!!b};_.u=function(a,b){void 0==b&amp;&amp;(b="");return null!=a?a:b};_.Ta=function(a,b){void 0==b&amp;&amp;(b=0);return null!=a?a:b};_.Ua=function(a,b,c){for(var d in a)b.call(c,a[d],d,a)};_.Wa=function(a,b){for(var c,d,e=1;e&lt;arguments.length;e++){d=arguments[e];for(c in d)a[c]=d[c];for(var f=0;f&lt;Va.length;f++)c=Va[f],Object.prototype.hasOwnProperty.call(d,c)&amp;&amp;(a[c]=d[c])}};Xa=function(a){var b=0;return function(){return b&lt;a.length?{done:!1,value:a[b++]}:{done:!0}}};
+Ya="function"==typeof Object.defineProperties?Object.defineProperty:function(a,b,c){if(a==Array.prototype||a==Object.prototype)return a;a[b]=c.value;return a};Za=function(a){a=["object"==typeof globalThis&amp;&amp;globalThis,a,"object"==typeof window&amp;&amp;window,"object"==typeof self&amp;&amp;self,"object"==typeof global&amp;&amp;global];for(var b=0;b&lt;a.length;++b){var c=a[b];if(c&amp;&amp;c.Math==Math)return c}throw Error("a");};$a=Za(this);
+ab=function(a,b){if(b)a:{var c=$a;a=a.split(".");for(var d=0;d&lt;a.length-1;d++){var e=a[d];if(!(e in c))break a;c=c[e]}a=a[a.length-1];d=c[a];b=b(d);b!=d&amp;&amp;null!=b&amp;&amp;Ya(c,a,{configurable:!0,writable:!0,value:b})}};
+ab("Symbol",function(a){if(a)return a;var b=function(f,g){this.j=f;Ya(this,"description",{configurable:!0,writable:!0,value:g})};b.prototype.toString=function(){return this.j};var c="jscomp_symbol_"+(1E9*Math.random()&gt;&gt;&gt;0)+"_",d=0,e=function(f){if(this instanceof e)throw new TypeError("b");return new b(c+(f||"")+"_"+d++,f)};return e});
+ab("Symbol.iterator",function(a){if(a)return a;a=Symbol("c");for(var b="Array Int8Array Uint8Array Uint8ClampedArray Int16Array Uint16Array Int32Array Uint32Array Float32Array Float64Array".split(" "),c=0;c&lt;b.length;c++){var d=$a[b[c]];"function"===typeof d&amp;&amp;"function"!=typeof d.prototype[a]&amp;&amp;Ya(d.prototype,a,{configurable:!0,writable:!0,value:function(){return bb(Xa(this))}})}return a});bb=function(a){a={next:a};a[Symbol.iterator]=function(){return this};return a};
+_.cb=function(a){var b="undefined"!=typeof Symbol&amp;&amp;Symbol.iterator&amp;&amp;a[Symbol.iterator];return b?b.call(a):{next:Xa(a)}};db="function"==typeof Object.create?Object.create:function(a){var b=function(){};b.prototype=a;return new b};if("function"==typeof Object.setPrototypeOf)eb=Object.setPrototypeOf;else{var fb;a:{var gb={a:!0},hb={};try{hb.__proto__=gb;fb=hb.a;break a}catch(a){}fb=!1}eb=fb?function(a,b){a.__proto__=b;if(a.__proto__!==b)throw new TypeError("d`"+a);return a}:null}ib=eb;
+_.w=function(a,b){a.prototype=db(b.prototype);a.prototype.constructor=a;if(ib)ib(a,b);else for(var c in b)if("prototype"!=c)if(Object.defineProperties){var d=Object.getOwnPropertyDescriptor(b,c);d&amp;&amp;Object.defineProperty(a,c,d)}else a[c]=b[c];a.Y=b.prototype};jb=function(a,b,c){if(null==a)throw new TypeError("e`"+c);if(b instanceof RegExp)throw new TypeError("f`"+c);return a+""};
+ab("String.prototype.startsWith",function(a){return a?a:function(b,c){var d=jb(this,b,"startsWith"),e=d.length,f=b.length;c=Math.max(0,Math.min(c|0,d.length));for(var g=0;g&lt;f&amp;&amp;c&lt;e;)if(d[c++]!=b[g++])return!1;return g&gt;=f}});ab("Array.prototype.find",function(a){return a?a:function(b,c){a:{var d=this;d instanceof String&amp;&amp;(d=String(d));for(var e=d.length,f=0;f&lt;e;f++){var g=d[f];if(b.call(c,g,f,d)){b=g;break a}}b=void 0}return b}});var kb=function(a,b){return Object.prototype.hasOwnProperty.call(a,b)};
+ab("WeakMap",function(a){function b(){}function c(l){var m=typeof l;return"object"===m&amp;&amp;null!==l||"function"===m}function d(l){if(!kb(l,f)){var m=new b;Ya(l,f,{value:m})}}function e(l){var m=Object[l];m&amp;&amp;(Object[l]=function(r){if(r instanceof b)return r;Object.isExtensible(r)&amp;&amp;d(r);return m(r)})}if(function(){if(!a||!Object.seal)return!1;try{var l=Object.seal({}),m=Object.seal({}),r=new a([[l,2],[m,3]]);if(2!=r.get(l)||3!=r.get(m))return!1;r.delete(l);r.set(m,4);return!r.has(l)&amp;&amp;4==r.get(m)}catch(v){return!1}}())return a;
+var f="$jscomp_hidden_"+Math.random();e("freeze");e("preventExtensions");e("seal");var g=0,h=function(l){this.j=(g+=Math.random()+1).toString();if(l){l=_.cb(l);for(var m;!(m=l.next()).done;)m=m.value,this.set(m[0],m[1])}};h.prototype.set=function(l,m){if(!c(l))throw Error("g");d(l);if(!kb(l,f))throw Error("h`"+l);l[f][this.j]=m;return this};h.prototype.get=function(l){return c(l)&amp;&amp;kb(l,f)?l[f][this.j]:void 0};h.prototype.has=function(l){return c(l)&amp;&amp;kb(l,f)&amp;&amp;kb(l[f],this.j)};h.prototype.delete=function(l){return c(l)&amp;&amp;
+kb(l,f)&amp;&amp;kb(l[f],this.j)?delete l[f][this.j]:!1};return h});
+ab("Map",function(a){if(function(){if(!a||"function"!=typeof a||!a.prototype.entries||"function"!=typeof Object.seal)return!1;try{var h=Object.seal({x:4}),l=new a(_.cb([[h,"s"]]));if("s"!=l.get(h)||1!=l.size||l.get({x:4})||l.set({x:4},"t")!=l||2!=l.size)return!1;var m=l.entries(),r=m.next();if(r.done||r.value[0]!=h||"s"!=r.value[1])return!1;r=m.next();return r.done||4!=r.value[0].x||"t"!=r.value[1]||!m.next().done?!1:!0}catch(v){return!1}}())return a;var b=new WeakMap,c=function(h){this.o={};this.j=
+f();this.size=0;if(h){h=_.cb(h);for(var l;!(l=h.next()).done;)l=l.value,this.set(l[0],l[1])}};c.prototype.set=function(h,l){h=0===h?0:h;var m=d(this,h);m.list||(m.list=this.o[m.id]=[]);m.Va?m.Va.value=l:(m.Va={next:this.j,lc:this.j.lc,head:this.j,key:h,value:l},m.list.push(m.Va),this.j.lc.next=m.Va,this.j.lc=m.Va,this.size++);return this};c.prototype.delete=function(h){h=d(this,h);return h.Va&amp;&amp;h.list?(h.list.splice(h.index,1),h.list.length||delete this.o[h.id],h.Va.lc.next=h.Va.next,h.Va.next.lc=
+h.Va.lc,h.Va.head=null,this.size--,!0):!1};c.prototype.clear=function(){this.o={};this.j=this.j.lc=f();this.size=0};c.prototype.has=function(h){return!!d(this,h).Va};c.prototype.get=function(h){return(h=d(this,h).Va)&amp;&amp;h.value};c.prototype.entries=function(){return e(this,function(h){return[h.key,h.value]})};c.prototype.keys=function(){return e(this,function(h){return h.key})};c.prototype.values=function(){return e(this,function(h){return h.value})};c.prototype.forEach=function(h,l){for(var m=this.entries(),
+r;!(r=m.next()).done;)r=r.value,h.call(l,r[1],r[0],this)};c.prototype[Symbol.iterator]=c.prototype.entries;var d=function(h,l){var m=l&amp;&amp;typeof l;"object"==m||"function"==m?b.has(l)?m=b.get(l):(m=""+ ++g,b.set(l,m)):m="p_"+l;var r=h.o[m];if(r&amp;&amp;kb(h.o,m))for(h=0;h&lt;r.length;h++){var v=r[h];if(l!==l&amp;&amp;v.key!==v.key||l===v.key)return{id:m,list:r,index:h,Va:v}}return{id:m,list:r,index:-1,Va:void 0}},e=function(h,l){var m=h.j;return bb(function(){if(m){for(;m.head!=h.j;)m=m.lc;for(;m.next!=m.head;)return m=
+m.next,{done:!1,value:l(m)};m=null}return{done:!0,value:void 0}})},f=function(){var h={};return h.lc=h.next=h.head=h},g=0;return c});ab("Number.MAX_SAFE_INTEGER",function(){return 9007199254740991});var lb=function(a,b){a instanceof String&amp;&amp;(a+="");var c=0,d=!1,e={next:function(){if(!d&amp;&amp;c&lt;a.length){var f=c++;return{value:b(f,a[f]),done:!1}}d=!0;return{done:!0,value:void 0}}};e[Symbol.iterator]=function(){return e};return e};
+ab("Array.prototype.entries",function(a){return a?a:function(){return lb(this,function(b,c){return[b,c]})}});ab("Array.from",function(a){return a?a:function(b,c,d){c=null!=c?c:function(h){return h};var e=[],f="undefined"!=typeof Symbol&amp;&amp;Symbol.iterator&amp;&amp;b[Symbol.iterator];if("function"==typeof f){b=f.call(b);for(var g=0;!(f=b.next()).done;)e.push(c.call(d,f.value,g++))}else for(f=b.length,g=0;g&lt;f;g++)e.push(c.call(d,b[g],g));return e}});
+ab("Array.prototype.keys",function(a){return a?a:function(){return lb(this,function(b){return b})}});ab("Number.isNaN",function(a){return a?a:function(b){return"number"===typeof b&amp;&amp;isNaN(b)}});ab("Array.prototype.fill",function(a){return a?a:function(b,c,d){var e=this.length||0;0&gt;c&amp;&amp;(c=Math.max(0,e+c));if(null==d||d&gt;e)d=e;d=Number(d);0&gt;d&amp;&amp;(d=Math.max(0,e+d));for(c=Number(c||0);c&lt;d;c++)this[c]=b;return this}});var mb=function(a){return a?a:Array.prototype.fill};ab("Int8Array.prototype.fill",mb);
+ab("Uint8Array.prototype.fill",mb);ab("Uint8ClampedArray.prototype.fill",mb);ab("Int16Array.prototype.fill",mb);ab("Uint16Array.prototype.fill",mb);ab("Int32Array.prototype.fill",mb);ab("Uint32Array.prototype.fill",mb);ab("Float32Array.prototype.fill",mb);ab("Float64Array.prototype.fill",mb);var nb="function"==typeof Object.assign?Object.assign:function(a,b){for(var c=1;c&lt;arguments.length;c++){var d=arguments[c];if(d)for(var e in d)kb(d,e)&amp;&amp;(a[e]=d[e])}return a};
+ab("Object.assign",function(a){return a||nb});ab("Object.entries",function(a){return a?a:function(b){var c=[],d;for(d in b)kb(b,d)&amp;&amp;c.push([d,b[d]]);return c}});ab("Array.prototype.values",function(a){return a?a:function(){return lb(this,function(b,c){return c})}});ab("Object.is",function(a){return a?a:function(b,c){return b===c?0!==b||1/b===1/c:b!==b&amp;&amp;c!==c}});
+ab("Array.prototype.includes",function(a){return a?a:function(b,c){var d=this;d instanceof String&amp;&amp;(d=String(d));var e=d.length;c=c||0;for(</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>tak</t>
         </is>
       </c>
     </row>
@@ -520,7 +651,70 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="f0f23dcac14c9de79edf27c1f5f84333", element="ff87e12e-133b-4020-9fbf-8bc106b892c6")&gt;</t>
+          <t>(function(){window.google={kEI:'sLxjY8fXBruBxc8Pi-KOiAo',kEXPI:'31',kBL:'y__Z'};google.sn='webhp';google.kHL='pl';})();(function(){
+var f=this||self;var h,k=[];function l(a){for(var b;a&amp;&amp;(!a.getAttribute||!(b=a.getAttribute("eid")));)a=a.parentNode;return b||h}function m(a){for(var b=null;a&amp;&amp;(!a.getAttribute||!(b=a.getAttribute("leid")));)a=a.parentNode;return b}
+function n(a,b,c,d,g){var e="";c||-1!==b.search("&amp;ei=")||(e="&amp;ei="+l(d),-1===b.search("&amp;lei=")&amp;&amp;(d=m(d))&amp;&amp;(e+="&amp;lei="+d));d="";!c&amp;&amp;f._cshid&amp;&amp;-1===b.search("&amp;cshid=")&amp;&amp;"slh"!==a&amp;&amp;(d="&amp;cshid="+f._cshid);c=c||"/"+(g||"gen_204")+"?atyp=i&amp;ct="+a+"&amp;cad="+b+e+"&amp;zx="+Date.now()+d;/^http:/i.test(c)&amp;&amp;"https:"===window.location.protocol&amp;&amp;(google.ml&amp;&amp;google.ml(Error("a"),!1,{src:c,glmm:1}),c="");return c};h=google.kEI;google.getEI=l;google.getLEI=m;google.ml=function(){return null};google.log=function(a,b,c,d,g){if(c=n(a,b,c,d,g)){a=new Image;var e=k.length;k[e]=a;a.onerror=a.onload=a.onabort=function(){delete k[e]};a.src=c}};google.logUrl=n;}).call(this);(function(){
+google.y={};google.sy=[];google.x=function(a,b){if(a)var c=a.id;else{do c=Math.random();while(google.y[c])}google.y[c]=[a,b];return!1};google.sx=function(a){google.sy.push(a)};google.lm=[];google.plm=function(a){google.lm.push.apply(google.lm,a)};google.lq=[];google.load=function(a,b,c){google.lq.push([[a],b,c])};google.loadAll=function(a,b){google.lq.push([a,b])};google.bx=!1;google.lx=function(){};}).call(this);google.f={};(function(){
+document.documentElement.addEventListener("submit",function(b){var a;if(a=b.target){var c=a.getAttribute("data-submitfalse");a="1"===c||"q"===c&amp;&amp;!a.elements.q.value?!0:!1}else a=!1;a&amp;&amp;(b.preventDefault(),b.stopPropagation())},!0);document.documentElement.addEventListener("click",function(b){var a;a:{for(a=b.target;a&amp;&amp;a!==document.documentElement;a=a.parentElement)if("A"===a.tagName){a="1"===a.getAttribute("data-nohref");break a}a=!1}a&amp;&amp;b.preventDefault()},!0);}).call(this);(function(){google.hs={h:true,nhs:false,sie:false};})();(function(){google.c={ataf:false,btfi:false,cap:2000,fil:true,frt:false,gecoh:false,gl:true,lhc:false,llt:false,lrt:false,raf:false,sxs:false,taf:false,timl:false};})();(function(){
+var f=this||self;var g=window.performance;function h(a,b,d,c){a.addEventListener?a.addEventListener(b,d,c||!1):a.attachEvent&amp;&amp;a.attachEvent("on"+b,d)}function k(a,b,d,c){"addEventListener"in a?a.removeEventListener(b,d,c||!1):a.attachEvent&amp;&amp;a.detachEvent("on"+b,d)};google.c.iim=google.c.iim||{};function l(a){a&amp;&amp;f.google.aft(a.target)}var m;function n(){k(document.documentElement,"load",m,!0);k(document.documentElement,"error",m,!0)};google.timers={};google.startTick=function(a){google.timers[a]={t:{start:Date.now()},e:{},m:{}}};google.tick=function(a,b,d){google.timers[a]||google.startTick(a);d=void 0!==d?d:Date.now();b instanceof Array||(b=[b]);for(var c=0,e;e=b[c++];)google.timers[a].t[e]=d};google.c.e=function(a,b,d){google.timers[a].e[b]=d};google.c.b=function(a,b){b=google.timers[b||"load"].m;b[a]&amp;&amp;google.ml(Error("a"),!1,{m:a});b[a]=!0};google.c.u=function(a,b){var d=google.timers[b||"load"],c=d.m;if(c[a]){c[a]=!1;for(a in c)if(c[a])return;google.csiReport(d,"load2"===b?"all2":"all")}else{b="";for(var e in c)b+=e+":"+c[e]+";";google.ml(Error("b"),!1,{m:a,b:!1===c[a],s:b})}};google.rll=function(a,b,d){function c(e){d(e);k(a,"load",c);k(a,"error",c)}h(a,"load",c);b&amp;&amp;h(a,"error",c)};f.google.aft=function(a){a.setAttribute("data-iml",String(Date.now()))};google.startTick("load");var p=google.timers.load;a:{var q=p.t;if(g){var r=g.timing;if(r){var t=r.navigationStart,u=r.responseStart;if(u&gt;t&amp;&amp;u&lt;=q.start){q.start=u;p.wsrt=u-t;break a}}g.now&amp;&amp;(p.wsrt=Math.floor(g.now()))}}google.c.b("pr","load");google.c.b("xe","load");function v(a){if("hidden"===document.visibilityState){google.c.fh=a;var b;window.performance&amp;&amp;window.performance.timing&amp;&amp;(b=Math.floor(window.performance.timing.navigationStart+a));google.tick("load","fht",b);return!0}return!1}
+function w(a){v(a.timeStamp)&amp;&amp;k(document,"visibilitychange",w,!0)}google.c.fh=Infinity;h(document,"visibilitychange",w,!0);v(0);google.c.gl&amp;&amp;(m=l,h(document.documentElement,"load",m,!0),google.c.glu=n);}).call(this);(function(){
+function g(){return window.performance&amp;&amp;window.performance.navigation&amp;&amp;window.performance.navigation.type};function k(a,b){if(!a||m(a))return 0;if(!a.getBoundingClientRect)return 1;var c=function(d){return d.getBoundingClientRect()};return r(a,c,b)?0:t(a,c)}function r(a,b,c){a:{for(var d=a;d&amp;&amp;void 0!==d;d=d.parentElement)if("hidden"===d.style.overflow||c&amp;&amp;"G-EXPANDABLE-CONTENT"===d.tagName&amp;&amp;"hidden"===getComputedStyle(d).getPropertyValue("overflow")){c=d;break a}c=null}if(!c)return!1;a=b(a);b=b(c);return a.bottom&lt;b.top||a.top&gt;=b.bottom||a.right&lt;b.left||a.left&gt;=b.right}
+function m(a){return"none"===a.style.display?!0:document.defaultView&amp;&amp;document.defaultView.getComputedStyle?(a=document.defaultView.getComputedStyle(a),!!a&amp;&amp;("hidden"===a.visibility||"0px"===a.height&amp;&amp;"0px"===a.width)):!1}
+function t(a,b){var c=b(a);a=c.left+window.pageXOffset;b=c.top+window.pageYOffset;var d=c.width;c=c.height;var e=0;if(0&gt;=c&amp;&amp;0&gt;=d)return e;var f=window.innerHeight||document.documentElement.clientHeight;0&gt;b+c?e=2:b&gt;=f&amp;&amp;(e=4);if(0&gt;a+d||a&gt;=(window.innerWidth||document.documentElement.clientWidth))e|=8;e||(e=1,b+c&gt;f&amp;&amp;(e|=4));return e};var u=window.location,v="aft afti afts cbs cbt fht frt hct prt sct".split(" ");function w(a){return(a=u.search.match(new RegExp("[?&amp;]"+a+"=(\\d+)")))?Number(a[1]):-1}
+function x(a,b){var c=google.timers[b||"load"];b=c.m;if(!b||!b.prs){var d=g()?0:w("qsubts");0&lt;d&amp;&amp;(b=w("fbts"),0&lt;b&amp;&amp;(c.t.start=Math.max(d,b)));var e=c.t,f=e.start;b={wsrt:c.wsrt||0};if(f)for(var p=0,n;n=v[p++];){var l=e[n];l&amp;&amp;(b[n]=Math.max(l-f,0))}0&lt;d&amp;&amp;(b.gsasrt=c.t.start-d);c=c.e;a="/gen_204?s="+google.sn+"&amp;t="+a+"&amp;atyp=csi&amp;ei="+google.kEI+"&amp;rt=";d="";for(h in b)a+=""+d+h+"."+b[h],d=",";for(var q in c)a+="&amp;"+q+"="+c[q];window._cshid&amp;&amp;(a+="&amp;cshid="+window._cshid);2===g()&amp;&amp;(a+="&amp;bb=1");1===g()&amp;&amp;(a+=
+"&amp;r=1");if("gsasrt"in b){var h=w("qsd");0&lt;h&amp;&amp;(a+="&amp;qsd="+h)}google.kBL&amp;&amp;(a+="&amp;bl="+google.kBL);h=a;navigator.sendBeacon?navigator.sendBeacon(h,""):google.log("","",h)}};function y(a){a&amp;&amp;google.tick("load","cbs",a);google.tick("load","cbt");x("cap")};var z="src bsrc url ll image img-url".split(" ");function A(a){for(var b=0;b&lt;z.length;++b)if(a.getAttribute("data-"+z[b]))return!0;return!1}function B(a){var b=a.parentElement;if(b&amp;&amp;("G-IMG"===b.tagName||b.classList.contains("uhHOwf"))&amp;&amp;(b.style.height||b.style.width)){var c=b.getBoundingClientRect(),d=a.getBoundingClientRect();if(c.height&lt;=d.height||c.width&lt;=d.width)a=b}var e;return k(a,null==(e=google.c)?void 0:e.gecoh)}google.c.iim=google.c.iim||{};var C=window.innerHeight||document.documentElement.clientHeight,D=0,E=0,F=0,G=0,H=0,I=0,J=0,K=!0,L=!0,M=-1,N,P=google.c.sxs?"load2":"load";function Q(a,b,c,d){var e=google.timers[P].t[a];e&amp;&amp;(c||d&amp;&amp;null!=b&amp;&amp;b&lt;e)||google.tick(P,a,b)}function R(a,b,c){"1"===a.getAttribute("data-frt")&amp;&amp;(Q("frt",c,!1,!0),++G,S());b&amp;&amp;(Q("aft",c,!1,!0),Q("afti",c,!1,!0),++I,S());google.c.timl&amp;&amp;Q("iml",c,!1,!0);++E;a.setAttribute("data-frt","0");(google.c.timl||b)&amp;&amp;T()}
+function T(){var a=google.c.timl?E===D:H===I;!L&amp;&amp;a&amp;&amp;google.c.u("il",P)}
+function S(){if(!K){var a=I===H,b=G===F;a&amp;&amp;b&amp;&amp;(google.c.e(P,"ima",String(H)),google.c.e(P,"imad",String(J)),google.c.e(P,"aftp",String(Math.round(M))),document.getElementsByClassName("Ib7Efc").length&amp;&amp;google.c.e(P,"ddl","1"),N&amp;&amp;clearTimeout(N),x(google.c.sxs?"aft2":"aft",P));"hidden"===document.visibilityState&amp;&amp;google.c.e(P,"hddn","1");if(!google.c.sxs&amp;&amp;null!==google.aftq&amp;&amp;(2===google.fevent||3===google.fevent?google.fevent:1)&amp;((a?1:0)|(b?2:0))){google.tick("load","aftqf",Date.now());var c;for(a=
+0;b=null==(c=google.aftq)?void 0:c[a++];)try{b()}catch(d){google.ml(d,!1)}google.aftq=null}}}function U(a,b){0===b||b&amp;8||(a.setAttribute("data-frt","1"),++F)}if(0&lt;google.c.cap&amp;&amp;!google.c.sxs)a:{var V=google.c.cap;if(window.performance&amp;&amp;window.performance.timing&amp;&amp;"navigationStart"in window.performance.timing){var W=window.performance.now(),X=V-W;if(0&lt;X){N=setTimeout(y,X,Math.floor(window.performance.timing.navigationStart+W));break a}y()}N=void 0}google.c.wh=Math.floor(window.innerHeight||document.documentElement.clientHeight);google.c.e(P,"wh",String(google.c.wh));google.c.b("il",P);google.c.setup=function(a,b,c){var d=a.getAttribute("data-atf");if(d)return c=Number(d),b&amp;&amp;!a.hasAttribute("data-frt")&amp;&amp;U(a,c),c;var e="string"!==typeof a.src||!a.src,f=!!a.getAttribute("data-bsrc"),p=!!a.getAttribute("data-deferred"),n=!p&amp;&amp;A(a);n&amp;&amp;a.setAttribute("data-lzy_","1");d=B(a);a.setAttribute("data-atf",String(d));var l=!!(d&amp;1);e=(e||a.complete)&amp;&amp;!p&amp;&amp;!f&amp;&amp;!(l&amp;&amp;n);f=!google.c.lhc&amp;&amp;Number(a.getAttribute("data-iml"))||0;++D;if(e&amp;&amp;!f||a.hasAttribute("data-noaft"))a.setAttribute("data-frt","0"),++E;else{var q=google.c.btfi&amp;&amp;d&amp;4&amp;&amp;f&amp;&amp;M&lt;C;if(q){var h=a.getBoundingClientRect().top+window.pageYOffset;!c||h&lt;c?M=l?C:h:q=!1}l&amp;&amp;(++H,p&amp;&amp;++J);b&amp;&amp;U(a,d);q&amp;&amp;(Q("aft",f,!1,!0),Q("aftb",f,!1,!0));if(e&amp;&amp;f)R(a,l,google.c.btfi?0:f);else{l&amp;&amp;(!c||c&gt;=C)&amp;&amp;(M=C);var O=a.src;google.rll(a,!0,function(){google.c.fil&amp;&amp;(p||n)&amp;&amp;O&amp;&amp;O===a.src?google.rll(a,!0,function(){R(a,l,Date.now())}):R(a,l,Date.now())})}}return d};google.c.ubr=function(a,b,c,d){google.c.taf&amp;&amp;M&lt;C?(M=c||-1,Q("aft",b)):0&gt;M&amp;&amp;(c&amp;&amp;(M=c),google.c.btfi&amp;&amp;Q("aft",b));a||Q("afts",b,!0);d||(Q("aft",b,!0),K&amp;&amp;!google.c.frt&amp;&amp;(K=!1,S()),a&amp;&amp;L&amp;&amp;(Q("prt",b),google.c.timl&amp;&amp;Q("iml",b,!0),L=!1,T(),google.c.setup=function(){return 0},google.c.ubr=function(){}))};}).call(this);(function(){
+var b=[function(){google.tick&amp;&amp;google.tick("load","dcl")}];google.dclc=function(a){b.length?b.push(a):a()};function c(){for(var a=b.shift();a;)a(),a=b.shift()}window.addEventListener?(document.addEventListener("DOMContentLoaded",c,!1),window.addEventListener("load",c,!1)):window.attachEvent&amp;&amp;window.attachEvent("onload",c);}).call(this);(function(){
+var b=[];google.jsc={xx:b,x:function(a){b.push(a)},mm:[],m:function(a){google.jsc.mm.length||(google.jsc.mm=a)}};}).call(this);(function(){
+var e=this||self;
+var f={};function w(a,c){if(null===c)return!1;if("contains"in a&amp;&amp;1==c.nodeType)return a.contains(c);if("compareDocumentPosition"in a)return a==c||!!(a.compareDocumentPosition(c)&amp;16);for(;c&amp;&amp;a!=c;)c=c.parentNode;return c==a};var y=function(a,c){return function(d){d||(d=window.event);return c.call(a,d)}},z="undefined"!=typeof navigator&amp;&amp;/Macintosh/.test(navigator.userAgent),E=function(){this._mouseEventsPrevented=!0};var F=function(a){this.g=a;this.h=[]},G=function(a){for(var c=0;c&lt;a.h.length;++c){var d=a.g,b=a.h[c];d.removeEventListener?d.removeEventListener(b.eventType,b.o,b.capture):d.detachEvent&amp;&amp;d.detachEvent("on"+b.eventType,b.o)}a.h=[]};
+var H=e._jsa||{};H._cfc=void 0;H._aeh=void 0;var I=function(){this.h=this.g=null},K=function(a,c){var d=J;d.g=a;d.h=c;return d};I.prototype.i=function(){var a=this.g;this.g&amp;&amp;this.g!=this.h?this.g=this.g.__owner||this.g.parentNode:this.g=null;return a};var L=function(){var a;this.j=a=void 0===a?[]:a;this.g=0;this.h=null;this.l=!1},N=function(a,c){var d=M;d.j=a;d.g=0;d.h=c;d.l=!1;return d};L.prototype.i=function(){if(this.l)return J.i();if(this.g!=this.j.length){var a=this.j[this.g];this.g++;a!=this.h&amp;&amp;a&amp;&amp;a.__owner&amp;&amp;(this.l=!0,K(a.__owner,this.h));return a}return null};var J=new I,M=new L;
+var Q=function(){this.s=[];this.g=[];this.h=[];this.l={};this.i=null;this.j=[];P(this,"_custom")},R=function(a){return String.prototype.trim?a.trim():a.replace(/^\s+/,"").replace(/\s+$/,"")},ia=function(a,c){return function m(b,g){g=void 0===g?!0:g;var l=c;if("_custom"==l){l=b.detail;if(!l||!l._type)return;l=l._type}var k=l;"click"==k&amp;&amp;(z&amp;&amp;b.metaKey||!z&amp;&amp;b.ctrlKey||2==b.which||null==b.which&amp;&amp;4==b.button||b.shiftKey)?k="clickmod":"keydown"==k&amp;&amp;!b.a11ysc&amp;&amp;(k="maybe_click");var u=b.srcElement||b.target;l=S(k,b,u,"",null);var aa=b.path?N(b.path,this):b.composedPath?N(b.composedPath(),this):K(u,this);for(var r;r=aa.i();){var h=r;var p=void 0;r=h;var q=k,ba=b;var n=r.__jsaction;if(!n){var x;n=null;"getAttribute"in r&amp;&amp;(n=r.getAttribute("jsaction"));if(x=n){n=f[x];if(!n){n={};for(var A=x.split(ca),da=A?A.length:0,B=0;B&lt;da;B++){var v=A[B];if(v){var C=v.indexOf(":"),O=-1!=C,fa=O?R(v.substr(0,C)):ea;v=O?R(v.substr(C+1)):v;n[fa]=v}}f[x]=n}r.__jsaction=n}else n=ha,r.__jsaction=n}"maybe_click"==q&amp;&amp;n.click?(p=q,q="click"):"clickkey"==q?q="click":"click"!=q||n.click||(q="clickonly");p=H._cfc&amp;&amp;n.click?H._cfc(r,ba,n,q,p):{eventType:p?p:q,action:n[q]||"",event:null,ignore:!1};l=S(p.eventType,p.event||b,u,p.action||"",h,l.timeStamp);if(p.ignore||p.action)break}l&amp;&amp;"touchend"==l.eventType&amp;&amp;(l.event._preventMouseEvents=E);if(p&amp;&amp;p.action){if("mouseenter"==k||"mouseleave"==k||"pointerenter"==k||"pointerleave"==k)if(u=b.relatedTarget,!("mouseover"==b.type&amp;&amp;"mouseenter"==k||"mouseout"==b.type&amp;&amp;"mouseleave"==k||
+"pointerover"==b.type&amp;&amp;"pointerenter"==k||"pointerout"==b.type&amp;&amp;"pointerleave"==k)||u&amp;&amp;(u===h||w(h,u)))l.action="",l.actionElement=null;else{k={};for(var t in b)"function"!==typeof b[t]&amp;&amp;"srcElement"!==t&amp;&amp;"target"!==t&amp;&amp;(k[t]=b[t]);k.type="mouseover"==b.type?"mouseenter":"mouseout"==b.type?"mouseleave":"pointerover"==b.type?"pointerenter":"pointerleave";k.target=k.srcElement=h;k.bubbles=!1;l.event=k;l.targetElement=h}}else l.action="",l.actionElement=null;h=l;a.i&amp;&amp;!h.event.a11ysgd&amp;&amp;(t=S(h.eventType,h.event,h.targetElement,h.action,h.actionElement,h.timeStamp),"clickonly"==t.eventType&amp;&amp;(t.eventType="click"),a.i(t,!0));if(h.actionElement||"maybe_click"==h.eventType){if(a.i){if(!h.actionElement||"A"!=h.actionElement.tagName||"click"!=h.eventType&amp;&amp;"clickmod"!=h.eventType||(b.preventDefault?b.preventDefault():b.returnValue=!1),(b=a.i(h))&amp;&amp;g){m.call(this,b,!1);return}}else{if((g=e.document)&amp;&amp;!g.createEvent&amp;&amp;g.createEventObject)try{var D=g.createEventObject(b)}catch(la){D=b}else D=b;h.event=D;a.j.push(h)}H._aeh&amp;&amp;
+H._aeh(h)}}},S=function(a,c,d,b,g,m){return{eventType:a,event:c,targetElement:d,action:b,actionElement:g,timeStamp:m||Date.now()}},ja=function(a,c){return function(d){var b=a,g=c,m=!1;"mouseenter"==b?b="mouseover":"mouseleave"==b?b="mouseout":"pointerenter"==b?b="pointerover":"pointerleave"==b&amp;&amp;(b="pointerout");if(d.addEventListener){if("focus"==b||"blur"==b||"error"==b||"load"==b||"toggle"==b)m=!0;d.addEventListener(b,g,m)}else d.attachEvent&amp;&amp;("focus"==b?b="focusin":"blur"==b&amp;&amp;(b="focusout"),g=y(d,g),d.attachEvent("on"+b,g));return{eventType:b,o:g,capture:m}}},P=function(a,c){if(!a.l.hasOwnProperty(c)){var d=ia(a,c),b=ja(c,d);a.l[c]=d;a.s.push(b);for(d=0;d&lt;a.g.length;++d){var g=a.g[d];g.h.push(b.call(null,g.g))}"click"==c&amp;&amp;P(a,"keydown")}};Q.prototype.o=function(a){return this.l[a]};var W=function(a,c){var d=new F(c);a:{for(var b=0;b&lt;a.g.length;b++)if(T(a.g[b].g,c)){c=!0;break a}c=!1}if(c)return a.h.push(d),d;U(a,d);a.g.push(d);V(a);return d},V=function(a){for(var c=a.h.concat(a.g),d=[],b=[],g=0;g&lt;a.g.length;++g){var m=a.g[g];X(m,c)?(d.push(m),G(m)):b.push(m)}for(g=0;g&lt;a.h.length;++g)m=a.h[g],X(m,c)?d.push(m):(b.push(m),U(a,m));a.g=b;a.h=d},U=function(a,c){var d=c.g;ka&amp;&amp;(d.style.cursor="pointer");for(d=0;d&lt;a.s.length;++d)c.h.push(a.s[d].call(null,c.g))},Y=function(a,c){a.i=c;a.j&amp;&amp;(0&lt;a.j.length&amp;&amp;c(a.j),a.j=null)},X=function(a,c){for(var d=0;d&lt;c.length;++d)if(c[d].g!=a.g&amp;&amp;T(c[d].g,a.g))return!0;return!1},T=function(a,c){for(;a!=c&amp;&amp;c.parentNode;)c=c.parentNode;return a==c},ka="undefined"!=typeof navigator&amp;&amp;/iPhone|iPad|iPod/.test(navigator.userAgent),ca=/\s*;\s*/,ea="click",ha={};var Z=new Q;W(Z,window.document.documentElement);P(Z,"click");P(Z,"focus");P(Z,"focusin");P(Z,"blur");P(Z,"focusout");P(Z,"error");P(Z,"load");P(Z,"auxclick");P(Z,"change");P(Z,"dblclick");P(Z,"beforeinput");P(Z,"input");P(Z,"keyup");P(Z,"keydown");P(Z,"keypress");P(Z,"mousedown");P(Z,"mouseenter");P(Z,"mouseleave");P(Z,"mouseout");P(Z,"mouseover");P(Z,"mouseup");P(Z,"paste");P(Z,"touchstart");P(Z,"touchend");P(Z,"touchcancel");P(Z,"transitioncancel");P(Z,"transitionend");P(Z,"transitionrun");P(Z,"transitionstart");P(Z,"dragover");P(Z,"dragenter");P(Z,"dragleave");P(Z,"drop");P(Z,"dragstart");P(Z,"dragend");P(Z,"speech");(function(a){google.jsad=function(c){Y(a,c)};google.jsaac=function(c){return W(a,c)};google.jsarc=function(c){G(c);for(var d=!1,b=0;b&lt;a.g.length;++b)if(a.g[b]===c){a.g.splice(b,1);d=!0;break}if(!d)for(d=0;d&lt;a.h.length;++d)if(a.h[d]===c){a.h.splice(d,1);break}V(a)}})(Z);e.gws_wizbind=function(a){return{trigger:function(c){var d=a.o(c.type);d||(P(a,c.type),d=a.o(c.type));var b=c.target||c.srcElement;d&amp;&amp;d.call(b.ownerDocument.documentElement,c)},bind:function(c){Y(a,c)}}}(Z);}).call(this);(function(){window._skwEvts=[];})();(function(){window.google.erd={jsr:1,bv:1681,sd:true,de:true};})();(function(){var sdo=false;var mei=10;
+var h=this||self;var k,l=null!=(k=h.mei)?k:1,n,p=null!=(n=h.sdo)?n:!0,q=0,r,t=google.erd,v=t.jsr;google.ml=function(a,b,d,m,e){e=void 0===e?2:e;b&amp;&amp;(r=a&amp;&amp;a.message);if(google.dl)return google.dl(a,e,d),null;if(0&gt;v){window.console&amp;&amp;console.error(a,d);if(-2===v)throw a;b=!1}else b=!a||!a.message||"Error loading script"===a.message||q&gt;=l&amp;&amp;!m?!1:!0;if(!b)return null;q++;d=d||{};b=encodeURIComponent;var c="/gen_204?atyp=i&amp;ei="+b(google.kEI);google.kEXPI&amp;&amp;(c+="&amp;jexpid="+b(google.kEXPI));c+="&amp;srcpg="+b(google.sn)+"&amp;jsr="+b(t.jsr)+"&amp;bver="+b(t.bv);var f=a.lineNumber;void 0!==f&amp;&amp;(c+="&amp;line="+f);var g=
+a.fileName;g&amp;&amp;(0&lt;g.indexOf("-extension:/")&amp;&amp;(e=3),c+="&amp;script="+b(g),f&amp;&amp;g===window.location.href&amp;&amp;(f=document.documentElement.outerHTML.split("\n")[f],c+="&amp;cad="+b(f?f.substring(0,300):"No script found.")));c+="&amp;jsel="+e;for(var u in d)c+="&amp;",c+=b(u),c+="=",c+=b(d[u]);c=c+"&amp;emsg="+b(a.name+": "+a.message);c=c+"&amp;jsst="+b(a.stack||"N/A");12288&lt;=c.length&amp;&amp;(c=c.substr(0,12288));a=c;m||google.log(0,"",a);return a};window.onerror=function(a,b,d,m,e){r!==a&amp;&amp;(a=e instanceof Error?e:Error(a),void 0===d||"lineNumber"in a||(a.lineNumber=d),void 0===b||"fileName"in a||(a.fileName=b),google.ml(a,!1,void 0,!1,"SyntaxError"===a.name||"SyntaxError"===a.message.substring(0,11)||-1!==a.message.indexOf("Script error")?3:0));r=null;p&amp;&amp;q&gt;=l&amp;&amp;(window.onerror=null)};})();;this.gbar_={CONFIG:[[[0,"www.gstatic.com","og.qtm.en_US.5jB2FJqR1F4.O","pl","pl","538",0,[4,2,"","","","484929242","0"],null,"sLxjY8jcB6aNxc8P1uS1mA0",null,0,"og.qtm.8pE41sYUTwg.L.W.O","AA2YrTs00lPzmx9En6HZbOBSxvbnXpv0pA","AA2YrTuXeWsNpP9J282uZWD7GaEqvRiYYQ","",2,1,200,"POL",null,null,"1","538",1],null,[1,0.1000000014901161,2,1],[1,0.001000000047497451,1],[0,0,0,null,"","","",""],[0,0,"",1,0,0,0,0,0,0,null,0,0,null,0,0,null,null,0,0,0,"","","","","","",null,0,0,0,0,0,null,null,null,"rgba(32,33,36,1)","rgba(255,255,255,1)",0,0,1,null,null,1,0,0],null,null,["1","gci_91f30755d6a6b787dcc2a4062e6e9824.js","googleapis.client:gapi.iframes","","pl"],null,null,null,null,["m;/_/scs/abc-static/_/js/k=gapi.gapi.en.7I3T5S8x4Qg.O/d=1/rs=AHpOoo9SzNpm6HglASFo9cZ-GgP5E5f5WQ/m=__features__","https://apis.google.com","","","","",null,1,"es_plusone_gc_20221004.0_p0","pl",null,0],[0.009999999776482582,"pl","538",[null,"","0",null,1,5184000,null,null,"",null,null,null,null,null,0,null,0,0,1,0,0,0,null,null,0,0,null,0,0,0,0,0],null,null,null,0,null,null,["5061451","google\\.(com|ru|ca|by|kz|com\\.mx|com\\.tr)$",1]],[1,1,null,40400,538,"POL","pl","484929242.0",8,0.009999999776482582,0,0,null,null,null,null,"",null,null,null,"sLxjY8jcB6aNxc8P1uS1mA0",0,0,0,null,2,5,"rd",140,0],[[null,null,null,"https://www.gstatic.com/og/_/js/k=og.qtm.en_US.5jB2FJqR1F4.O/rt=j/m=qabr,q_dnp,qcwid,qapid,qald/exm=qaaw,qadd,qaid,qein,qhaw,qhbr,qhch,qhga,qhid,qhin,qhpr/d=1/ed=1/rs=AA2YrTs00lPzmx9En6HZbOBSxvbnXpv0pA"],[null,null,null,"https://www.gstatic.com/og/_/ss/k=og.qtm.8pE41sYUTwg.L.W.O/m=qcwid/excm=qaaw,qadd,qaid,qein,qhaw,qhbr,qhch,qhga,qhid,qhin,qhpr/d=1/ed=1/ct=zgms/rs=AA2YrTuXeWsNpP9J282uZWD7GaEqvRiYYQ"]],null,null,null,[[[null,null,[null,null,null,"https://ogs.google.com/widget/app/so?eom=1"],0,448,328,57,4,1,0,0,63,64,8000,"https://www.google.pl/intl/pl/about/products",67,1,69,null,1,70,"Podczas wczytywania zestawu aplikacji wystąpił problem. Spróbuj ponownie za kilka minut lub przejdź na stronę %1$susług Google%2$s.",3,0,0,74,0,null,null,null,null,null,null,null,"/widget/app/so"]],0,[null,null,null,"https://www.gstatic.com/og/_/js/k=og.qtm.en_US.5jB2FJqR1F4.O/rt=j/m=qdsh/d=1/ed=1/rs=AA2YrTs00lPzmx9En6HZbOBSxvbnXpv0pA"],"1","538",1,0,null,"pl",0,null,0,0,0]]],};this.gbar_=this.gbar_||{};(function(_){var window=this;
+try{
+/*
+ Copyright The Closure Library Authors.
+ SPDX-License-Identifier: Apache-2.0
+*/
+var ka,wa,ya,za,Ca,Ea,Ga,Ha,La,Oa,Ka,Pa,Sa,Xa,Ya,Za,$a,ab,bb,db,eb,ib,jb;_.aa=function(a,b){if(Error.captureStackTrace)Error.captureStackTrace(this,_.aa);else{var c=Error().stack;c&amp;&amp;(this.stack=c)}a&amp;&amp;(this.message=String(a));void 0!==b&amp;&amp;(this.cause=b)};_.ba=function(){var a=_.n.navigator;return a&amp;&amp;(a=a.userAgent)?a:""};_.p=function(a){return-1!=_.ba().indexOf(a)};_.da=function(){return _.p("Opera")};_.ea=function(){return _.p("Trident")||_.p("MSIE")};_.fa=function(){return _.p("Firefox")||_.p("FxiOS")};
+_.ia=function(){return _.p("Safari")&amp;&amp;!(_.ha()||_.p("Coast")||_.da()||_.p("Edge")||_.p("Edg/")||_.p("OPR")||_.fa()||_.p("Silk")||_.p("Android"))};_.ha=function(){return(_.p("Chrome")||_.p("CriOS"))&amp;&amp;!_.p("Edge")||_.p("Silk")};_.ja=function(){return _.p("Android")&amp;&amp;!(_.ha()||_.fa()||_.da()||_.p("Silk"))};ka=function(){return _.p("iPhone")&amp;&amp;!_.p("iPod")&amp;&amp;!_.p("iPad")};_.la=function(){return ka()||_.p("iPad")||_.p("iPod")};
+_.ma=function(a){var b=a.length;if(0&lt;b){for(var c=Array(b),d=0;d&lt;b;d++)c[d]=a[d];return c}return[]};_.na=function(){return-1!=_.ba().toLowerCase().indexOf("webkit")&amp;&amp;!_.p("Edge")};_.pa=function(a){return oa&amp;&amp;null!=a&amp;&amp;a instanceof Uint8Array};_.ra=function(a,b){Object.isFrozen(a)||(qa?a[qa]|=b:void 0!==a.Sb?a.Sb|=b:Object.defineProperties(a,{Sb:{value:b,configurable:!0,writable:!0,enumerable:!1}}))};_.sa=function(a,b){Object.isExtensible(a)&amp;&amp;(qa?a[qa]&amp;&amp;(a[qa]&amp;=~b):void 0!==a.Sb&amp;&amp;(a.Sb&amp;=~b))};
+_.ta=function(a){var b;qa?b=a[qa]:b=a.Sb;return null==b?0:b};_.ua=function(a,b){qa?a[qa]=b:void 0!==a.Sb?a.Sb=b:Object.defineProperties(a,{Sb:{value:b,configurable:!0,writable:!0,enumerable:!1}})};_.va=function(a){_.ra(a,1);return a};wa=function(a){_.ra(a,17);return a};_.xa=function(a){return a?!!(_.ta(a)&amp;2):!1};ya=function(a,b){_.ua(b,(_.ta(a)|18)&amp;-33)};za=function(a){return null!==a&amp;&amp;"object"===typeof a&amp;&amp;!Array.isArray(a)&amp;&amp;a.constructor===Object};
+Ca=function(a){switch(typeof a){case "number":return isFinite(a)?a:String(a);case "object":if(a&amp;&amp;!Array.isArray(a)){if(_.pa(a))return _.Aa(a);if(a instanceof _.Ba){var b=a.Aa;return null==b?"":"string"===typeof b?b:a.Aa=_.Aa(b)}}}return a};Ea=function(a,b,c,d){if(null!=a){if(Array.isArray(a))a=_.Da(a,b,c,void 0!==d);else if(za(a)){var e={},f;for(f in a)e[f]=Ea(a[f],b,c,d);a=e}else a=b(a,d);return a}};
+_.Da=function(a,b,c,d){d=d?!!(_.ta(a)&amp;16):void 0;var e=Array.prototype.slice.call(a);c(a,e);for(a=0;a&lt;e.length;a++)e[a]=Ea(e[a],b,c,d);return e};Ga=function(a){return a.he===_.Fa?a.toJSON():Ca(a)};Ha=function(){};_.Ia=function(a,b){return null==a?b:a};La=function(a){if(_.xa(a)&amp;&amp;Object.isFrozen(a))return a;var b=_.Ja(a,Ka);ya(a,b);Object.freeze(b);return b};
+Oa=function(a,b){if(null!=a){if(oa&amp;&amp;a instanceof Uint8Array)return a.length?new _.Ba(new Uint8Array(a),_.Ma):_.Na();if(Array.isArray(a)){if(_.xa(a))return a;b&amp;&amp;(b=_.ta(a),b=!(b&amp;32)&amp;&amp;(!!(b&amp;16)||0===b));if(b)return _.ra(a,2),a;a=_.Da(a,Oa,ya);_.ta(a)&amp;4&amp;&amp;Object.freeze(a);return a}return a.he===_.Fa?Ka(a):a}};Ka=function(a){if(_.xa(a.na))return a;a=Pa(a);_.ra(a.na,2);return a};
+Pa=function(a){var b=new a.constructor;a.qc&amp;&amp;(b.qc=a.qc.slice());for(var c=a.na,d=!!(_.ta(c)&amp;16),e=0;e&lt;c.length;e++){var f=c[e];if(e===c.length-1&amp;&amp;za(f))for(var g in f){var h=+g;if(Number.isNaN(h))(b.Oa||(b.Oa=b.na[b.tc+b.nc]={}))[h]=f[h];else{var l=f[g],m=a.Wa&amp;&amp;a.Wa[h];m?_.Qa(b,h,La(m),!0):_.q(b,h,Oa(l,d),!0)}}else h=e-a.nc,(l=a.Wa&amp;&amp;a.Wa[h])?_.Qa(b,h,La(l),!1):_.q(b,h,Oa(f,d),!1)}return b};_.Ra=function(a){if(!_.xa(a.na))return a;var b=Pa(a);b.j=a;return b};Sa=function(a,b){return Ca(b)};
+_.t=function(a,b){return null!=a?!!a:!!b};_.u=function(a,b){void 0==b&amp;&amp;(b="");return null!=a?a:b};_.Ta=function(a,b){void 0==b&amp;&amp;(b=0);return null!=a?a:b};_.Ua=function(a,b,c){for(var d in a)b.call(c,a[d],d,a)};_.Wa=function(a,b){for(var c,d,e=1;e&lt;arguments.length;e++){d=arguments[e];for(c in d)a[c]=d[c];for(var f=0;f&lt;Va.length;f++)c=Va[f],Object.prototype.hasOwnProperty.call(d,c)&amp;&amp;(a[c]=d[c])}};Xa=function(a){var b=0;return function(){return b&lt;a.length?{done:!1,value:a[b++]}:{done:!0}}};
+Ya="function"==typeof Object.defineProperties?Object.defineProperty:function(a,b,c){if(a==Array.prototype||a==Object.prototype)return a;a[b]=c.value;return a};Za=function(a){a=["object"==typeof globalThis&amp;&amp;globalThis,a,"object"==typeof window&amp;&amp;window,"object"==typeof self&amp;&amp;self,"object"==typeof global&amp;&amp;global];for(var b=0;b&lt;a.length;++b){var c=a[b];if(c&amp;&amp;c.Math==Math)return c}throw Error("a");};$a=Za(this);
+ab=function(a,b){if(b)a:{var c=$a;a=a.split(".");for(var d=0;d&lt;a.length-1;d++){var e=a[d];if(!(e in c))break a;c=c[e]}a=a[a.length-1];d=c[a];b=b(d);b!=d&amp;&amp;null!=b&amp;&amp;Ya(c,a,{configurable:!0,writable:!0,value:b})}};
+ab("Symbol",function(a){if(a)return a;var b=function(f,g){this.j=f;Ya(this,"description",{configurable:!0,writable:!0,value:g})};b.prototype.toString=function(){return this.j};var c="jscomp_symbol_"+(1E9*Math.random()&gt;&gt;&gt;0)+"_",d=0,e=function(f){if(this instanceof e)throw new TypeError("b");return new b(c+(f||"")+"_"+d++,f)};return e});
+ab("Symbol.iterator",function(a){if(a)return a;a=Symbol("c");for(var b="Array Int8Array Uint8Array Uint8ClampedArray Int16Array Uint16Array Int32Array Uint32Array Float32Array Float64Array".split(" "),c=0;c&lt;b.length;c++){var d=$a[b[c]];"function"===typeof d&amp;&amp;"function"!=typeof d.prototype[a]&amp;&amp;Ya(d.prototype,a,{configurable:!0,writable:!0,value:function(){return bb(Xa(this))}})}return a});bb=function(a){a={next:a};a[Symbol.iterator]=function(){return this};return a};
+_.cb=function(a){var b="undefined"!=typeof Symbol&amp;&amp;Symbol.iterator&amp;&amp;a[Symbol.iterator];return b?b.call(a):{next:Xa(a)}};db="function"==typeof Object.create?Object.create:function(a){var b=function(){};b.prototype=a;return new b};if("function"==typeof Object.setPrototypeOf)eb=Object.setPrototypeOf;else{var fb;a:{var gb={a:!0},hb={};try{hb.__proto__=gb;fb=hb.a;break a}catch(a){}fb=!1}eb=fb?function(a,b){a.__proto__=b;if(a.__proto__!==b)throw new TypeError("d`"+a);return a}:null}ib=eb;
+_.w=function(a,b){a.prototype=db(b.prototype);a.prototype.constructor=a;if(ib)ib(a,b);else for(var c in b)if("prototype"!=c)if(Object.defineProperties){var d=Object.getOwnPropertyDescriptor(b,c);d&amp;&amp;Object.defineProperty(a,c,d)}else a[c]=b[c];a.Y=b.prototype};jb=function(a,b,c){if(null==a)throw new TypeError("e`"+c);if(b instanceof RegExp)throw new TypeError("f`"+c);return a+""};
+ab("String.prototype.startsWith",function(a){return a?a:function(b,c){var d=jb(this,b,"startsWith"),e=d.length,f=b.length;c=Math.max(0,Math.min(c|0,d.length));for(var g=0;g&lt;f&amp;&amp;c&lt;e;)if(d[c++]!=b[g++])return!1;return g&gt;=f}});ab("Array.prototype.find",function(a){return a?a:function(b,c){a:{var d=this;d instanceof String&amp;&amp;(d=String(d));for(var e=d.length,f=0;f&lt;e;f++){var g=d[f];if(b.call(c,g,f,d)){b=g;break a}}b=void 0}return b}});var kb=function(a,b){return Object.prototype.hasOwnProperty.call(a,b)};
+ab("WeakMap",function(a){function b(){}function c(l){var m=typeof l;return"object"===m&amp;&amp;null!==l||"function"===m}function d(l){if(!kb(l,f)){var m=new b;Ya(l,f,{value:m})}}function e(l){var m=Object[l];m&amp;&amp;(Object[l]=function(r){if(r instanceof b)return r;Object.isExtensible(r)&amp;&amp;d(r);return m(r)})}if(function(){if(!a||!Object.seal)return!1;try{var l=Object.seal({}),m=Object.seal({}),r=new a([[l,2],[m,3]]);if(2!=r.get(l)||3!=r.get(m))return!1;r.delete(l);r.set(m,4);return!r.has(l)&amp;&amp;4==r.get(m)}catch(v){return!1}}())return a;
+var f="$jscomp_hidden_"+Math.random();e("freeze");e("preventExtensions");e("seal");var g=0,h=function(l){this.j=(g+=Math.random()+1).toString();if(l){l=_.cb(l);for(var m;!(m=l.next()).done;)m=m.value,this.set(m[0],m[1])}};h.prototype.set=function(l,m){if(!c(l))throw Error("g");d(l);if(!kb(l,f))throw Error("h`"+l);l[f][this.j]=m;return this};h.prototype.get=function(l){return c(l)&amp;&amp;kb(l,f)?l[f][this.j]:void 0};h.prototype.has=function(l){return c(l)&amp;&amp;kb(l,f)&amp;&amp;kb(l[f],this.j)};h.prototype.delete=function(l){return c(l)&amp;&amp;
+kb(l,f)&amp;&amp;kb(l[f],this.j)?delete l[f][this.j]:!1};return h});
+ab("Map",function(a){if(function(){if(!a||"function"!=typeof a||!a.prototype.entries||"function"!=typeof Object.seal)return!1;try{var h=Object.seal({x:4}),l=new a(_.cb([[h,"s"]]));if("s"!=l.get(h)||1!=l.size||l.get({x:4})||l.set({x:4},"t")!=l||2!=l.size)return!1;var m=l.entries(),r=m.next();if(r.done||r.value[0]!=h||"s"!=r.value[1])return!1;r=m.next();return r.done||4!=r.value[0].x||"t"!=r.value[1]||!m.next().done?!1:!0}catch(v){return!1}}())return a;var b=new WeakMap,c=function(h){this.o={};this.j=
+f();this.size=0;if(h){h=_.cb(h);for(var l;!(l=h.next()).done;)l=l.value,this.set(l[0],l[1])}};c.prototype.set=function(h,l){h=0===h?0:h;var m=d(this,h);m.list||(m.list=this.o[m.id]=[]);m.Va?m.Va.value=l:(m.Va={next:this.j,lc:this.j.lc,head:this.j,key:h,value:l},m.list.push(m.Va),this.j.lc.next=m.Va,this.j.lc=m.Va,this.size++);return this};c.prototype.delete=function(h){h=d(this,h);return h.Va&amp;&amp;h.list?(h.list.splice(h.index,1),h.list.length||delete this.o[h.id],h.Va.lc.next=h.Va.next,h.Va.next.lc=
+h.Va.lc,h.Va.head=null,this.size--,!0):!1};c.prototype.clear=function(){this.o={};this.j=this.j.lc=f();this.size=0};c.prototype.has=function(h){return!!d(this,h).Va};c.prototype.get=function(h){return(h=d(this,h).Va)&amp;&amp;h.value};c.prototype.entries=function(){return e(this,function(h){return[h.key,h.value]})};c.prototype.keys=function(){return e(this,function(h){return h.key})};c.prototype.values=function(){return e(this,function(h){return h.value})};c.prototype.forEach=function(h,l){for(var m=this.entries(),
+r;!(r=m.next()).done;)r=r.value,h.call(l,r[1],r[0],this)};c.prototype[Symbol.iterator]=c.prototype.entries;var d=function(h,l){var m=l&amp;&amp;typeof l;"object"==m||"function"==m?b.has(l)?m=b.get(l):(m=""+ ++g,b.set(l,m)):m="p_"+l;var r=h.o[m];if(r&amp;&amp;kb(h.o,m))for(h=0;h&lt;r.length;h++){var v=r[h];if(l!==l&amp;&amp;v.key!==v.key||l===v.key)return{id:m,list:r,index:h,Va:v}}return{id:m,list:r,index:-1,Va:void 0}},e=function(h,l){var m=h.j;return bb(function(){if(m){for(;m.head!=h.j;)m=m.lc;for(;m.next!=m.head;)return m=
+m.next,{done:!1,value:l(m)};m=null}return{done:!0,value:void 0}})},f=function(){var h={};return h.lc=h.next=h.head=h},g=0;return c});ab("Number.MAX_SAFE_INTEGER",function(){return 9007199254740991});var lb=function(a,b){a instanceof String&amp;&amp;(a+="");var c=0,d=!1,e={next:function(){if(!d&amp;&amp;c&lt;a.length){var f=c++;return{value:b(f,a[f]),done:!1}}d=!0;return{done:!0,value:void 0}}};e[Symbol.iterator]=function(){return e};return e};
+ab("Array.prototype.entries",function(a){return a?a:function(){return lb(this,function(b,c){return[b,c]})}});ab("Array.from",function(a){return a?a:function(b,c,d){c=null!=c?c:function(h){return h};var e=[],f="undefined"!=typeof Symbol&amp;&amp;Symbol.iterator&amp;&amp;b[Symbol.iterator];if("function"==typeof f){b=f.call(b);for(var g=0;!(f=b.next()).done;)e.push(c.call(d,f.value,g++))}else for(f=b.length,g=0;g&lt;f;g++)e.push(c.call(d,b[g],g));return e}});
+ab("Array.prototype.keys",function(a){return a?a:function(){return lb(this,function(b){return b})}});ab("Number.isNaN",function(a){return a?a:function(b){return"number"===typeof b&amp;&amp;isNaN(b)}});ab("Array.prototype.fill",function(a){return a?a:function(b,c,d){var e=this.length||0;0&gt;c&amp;&amp;(c=Math.max(0,e+c));if(null==d||d&gt;e)d=e;d=Number(d);0&gt;d&amp;&amp;(d=Math.max(0,e+d));for(c=Number(c||0);c&lt;d;c++)this[c]=b;return this}});var mb=function(a){return a?a:Array.prototype.fill};ab("Int8Array.prototype.fill",mb);
+ab("Uint8Array.prototype.fill",mb);ab("Uint8ClampedArray.prototype.fill",mb);ab("Int16Array.prototype.fill",mb);ab("Uint16Array.prototype.fill",mb);ab("Int32Array.prototype.fill",mb);ab("Uint32Array.prototype.fill",mb);ab("Float32Array.prototype.fill",mb);ab("Float64Array.prototype.fill",mb);var nb="function"==typeof Object.assign?Object.assign:function(a,b){for(var c=1;c&lt;arguments.length;c++){var d=arguments[c];if(d)for(var e in d)kb(d,e)&amp;&amp;(a[e]=d[e])}return a};
+ab("Object.assign",function(a){return a||nb});ab("Object.entries",function(a){return a?a:function(b){var c=[],d;for(d in b)kb(b,d)&amp;&amp;c.push([d,b[d]]);return c}});ab("Array.prototype.values",function(a){return a?a:function(){return lb(this,function(b,c){return c})}});ab("Object.is",function(a){return a?a:function(b,c){return b===c?0!==b||1/b===1/c:b!==b&amp;&amp;c!==c}});
+ab("Array.prototype.includes",function(a){return a?a:function(b,c){var d=this;d instanceof String&amp;&amp;(d=String(d));var e=d.length;c=c||0;for</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>tak</t>
         </is>
       </c>
     </row>
@@ -543,7 +737,70 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="28ba9c979df8003e91d1af7daa610298", element="624d028e-43fc-46bb-bd3a-5c79f8ba4776")&gt;</t>
+          <t>(function(){window.google={kEI:'uLxjY_P7HtiVxc8PsOWf8Ag',kEXPI:'31',kBL:'y__Z'};google.sn='webhp';google.kHL='pl';})();(function(){
+var f=this||self;var h,k=[];function l(a){for(var b;a&amp;&amp;(!a.getAttribute||!(b=a.getAttribute("eid")));)a=a.parentNode;return b||h}function m(a){for(var b=null;a&amp;&amp;(!a.getAttribute||!(b=a.getAttribute("leid")));)a=a.parentNode;return b}
+function n(a,b,c,d,g){var e="";c||-1!==b.search("&amp;ei=")||(e="&amp;ei="+l(d),-1===b.search("&amp;lei=")&amp;&amp;(d=m(d))&amp;&amp;(e+="&amp;lei="+d));d="";!c&amp;&amp;f._cshid&amp;&amp;-1===b.search("&amp;cshid=")&amp;&amp;"slh"!==a&amp;&amp;(d="&amp;cshid="+f._cshid);c=c||"/"+(g||"gen_204")+"?atyp=i&amp;ct="+a+"&amp;cad="+b+e+"&amp;zx="+Date.now()+d;/^http:/i.test(c)&amp;&amp;"https:"===window.location.protocol&amp;&amp;(google.ml&amp;&amp;google.ml(Error("a"),!1,{src:c,glmm:1}),c="");return c};h=google.kEI;google.getEI=l;google.getLEI=m;google.ml=function(){return null};google.log=function(a,b,c,d,g){if(c=n(a,b,c,d,g)){a=new Image;var e=k.length;k[e]=a;a.onerror=a.onload=a.onabort=function(){delete k[e]};a.src=c}};google.logUrl=n;}).call(this);(function(){
+google.y={};google.sy=[];google.x=function(a,b){if(a)var c=a.id;else{do c=Math.random();while(google.y[c])}google.y[c]=[a,b];return!1};google.sx=function(a){google.sy.push(a)};google.lm=[];google.plm=function(a){google.lm.push.apply(google.lm,a)};google.lq=[];google.load=function(a,b,c){google.lq.push([[a],b,c])};google.loadAll=function(a,b){google.lq.push([a,b])};google.bx=!1;google.lx=function(){};}).call(this);google.f={};(function(){
+document.documentElement.addEventListener("submit",function(b){var a;if(a=b.target){var c=a.getAttribute("data-submitfalse");a="1"===c||"q"===c&amp;&amp;!a.elements.q.value?!0:!1}else a=!1;a&amp;&amp;(b.preventDefault(),b.stopPropagation())},!0);document.documentElement.addEventListener("click",function(b){var a;a:{for(a=b.target;a&amp;&amp;a!==document.documentElement;a=a.parentElement)if("A"===a.tagName){a="1"===a.getAttribute("data-nohref");break a}a=!1}a&amp;&amp;b.preventDefault()},!0);}).call(this);(function(){google.hs={h:true,nhs:false,sie:false};})();(function(){google.c={ataf:false,btfi:false,cap:2000,fil:true,frt:false,gecoh:false,gl:true,lhc:false,llt:true,lrt:false,raf:false,sxs:false,taf:false,timl:false};})();(function(){
+var f=this||self;var g=window.performance;function h(a,b,d,c){a.addEventListener?a.addEventListener(b,d,c||!1):a.attachEvent&amp;&amp;a.attachEvent("on"+b,d)}function k(a,b,d,c){"addEventListener"in a?a.removeEventListener(b,d,c||!1):a.attachEvent&amp;&amp;a.detachEvent("on"+b,d)};google.c.iim=google.c.iim||{};function l(a){a&amp;&amp;f.google.aft(a.target)}var m;function n(){k(document.documentElement,"load",m,!0);k(document.documentElement,"error",m,!0)};google.timers={};google.startTick=function(a){google.timers[a]={t:{start:Date.now()},e:{},m:{}}};google.tick=function(a,b,d){google.timers[a]||google.startTick(a);d=void 0!==d?d:Date.now();b instanceof Array||(b=[b]);for(var c=0,e;e=b[c++];)google.timers[a].t[e]=d};google.c.e=function(a,b,d){google.timers[a].e[b]=d};google.c.b=function(a,b){b=google.timers[b||"load"].m;b[a]&amp;&amp;google.ml(Error("a"),!1,{m:a});b[a]=!0};google.c.u=function(a,b){var d=google.timers[b||"load"],c=d.m;if(c[a]){c[a]=!1;for(a in c)if(c[a])return;google.csiReport(d,"load2"===b?"all2":"all")}else{b="";for(var e in c)b+=e+":"+c[e]+";";google.ml(Error("b"),!1,{m:a,b:!1===c[a],s:b})}};google.rll=function(a,b,d){function c(e){d(e);k(a,"load",c);k(a,"error",c)}h(a,"load",c);b&amp;&amp;h(a,"error",c)};f.google.aft=function(a){a.setAttribute("data-iml",String(Date.now()))};google.startTick("load");var p=google.timers.load;a:{var q=p.t;if(g){var r=g.timing;if(r){var t=r.navigationStart,u=r.responseStart;if(u&gt;t&amp;&amp;u&lt;=q.start){q.start=u;p.wsrt=u-t;break a}}g.now&amp;&amp;(p.wsrt=Math.floor(g.now()))}}google.c.b("pr","load");google.c.b("xe","load");function v(a){if("hidden"===document.visibilityState){google.c.fh=a;var b;window.performance&amp;&amp;window.performance.timing&amp;&amp;(b=Math.floor(window.performance.timing.navigationStart+a));google.tick("load","fht",b);return!0}return!1}
+function w(a){v(a.timeStamp)&amp;&amp;k(document,"visibilitychange",w,!0)}google.c.fh=Infinity;h(document,"visibilitychange",w,!0);v(0);google.c.gl&amp;&amp;(m=l,h(document.documentElement,"load",m,!0),google.c.glu=n);}).call(this);(function(){
+function g(){return window.performance&amp;&amp;window.performance.navigation&amp;&amp;window.performance.navigation.type};function k(a,b){if(!a||m(a))return 0;if(!a.getBoundingClientRect)return 1;var c=function(d){return d.getBoundingClientRect()};return r(a,c,b)?0:t(a,c)}function r(a,b,c){a:{for(var d=a;d&amp;&amp;void 0!==d;d=d.parentElement)if("hidden"===d.style.overflow||c&amp;&amp;"G-EXPANDABLE-CONTENT"===d.tagName&amp;&amp;"hidden"===getComputedStyle(d).getPropertyValue("overflow")){c=d;break a}c=null}if(!c)return!1;a=b(a);b=b(c);return a.bottom&lt;b.top||a.top&gt;=b.bottom||a.right&lt;b.left||a.left&gt;=b.right}
+function m(a){return"none"===a.style.display?!0:document.defaultView&amp;&amp;document.defaultView.getComputedStyle?(a=document.defaultView.getComputedStyle(a),!!a&amp;&amp;("hidden"===a.visibility||"0px"===a.height&amp;&amp;"0px"===a.width)):!1}
+function t(a,b){var c=b(a);a=c.left+window.pageXOffset;b=c.top+window.pageYOffset;var d=c.width;c=c.height;var e=0;if(0&gt;=c&amp;&amp;0&gt;=d)return e;var f=window.innerHeight||document.documentElement.clientHeight;0&gt;b+c?e=2:b&gt;=f&amp;&amp;(e=4);if(0&gt;a+d||a&gt;=(window.innerWidth||document.documentElement.clientWidth))e|=8;e||(e=1,b+c&gt;f&amp;&amp;(e|=4));return e};var u=window.location,v="aft afti afts cbs cbt fht frt hct prt sct".split(" ");function w(a){return(a=u.search.match(new RegExp("[?&amp;]"+a+"=(\\d+)")))?Number(a[1]):-1}
+function x(a,b){var c=google.timers[b||"load"];b=c.m;if(!b||!b.prs){var d=g()?0:w("qsubts");0&lt;d&amp;&amp;(b=w("fbts"),0&lt;b&amp;&amp;(c.t.start=Math.max(d,b)));var e=c.t,f=e.start;b={wsrt:c.wsrt||0};if(f)for(var p=0,n;n=v[p++];){var l=e[n];l&amp;&amp;(b[n]=Math.max(l-f,0))}0&lt;d&amp;&amp;(b.gsasrt=c.t.start-d);c=c.e;a="/gen_204?s="+google.sn+"&amp;t="+a+"&amp;atyp=csi&amp;ei="+google.kEI+"&amp;rt=";d="";for(h in b)a+=""+d+h+"."+b[h],d=",";for(var q in c)a+="&amp;"+q+"="+c[q];window._cshid&amp;&amp;(a+="&amp;cshid="+window._cshid);2===g()&amp;&amp;(a+="&amp;bb=1");1===g()&amp;&amp;(a+=
+"&amp;r=1");if("gsasrt"in b){var h=w("qsd");0&lt;h&amp;&amp;(a+="&amp;qsd="+h)}google.kBL&amp;&amp;(a+="&amp;bl="+google.kBL);h=a;navigator.sendBeacon?navigator.sendBeacon(h,""):google.log("","",h)}};function y(a){a&amp;&amp;google.tick("load","cbs",a);google.tick("load","cbt");x("cap")};var z="src bsrc url ll image img-url".split(" ");function A(a){for(var b=0;b&lt;z.length;++b)if(a.getAttribute("data-"+z[b]))return!0;return!1}function B(a){var b=a.parentElement;if(b&amp;&amp;("G-IMG"===b.tagName||b.classList.contains("uhHOwf"))&amp;&amp;(b.style.height||b.style.width)){var c=b.getBoundingClientRect(),d=a.getBoundingClientRect();if(c.height&lt;=d.height||c.width&lt;=d.width)a=b}var e;return k(a,null==(e=google.c)?void 0:e.gecoh)}google.c.iim=google.c.iim||{};var C=window.innerHeight||document.documentElement.clientHeight,D=0,E=0,F=0,G=0,H=0,I=0,J=0,K=!0,L=!0,M=-1,N,P=google.c.sxs?"load2":"load";function Q(a,b,c,d){var e=google.timers[P].t[a];e&amp;&amp;(c||d&amp;&amp;null!=b&amp;&amp;b&lt;e)||google.tick(P,a,b)}function R(a,b,c){"1"===a.getAttribute("data-frt")&amp;&amp;(Q("frt",c,!1,!0),++G,S());b&amp;&amp;(Q("aft",c,!1,!0),Q("afti",c,!1,!0),++I,S());google.c.timl&amp;&amp;Q("iml",c,!1,!0);++E;a.setAttribute("data-frt","0");(google.c.timl||b)&amp;&amp;T()}
+function T(){var a=google.c.timl?E===D:H===I;!L&amp;&amp;a&amp;&amp;google.c.u("il",P)}
+function S(){if(!K){var a=I===H,b=G===F;a&amp;&amp;b&amp;&amp;(google.c.e(P,"ima",String(H)),google.c.e(P,"imad",String(J)),google.c.e(P,"aftp",String(Math.round(M))),document.getElementsByClassName("Ib7Efc").length&amp;&amp;google.c.e(P,"ddl","1"),N&amp;&amp;clearTimeout(N),x(google.c.sxs?"aft2":"aft",P));"hidden"===document.visibilityState&amp;&amp;google.c.e(P,"hddn","1");if(!google.c.sxs&amp;&amp;null!==google.aftq&amp;&amp;(2===google.fevent||3===google.fevent?google.fevent:1)&amp;((a?1:0)|(b?2:0))){google.tick("load","aftqf",Date.now());var c;for(a=
+0;b=null==(c=google.aftq)?void 0:c[a++];)try{b()}catch(d){google.ml(d,!1)}google.aftq=null}}}function U(a,b){0===b||b&amp;8||(a.setAttribute("data-frt","1"),++F)}if(0&lt;google.c.cap&amp;&amp;!google.c.sxs)a:{var V=google.c.cap;if(window.performance&amp;&amp;window.performance.timing&amp;&amp;"navigationStart"in window.performance.timing){var W=window.performance.now(),X=V-W;if(0&lt;X){N=setTimeout(y,X,Math.floor(window.performance.timing.navigationStart+W));break a}y()}N=void 0}google.c.wh=Math.floor(window.innerHeight||document.documentElement.clientHeight);google.c.e(P,"wh",String(google.c.wh));google.c.b("il",P);google.c.setup=function(a,b,c){var d=a.getAttribute("data-atf");if(d)return c=Number(d),b&amp;&amp;!a.hasAttribute("data-frt")&amp;&amp;U(a,c),c;var e="string"!==typeof a.src||!a.src,f=!!a.getAttribute("data-bsrc"),p=!!a.getAttribute("data-deferred"),n=!p&amp;&amp;A(a);n&amp;&amp;a.setAttribute("data-lzy_","1");d=B(a);a.setAttribute("data-atf",String(d));var l=!!(d&amp;1);e=(e||a.complete)&amp;&amp;!p&amp;&amp;!f&amp;&amp;!(l&amp;&amp;n);f=!google.c.lhc&amp;&amp;Number(a.getAttribute("data-iml"))||0;++D;if(e&amp;&amp;!f||a.hasAttribute("data-noaft"))a.setAttribute("data-frt","0"),++E;else{var q=google.c.btfi&amp;&amp;d&amp;4&amp;&amp;f&amp;&amp;M&lt;C;if(q){var h=a.getBoundingClientRect().top+window.pageYOffset;!c||h&lt;c?M=l?C:h:q=!1}l&amp;&amp;(++H,p&amp;&amp;++J);b&amp;&amp;U(a,d);q&amp;&amp;(Q("aft",f,!1,!0),Q("aftb",f,!1,!0));if(e&amp;&amp;f)R(a,l,google.c.btfi?0:f);else{l&amp;&amp;(!c||c&gt;=C)&amp;&amp;(M=C);var O=a.src;google.rll(a,!0,function(){google.c.fil&amp;&amp;(p||n)&amp;&amp;O&amp;&amp;O===a.src?google.rll(a,!0,function(){R(a,l,Date.now())}):R(a,l,Date.now())})}}return d};google.c.ubr=function(a,b,c,d){google.c.taf&amp;&amp;M&lt;C?(M=c||-1,Q("aft",b)):0&gt;M&amp;&amp;(c&amp;&amp;(M=c),google.c.btfi&amp;&amp;Q("aft",b));a||Q("afts",b,!0);d||(Q("aft",b,!0),K&amp;&amp;!google.c.frt&amp;&amp;(K=!1,S()),a&amp;&amp;L&amp;&amp;(Q("prt",b),google.c.timl&amp;&amp;Q("iml",b,!0),L=!1,T(),google.c.setup=function(){return 0},google.c.ubr=function(){}))};}).call(this);(function(){
+var b=[function(){google.tick&amp;&amp;google.tick("load","dcl")}];google.dclc=function(a){b.length?b.push(a):a()};function c(){for(var a=b.shift();a;)a(),a=b.shift()}window.addEventListener?(document.addEventListener("DOMContentLoaded",c,!1),window.addEventListener("load",c,!1)):window.attachEvent&amp;&amp;window.attachEvent("onload",c);}).call(this);(function(){
+var b=[];google.jsc={xx:b,x:function(a){b.push(a)},mm:[],m:function(a){google.jsc.mm.length||(google.jsc.mm=a)}};}).call(this);(function(){
+var e=this||self;
+var f={};function w(a,c){if(null===c)return!1;if("contains"in a&amp;&amp;1==c.nodeType)return a.contains(c);if("compareDocumentPosition"in a)return a==c||!!(a.compareDocumentPosition(c)&amp;16);for(;c&amp;&amp;a!=c;)c=c.parentNode;return c==a};var y=function(a,c){return function(d){d||(d=window.event);return c.call(a,d)}},z="undefined"!=typeof navigator&amp;&amp;/Macintosh/.test(navigator.userAgent),E=function(){this._mouseEventsPrevented=!0};var F=function(a){this.g=a;this.h=[]},G=function(a){for(var c=0;c&lt;a.h.length;++c){var d=a.g,b=a.h[c];d.removeEventListener?d.removeEventListener(b.eventType,b.o,b.capture):d.detachEvent&amp;&amp;d.detachEvent("on"+b.eventType,b.o)}a.h=[]};
+var H=e._jsa||{};H._cfc=void 0;H._aeh=void 0;var I=function(){this.h=this.g=null},K=function(a,c){var d=J;d.g=a;d.h=c;return d};I.prototype.i=function(){var a=this.g;this.g&amp;&amp;this.g!=this.h?this.g=this.g.__owner||this.g.parentNode:this.g=null;return a};var L=function(){var a;this.j=a=void 0===a?[]:a;this.g=0;this.h=null;this.l=!1},N=function(a,c){var d=M;d.j=a;d.g=0;d.h=c;d.l=!1;return d};L.prototype.i=function(){if(this.l)return J.i();if(this.g!=this.j.length){var a=this.j[this.g];this.g++;a!=this.h&amp;&amp;a&amp;&amp;a.__owner&amp;&amp;(this.l=!0,K(a.__owner,this.h));return a}return null};var J=new I,M=new L;
+var Q=function(){this.s=[];this.g=[];this.h=[];this.l={};this.i=null;this.j=[];P(this,"_custom")},R=function(a){return String.prototype.trim?a.trim():a.replace(/^\s+/,"").replace(/\s+$/,"")},ia=function(a,c){return function m(b,g){g=void 0===g?!0:g;var l=c;if("_custom"==l){l=b.detail;if(!l||!l._type)return;l=l._type}var k=l;"click"==k&amp;&amp;(z&amp;&amp;b.metaKey||!z&amp;&amp;b.ctrlKey||2==b.which||null==b.which&amp;&amp;4==b.button||b.shiftKey)?k="clickmod":"keydown"==k&amp;&amp;!b.a11ysc&amp;&amp;(k="maybe_click");var u=b.srcElement||b.target;l=S(k,b,u,"",null);var aa=b.path?N(b.path,this):b.composedPath?N(b.composedPath(),this):K(u,this);for(var r;r=aa.i();){var h=r;var p=void 0;r=h;var q=k,ba=b;var n=r.__jsaction;if(!n){var x;n=null;"getAttribute"in r&amp;&amp;(n=r.getAttribute("jsaction"));if(x=n){n=f[x];if(!n){n={};for(var A=x.split(ca),da=A?A.length:0,B=0;B&lt;da;B++){var v=A[B];if(v){var C=v.indexOf(":"),O=-1!=C,fa=O?R(v.substr(0,C)):ea;v=O?R(v.substr(C+1)):v;n[fa]=v}}f[x]=n}r.__jsaction=n}else n=ha,r.__jsaction=n}"maybe_click"==q&amp;&amp;n.click?(p=q,q="click"):"clickkey"==q?q="click":"click"!=q||n.click||(q="clickonly");p=H._cfc&amp;&amp;n.click?H._cfc(r,ba,n,q,p):{eventType:p?p:q,action:n[q]||"",event:null,ignore:!1};l=S(p.eventType,p.event||b,u,p.action||"",h,l.timeStamp);if(p.ignore||p.action)break}l&amp;&amp;"touchend"==l.eventType&amp;&amp;(l.event._preventMouseEvents=E);if(p&amp;&amp;p.action){if("mouseenter"==k||"mouseleave"==k||"pointerenter"==k||"pointerleave"==k)if(u=b.relatedTarget,!("mouseover"==b.type&amp;&amp;"mouseenter"==k||"mouseout"==b.type&amp;&amp;"mouseleave"==k||
+"pointerover"==b.type&amp;&amp;"pointerenter"==k||"pointerout"==b.type&amp;&amp;"pointerleave"==k)||u&amp;&amp;(u===h||w(h,u)))l.action="",l.actionElement=null;else{k={};for(var t in b)"function"!==typeof b[t]&amp;&amp;"srcElement"!==t&amp;&amp;"target"!==t&amp;&amp;(k[t]=b[t]);k.type="mouseover"==b.type?"mouseenter":"mouseout"==b.type?"mouseleave":"pointerover"==b.type?"pointerenter":"pointerleave";k.target=k.srcElement=h;k.bubbles=!1;l.event=k;l.targetElement=h}}else l.action="",l.actionElement=null;h=l;a.i&amp;&amp;!h.event.a11ysgd&amp;&amp;(t=S(h.eventType,h.event,h.targetElement,h.action,h.actionElement,h.timeStamp),"clickonly"==t.eventType&amp;&amp;(t.eventType="click"),a.i(t,!0));if(h.actionElement||"maybe_click"==h.eventType){if(a.i){if(!h.actionElement||"A"!=h.actionElement.tagName||"click"!=h.eventType&amp;&amp;"clickmod"!=h.eventType||(b.preventDefault?b.preventDefault():b.returnValue=!1),(b=a.i(h))&amp;&amp;g){m.call(this,b,!1);return}}else{if((g=e.document)&amp;&amp;!g.createEvent&amp;&amp;g.createEventObject)try{var D=g.createEventObject(b)}catch(la){D=b}else D=b;h.event=D;a.j.push(h)}H._aeh&amp;&amp;
+H._aeh(h)}}},S=function(a,c,d,b,g,m){return{eventType:a,event:c,targetElement:d,action:b,actionElement:g,timeStamp:m||Date.now()}},ja=function(a,c){return function(d){var b=a,g=c,m=!1;"mouseenter"==b?b="mouseover":"mouseleave"==b?b="mouseout":"pointerenter"==b?b="pointerover":"pointerleave"==b&amp;&amp;(b="pointerout");if(d.addEventListener){if("focus"==b||"blur"==b||"error"==b||"load"==b||"toggle"==b)m=!0;d.addEventListener(b,g,m)}else d.attachEvent&amp;&amp;("focus"==b?b="focusin":"blur"==b&amp;&amp;(b="focusout"),g=y(d,g),d.attachEvent("on"+b,g));return{eventType:b,o:g,capture:m}}},P=function(a,c){if(!a.l.hasOwnProperty(c)){var d=ia(a,c),b=ja(c,d);a.l[c]=d;a.s.push(b);for(d=0;d&lt;a.g.length;++d){var g=a.g[d];g.h.push(b.call(null,g.g))}"click"==c&amp;&amp;P(a,"keydown")}};Q.prototype.o=function(a){return this.l[a]};var W=function(a,c){var d=new F(c);a:{for(var b=0;b&lt;a.g.length;b++)if(T(a.g[b].g,c)){c=!0;break a}c=!1}if(c)return a.h.push(d),d;U(a,d);a.g.push(d);V(a);return d},V=function(a){for(var c=a.h.concat(a.g),d=[],b=[],g=0;g&lt;a.g.length;++g){var m=a.g[g];X(m,c)?(d.push(m),G(m)):b.push(m)}for(g=0;g&lt;a.h.length;++g)m=a.h[g],X(m,c)?d.push(m):(b.push(m),U(a,m));a.g=b;a.h=d},U=function(a,c){var d=c.g;ka&amp;&amp;(d.style.cursor="pointer");for(d=0;d&lt;a.s.length;++d)c.h.push(a.s[d].call(null,c.g))},Y=function(a,c){a.i=c;a.j&amp;&amp;(0&lt;a.j.length&amp;&amp;c(a.j),a.j=null)},X=function(a,c){for(var d=0;d&lt;c.length;++d)if(c[d].g!=a.g&amp;&amp;T(c[d].g,a.g))return!0;return!1},T=function(a,c){for(;a!=c&amp;&amp;c.parentNode;)c=c.parentNode;return a==c},ka="undefined"!=typeof navigator&amp;&amp;/iPhone|iPad|iPod/.test(navigator.userAgent),ca=/\s*;\s*/,ea="click",ha={};var Z=new Q;W(Z,window.document.documentElement);P(Z,"click");P(Z,"focus");P(Z,"focusin");P(Z,"blur");P(Z,"focusout");P(Z,"error");P(Z,"load");P(Z,"auxclick");P(Z,"change");P(Z,"dblclick");P(Z,"beforeinput");P(Z,"input");P(Z,"keyup");P(Z,"keydown");P(Z,"keypress");P(Z,"mousedown");P(Z,"mouseenter");P(Z,"mouseleave");P(Z,"mouseout");P(Z,"mouseover");P(Z,"mouseup");P(Z,"paste");P(Z,"touchstart");P(Z,"touchend");P(Z,"touchcancel");P(Z,"transitioncancel");P(Z,"transitionend");P(Z,"transitionrun");P(Z,"transitionstart");P(Z,"dragover");P(Z,"dragenter");P(Z,"dragleave");P(Z,"drop");P(Z,"dragstart");P(Z,"dragend");P(Z,"speech");(function(a){google.jsad=function(c){Y(a,c)};google.jsaac=function(c){return W(a,c)};google.jsarc=function(c){G(c);for(var d=!1,b=0;b&lt;a.g.length;++b)if(a.g[b]===c){a.g.splice(b,1);d=!0;break}if(!d)for(d=0;d&lt;a.h.length;++d)if(a.h[d]===c){a.h.splice(d,1);break}V(a)}})(Z);e.gws_wizbind=function(a){return{trigger:function(c){var d=a.o(c.type);d||(P(a,c.type),d=a.o(c.type));var b=c.target||c.srcElement;d&amp;&amp;d.call(b.ownerDocument.documentElement,c)},bind:function(c){Y(a,c)}}}(Z);}).call(this);(function(){window._skwEvts=[];})();(function(){window.google.erd={jsr:1,bv:1681,sd:true,de:true};})();(function(){var sdo=false;var mei=10;
+var h=this||self;var k,l=null!=(k=h.mei)?k:1,n,p=null!=(n=h.sdo)?n:!0,q=0,r,t=google.erd,v=t.jsr;google.ml=function(a,b,d,m,e){e=void 0===e?2:e;b&amp;&amp;(r=a&amp;&amp;a.message);if(google.dl)return google.dl(a,e,d),null;if(0&gt;v){window.console&amp;&amp;console.error(a,d);if(-2===v)throw a;b=!1}else b=!a||!a.message||"Error loading script"===a.message||q&gt;=l&amp;&amp;!m?!1:!0;if(!b)return null;q++;d=d||{};b=encodeURIComponent;var c="/gen_204?atyp=i&amp;ei="+b(google.kEI);google.kEXPI&amp;&amp;(c+="&amp;jexpid="+b(google.kEXPI));c+="&amp;srcpg="+b(google.sn)+"&amp;jsr="+b(t.jsr)+"&amp;bver="+b(t.bv);var f=a.lineNumber;void 0!==f&amp;&amp;(c+="&amp;line="+f);var g=
+a.fileName;g&amp;&amp;(0&lt;g.indexOf("-extension:/")&amp;&amp;(e=3),c+="&amp;script="+b(g),f&amp;&amp;g===window.location.href&amp;&amp;(f=document.documentElement.outerHTML.split("\n")[f],c+="&amp;cad="+b(f?f.substring(0,300):"No script found.")));c+="&amp;jsel="+e;for(var u in d)c+="&amp;",c+=b(u),c+="=",c+=b(d[u]);c=c+"&amp;emsg="+b(a.name+": "+a.message);c=c+"&amp;jsst="+b(a.stack||"N/A");12288&lt;=c.length&amp;&amp;(c=c.substr(0,12288));a=c;m||google.log(0,"",a);return a};window.onerror=function(a,b,d,m,e){r!==a&amp;&amp;(a=e instanceof Error?e:Error(a),void 0===d||"lineNumber"in a||(a.lineNumber=d),void 0===b||"fileName"in a||(a.fileName=b),google.ml(a,!1,void 0,!1,"SyntaxError"===a.name||"SyntaxError"===a.message.substring(0,11)||-1!==a.message.indexOf("Script error")?3:0));r=null;p&amp;&amp;q&gt;=l&amp;&amp;(window.onerror=null)};})();;this.gbar_={CONFIG:[[[0,"www.gstatic.com","og.qtm.en_US.5jB2FJqR1F4.O","pl","pl","538",0,[4,2,"","","","484929242","0"],null,"uLxjY4HyH5-Axc8Ppf-yWA",null,0,"og.qtm.8pE41sYUTwg.L.W.O","AA2YrTs00lPzmx9En6HZbOBSxvbnXpv0pA","AA2YrTuXeWsNpP9J282uZWD7GaEqvRiYYQ","",2,1,200,"POL",null,null,"1","538",1],null,[1,0.1000000014901161,2,1],[1,0.001000000047497451,1],[0,0,0,null,"","","",""],[0,0,"",1,0,0,0,0,0,0,null,0,0,null,0,0,null,null,0,0,0,"","","","","","",null,0,0,0,0,0,null,null,null,"rgba(32,33,36,1)","rgba(255,255,255,1)",0,0,1,null,null,1,0,0],null,null,["1","gci_91f30755d6a6b787dcc2a4062e6e9824.js","googleapis.client:gapi.iframes","","pl"],null,null,null,null,["m;/_/scs/abc-static/_/js/k=gapi.gapi.en.7I3T5S8x4Qg.O/d=1/rs=AHpOoo9SzNpm6HglASFo9cZ-GgP5E5f5WQ/m=__features__","https://apis.google.com","","","","",null,1,"es_plusone_gc_20221004.0_p0","pl",null,0],[0.009999999776482582,"pl","538",[null,"","0",null,1,5184000,null,null,"",null,null,null,null,null,0,null,0,0,1,0,0,0,null,null,0,0,null,0,0,0,0,0],null,null,null,0,null,null,["5061451","google\\.(com|ru|ca|by|kz|com\\.mx|com\\.tr)$",1]],[1,1,null,40400,538,"POL","pl","484929242.0",8,0.009999999776482582,0,0,null,null,null,null,"3700949",null,null,null,"uLxjY4HyH5-Axc8Ppf-yWA",0,0,0,null,2,5,"rd",310,0],[[null,null,null,"https://www.gstatic.com/og/_/js/k=og.qtm.en_US.5jB2FJqR1F4.O/rt=j/m=qabr,q_dnp,qcwid,qapid,qald/exm=qaaw,qadd,qaid,qein,qhaw,qhbr,qhch,qhga,qhid,qhin,qhpr/d=1/ed=1/rs=AA2YrTs00lPzmx9En6HZbOBSxvbnXpv0pA"],[null,null,null,"https://www.gstatic.com/og/_/ss/k=og.qtm.8pE41sYUTwg.L.W.O/m=qcwid/excm=qaaw,qadd,qaid,qein,qhaw,qhbr,qhch,qhga,qhid,qhin,qhpr/d=1/ed=1/ct=zgms/rs=AA2YrTuXeWsNpP9J282uZWD7GaEqvRiYYQ"]],null,null,null,[[[null,null,[null,null,null,"https://ogs.google.com/widget/app/so?eom=1"],0,448,328,57,4,1,0,0,63,64,8000,"https://www.google.pl/intl/pl/about/products",67,1,69,null,1,70,"Podczas wczytywania zestawu aplikacji wystąpił problem. Spróbuj ponownie za kilka minut lub przejdź na stronę %1$susług Google%2$s.",3,0,0,74,0,null,null,null,null,null,null,null,"/widget/app/so"]],0,[null,null,null,"https://www.gstatic.com/og/_/js/k=og.qtm.en_US.5jB2FJqR1F4.O/rt=j/m=qdsh/d=1/ed=1/rs=AA2YrTs00lPzmx9En6HZbOBSxvbnXpv0pA"],"1","538",1,0,null,"pl",0,null,0,0,0]]],};this.gbar_=this.gbar_||{};(function(_){var window=this;
+try{
+/*
+ Copyright The Closure Library Authors.
+ SPDX-License-Identifier: Apache-2.0
+*/
+var ka,wa,ya,za,Ca,Ea,Ga,Ha,La,Oa,Ka,Pa,Sa,Xa,Ya,Za,$a,ab,bb,db,eb,ib,jb;_.aa=function(a,b){if(Error.captureStackTrace)Error.captureStackTrace(this,_.aa);else{var c=Error().stack;c&amp;&amp;(this.stack=c)}a&amp;&amp;(this.message=String(a));void 0!==b&amp;&amp;(this.cause=b)};_.ba=function(){var a=_.n.navigator;return a&amp;&amp;(a=a.userAgent)?a:""};_.p=function(a){return-1!=_.ba().indexOf(a)};_.da=function(){return _.p("Opera")};_.ea=function(){return _.p("Trident")||_.p("MSIE")};_.fa=function(){return _.p("Firefox")||_.p("FxiOS")};
+_.ia=function(){return _.p("Safari")&amp;&amp;!(_.ha()||_.p("Coast")||_.da()||_.p("Edge")||_.p("Edg/")||_.p("OPR")||_.fa()||_.p("Silk")||_.p("Android"))};_.ha=function(){return(_.p("Chrome")||_.p("CriOS"))&amp;&amp;!_.p("Edge")||_.p("Silk")};_.ja=function(){return _.p("Android")&amp;&amp;!(_.ha()||_.fa()||_.da()||_.p("Silk"))};ka=function(){return _.p("iPhone")&amp;&amp;!_.p("iPod")&amp;&amp;!_.p("iPad")};_.la=function(){return ka()||_.p("iPad")||_.p("iPod")};
+_.ma=function(a){var b=a.length;if(0&lt;b){for(var c=Array(b),d=0;d&lt;b;d++)c[d]=a[d];return c}return[]};_.na=function(){return-1!=_.ba().toLowerCase().indexOf("webkit")&amp;&amp;!_.p("Edge")};_.pa=function(a){return oa&amp;&amp;null!=a&amp;&amp;a instanceof Uint8Array};_.ra=function(a,b){Object.isFrozen(a)||(qa?a[qa]|=b:void 0!==a.Sb?a.Sb|=b:Object.defineProperties(a,{Sb:{value:b,configurable:!0,writable:!0,enumerable:!1}}))};_.sa=function(a,b){Object.isExtensible(a)&amp;&amp;(qa?a[qa]&amp;&amp;(a[qa]&amp;=~b):void 0!==a.Sb&amp;&amp;(a.Sb&amp;=~b))};
+_.ta=function(a){var b;qa?b=a[qa]:b=a.Sb;return null==b?0:b};_.ua=function(a,b){qa?a[qa]=b:void 0!==a.Sb?a.Sb=b:Object.defineProperties(a,{Sb:{value:b,configurable:!0,writable:!0,enumerable:!1}})};_.va=function(a){_.ra(a,1);return a};wa=function(a){_.ra(a,17);return a};_.xa=function(a){return a?!!(_.ta(a)&amp;2):!1};ya=function(a,b){_.ua(b,(_.ta(a)|18)&amp;-33)};za=function(a){return null!==a&amp;&amp;"object"===typeof a&amp;&amp;!Array.isArray(a)&amp;&amp;a.constructor===Object};
+Ca=function(a){switch(typeof a){case "number":return isFinite(a)?a:String(a);case "object":if(a&amp;&amp;!Array.isArray(a)){if(_.pa(a))return _.Aa(a);if(a instanceof _.Ba){var b=a.Aa;return null==b?"":"string"===typeof b?b:a.Aa=_.Aa(b)}}}return a};Ea=function(a,b,c,d){if(null!=a){if(Array.isArray(a))a=_.Da(a,b,c,void 0!==d);else if(za(a)){var e={},f;for(f in a)e[f]=Ea(a[f],b,c,d);a=e}else a=b(a,d);return a}};
+_.Da=function(a,b,c,d){d=d?!!(_.ta(a)&amp;16):void 0;var e=Array.prototype.slice.call(a);c(a,e);for(a=0;a&lt;e.length;a++)e[a]=Ea(e[a],b,c,d);return e};Ga=function(a){return a.he===_.Fa?a.toJSON():Ca(a)};Ha=function(){};_.Ia=function(a,b){return null==a?b:a};La=function(a){if(_.xa(a)&amp;&amp;Object.isFrozen(a))return a;var b=_.Ja(a,Ka);ya(a,b);Object.freeze(b);return b};
+Oa=function(a,b){if(null!=a){if(oa&amp;&amp;a instanceof Uint8Array)return a.length?new _.Ba(new Uint8Array(a),_.Ma):_.Na();if(Array.isArray(a)){if(_.xa(a))return a;b&amp;&amp;(b=_.ta(a),b=!(b&amp;32)&amp;&amp;(!!(b&amp;16)||0===b));if(b)return _.ra(a,2),a;a=_.Da(a,Oa,ya);_.ta(a)&amp;4&amp;&amp;Object.freeze(a);return a}return a.he===_.Fa?Ka(a):a}};Ka=function(a){if(_.xa(a.na))return a;a=Pa(a);_.ra(a.na,2);return a};
+Pa=function(a){var b=new a.constructor;a.qc&amp;&amp;(b.qc=a.qc.slice());for(var c=a.na,d=!!(_.ta(c)&amp;16),e=0;e&lt;c.length;e++){var f=c[e];if(e===c.length-1&amp;&amp;za(f))for(var g in f){var h=+g;if(Number.isNaN(h))(b.Oa||(b.Oa=b.na[b.tc+b.nc]={}))[h]=f[h];else{var l=f[g],m=a.Wa&amp;&amp;a.Wa[h];m?_.Qa(b,h,La(m),!0):_.q(b,h,Oa(l,d),!0)}}else h=e-a.nc,(l=a.Wa&amp;&amp;a.Wa[h])?_.Qa(b,h,La(l),!1):_.q(b,h,Oa(f,d),!1)}return b};_.Ra=function(a){if(!_.xa(a.na))return a;var b=Pa(a);b.j=a;return b};Sa=function(a,b){return Ca(b)};
+_.t=function(a,b){return null!=a?!!a:!!b};_.u=function(a,b){void 0==b&amp;&amp;(b="");return null!=a?a:b};_.Ta=function(a,b){void 0==b&amp;&amp;(b=0);return null!=a?a:b};_.Ua=function(a,b,c){for(var d in a)b.call(c,a[d],d,a)};_.Wa=function(a,b){for(var c,d,e=1;e&lt;arguments.length;e++){d=arguments[e];for(c in d)a[c]=d[c];for(var f=0;f&lt;Va.length;f++)c=Va[f],Object.prototype.hasOwnProperty.call(d,c)&amp;&amp;(a[c]=d[c])}};Xa=function(a){var b=0;return function(){return b&lt;a.length?{done:!1,value:a[b++]}:{done:!0}}};
+Ya="function"==typeof Object.defineProperties?Object.defineProperty:function(a,b,c){if(a==Array.prototype||a==Object.prototype)return a;a[b]=c.value;return a};Za=function(a){a=["object"==typeof globalThis&amp;&amp;globalThis,a,"object"==typeof window&amp;&amp;window,"object"==typeof self&amp;&amp;self,"object"==typeof global&amp;&amp;global];for(var b=0;b&lt;a.length;++b){var c=a[b];if(c&amp;&amp;c.Math==Math)return c}throw Error("a");};$a=Za(this);
+ab=function(a,b){if(b)a:{var c=$a;a=a.split(".");for(var d=0;d&lt;a.length-1;d++){var e=a[d];if(!(e in c))break a;c=c[e]}a=a[a.length-1];d=c[a];b=b(d);b!=d&amp;&amp;null!=b&amp;&amp;Ya(c,a,{configurable:!0,writable:!0,value:b})}};
+ab("Symbol",function(a){if(a)return a;var b=function(f,g){this.j=f;Ya(this,"description",{configurable:!0,writable:!0,value:g})};b.prototype.toString=function(){return this.j};var c="jscomp_symbol_"+(1E9*Math.random()&gt;&gt;&gt;0)+"_",d=0,e=function(f){if(this instanceof e)throw new TypeError("b");return new b(c+(f||"")+"_"+d++,f)};return e});
+ab("Symbol.iterator",function(a){if(a)return a;a=Symbol("c");for(var b="Array Int8Array Uint8Array Uint8ClampedArray Int16Array Uint16Array Int32Array Uint32Array Float32Array Float64Array".split(" "),c=0;c&lt;b.length;c++){var d=$a[b[c]];"function"===typeof d&amp;&amp;"function"!=typeof d.prototype[a]&amp;&amp;Ya(d.prototype,a,{configurable:!0,writable:!0,value:function(){return bb(Xa(this))}})}return a});bb=function(a){a={next:a};a[Symbol.iterator]=function(){return this};return a};
+_.cb=function(a){var b="undefined"!=typeof Symbol&amp;&amp;Symbol.iterator&amp;&amp;a[Symbol.iterator];return b?b.call(a):{next:Xa(a)}};db="function"==typeof Object.create?Object.create:function(a){var b=function(){};b.prototype=a;return new b};if("function"==typeof Object.setPrototypeOf)eb=Object.setPrototypeOf;else{var fb;a:{var gb={a:!0},hb={};try{hb.__proto__=gb;fb=hb.a;break a}catch(a){}fb=!1}eb=fb?function(a,b){a.__proto__=b;if(a.__proto__!==b)throw new TypeError("d`"+a);return a}:null}ib=eb;
+_.w=function(a,b){a.prototype=db(b.prototype);a.prototype.constructor=a;if(ib)ib(a,b);else for(var c in b)if("prototype"!=c)if(Object.defineProperties){var d=Object.getOwnPropertyDescriptor(b,c);d&amp;&amp;Object.defineProperty(a,c,d)}else a[c]=b[c];a.Y=b.prototype};jb=function(a,b,c){if(null==a)throw new TypeError("e`"+c);if(b instanceof RegExp)throw new TypeError("f`"+c);return a+""};
+ab("String.prototype.startsWith",function(a){return a?a:function(b,c){var d=jb(this,b,"startsWith"),e=d.length,f=b.length;c=Math.max(0,Math.min(c|0,d.length));for(var g=0;g&lt;f&amp;&amp;c&lt;e;)if(d[c++]!=b[g++])return!1;return g&gt;=f}});ab("Array.prototype.find",function(a){return a?a:function(b,c){a:{var d=this;d instanceof String&amp;&amp;(d=String(d));for(var e=d.length,f=0;f&lt;e;f++){var g=d[f];if(b.call(c,g,f,d)){b=g;break a}}b=void 0}return b}});var kb=function(a,b){return Object.prototype.hasOwnProperty.call(a,b)};
+ab("WeakMap",function(a){function b(){}function c(l){var m=typeof l;return"object"===m&amp;&amp;null!==l||"function"===m}function d(l){if(!kb(l,f)){var m=new b;Ya(l,f,{value:m})}}function e(l){var m=Object[l];m&amp;&amp;(Object[l]=function(r){if(r instanceof b)return r;Object.isExtensible(r)&amp;&amp;d(r);return m(r)})}if(function(){if(!a||!Object.seal)return!1;try{var l=Object.seal({}),m=Object.seal({}),r=new a([[l,2],[m,3]]);if(2!=r.get(l)||3!=r.get(m))return!1;r.delete(l);r.set(m,4);return!r.has(l)&amp;&amp;4==r.get(m)}catch(v){return!1}}())return a;
+var f="$jscomp_hidden_"+Math.random();e("freeze");e("preventExtensions");e("seal");var g=0,h=function(l){this.j=(g+=Math.random()+1).toString();if(l){l=_.cb(l);for(var m;!(m=l.next()).done;)m=m.value,this.set(m[0],m[1])}};h.prototype.set=function(l,m){if(!c(l))throw Error("g");d(l);if(!kb(l,f))throw Error("h`"+l);l[f][this.j]=m;return this};h.prototype.get=function(l){return c(l)&amp;&amp;kb(l,f)?l[f][this.j]:void 0};h.prototype.has=function(l){return c(l)&amp;&amp;kb(l,f)&amp;&amp;kb(l[f],this.j)};h.prototype.delete=function(l){return c(l)&amp;&amp;
+kb(l,f)&amp;&amp;kb(l[f],this.j)?delete l[f][this.j]:!1};return h});
+ab("Map",function(a){if(function(){if(!a||"function"!=typeof a||!a.prototype.entries||"function"!=typeof Object.seal)return!1;try{var h=Object.seal({x:4}),l=new a(_.cb([[h,"s"]]));if("s"!=l.get(h)||1!=l.size||l.get({x:4})||l.set({x:4},"t")!=l||2!=l.size)return!1;var m=l.entries(),r=m.next();if(r.done||r.value[0]!=h||"s"!=r.value[1])return!1;r=m.next();return r.done||4!=r.value[0].x||"t"!=r.value[1]||!m.next().done?!1:!0}catch(v){return!1}}())return a;var b=new WeakMap,c=function(h){this.o={};this.j=
+f();this.size=0;if(h){h=_.cb(h);for(var l;!(l=h.next()).done;)l=l.value,this.set(l[0],l[1])}};c.prototype.set=function(h,l){h=0===h?0:h;var m=d(this,h);m.list||(m.list=this.o[m.id]=[]);m.Va?m.Va.value=l:(m.Va={next:this.j,lc:this.j.lc,head:this.j,key:h,value:l},m.list.push(m.Va),this.j.lc.next=m.Va,this.j.lc=m.Va,this.size++);return this};c.prototype.delete=function(h){h=d(this,h);return h.Va&amp;&amp;h.list?(h.list.splice(h.index,1),h.list.length||delete this.o[h.id],h.Va.lc.next=h.Va.next,h.Va.next.lc=
+h.Va.lc,h.Va.head=null,this.size--,!0):!1};c.prototype.clear=function(){this.o={};this.j=this.j.lc=f();this.size=0};c.prototype.has=function(h){return!!d(this,h).Va};c.prototype.get=function(h){return(h=d(this,h).Va)&amp;&amp;h.value};c.prototype.entries=function(){return e(this,function(h){return[h.key,h.value]})};c.prototype.keys=function(){return e(this,function(h){return h.key})};c.prototype.values=function(){return e(this,function(h){return h.value})};c.prototype.forEach=function(h,l){for(var m=this.entries(),
+r;!(r=m.next()).done;)r=r.value,h.call(l,r[1],r[0],this)};c.prototype[Symbol.iterator]=c.prototype.entries;var d=function(h,l){var m=l&amp;&amp;typeof l;"object"==m||"function"==m?b.has(l)?m=b.get(l):(m=""+ ++g,b.set(l,m)):m="p_"+l;var r=h.o[m];if(r&amp;&amp;kb(h.o,m))for(h=0;h&lt;r.length;h++){var v=r[h];if(l!==l&amp;&amp;v.key!==v.key||l===v.key)return{id:m,list:r,index:h,Va:v}}return{id:m,list:r,index:-1,Va:void 0}},e=function(h,l){var m=h.j;return bb(function(){if(m){for(;m.head!=h.j;)m=m.lc;for(;m.next!=m.head;)return m=
+m.next,{done:!1,value:l(m)};m=null}return{done:!0,value:void 0}})},f=function(){var h={};return h.lc=h.next=h.head=h},g=0;return c});ab("Number.MAX_SAFE_INTEGER",function(){return 9007199254740991});var lb=function(a,b){a instanceof String&amp;&amp;(a+="");var c=0,d=!1,e={next:function(){if(!d&amp;&amp;c&lt;a.length){var f=c++;return{value:b(f,a[f]),done:!1}}d=!0;return{done:!0,value:void 0}}};e[Symbol.iterator]=function(){return e};return e};
+ab("Array.prototype.entries",function(a){return a?a:function(){return lb(this,function(b,c){return[b,c]})}});ab("Array.from",function(a){return a?a:function(b,c,d){c=null!=c?c:function(h){return h};var e=[],f="undefined"!=typeof Symbol&amp;&amp;Symbol.iterator&amp;&amp;b[Symbol.iterator];if("function"==typeof f){b=f.call(b);for(var g=0;!(f=b.next()).done;)e.push(c.call(d,f.value,g++))}else for(f=b.length,g=0;g&lt;f;g++)e.push(c.call(d,b[g],g));return e}});
+ab("Array.prototype.keys",function(a){return a?a:function(){return lb(this,function(b){return b})}});ab("Number.isNaN",function(a){return a?a:function(b){return"number"===typeof b&amp;&amp;isNaN(b)}});ab("Array.prototype.fill",function(a){return a?a:function(b,c,d){var e=this.length||0;0&gt;c&amp;&amp;(c=Math.max(0,e+c));if(null==d||d&gt;e)d=e;d=Number(d);0&gt;d&amp;&amp;(d=Math.max(0,e+d));for(c=Number(c||0);c&lt;d;c++)this[c]=b;return this}});var mb=function(a){return a?a:Array.prototype.fill};ab("Int8Array.prototype.fill",mb);
+ab("Uint8Array.prototype.fill",mb);ab("Uint8ClampedArray.prototype.fill",mb);ab("Int16Array.prototype.fill",mb);ab("Uint16Array.prototype.fill",mb);ab("Int32Array.prototype.fill",mb);ab("Uint32Array.prototype.fill",mb);ab("Float32Array.prototype.fill",mb);ab("Float64Array.prototype.fill",mb);var nb="function"==typeof Object.assign?Object.assign:function(a,b){for(var c=1;c&lt;arguments.length;c++){var d=arguments[c];if(d)for(var e in d)kb(d,e)&amp;&amp;(a[e]=d[e])}return a};
+ab("Object.assign",function(a){return a||nb});ab("Object.entries",function(a){return a?a:function(b){var c=[],d;for(d in b)kb(b,d)&amp;&amp;c.push([d,b[d]]);return c}});ab("Array.prototype.values",function(a){return a?a:function(){return lb(this,function(b,c){return c})}});ab("Object.is",function(a){return a?a:function(b,c){return b===c?0!==b||1/b===1/c:b!==b&amp;&amp;c!==c}});
+ab("Array.prototype.includes",function(a){return a?a:function(b,c){var d=this;d instanceof String&amp;&amp;(d=String(d));var e=d.length;c=c||0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>tak</t>
         </is>
       </c>
     </row>
@@ -566,7 +823,70 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="9a6a109e1740bdf3f1f89f91823a5e21", element="af262b3a-6e43-4443-ae8d-ce3e3a238080")&gt;</t>
+          <t>(function(){window.google={kEI:'wrxjY722DbGPxc8P3KOR4A0',kEXPI:'31',kBL:'y__Z'};google.sn='webhp';google.kHL='pl';})();(function(){
+var f=this||self;var h,k=[];function l(a){for(var b;a&amp;&amp;(!a.getAttribute||!(b=a.getAttribute("eid")));)a=a.parentNode;return b||h}function m(a){for(var b=null;a&amp;&amp;(!a.getAttribute||!(b=a.getAttribute("leid")));)a=a.parentNode;return b}
+function n(a,b,c,d,g){var e="";c||-1!==b.search("&amp;ei=")||(e="&amp;ei="+l(d),-1===b.search("&amp;lei=")&amp;&amp;(d=m(d))&amp;&amp;(e+="&amp;lei="+d));d="";!c&amp;&amp;f._cshid&amp;&amp;-1===b.search("&amp;cshid=")&amp;&amp;"slh"!==a&amp;&amp;(d="&amp;cshid="+f._cshid);c=c||"/"+(g||"gen_204")+"?atyp=i&amp;ct="+a+"&amp;cad="+b+e+"&amp;zx="+Date.now()+d;/^http:/i.test(c)&amp;&amp;"https:"===window.location.protocol&amp;&amp;(google.ml&amp;&amp;google.ml(Error("a"),!1,{src:c,glmm:1}),c="");return c};h=google.kEI;google.getEI=l;google.getLEI=m;google.ml=function(){return null};google.log=function(a,b,c,d,g){if(c=n(a,b,c,d,g)){a=new Image;var e=k.length;k[e]=a;a.onerror=a.onload=a.onabort=function(){delete k[e]};a.src=c}};google.logUrl=n;}).call(this);(function(){
+google.y={};google.sy=[];google.x=function(a,b){if(a)var c=a.id;else{do c=Math.random();while(google.y[c])}google.y[c]=[a,b];return!1};google.sx=function(a){google.sy.push(a)};google.lm=[];google.plm=function(a){google.lm.push.apply(google.lm,a)};google.lq=[];google.load=function(a,b,c){google.lq.push([[a],b,c])};google.loadAll=function(a,b){google.lq.push([a,b])};google.bx=!1;google.lx=function(){};}).call(this);google.f={};(function(){
+document.documentElement.addEventListener("submit",function(b){var a;if(a=b.target){var c=a.getAttribute("data-submitfalse");a="1"===c||"q"===c&amp;&amp;!a.elements.q.value?!0:!1}else a=!1;a&amp;&amp;(b.preventDefault(),b.stopPropagation())},!0);document.documentElement.addEventListener("click",function(b){var a;a:{for(a=b.target;a&amp;&amp;a!==document.documentElement;a=a.parentElement)if("A"===a.tagName){a="1"===a.getAttribute("data-nohref");break a}a=!1}a&amp;&amp;b.preventDefault()},!0);}).call(this);(function(){google.hs={h:true,nhs:false,sie:false};})();(function(){google.c={ataf:false,btfi:false,cap:2000,fil:true,frt:false,gecoh:false,gl:true,lhc:false,llt:false,lrt:false,raf:false,sxs:false,taf:false,timl:false};})();(function(){
+var f=this||self;var g=window.performance;function h(a,b,d,c){a.addEventListener?a.addEventListener(b,d,c||!1):a.attachEvent&amp;&amp;a.attachEvent("on"+b,d)}function k(a,b,d,c){"addEventListener"in a?a.removeEventListener(b,d,c||!1):a.attachEvent&amp;&amp;a.detachEvent("on"+b,d)};google.c.iim=google.c.iim||{};function l(a){a&amp;&amp;f.google.aft(a.target)}var m;function n(){k(document.documentElement,"load",m,!0);k(document.documentElement,"error",m,!0)};google.timers={};google.startTick=function(a){google.timers[a]={t:{start:Date.now()},e:{},m:{}}};google.tick=function(a,b,d){google.timers[a]||google.startTick(a);d=void 0!==d?d:Date.now();b instanceof Array||(b=[b]);for(var c=0,e;e=b[c++];)google.timers[a].t[e]=d};google.c.e=function(a,b,d){google.timers[a].e[b]=d};google.c.b=function(a,b){b=google.timers[b||"load"].m;b[a]&amp;&amp;google.ml(Error("a"),!1,{m:a});b[a]=!0};google.c.u=function(a,b){var d=google.timers[b||"load"],c=d.m;if(c[a]){c[a]=!1;for(a in c)if(c[a])return;google.csiReport(d,"load2"===b?"all2":"all")}else{b="";for(var e in c)b+=e+":"+c[e]+";";google.ml(Error("b"),!1,{m:a,b:!1===c[a],s:b})}};google.rll=function(a,b,d){function c(e){d(e);k(a,"load",c);k(a,"error",c)}h(a,"load",c);b&amp;&amp;h(a,"error",c)};f.google.aft=function(a){a.setAttribute("data-iml",String(Date.now()))};google.startTick("load");var p=google.timers.load;a:{var q=p.t;if(g){var r=g.timing;if(r){var t=r.navigationStart,u=r.responseStart;if(u&gt;t&amp;&amp;u&lt;=q.start){q.start=u;p.wsrt=u-t;break a}}g.now&amp;&amp;(p.wsrt=Math.floor(g.now()))}}google.c.b("pr","load");google.c.b("xe","load");function v(a){if("hidden"===document.visibilityState){google.c.fh=a;var b;window.performance&amp;&amp;window.performance.timing&amp;&amp;(b=Math.floor(window.performance.timing.navigationStart+a));google.tick("load","fht",b);return!0}return!1}
+function w(a){v(a.timeStamp)&amp;&amp;k(document,"visibilitychange",w,!0)}google.c.fh=Infinity;h(document,"visibilitychange",w,!0);v(0);google.c.gl&amp;&amp;(m=l,h(document.documentElement,"load",m,!0),google.c.glu=n);}).call(this);(function(){
+function g(){return window.performance&amp;&amp;window.performance.navigation&amp;&amp;window.performance.navigation.type};function k(a,b){if(!a||m(a))return 0;if(!a.getBoundingClientRect)return 1;var c=function(d){return d.getBoundingClientRect()};return r(a,c,b)?0:t(a,c)}function r(a,b,c){a:{for(var d=a;d&amp;&amp;void 0!==d;d=d.parentElement)if("hidden"===d.style.overflow||c&amp;&amp;"G-EXPANDABLE-CONTENT"===d.tagName&amp;&amp;"hidden"===getComputedStyle(d).getPropertyValue("overflow")){c=d;break a}c=null}if(!c)return!1;a=b(a);b=b(c);return a.bottom&lt;b.top||a.top&gt;=b.bottom||a.right&lt;b.left||a.left&gt;=b.right}
+function m(a){return"none"===a.style.display?!0:document.defaultView&amp;&amp;document.defaultView.getComputedStyle?(a=document.defaultView.getComputedStyle(a),!!a&amp;&amp;("hidden"===a.visibility||"0px"===a.height&amp;&amp;"0px"===a.width)):!1}
+function t(a,b){var c=b(a);a=c.left+window.pageXOffset;b=c.top+window.pageYOffset;var d=c.width;c=c.height;var e=0;if(0&gt;=c&amp;&amp;0&gt;=d)return e;var f=window.innerHeight||document.documentElement.clientHeight;0&gt;b+c?e=2:b&gt;=f&amp;&amp;(e=4);if(0&gt;a+d||a&gt;=(window.innerWidth||document.documentElement.clientWidth))e|=8;e||(e=1,b+c&gt;f&amp;&amp;(e|=4));return e};var u=window.location,v="aft afti afts cbs cbt fht frt hct prt sct".split(" ");function w(a){return(a=u.search.match(new RegExp("[?&amp;]"+a+"=(\\d+)")))?Number(a[1]):-1}
+function x(a,b){var c=google.timers[b||"load"];b=c.m;if(!b||!b.prs){var d=g()?0:w("qsubts");0&lt;d&amp;&amp;(b=w("fbts"),0&lt;b&amp;&amp;(c.t.start=Math.max(d,b)));var e=c.t,f=e.start;b={wsrt:c.wsrt||0};if(f)for(var p=0,n;n=v[p++];){var l=e[n];l&amp;&amp;(b[n]=Math.max(l-f,0))}0&lt;d&amp;&amp;(b.gsasrt=c.t.start-d);c=c.e;a="/gen_204?s="+google.sn+"&amp;t="+a+"&amp;atyp=csi&amp;ei="+google.kEI+"&amp;rt=";d="";for(h in b)a+=""+d+h+"."+b[h],d=",";for(var q in c)a+="&amp;"+q+"="+c[q];window._cshid&amp;&amp;(a+="&amp;cshid="+window._cshid);2===g()&amp;&amp;(a+="&amp;bb=1");1===g()&amp;&amp;(a+=
+"&amp;r=1");if("gsasrt"in b){var h=w("qsd");0&lt;h&amp;&amp;(a+="&amp;qsd="+h)}google.kBL&amp;&amp;(a+="&amp;bl="+google.kBL);h=a;navigator.sendBeacon?navigator.sendBeacon(h,""):google.log("","",h)}};function y(a){a&amp;&amp;google.tick("load","cbs",a);google.tick("load","cbt");x("cap")};var z="src bsrc url ll image img-url".split(" ");function A(a){for(var b=0;b&lt;z.length;++b)if(a.getAttribute("data-"+z[b]))return!0;return!1}function B(a){var b=a.parentElement;if(b&amp;&amp;("G-IMG"===b.tagName||b.classList.contains("uhHOwf"))&amp;&amp;(b.style.height||b.style.width)){var c=b.getBoundingClientRect(),d=a.getBoundingClientRect();if(c.height&lt;=d.height||c.width&lt;=d.width)a=b}var e;return k(a,null==(e=google.c)?void 0:e.gecoh)}google.c.iim=google.c.iim||{};var C=window.innerHeight||document.documentElement.clientHeight,D=0,E=0,F=0,G=0,H=0,I=0,J=0,K=!0,L=!0,M=-1,N,P=google.c.sxs?"load2":"load";function Q(a,b,c,d){var e=google.timers[P].t[a];e&amp;&amp;(c||d&amp;&amp;null!=b&amp;&amp;b&lt;e)||google.tick(P,a,b)}function R(a,b,c){"1"===a.getAttribute("data-frt")&amp;&amp;(Q("frt",c,!1,!0),++G,S());b&amp;&amp;(Q("aft",c,!1,!0),Q("afti",c,!1,!0),++I,S());google.c.timl&amp;&amp;Q("iml",c,!1,!0);++E;a.setAttribute("data-frt","0");(google.c.timl||b)&amp;&amp;T()}
+function T(){var a=google.c.timl?E===D:H===I;!L&amp;&amp;a&amp;&amp;google.c.u("il",P)}
+function S(){if(!K){var a=I===H,b=G===F;a&amp;&amp;b&amp;&amp;(google.c.e(P,"ima",String(H)),google.c.e(P,"imad",String(J)),google.c.e(P,"aftp",String(Math.round(M))),document.getElementsByClassName("Ib7Efc").length&amp;&amp;google.c.e(P,"ddl","1"),N&amp;&amp;clearTimeout(N),x(google.c.sxs?"aft2":"aft",P));"hidden"===document.visibilityState&amp;&amp;google.c.e(P,"hddn","1");if(!google.c.sxs&amp;&amp;null!==google.aftq&amp;&amp;(2===google.fevent||3===google.fevent?google.fevent:1)&amp;((a?1:0)|(b?2:0))){google.tick("load","aftqf",Date.now());var c;for(a=
+0;b=null==(c=google.aftq)?void 0:c[a++];)try{b()}catch(d){google.ml(d,!1)}google.aftq=null}}}function U(a,b){0===b||b&amp;8||(a.setAttribute("data-frt","1"),++F)}if(0&lt;google.c.cap&amp;&amp;!google.c.sxs)a:{var V=google.c.cap;if(window.performance&amp;&amp;window.performance.timing&amp;&amp;"navigationStart"in window.performance.timing){var W=window.performance.now(),X=V-W;if(0&lt;X){N=setTimeout(y,X,Math.floor(window.performance.timing.navigationStart+W));break a}y()}N=void 0}google.c.wh=Math.floor(window.innerHeight||document.documentElement.clientHeight);google.c.e(P,"wh",String(google.c.wh));google.c.b("il",P);google.c.setup=function(a,b,c){var d=a.getAttribute("data-atf");if(d)return c=Number(d),b&amp;&amp;!a.hasAttribute("data-frt")&amp;&amp;U(a,c),c;var e="string"!==typeof a.src||!a.src,f=!!a.getAttribute("data-bsrc"),p=!!a.getAttribute("data-deferred"),n=!p&amp;&amp;A(a);n&amp;&amp;a.setAttribute("data-lzy_","1");d=B(a);a.setAttribute("data-atf",String(d));var l=!!(d&amp;1);e=(e||a.complete)&amp;&amp;!p&amp;&amp;!f&amp;&amp;!(l&amp;&amp;n);f=!google.c.lhc&amp;&amp;Number(a.getAttribute("data-iml"))||0;++D;if(e&amp;&amp;!f||a.hasAttribute("data-noaft"))a.setAttribute("data-frt","0"),++E;else{var q=google.c.btfi&amp;&amp;d&amp;4&amp;&amp;f&amp;&amp;M&lt;C;if(q){var h=a.getBoundingClientRect().top+window.pageYOffset;!c||h&lt;c?M=l?C:h:q=!1}l&amp;&amp;(++H,p&amp;&amp;++J);b&amp;&amp;U(a,d);q&amp;&amp;(Q("aft",f,!1,!0),Q("aftb",f,!1,!0));if(e&amp;&amp;f)R(a,l,google.c.btfi?0:f);else{l&amp;&amp;(!c||c&gt;=C)&amp;&amp;(M=C);var O=a.src;google.rll(a,!0,function(){google.c.fil&amp;&amp;(p||n)&amp;&amp;O&amp;&amp;O===a.src?google.rll(a,!0,function(){R(a,l,Date.now())}):R(a,l,Date.now())})}}return d};google.c.ubr=function(a,b,c,d){google.c.taf&amp;&amp;M&lt;C?(M=c||-1,Q("aft",b)):0&gt;M&amp;&amp;(c&amp;&amp;(M=c),google.c.btfi&amp;&amp;Q("aft",b));a||Q("afts",b,!0);d||(Q("aft",b,!0),K&amp;&amp;!google.c.frt&amp;&amp;(K=!1,S()),a&amp;&amp;L&amp;&amp;(Q("prt",b),google.c.timl&amp;&amp;Q("iml",b,!0),L=!1,T(),google.c.setup=function(){return 0},google.c.ubr=function(){}))};}).call(this);(function(){
+var b=[function(){google.tick&amp;&amp;google.tick("load","dcl")}];google.dclc=function(a){b.length?b.push(a):a()};function c(){for(var a=b.shift();a;)a(),a=b.shift()}window.addEventListener?(document.addEventListener("DOMContentLoaded",c,!1),window.addEventListener("load",c,!1)):window.attachEvent&amp;&amp;window.attachEvent("onload",c);}).call(this);(function(){
+var b=[];google.jsc={xx:b,x:function(a){b.push(a)},mm:[],m:function(a){google.jsc.mm.length||(google.jsc.mm=a)}};}).call(this);(function(){
+var e=this||self;
+var f={};function w(a,c){if(null===c)return!1;if("contains"in a&amp;&amp;1==c.nodeType)return a.contains(c);if("compareDocumentPosition"in a)return a==c||!!(a.compareDocumentPosition(c)&amp;16);for(;c&amp;&amp;a!=c;)c=c.parentNode;return c==a};var y=function(a,c){return function(d){d||(d=window.event);return c.call(a,d)}},z="undefined"!=typeof navigator&amp;&amp;/Macintosh/.test(navigator.userAgent),E=function(){this._mouseEventsPrevented=!0};var F=function(a){this.g=a;this.h=[]},G=function(a){for(var c=0;c&lt;a.h.length;++c){var d=a.g,b=a.h[c];d.removeEventListener?d.removeEventListener(b.eventType,b.o,b.capture):d.detachEvent&amp;&amp;d.detachEvent("on"+b.eventType,b.o)}a.h=[]};
+var H=e._jsa||{};H._cfc=void 0;H._aeh=void 0;var I=function(){this.h=this.g=null},K=function(a,c){var d=J;d.g=a;d.h=c;return d};I.prototype.i=function(){var a=this.g;this.g&amp;&amp;this.g!=this.h?this.g=this.g.__owner||this.g.parentNode:this.g=null;return a};var L=function(){var a;this.j=a=void 0===a?[]:a;this.g=0;this.h=null;this.l=!1},N=function(a,c){var d=M;d.j=a;d.g=0;d.h=c;d.l=!1;return d};L.prototype.i=function(){if(this.l)return J.i();if(this.g!=this.j.length){var a=this.j[this.g];this.g++;a!=this.h&amp;&amp;a&amp;&amp;a.__owner&amp;&amp;(this.l=!0,K(a.__owner,this.h));return a}return null};var J=new I,M=new L;
+var Q=function(){this.s=[];this.g=[];this.h=[];this.l={};this.i=null;this.j=[];P(this,"_custom")},R=function(a){return String.prototype.trim?a.trim():a.replace(/^\s+/,"").replace(/\s+$/,"")},ia=function(a,c){return function m(b,g){g=void 0===g?!0:g;var l=c;if("_custom"==l){l=b.detail;if(!l||!l._type)return;l=l._type}var k=l;"click"==k&amp;&amp;(z&amp;&amp;b.metaKey||!z&amp;&amp;b.ctrlKey||2==b.which||null==b.which&amp;&amp;4==b.button||b.shiftKey)?k="clickmod":"keydown"==k&amp;&amp;!b.a11ysc&amp;&amp;(k="maybe_click");var u=b.srcElement||b.target;l=S(k,b,u,"",null);var aa=b.path?N(b.path,this):b.composedPath?N(b.composedPath(),this):K(u,this);for(var r;r=aa.i();){var h=r;var p=void 0;r=h;var q=k,ba=b;var n=r.__jsaction;if(!n){var x;n=null;"getAttribute"in r&amp;&amp;(n=r.getAttribute("jsaction"));if(x=n){n=f[x];if(!n){n={};for(var A=x.split(ca),da=A?A.length:0,B=0;B&lt;da;B++){var v=A[B];if(v){var C=v.indexOf(":"),O=-1!=C,fa=O?R(v.substr(0,C)):ea;v=O?R(v.substr(C+1)):v;n[fa]=v}}f[x]=n}r.__jsaction=n}else n=ha,r.__jsaction=n}"maybe_click"==q&amp;&amp;n.click?(p=q,q="click"):"clickkey"==q?q="click":"click"!=q||n.click||(q="clickonly");p=H._cfc&amp;&amp;n.click?H._cfc(r,ba,n,q,p):{eventType:p?p:q,action:n[q]||"",event:null,ignore:!1};l=S(p.eventType,p.event||b,u,p.action||"",h,l.timeStamp);if(p.ignore||p.action)break}l&amp;&amp;"touchend"==l.eventType&amp;&amp;(l.event._preventMouseEvents=E);if(p&amp;&amp;p.action){if("mouseenter"==k||"mouseleave"==k||"pointerenter"==k||"pointerleave"==k)if(u=b.relatedTarget,!("mouseover"==b.type&amp;&amp;"mouseenter"==k||"mouseout"==b.type&amp;&amp;"mouseleave"==k||
+"pointerover"==b.type&amp;&amp;"pointerenter"==k||"pointerout"==b.type&amp;&amp;"pointerleave"==k)||u&amp;&amp;(u===h||w(h,u)))l.action="",l.actionElement=null;else{k={};for(var t in b)"function"!==typeof b[t]&amp;&amp;"srcElement"!==t&amp;&amp;"target"!==t&amp;&amp;(k[t]=b[t]);k.type="mouseover"==b.type?"mouseenter":"mouseout"==b.type?"mouseleave":"pointerover"==b.type?"pointerenter":"pointerleave";k.target=k.srcElement=h;k.bubbles=!1;l.event=k;l.targetElement=h}}else l.action="",l.actionElement=null;h=l;a.i&amp;&amp;!h.event.a11ysgd&amp;&amp;(t=S(h.eventType,h.event,h.targetElement,h.action,h.actionElement,h.timeStamp),"clickonly"==t.eventType&amp;&amp;(t.eventType="click"),a.i(t,!0));if(h.actionElement||"maybe_click"==h.eventType){if(a.i){if(!h.actionElement||"A"!=h.actionElement.tagName||"click"!=h.eventType&amp;&amp;"clickmod"!=h.eventType||(b.preventDefault?b.preventDefault():b.returnValue=!1),(b=a.i(h))&amp;&amp;g){m.call(this,b,!1);return}}else{if((g=e.document)&amp;&amp;!g.createEvent&amp;&amp;g.createEventObject)try{var D=g.createEventObject(b)}catch(la){D=b}else D=b;h.event=D;a.j.push(h)}H._aeh&amp;&amp;
+H._aeh(h)}}},S=function(a,c,d,b,g,m){return{eventType:a,event:c,targetElement:d,action:b,actionElement:g,timeStamp:m||Date.now()}},ja=function(a,c){return function(d){var b=a,g=c,m=!1;"mouseenter"==b?b="mouseover":"mouseleave"==b?b="mouseout":"pointerenter"==b?b="pointerover":"pointerleave"==b&amp;&amp;(b="pointerout");if(d.addEventListener){if("focus"==b||"blur"==b||"error"==b||"load"==b||"toggle"==b)m=!0;d.addEventListener(b,g,m)}else d.attachEvent&amp;&amp;("focus"==b?b="focusin":"blur"==b&amp;&amp;(b="focusout"),g=y(d,g),d.attachEvent("on"+b,g));return{eventType:b,o:g,capture:m}}},P=function(a,c){if(!a.l.hasOwnProperty(c)){var d=ia(a,c),b=ja(c,d);a.l[c]=d;a.s.push(b);for(d=0;d&lt;a.g.length;++d){var g=a.g[d];g.h.push(b.call(null,g.g))}"click"==c&amp;&amp;P(a,"keydown")}};Q.prototype.o=function(a){return this.l[a]};var W=function(a,c){var d=new F(c);a:{for(var b=0;b&lt;a.g.length;b++)if(T(a.g[b].g,c)){c=!0;break a}c=!1}if(c)return a.h.push(d),d;U(a,d);a.g.push(d);V(a);return d},V=function(a){for(var c=a.h.concat(a.g),d=[],b=[],g=0;g&lt;a.g.length;++g){var m=a.g[g];X(m,c)?(d.push(m),G(m)):b.push(m)}for(g=0;g&lt;a.h.length;++g)m=a.h[g],X(m,c)?d.push(m):(b.push(m),U(a,m));a.g=b;a.h=d},U=function(a,c){var d=c.g;ka&amp;&amp;(d.style.cursor="pointer");for(d=0;d&lt;a.s.length;++d)c.h.push(a.s[d].call(null,c.g))},Y=function(a,c){a.i=c;a.j&amp;&amp;(0&lt;a.j.length&amp;&amp;c(a.j),a.j=null)},X=function(a,c){for(var d=0;d&lt;c.length;++d)if(c[d].g!=a.g&amp;&amp;T(c[d].g,a.g))return!0;return!1},T=function(a,c){for(;a!=c&amp;&amp;c.parentNode;)c=c.parentNode;return a==c},ka="undefined"!=typeof navigator&amp;&amp;/iPhone|iPad|iPod/.test(navigator.userAgent),ca=/\s*;\s*/,ea="click",ha={};var Z=new Q;W(Z,window.document.documentElement);P(Z,"click");P(Z,"focus");P(Z,"focusin");P(Z,"blur");P(Z,"focusout");P(Z,"error");P(Z,"load");P(Z,"auxclick");P(Z,"change");P(Z,"dblclick");P(Z,"beforeinput");P(Z,"input");P(Z,"keyup");P(Z,"keydown");P(Z,"keypress");P(Z,"mousedown");P(Z,"mouseenter");P(Z,"mouseleave");P(Z,"mouseout");P(Z,"mouseover");P(Z,"mouseup");P(Z,"paste");P(Z,"touchstart");P(Z,"touchend");P(Z,"touchcancel");P(Z,"transitioncancel");P(Z,"transitionend");P(Z,"transitionrun");P(Z,"transitionstart");P(Z,"dragover");P(Z,"dragenter");P(Z,"dragleave");P(Z,"drop");P(Z,"dragstart");P(Z,"dragend");P(Z,"speech");(function(a){google.jsad=function(c){Y(a,c)};google.jsaac=function(c){return W(a,c)};google.jsarc=function(c){G(c);for(var d=!1,b=0;b&lt;a.g.length;++b)if(a.g[b]===c){a.g.splice(b,1);d=!0;break}if(!d)for(d=0;d&lt;a.h.length;++d)if(a.h[d]===c){a.h.splice(d,1);break}V(a)}})(Z);e.gws_wizbind=function(a){return{trigger:function(c){var d=a.o(c.type);d||(P(a,c.type),d=a.o(c.type));var b=c.target||c.srcElement;d&amp;&amp;d.call(b.ownerDocument.documentElement,c)},bind:function(c){Y(a,c)}}}(Z);}).call(this);(function(){window._skwEvts=[];})();(function(){window.google.erd={jsr:1,bv:1681,sd:true,de:true};})();(function(){var sdo=false;var mei=10;
+var h=this||self;var k,l=null!=(k=h.mei)?k:1,n,p=null!=(n=h.sdo)?n:!0,q=0,r,t=google.erd,v=t.jsr;google.ml=function(a,b,d,m,e){e=void 0===e?2:e;b&amp;&amp;(r=a&amp;&amp;a.message);if(google.dl)return google.dl(a,e,d),null;if(0&gt;v){window.console&amp;&amp;console.error(a,d);if(-2===v)throw a;b=!1}else b=!a||!a.message||"Error loading script"===a.message||q&gt;=l&amp;&amp;!m?!1:!0;if(!b)return null;q++;d=d||{};b=encodeURIComponent;var c="/gen_204?atyp=i&amp;ei="+b(google.kEI);google.kEXPI&amp;&amp;(c+="&amp;jexpid="+b(google.kEXPI));c+="&amp;srcpg="+b(google.sn)+"&amp;jsr="+b(t.jsr)+"&amp;bver="+b(t.bv);var f=a.lineNumber;void 0!==f&amp;&amp;(c+="&amp;line="+f);var g=
+a.fileName;g&amp;&amp;(0&lt;g.indexOf("-extension:/")&amp;&amp;(e=3),c+="&amp;script="+b(g),f&amp;&amp;g===window.location.href&amp;&amp;(f=document.documentElement.outerHTML.split("\n")[f],c+="&amp;cad="+b(f?f.substring(0,300):"No script found.")));c+="&amp;jsel="+e;for(var u in d)c+="&amp;",c+=b(u),c+="=",c+=b(d[u]);c=c+"&amp;emsg="+b(a.name+": "+a.message);c=c+"&amp;jsst="+b(a.stack||"N/A");12288&lt;=c.length&amp;&amp;(c=c.substr(0,12288));a=c;m||google.log(0,"",a);return a};window.onerror=function(a,b,d,m,e){r!==a&amp;&amp;(a=e instanceof Error?e:Error(a),void 0===d||"lineNumber"in a||(a.lineNumber=d),void 0===b||"fileName"in a||(a.fileName=b),google.ml(a,!1,void 0,!1,"SyntaxError"===a.name||"SyntaxError"===a.message.substring(0,11)||-1!==a.message.indexOf("Script error")?3:0));r=null;p&amp;&amp;q&gt;=l&amp;&amp;(window.onerror=null)};})();;this.gbar_={CONFIG:[[[0,"www.gstatic.com","og.qtm.en_US.5jB2FJqR1F4.O","pl","pl","538",0,[4,2,"","","","484929242","0"],null,"wrxjY_SnDsO_xc8Pwsi2oAM",null,0,"og.qtm.8pE41sYUTwg.L.W.O","AA2YrTs00lPzmx9En6HZbOBSxvbnXpv0pA","AA2YrTuXeWsNpP9J282uZWD7GaEqvRiYYQ","",2,1,200,"POL",null,null,"1","538",1],null,[1,0.1000000014901161,2,1],[1,0.001000000047497451,1],[0,0,0,null,"","","",""],[0,0,"",1,0,0,0,0,0,0,null,0,0,null,0,0,null,null,0,0,0,"","","","","","",null,0,0,0,0,0,null,null,null,"rgba(32,33,36,1)","rgba(255,255,255,1)",0,0,1,null,null,1,0,0],null,null,["1","gci_91f30755d6a6b787dcc2a4062e6e9824.js","googleapis.client:gapi.iframes","","pl"],null,null,null,null,["m;/_/scs/abc-static/_/js/k=gapi.gapi.en.7I3T5S8x4Qg.O/d=1/rs=AHpOoo9SzNpm6HglASFo9cZ-GgP5E5f5WQ/m=__features__","https://apis.google.com","","","","",null,1,"es_plusone_gc_20221004.0_p0","pl",null,0],[0.009999999776482582,"pl","538",[null,"","0",null,1,5184000,null,null,"",null,null,null,null,null,0,null,0,0,1,0,0,0,null,null,0,0,null,0,0,0,0,0],null,null,null,0,null,null,["5061451","google\\.(com|ru|ca|by|kz|com\\.mx|com\\.tr)$",1]],[1,1,null,40400,538,"POL","pl","484929242.0",8,0.009999999776482582,0,0,null,null,null,null,"3700949",null,null,null,"wrxjY_SnDsO_xc8Pwsi2oAM",0,0,0,null,2,5,"rd",325,0],[[null,null,null,"https://www.gstatic.com/og/_/js/k=og.qtm.en_US.5jB2FJqR1F4.O/rt=j/m=qabr,q_dnp,qcwid,qapid,qald/exm=qaaw,qadd,qaid,qein,qhaw,qhbr,qhch,qhga,qhid,qhin,qhpr/d=1/ed=1/rs=AA2YrTs00lPzmx9En6HZbOBSxvbnXpv0pA"],[null,null,null,"https://www.gstatic.com/og/_/ss/k=og.qtm.8pE41sYUTwg.L.W.O/m=qcwid/excm=qaaw,qadd,qaid,qein,qhaw,qhbr,qhch,qhga,qhid,qhin,qhpr/d=1/ed=1/ct=zgms/rs=AA2YrTuXeWsNpP9J282uZWD7GaEqvRiYYQ"]],null,null,null,[[[null,null,[null,null,null,"https://ogs.google.com/widget/app/so?eom=1"],0,448,328,57,4,1,0,0,63,64,8000,"https://www.google.pl/intl/pl/about/products",67,1,69,null,1,70,"Podczas wczytywania zestawu aplikacji wystąpił problem. Spróbuj ponownie za kilka minut lub przejdź na stronę %1$susług Google%2$s.",3,0,0,74,0,null,null,null,null,null,null,null,"/widget/app/so"]],0,[null,null,null,"https://www.gstatic.com/og/_/js/k=og.qtm.en_US.5jB2FJqR1F4.O/rt=j/m=qdsh/d=1/ed=1/rs=AA2YrTs00lPzmx9En6HZbOBSxvbnXpv0pA"],"1","538",1,0,null,"pl",0,null,0,0,0]]],};this.gbar_=this.gbar_||{};(function(_){var window=this;
+try{
+/*
+ Copyright The Closure Library Authors.
+ SPDX-License-Identifier: Apache-2.0
+*/
+var ka,wa,ya,za,Ca,Ea,Ga,Ha,La,Oa,Ka,Pa,Sa,Xa,Ya,Za,$a,ab,bb,db,eb,ib,jb;_.aa=function(a,b){if(Error.captureStackTrace)Error.captureStackTrace(this,_.aa);else{var c=Error().stack;c&amp;&amp;(this.stack=c)}a&amp;&amp;(this.message=String(a));void 0!==b&amp;&amp;(this.cause=b)};_.ba=function(){var a=_.n.navigator;return a&amp;&amp;(a=a.userAgent)?a:""};_.p=function(a){return-1!=_.ba().indexOf(a)};_.da=function(){return _.p("Opera")};_.ea=function(){return _.p("Trident")||_.p("MSIE")};_.fa=function(){return _.p("Firefox")||_.p("FxiOS")};
+_.ia=function(){return _.p("Safari")&amp;&amp;!(_.ha()||_.p("Coast")||_.da()||_.p("Edge")||_.p("Edg/")||_.p("OPR")||_.fa()||_.p("Silk")||_.p("Android"))};_.ha=function(){return(_.p("Chrome")||_.p("CriOS"))&amp;&amp;!_.p("Edge")||_.p("Silk")};_.ja=function(){return _.p("Android")&amp;&amp;!(_.ha()||_.fa()||_.da()||_.p("Silk"))};ka=function(){return _.p("iPhone")&amp;&amp;!_.p("iPod")&amp;&amp;!_.p("iPad")};_.la=function(){return ka()||_.p("iPad")||_.p("iPod")};
+_.ma=function(a){var b=a.length;if(0&lt;b){for(var c=Array(b),d=0;d&lt;b;d++)c[d]=a[d];return c}return[]};_.na=function(){return-1!=_.ba().toLowerCase().indexOf("webkit")&amp;&amp;!_.p("Edge")};_.pa=function(a){return oa&amp;&amp;null!=a&amp;&amp;a instanceof Uint8Array};_.ra=function(a,b){Object.isFrozen(a)||(qa?a[qa]|=b:void 0!==a.Sb?a.Sb|=b:Object.defineProperties(a,{Sb:{value:b,configurable:!0,writable:!0,enumerable:!1}}))};_.sa=function(a,b){Object.isExtensible(a)&amp;&amp;(qa?a[qa]&amp;&amp;(a[qa]&amp;=~b):void 0!==a.Sb&amp;&amp;(a.Sb&amp;=~b))};
+_.ta=function(a){var b;qa?b=a[qa]:b=a.Sb;return null==b?0:b};_.ua=function(a,b){qa?a[qa]=b:void 0!==a.Sb?a.Sb=b:Object.defineProperties(a,{Sb:{value:b,configurable:!0,writable:!0,enumerable:!1}})};_.va=function(a){_.ra(a,1);return a};wa=function(a){_.ra(a,17);return a};_.xa=function(a){return a?!!(_.ta(a)&amp;2):!1};ya=function(a,b){_.ua(b,(_.ta(a)|18)&amp;-33)};za=function(a){return null!==a&amp;&amp;"object"===typeof a&amp;&amp;!Array.isArray(a)&amp;&amp;a.constructor===Object};
+Ca=function(a){switch(typeof a){case "number":return isFinite(a)?a:String(a);case "object":if(a&amp;&amp;!Array.isArray(a)){if(_.pa(a))return _.Aa(a);if(a instanceof _.Ba){var b=a.Aa;return null==b?"":"string"===typeof b?b:a.Aa=_.Aa(b)}}}return a};Ea=function(a,b,c,d){if(null!=a){if(Array.isArray(a))a=_.Da(a,b,c,void 0!==d);else if(za(a)){var e={},f;for(f in a)e[f]=Ea(a[f],b,c,d);a=e}else a=b(a,d);return a}};
+_.Da=function(a,b,c,d){d=d?!!(_.ta(a)&amp;16):void 0;var e=Array.prototype.slice.call(a);c(a,e);for(a=0;a&lt;e.length;a++)e[a]=Ea(e[a],b,c,d);return e};Ga=function(a){return a.he===_.Fa?a.toJSON():Ca(a)};Ha=function(){};_.Ia=function(a,b){return null==a?b:a};La=function(a){if(_.xa(a)&amp;&amp;Object.isFrozen(a))return a;var b=_.Ja(a,Ka);ya(a,b);Object.freeze(b);return b};
+Oa=function(a,b){if(null!=a){if(oa&amp;&amp;a instanceof Uint8Array)return a.length?new _.Ba(new Uint8Array(a),_.Ma):_.Na();if(Array.isArray(a)){if(_.xa(a))return a;b&amp;&amp;(b=_.ta(a),b=!(b&amp;32)&amp;&amp;(!!(b&amp;16)||0===b));if(b)return _.ra(a,2),a;a=_.Da(a,Oa,ya);_.ta(a)&amp;4&amp;&amp;Object.freeze(a);return a}return a.he===_.Fa?Ka(a):a}};Ka=function(a){if(_.xa(a.na))return a;a=Pa(a);_.ra(a.na,2);return a};
+Pa=function(a){var b=new a.constructor;a.qc&amp;&amp;(b.qc=a.qc.slice());for(var c=a.na,d=!!(_.ta(c)&amp;16),e=0;e&lt;c.length;e++){var f=c[e];if(e===c.length-1&amp;&amp;za(f))for(var g in f){var h=+g;if(Number.isNaN(h))(b.Oa||(b.Oa=b.na[b.tc+b.nc]={}))[h]=f[h];else{var l=f[g],m=a.Wa&amp;&amp;a.Wa[h];m?_.Qa(b,h,La(m),!0):_.q(b,h,Oa(l,d),!0)}}else h=e-a.nc,(l=a.Wa&amp;&amp;a.Wa[h])?_.Qa(b,h,La(l),!1):_.q(b,h,Oa(f,d),!1)}return b};_.Ra=function(a){if(!_.xa(a.na))return a;var b=Pa(a);b.j=a;return b};Sa=function(a,b){return Ca(b)};
+_.t=function(a,b){return null!=a?!!a:!!b};_.u=function(a,b){void 0==b&amp;&amp;(b="");return null!=a?a:b};_.Ta=function(a,b){void 0==b&amp;&amp;(b=0);return null!=a?a:b};_.Ua=function(a,b,c){for(var d in a)b.call(c,a[d],d,a)};_.Wa=function(a,b){for(var c,d,e=1;e&lt;arguments.length;e++){d=arguments[e];for(c in d)a[c]=d[c];for(var f=0;f&lt;Va.length;f++)c=Va[f],Object.prototype.hasOwnProperty.call(d,c)&amp;&amp;(a[c]=d[c])}};Xa=function(a){var b=0;return function(){return b&lt;a.length?{done:!1,value:a[b++]}:{done:!0}}};
+Ya="function"==typeof Object.defineProperties?Object.defineProperty:function(a,b,c){if(a==Array.prototype||a==Object.prototype)return a;a[b]=c.value;return a};Za=function(a){a=["object"==typeof globalThis&amp;&amp;globalThis,a,"object"==typeof window&amp;&amp;window,"object"==typeof self&amp;&amp;self,"object"==typeof global&amp;&amp;global];for(var b=0;b&lt;a.length;++b){var c=a[b];if(c&amp;&amp;c.Math==Math)return c}throw Error("a");};$a=Za(this);
+ab=function(a,b){if(b)a:{var c=$a;a=a.split(".");for(var d=0;d&lt;a.length-1;d++){var e=a[d];if(!(e in c))break a;c=c[e]}a=a[a.length-1];d=c[a];b=b(d);b!=d&amp;&amp;null!=b&amp;&amp;Ya(c,a,{configurable:!0,writable:!0,value:b})}};
+ab("Symbol",function(a){if(a)return a;var b=function(f,g){this.j=f;Ya(this,"description",{configurable:!0,writable:!0,value:g})};b.prototype.toString=function(){return this.j};var c="jscomp_symbol_"+(1E9*Math.random()&gt;&gt;&gt;0)+"_",d=0,e=function(f){if(this instanceof e)throw new TypeError("b");return new b(c+(f||"")+"_"+d++,f)};return e});
+ab("Symbol.iterator",function(a){if(a)return a;a=Symbol("c");for(var b="Array Int8Array Uint8Array Uint8ClampedArray Int16Array Uint16Array Int32Array Uint32Array Float32Array Float64Array".split(" "),c=0;c&lt;b.length;c++){var d=$a[b[c]];"function"===typeof d&amp;&amp;"function"!=typeof d.prototype[a]&amp;&amp;Ya(d.prototype,a,{configurable:!0,writable:!0,value:function(){return bb(Xa(this))}})}return a});bb=function(a){a={next:a};a[Symbol.iterator]=function(){return this};return a};
+_.cb=function(a){var b="undefined"!=typeof Symbol&amp;&amp;Symbol.iterator&amp;&amp;a[Symbol.iterator];return b?b.call(a):{next:Xa(a)}};db="function"==typeof Object.create?Object.create:function(a){var b=function(){};b.prototype=a;return new b};if("function"==typeof Object.setPrototypeOf)eb=Object.setPrototypeOf;else{var fb;a:{var gb={a:!0},hb={};try{hb.__proto__=gb;fb=hb.a;break a}catch(a){}fb=!1}eb=fb?function(a,b){a.__proto__=b;if(a.__proto__!==b)throw new TypeError("d`"+a);return a}:null}ib=eb;
+_.w=function(a,b){a.prototype=db(b.prototype);a.prototype.constructor=a;if(ib)ib(a,b);else for(var c in b)if("prototype"!=c)if(Object.defineProperties){var d=Object.getOwnPropertyDescriptor(b,c);d&amp;&amp;Object.defineProperty(a,c,d)}else a[c]=b[c];a.Y=b.prototype};jb=function(a,b,c){if(null==a)throw new TypeError("e`"+c);if(b instanceof RegExp)throw new TypeError("f`"+c);return a+""};
+ab("String.prototype.startsWith",function(a){return a?a:function(b,c){var d=jb(this,b,"startsWith"),e=d.length,f=b.length;c=Math.max(0,Math.min(c|0,d.length));for(var g=0;g&lt;f&amp;&amp;c&lt;e;)if(d[c++]!=b[g++])return!1;return g&gt;=f}});ab("Array.prototype.find",function(a){return a?a:function(b,c){a:{var d=this;d instanceof String&amp;&amp;(d=String(d));for(var e=d.length,f=0;f&lt;e;f++){var g=d[f];if(b.call(c,g,f,d)){b=g;break a}}b=void 0}return b}});var kb=function(a,b){return Object.prototype.hasOwnProperty.call(a,b)};
+ab("WeakMap",function(a){function b(){}function c(l){var m=typeof l;return"object"===m&amp;&amp;null!==l||"function"===m}function d(l){if(!kb(l,f)){var m=new b;Ya(l,f,{value:m})}}function e(l){var m=Object[l];m&amp;&amp;(Object[l]=function(r){if(r instanceof b)return r;Object.isExtensible(r)&amp;&amp;d(r);return m(r)})}if(function(){if(!a||!Object.seal)return!1;try{var l=Object.seal({}),m=Object.seal({}),r=new a([[l,2],[m,3]]);if(2!=r.get(l)||3!=r.get(m))return!1;r.delete(l);r.set(m,4);return!r.has(l)&amp;&amp;4==r.get(m)}catch(v){return!1}}())return a;
+var f="$jscomp_hidden_"+Math.random();e("freeze");e("preventExtensions");e("seal");var g=0,h=function(l){this.j=(g+=Math.random()+1).toString();if(l){l=_.cb(l);for(var m;!(m=l.next()).done;)m=m.value,this.set(m[0],m[1])}};h.prototype.set=function(l,m){if(!c(l))throw Error("g");d(l);if(!kb(l,f))throw Error("h`"+l);l[f][this.j]=m;return this};h.prototype.get=function(l){return c(l)&amp;&amp;kb(l,f)?l[f][this.j]:void 0};h.prototype.has=function(l){return c(l)&amp;&amp;kb(l,f)&amp;&amp;kb(l[f],this.j)};h.prototype.delete=function(l){return c(l)&amp;&amp;
+kb(l,f)&amp;&amp;kb(l[f],this.j)?delete l[f][this.j]:!1};return h});
+ab("Map",function(a){if(function(){if(!a||"function"!=typeof a||!a.prototype.entries||"function"!=typeof Object.seal)return!1;try{var h=Object.seal({x:4}),l=new a(_.cb([[h,"s"]]));if("s"!=l.get(h)||1!=l.size||l.get({x:4})||l.set({x:4},"t")!=l||2!=l.size)return!1;var m=l.entries(),r=m.next();if(r.done||r.value[0]!=h||"s"!=r.value[1])return!1;r=m.next();return r.done||4!=r.value[0].x||"t"!=r.value[1]||!m.next().done?!1:!0}catch(v){return!1}}())return a;var b=new WeakMap,c=function(h){this.o={};this.j=
+f();this.size=0;if(h){h=_.cb(h);for(var l;!(l=h.next()).done;)l=l.value,this.set(l[0],l[1])}};c.prototype.set=function(h,l){h=0===h?0:h;var m=d(this,h);m.list||(m.list=this.o[m.id]=[]);m.Va?m.Va.value=l:(m.Va={next:this.j,lc:this.j.lc,head:this.j,key:h,value:l},m.list.push(m.Va),this.j.lc.next=m.Va,this.j.lc=m.Va,this.size++);return this};c.prototype.delete=function(h){h=d(this,h);return h.Va&amp;&amp;h.list?(h.list.splice(h.index,1),h.list.length||delete this.o[h.id],h.Va.lc.next=h.Va.next,h.Va.next.lc=
+h.Va.lc,h.Va.head=null,this.size--,!0):!1};c.prototype.clear=function(){this.o={};this.j=this.j.lc=f();this.size=0};c.prototype.has=function(h){return!!d(this,h).Va};c.prototype.get=function(h){return(h=d(this,h).Va)&amp;&amp;h.value};c.prototype.entries=function(){return e(this,function(h){return[h.key,h.value]})};c.prototype.keys=function(){return e(this,function(h){return h.key})};c.prototype.values=function(){return e(this,function(h){return h.value})};c.prototype.forEach=function(h,l){for(var m=this.entries(),
+r;!(r=m.next()).done;)r=r.value,h.call(l,r[1],r[0],this)};c.prototype[Symbol.iterator]=c.prototype.entries;var d=function(h,l){var m=l&amp;&amp;typeof l;"object"==m||"function"==m?b.has(l)?m=b.get(l):(m=""+ ++g,b.set(l,m)):m="p_"+l;var r=h.o[m];if(r&amp;&amp;kb(h.o,m))for(h=0;h&lt;r.length;h++){var v=r[h];if(l!==l&amp;&amp;v.key!==v.key||l===v.key)return{id:m,list:r,index:h,Va:v}}return{id:m,list:r,index:-1,Va:void 0}},e=function(h,l){var m=h.j;return bb(function(){if(m){for(;m.head!=h.j;)m=m.lc;for(;m.next!=m.head;)return m=
+m.next,{done:!1,value:l(m)};m=null}return{done:!0,value:void 0}})},f=function(){var h={};return h.lc=h.next=h.head=h},g=0;return c});ab("Number.MAX_SAFE_INTEGER",function(){return 9007199254740991});var lb=function(a,b){a instanceof String&amp;&amp;(a+="");var c=0,d=!1,e={next:function(){if(!d&amp;&amp;c&lt;a.length){var f=c++;return{value:b(f,a[f]),done:!1}}d=!0;return{done:!0,value:void 0}}};e[Symbol.iterator]=function(){return e};return e};
+ab("Array.prototype.entries",function(a){return a?a:function(){return lb(this,function(b,c){return[b,c]})}});ab("Array.from",function(a){return a?a:function(b,c,d){c=null!=c?c:function(h){return h};var e=[],f="undefined"!=typeof Symbol&amp;&amp;Symbol.iterator&amp;&amp;b[Symbol.iterator];if("function"==typeof f){b=f.call(b);for(var g=0;!(f=b.next()).done;)e.push(c.call(d,f.value,g++))}else for(f=b.length,g=0;g&lt;f;g++)e.push(c.call(d,b[g],g));return e}});
+ab("Array.prototype.keys",function(a){return a?a:function(){return lb(this,function(b){return b})}});ab("Number.isNaN",function(a){return a?a:function(b){return"number"===typeof b&amp;&amp;isNaN(b)}});ab("Array.prototype.fill",function(a){return a?a:function(b,c,d){var e=this.length||0;0&gt;c&amp;&amp;(c=Math.max(0,e+c));if(null==d||d&gt;e)d=e;d=Number(d);0&gt;d&amp;&amp;(d=Math.max(0,e+d));for(c=Number(c||0);c&lt;d;c++)this[c]=b;return this}});var mb=function(a){return a?a:Array.prototype.fill};ab("Int8Array.prototype.fill",mb);
+ab("Uint8Array.prototype.fill",mb);ab("Uint8ClampedArray.prototype.fill",mb);ab("Int16Array.prototype.fill",mb);ab("Uint16Array.prototype.fill",mb);ab("Int32Array.prototype.fill",mb);ab("Uint32Array.prototype.fill",mb);ab("Float32Array.prototype.fill",mb);ab("Float64Array.prototype.fill",mb);var nb="function"==typeof Object.assign?Object.assign:function(a,b){for(var c=1;c&lt;arguments.length;c++){var d=arguments[c];if(d)for(var e in d)kb(d,e)&amp;&amp;(a[e]=d[e])}return a};
+ab("Object.assign",function(a){return a||nb});ab("Object.entries",function(a){return a?a:function(b){var c=[],d;for(d in b)kb(b,d)&amp;&amp;c.push([d,b[d]]);return c}});ab("Array.prototype.values",function(a){return a?a:function(){return lb(this,function(b,c){return c})}});ab("Object.is",function(a){return a?a:function(b,c){return b===c?0!==b||1/b===1/c:b!==b&amp;&amp;c!==c}});
+ab("Array.prototype.includes",function(a){return a?a:function(b,c){var d=this;d instanceof String&amp;&amp;(d=String(d));var e=d.length;c=c</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>tak</t>
         </is>
       </c>
     </row>
@@ -589,7 +909,70 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="05cc26cd6796a1d7ea2e21d4c83668ad", element="ff593167-681b-431a-b710-35022d52773f")&gt;</t>
+          <t>(function(){window.google={kEI:'zLxjY7HsCay-xc8Pk7GjiA8',kEXPI:'31',kBL:'y__Z'};google.sn='webhp';google.kHL='pl';})();(function(){
+var f=this||self;var h,k=[];function l(a){for(var b;a&amp;&amp;(!a.getAttribute||!(b=a.getAttribute("eid")));)a=a.parentNode;return b||h}function m(a){for(var b=null;a&amp;&amp;(!a.getAttribute||!(b=a.getAttribute("leid")));)a=a.parentNode;return b}
+function n(a,b,c,d,g){var e="";c||-1!==b.search("&amp;ei=")||(e="&amp;ei="+l(d),-1===b.search("&amp;lei=")&amp;&amp;(d=m(d))&amp;&amp;(e+="&amp;lei="+d));d="";!c&amp;&amp;f._cshid&amp;&amp;-1===b.search("&amp;cshid=")&amp;&amp;"slh"!==a&amp;&amp;(d="&amp;cshid="+f._cshid);c=c||"/"+(g||"gen_204")+"?atyp=i&amp;ct="+a+"&amp;cad="+b+e+"&amp;zx="+Date.now()+d;/^http:/i.test(c)&amp;&amp;"https:"===window.location.protocol&amp;&amp;(google.ml&amp;&amp;google.ml(Error("a"),!1,{src:c,glmm:1}),c="");return c};h=google.kEI;google.getEI=l;google.getLEI=m;google.ml=function(){return null};google.log=function(a,b,c,d,g){if(c=n(a,b,c,d,g)){a=new Image;var e=k.length;k[e]=a;a.onerror=a.onload=a.onabort=function(){delete k[e]};a.src=c}};google.logUrl=n;}).call(this);(function(){
+google.y={};google.sy=[];google.x=function(a,b){if(a)var c=a.id;else{do c=Math.random();while(google.y[c])}google.y[c]=[a,b];return!1};google.sx=function(a){google.sy.push(a)};google.lm=[];google.plm=function(a){google.lm.push.apply(google.lm,a)};google.lq=[];google.load=function(a,b,c){google.lq.push([[a],b,c])};google.loadAll=function(a,b){google.lq.push([a,b])};google.bx=!1;google.lx=function(){};}).call(this);google.f={};(function(){
+document.documentElement.addEventListener("submit",function(b){var a;if(a=b.target){var c=a.getAttribute("data-submitfalse");a="1"===c||"q"===c&amp;&amp;!a.elements.q.value?!0:!1}else a=!1;a&amp;&amp;(b.preventDefault(),b.stopPropagation())},!0);document.documentElement.addEventListener("click",function(b){var a;a:{for(a=b.target;a&amp;&amp;a!==document.documentElement;a=a.parentElement)if("A"===a.tagName){a="1"===a.getAttribute("data-nohref");break a}a=!1}a&amp;&amp;b.preventDefault()},!0);}).call(this);(function(){google.hs={h:true,nhs:false,sie:false};})();(function(){google.c={ataf:false,btfi:false,cap:2000,fil:true,frt:false,gecoh:false,gl:true,lhc:false,llt:false,lrt:false,raf:false,sxs:false,taf:false,timl:false};})();(function(){
+var f=this||self;var g=window.performance;function h(a,b,d,c){a.addEventListener?a.addEventListener(b,d,c||!1):a.attachEvent&amp;&amp;a.attachEvent("on"+b,d)}function k(a,b,d,c){"addEventListener"in a?a.removeEventListener(b,d,c||!1):a.attachEvent&amp;&amp;a.detachEvent("on"+b,d)};google.c.iim=google.c.iim||{};function l(a){a&amp;&amp;f.google.aft(a.target)}var m;function n(){k(document.documentElement,"load",m,!0);k(document.documentElement,"error",m,!0)};google.timers={};google.startTick=function(a){google.timers[a]={t:{start:Date.now()},e:{},m:{}}};google.tick=function(a,b,d){google.timers[a]||google.startTick(a);d=void 0!==d?d:Date.now();b instanceof Array||(b=[b]);for(var c=0,e;e=b[c++];)google.timers[a].t[e]=d};google.c.e=function(a,b,d){google.timers[a].e[b]=d};google.c.b=function(a,b){b=google.timers[b||"load"].m;b[a]&amp;&amp;google.ml(Error("a"),!1,{m:a});b[a]=!0};google.c.u=function(a,b){var d=google.timers[b||"load"],c=d.m;if(c[a]){c[a]=!1;for(a in c)if(c[a])return;google.csiReport(d,"load2"===b?"all2":"all")}else{b="";for(var e in c)b+=e+":"+c[e]+";";google.ml(Error("b"),!1,{m:a,b:!1===c[a],s:b})}};google.rll=function(a,b,d){function c(e){d(e);k(a,"load",c);k(a,"error",c)}h(a,"load",c);b&amp;&amp;h(a,"error",c)};f.google.aft=function(a){a.setAttribute("data-iml",String(Date.now()))};google.startTick("load");var p=google.timers.load;a:{var q=p.t;if(g){var r=g.timing;if(r){var t=r.navigationStart,u=r.responseStart;if(u&gt;t&amp;&amp;u&lt;=q.start){q.start=u;p.wsrt=u-t;break a}}g.now&amp;&amp;(p.wsrt=Math.floor(g.now()))}}google.c.b("pr","load");google.c.b("xe","load");function v(a){if("hidden"===document.visibilityState){google.c.fh=a;var b;window.performance&amp;&amp;window.performance.timing&amp;&amp;(b=Math.floor(window.performance.timing.navigationStart+a));google.tick("load","fht",b);return!0}return!1}
+function w(a){v(a.timeStamp)&amp;&amp;k(document,"visibilitychange",w,!0)}google.c.fh=Infinity;h(document,"visibilitychange",w,!0);v(0);google.c.gl&amp;&amp;(m=l,h(document.documentElement,"load",m,!0),google.c.glu=n);}).call(this);(function(){
+function g(){return window.performance&amp;&amp;window.performance.navigation&amp;&amp;window.performance.navigation.type};function k(a,b){if(!a||m(a))return 0;if(!a.getBoundingClientRect)return 1;var c=function(d){return d.getBoundingClientRect()};return r(a,c,b)?0:t(a,c)}function r(a,b,c){a:{for(var d=a;d&amp;&amp;void 0!==d;d=d.parentElement)if("hidden"===d.style.overflow||c&amp;&amp;"G-EXPANDABLE-CONTENT"===d.tagName&amp;&amp;"hidden"===getComputedStyle(d).getPropertyValue("overflow")){c=d;break a}c=null}if(!c)return!1;a=b(a);b=b(c);return a.bottom&lt;b.top||a.top&gt;=b.bottom||a.right&lt;b.left||a.left&gt;=b.right}
+function m(a){return"none"===a.style.display?!0:document.defaultView&amp;&amp;document.defaultView.getComputedStyle?(a=document.defaultView.getComputedStyle(a),!!a&amp;&amp;("hidden"===a.visibility||"0px"===a.height&amp;&amp;"0px"===a.width)):!1}
+function t(a,b){var c=b(a);a=c.left+window.pageXOffset;b=c.top+window.pageYOffset;var d=c.width;c=c.height;var e=0;if(0&gt;=c&amp;&amp;0&gt;=d)return e;var f=window.innerHeight||document.documentElement.clientHeight;0&gt;b+c?e=2:b&gt;=f&amp;&amp;(e=4);if(0&gt;a+d||a&gt;=(window.innerWidth||document.documentElement.clientWidth))e|=8;e||(e=1,b+c&gt;f&amp;&amp;(e|=4));return e};var u=window.location,v="aft afti afts cbs cbt fht frt hct prt sct".split(" ");function w(a){return(a=u.search.match(new RegExp("[?&amp;]"+a+"=(\\d+)")))?Number(a[1]):-1}
+function x(a,b){var c=google.timers[b||"load"];b=c.m;if(!b||!b.prs){var d=g()?0:w("qsubts");0&lt;d&amp;&amp;(b=w("fbts"),0&lt;b&amp;&amp;(c.t.start=Math.max(d,b)));var e=c.t,f=e.start;b={wsrt:c.wsrt||0};if(f)for(var p=0,n;n=v[p++];){var l=e[n];l&amp;&amp;(b[n]=Math.max(l-f,0))}0&lt;d&amp;&amp;(b.gsasrt=c.t.start-d);c=c.e;a="/gen_204?s="+google.sn+"&amp;t="+a+"&amp;atyp=csi&amp;ei="+google.kEI+"&amp;rt=";d="";for(h in b)a+=""+d+h+"."+b[h],d=",";for(var q in c)a+="&amp;"+q+"="+c[q];window._cshid&amp;&amp;(a+="&amp;cshid="+window._cshid);2===g()&amp;&amp;(a+="&amp;bb=1");1===g()&amp;&amp;(a+=
+"&amp;r=1");if("gsasrt"in b){var h=w("qsd");0&lt;h&amp;&amp;(a+="&amp;qsd="+h)}google.kBL&amp;&amp;(a+="&amp;bl="+google.kBL);h=a;navigator.sendBeacon?navigator.sendBeacon(h,""):google.log("","",h)}};function y(a){a&amp;&amp;google.tick("load","cbs",a);google.tick("load","cbt");x("cap")};var z="src bsrc url ll image img-url".split(" ");function A(a){for(var b=0;b&lt;z.length;++b)if(a.getAttribute("data-"+z[b]))return!0;return!1}function B(a){var b=a.parentElement;if(b&amp;&amp;("G-IMG"===b.tagName||b.classList.contains("uhHOwf"))&amp;&amp;(b.style.height||b.style.width)){var c=b.getBoundingClientRect(),d=a.getBoundingClientRect();if(c.height&lt;=d.height||c.width&lt;=d.width)a=b}var e;return k(a,null==(e=google.c)?void 0:e.gecoh)}google.c.iim=google.c.iim||{};var C=window.innerHeight||document.documentElement.clientHeight,D=0,E=0,F=0,G=0,H=0,I=0,J=0,K=!0,L=!0,M=-1,N,P=google.c.sxs?"load2":"load";function Q(a,b,c,d){var e=google.timers[P].t[a];e&amp;&amp;(c||d&amp;&amp;null!=b&amp;&amp;b&lt;e)||google.tick(P,a,b)}function R(a,b,c){"1"===a.getAttribute("data-frt")&amp;&amp;(Q("frt",c,!1,!0),++G,S());b&amp;&amp;(Q("aft",c,!1,!0),Q("afti",c,!1,!0),++I,S());google.c.timl&amp;&amp;Q("iml",c,!1,!0);++E;a.setAttribute("data-frt","0");(google.c.timl||b)&amp;&amp;T()}
+function T(){var a=google.c.timl?E===D:H===I;!L&amp;&amp;a&amp;&amp;google.c.u("il",P)}
+function S(){if(!K){var a=I===H,b=G===F;a&amp;&amp;b&amp;&amp;(google.c.e(P,"ima",String(H)),google.c.e(P,"imad",String(J)),google.c.e(P,"aftp",String(Math.round(M))),document.getElementsByClassName("Ib7Efc").length&amp;&amp;google.c.e(P,"ddl","1"),N&amp;&amp;clearTimeout(N),x(google.c.sxs?"aft2":"aft",P));"hidden"===document.visibilityState&amp;&amp;google.c.e(P,"hddn","1");if(!google.c.sxs&amp;&amp;null!==google.aftq&amp;&amp;(2===google.fevent||3===google.fevent?google.fevent:1)&amp;((a?1:0)|(b?2:0))){google.tick("load","aftqf",Date.now());var c;for(a=
+0;b=null==(c=google.aftq)?void 0:c[a++];)try{b()}catch(d){google.ml(d,!1)}google.aftq=null}}}function U(a,b){0===b||b&amp;8||(a.setAttribute("data-frt","1"),++F)}if(0&lt;google.c.cap&amp;&amp;!google.c.sxs)a:{var V=google.c.cap;if(window.performance&amp;&amp;window.performance.timing&amp;&amp;"navigationStart"in window.performance.timing){var W=window.performance.now(),X=V-W;if(0&lt;X){N=setTimeout(y,X,Math.floor(window.performance.timing.navigationStart+W));break a}y()}N=void 0}google.c.wh=Math.floor(window.innerHeight||document.documentElement.clientHeight);google.c.e(P,"wh",String(google.c.wh));google.c.b("il",P);google.c.setup=function(a,b,c){var d=a.getAttribute("data-atf");if(d)return c=Number(d),b&amp;&amp;!a.hasAttribute("data-frt")&amp;&amp;U(a,c),c;var e="string"!==typeof a.src||!a.src,f=!!a.getAttribute("data-bsrc"),p=!!a.getAttribute("data-deferred"),n=!p&amp;&amp;A(a);n&amp;&amp;a.setAttribute("data-lzy_","1");d=B(a);a.setAttribute("data-atf",String(d));var l=!!(d&amp;1);e=(e||a.complete)&amp;&amp;!p&amp;&amp;!f&amp;&amp;!(l&amp;&amp;n);f=!google.c.lhc&amp;&amp;Number(a.getAttribute("data-iml"))||0;++D;if(e&amp;&amp;!f||a.hasAttribute("data-noaft"))a.setAttribute("data-frt","0"),++E;else{var q=google.c.btfi&amp;&amp;d&amp;4&amp;&amp;f&amp;&amp;M&lt;C;if(q){var h=a.getBoundingClientRect().top+window.pageYOffset;!c||h&lt;c?M=l?C:h:q=!1}l&amp;&amp;(++H,p&amp;&amp;++J);b&amp;&amp;U(a,d);q&amp;&amp;(Q("aft",f,!1,!0),Q("aftb",f,!1,!0));if(e&amp;&amp;f)R(a,l,google.c.btfi?0:f);else{l&amp;&amp;(!c||c&gt;=C)&amp;&amp;(M=C);var O=a.src;google.rll(a,!0,function(){google.c.fil&amp;&amp;(p||n)&amp;&amp;O&amp;&amp;O===a.src?google.rll(a,!0,function(){R(a,l,Date.now())}):R(a,l,Date.now())})}}return d};google.c.ubr=function(a,b,c,d){google.c.taf&amp;&amp;M&lt;C?(M=c||-1,Q("aft",b)):0&gt;M&amp;&amp;(c&amp;&amp;(M=c),google.c.btfi&amp;&amp;Q("aft",b));a||Q("afts",b,!0);d||(Q("aft",b,!0),K&amp;&amp;!google.c.frt&amp;&amp;(K=!1,S()),a&amp;&amp;L&amp;&amp;(Q("prt",b),google.c.timl&amp;&amp;Q("iml",b,!0),L=!1,T(),google.c.setup=function(){return 0},google.c.ubr=function(){}))};}).call(this);(function(){
+var b=[function(){google.tick&amp;&amp;google.tick("load","dcl")}];google.dclc=function(a){b.length?b.push(a):a()};function c(){for(var a=b.shift();a;)a(),a=b.shift()}window.addEventListener?(document.addEventListener("DOMContentLoaded",c,!1),window.addEventListener("load",c,!1)):window.attachEvent&amp;&amp;window.attachEvent("onload",c);}).call(this);(function(){
+var b=[];google.jsc={xx:b,x:function(a){b.push(a)},mm:[],m:function(a){google.jsc.mm.length||(google.jsc.mm=a)}};}).call(this);(function(){
+var e=this||self;
+var f={};function w(a,c){if(null===c)return!1;if("contains"in a&amp;&amp;1==c.nodeType)return a.contains(c);if("compareDocumentPosition"in a)return a==c||!!(a.compareDocumentPosition(c)&amp;16);for(;c&amp;&amp;a!=c;)c=c.parentNode;return c==a};var y=function(a,c){return function(d){d||(d=window.event);return c.call(a,d)}},z="undefined"!=typeof navigator&amp;&amp;/Macintosh/.test(navigator.userAgent),E=function(){this._mouseEventsPrevented=!0};var F=function(a){this.g=a;this.h=[]},G=function(a){for(var c=0;c&lt;a.h.length;++c){var d=a.g,b=a.h[c];d.removeEventListener?d.removeEventListener(b.eventType,b.o,b.capture):d.detachEvent&amp;&amp;d.detachEvent("on"+b.eventType,b.o)}a.h=[]};
+var H=e._jsa||{};H._cfc=void 0;H._aeh=void 0;var I=function(){this.h=this.g=null},K=function(a,c){var d=J;d.g=a;d.h=c;return d};I.prototype.i=function(){var a=this.g;this.g&amp;&amp;this.g!=this.h?this.g=this.g.__owner||this.g.parentNode:this.g=null;return a};var L=function(){var a;this.j=a=void 0===a?[]:a;this.g=0;this.h=null;this.l=!1},N=function(a,c){var d=M;d.j=a;d.g=0;d.h=c;d.l=!1;return d};L.prototype.i=function(){if(this.l)return J.i();if(this.g!=this.j.length){var a=this.j[this.g];this.g++;a!=this.h&amp;&amp;a&amp;&amp;a.__owner&amp;&amp;(this.l=!0,K(a.__owner,this.h));return a}return null};var J=new I,M=new L;
+var Q=function(){this.s=[];this.g=[];this.h=[];this.l={};this.i=null;this.j=[];P(this,"_custom")},R=function(a){return String.prototype.trim?a.trim():a.replace(/^\s+/,"").replace(/\s+$/,"")},ia=function(a,c){return function m(b,g){g=void 0===g?!0:g;var l=c;if("_custom"==l){l=b.detail;if(!l||!l._type)return;l=l._type}var k=l;"click"==k&amp;&amp;(z&amp;&amp;b.metaKey||!z&amp;&amp;b.ctrlKey||2==b.which||null==b.which&amp;&amp;4==b.button||b.shiftKey)?k="clickmod":"keydown"==k&amp;&amp;!b.a11ysc&amp;&amp;(k="maybe_click");var u=b.srcElement||b.target;l=S(k,b,u,"",null);var aa=b.path?N(b.path,this):b.composedPath?N(b.composedPath(),this):K(u,this);for(var r;r=aa.i();){var h=r;var p=void 0;r=h;var q=k,ba=b;var n=r.__jsaction;if(!n){var x;n=null;"getAttribute"in r&amp;&amp;(n=r.getAttribute("jsaction"));if(x=n){n=f[x];if(!n){n={};for(var A=x.split(ca),da=A?A.length:0,B=0;B&lt;da;B++){var v=A[B];if(v){var C=v.indexOf(":"),O=-1!=C,fa=O?R(v.substr(0,C)):ea;v=O?R(v.substr(C+1)):v;n[fa]=v}}f[x]=n}r.__jsaction=n}else n=ha,r.__jsaction=n}"maybe_click"==q&amp;&amp;n.click?(p=q,q="click"):"clickkey"==q?q="click":"click"!=q||n.click||(q="clickonly");p=H._cfc&amp;&amp;n.click?H._cfc(r,ba,n,q,p):{eventType:p?p:q,action:n[q]||"",event:null,ignore:!1};l=S(p.eventType,p.event||b,u,p.action||"",h,l.timeStamp);if(p.ignore||p.action)break}l&amp;&amp;"touchend"==l.eventType&amp;&amp;(l.event._preventMouseEvents=E);if(p&amp;&amp;p.action){if("mouseenter"==k||"mouseleave"==k||"pointerenter"==k||"pointerleave"==k)if(u=b.relatedTarget,!("mouseover"==b.type&amp;&amp;"mouseenter"==k||"mouseout"==b.type&amp;&amp;"mouseleave"==k||
+"pointerover"==b.type&amp;&amp;"pointerenter"==k||"pointerout"==b.type&amp;&amp;"pointerleave"==k)||u&amp;&amp;(u===h||w(h,u)))l.action="",l.actionElement=null;else{k={};for(var t in b)"function"!==typeof b[t]&amp;&amp;"srcElement"!==t&amp;&amp;"target"!==t&amp;&amp;(k[t]=b[t]);k.type="mouseover"==b.type?"mouseenter":"mouseout"==b.type?"mouseleave":"pointerover"==b.type?"pointerenter":"pointerleave";k.target=k.srcElement=h;k.bubbles=!1;l.event=k;l.targetElement=h}}else l.action="",l.actionElement=null;h=l;a.i&amp;&amp;!h.event.a11ysgd&amp;&amp;(t=S(h.eventType,h.event,h.targetElement,h.action,h.actionElement,h.timeStamp),"clickonly"==t.eventType&amp;&amp;(t.eventType="click"),a.i(t,!0));if(h.actionElement||"maybe_click"==h.eventType){if(a.i){if(!h.actionElement||"A"!=h.actionElement.tagName||"click"!=h.eventType&amp;&amp;"clickmod"!=h.eventType||(b.preventDefault?b.preventDefault():b.returnValue=!1),(b=a.i(h))&amp;&amp;g){m.call(this,b,!1);return}}else{if((g=e.document)&amp;&amp;!g.createEvent&amp;&amp;g.createEventObject)try{var D=g.createEventObject(b)}catch(la){D=b}else D=b;h.event=D;a.j.push(h)}H._aeh&amp;&amp;
+H._aeh(h)}}},S=function(a,c,d,b,g,m){return{eventType:a,event:c,targetElement:d,action:b,actionElement:g,timeStamp:m||Date.now()}},ja=function(a,c){return function(d){var b=a,g=c,m=!1;"mouseenter"==b?b="mouseover":"mouseleave"==b?b="mouseout":"pointerenter"==b?b="pointerover":"pointerleave"==b&amp;&amp;(b="pointerout");if(d.addEventListener){if("focus"==b||"blur"==b||"error"==b||"load"==b||"toggle"==b)m=!0;d.addEventListener(b,g,m)}else d.attachEvent&amp;&amp;("focus"==b?b="focusin":"blur"==b&amp;&amp;(b="focusout"),g=y(d,g),d.attachEvent("on"+b,g));return{eventType:b,o:g,capture:m}}},P=function(a,c){if(!a.l.hasOwnProperty(c)){var d=ia(a,c),b=ja(c,d);a.l[c]=d;a.s.push(b);for(d=0;d&lt;a.g.length;++d){var g=a.g[d];g.h.push(b.call(null,g.g))}"click"==c&amp;&amp;P(a,"keydown")}};Q.prototype.o=function(a){return this.l[a]};var W=function(a,c){var d=new F(c);a:{for(var b=0;b&lt;a.g.length;b++)if(T(a.g[b].g,c)){c=!0;break a}c=!1}if(c)return a.h.push(d),d;U(a,d);a.g.push(d);V(a);return d},V=function(a){for(var c=a.h.concat(a.g),d=[],b=[],g=0;g&lt;a.g.length;++g){var m=a.g[g];X(m,c)?(d.push(m),G(m)):b.push(m)}for(g=0;g&lt;a.h.length;++g)m=a.h[g],X(m,c)?d.push(m):(b.push(m),U(a,m));a.g=b;a.h=d},U=function(a,c){var d=c.g;ka&amp;&amp;(d.style.cursor="pointer");for(d=0;d&lt;a.s.length;++d)c.h.push(a.s[d].call(null,c.g))},Y=function(a,c){a.i=c;a.j&amp;&amp;(0&lt;a.j.length&amp;&amp;c(a.j),a.j=null)},X=function(a,c){for(var d=0;d&lt;c.length;++d)if(c[d].g!=a.g&amp;&amp;T(c[d].g,a.g))return!0;return!1},T=function(a,c){for(;a!=c&amp;&amp;c.parentNode;)c=c.parentNode;return a==c},ka="undefined"!=typeof navigator&amp;&amp;/iPhone|iPad|iPod/.test(navigator.userAgent),ca=/\s*;\s*/,ea="click",ha={};var Z=new Q;W(Z,window.document.documentElement);P(Z,"click");P(Z,"focus");P(Z,"focusin");P(Z,"blur");P(Z,"focusout");P(Z,"error");P(Z,"load");P(Z,"auxclick");P(Z,"change");P(Z,"dblclick");P(Z,"beforeinput");P(Z,"input");P(Z,"keyup");P(Z,"keydown");P(Z,"keypress");P(Z,"mousedown");P(Z,"mouseenter");P(Z,"mouseleave");P(Z,"mouseout");P(Z,"mouseover");P(Z,"mouseup");P(Z,"paste");P(Z,"touchstart");P(Z,"touchend");P(Z,"touchcancel");P(Z,"transitioncancel");P(Z,"transitionend");P(Z,"transitionrun");P(Z,"transitionstart");P(Z,"dragover");P(Z,"dragenter");P(Z,"dragleave");P(Z,"drop");P(Z,"dragstart");P(Z,"dragend");P(Z,"speech");(function(a){google.jsad=function(c){Y(a,c)};google.jsaac=function(c){return W(a,c)};google.jsarc=function(c){G(c);for(var d=!1,b=0;b&lt;a.g.length;++b)if(a.g[b]===c){a.g.splice(b,1);d=!0;break}if(!d)for(d=0;d&lt;a.h.length;++d)if(a.h[d]===c){a.h.splice(d,1);break}V(a)}})(Z);e.gws_wizbind=function(a){return{trigger:function(c){var d=a.o(c.type);d||(P(a,c.type),d=a.o(c.type));var b=c.target||c.srcElement;d&amp;&amp;d.call(b.ownerDocument.documentElement,c)},bind:function(c){Y(a,c)}}}(Z);}).call(this);(function(){window._skwEvts=[];})();(function(){window.google.erd={jsr:1,bv:1681,sd:true,de:true};})();(function(){var sdo=false;var mei=10;
+var h=this||self;var k,l=null!=(k=h.mei)?k:1,n,p=null!=(n=h.sdo)?n:!0,q=0,r,t=google.erd,v=t.jsr;google.ml=function(a,b,d,m,e){e=void 0===e?2:e;b&amp;&amp;(r=a&amp;&amp;a.message);if(google.dl)return google.dl(a,e,d),null;if(0&gt;v){window.console&amp;&amp;console.error(a,d);if(-2===v)throw a;b=!1}else b=!a||!a.message||"Error loading script"===a.message||q&gt;=l&amp;&amp;!m?!1:!0;if(!b)return null;q++;d=d||{};b=encodeURIComponent;var c="/gen_204?atyp=i&amp;ei="+b(google.kEI);google.kEXPI&amp;&amp;(c+="&amp;jexpid="+b(google.kEXPI));c+="&amp;srcpg="+b(google.sn)+"&amp;jsr="+b(t.jsr)+"&amp;bver="+b(t.bv);var f=a.lineNumber;void 0!==f&amp;&amp;(c+="&amp;line="+f);var g=
+a.fileName;g&amp;&amp;(0&lt;g.indexOf("-extension:/")&amp;&amp;(e=3),c+="&amp;script="+b(g),f&amp;&amp;g===window.location.href&amp;&amp;(f=document.documentElement.outerHTML.split("\n")[f],c+="&amp;cad="+b(f?f.substring(0,300):"No script found.")));c+="&amp;jsel="+e;for(var u in d)c+="&amp;",c+=b(u),c+="=",c+=b(d[u]);c=c+"&amp;emsg="+b(a.name+": "+a.message);c=c+"&amp;jsst="+b(a.stack||"N/A");12288&lt;=c.length&amp;&amp;(c=c.substr(0,12288));a=c;m||google.log(0,"",a);return a};window.onerror=function(a,b,d,m,e){r!==a&amp;&amp;(a=e instanceof Error?e:Error(a),void 0===d||"lineNumber"in a||(a.lineNumber=d),void 0===b||"fileName"in a||(a.fileName=b),google.ml(a,!1,void 0,!1,"SyntaxError"===a.name||"SyntaxError"===a.message.substring(0,11)||-1!==a.message.indexOf("Script error")?3:0));r=null;p&amp;&amp;q&gt;=l&amp;&amp;(window.onerror=null)};})();;this.gbar_={CONFIG:[[[0,"www.gstatic.com","og.qtm.en_US.5jB2FJqR1F4.O","pl","pl","538",0,[4,2,"","","","484929242","0"],null,"zLxjY9SFC_-8xc8P7P-4kAc",null,0,"og.qtm.8pE41sYUTwg.L.W.O","AA2YrTs00lPzmx9En6HZbOBSxvbnXpv0pA","AA2YrTuXeWsNpP9J282uZWD7GaEqvRiYYQ","",2,1,200,"POL",null,null,"1","538",1],null,[1,0.1000000014901161,2,1],[1,0.001000000047497451,1],[0,0,0,null,"","","",""],[0,0,"",1,0,0,0,0,0,0,null,0,0,null,0,0,null,null,0,0,0,"","","","","","",null,0,0,0,0,0,null,null,null,"rgba(32,33,36,1)","rgba(255,255,255,1)",0,0,1,null,null,1,0,0],null,null,["1","gci_91f30755d6a6b787dcc2a4062e6e9824.js","googleapis.client:gapi.iframes","","pl"],null,null,null,null,["m;/_/scs/abc-static/_/js/k=gapi.gapi.en.7I3T5S8x4Qg.O/d=1/rs=AHpOoo9SzNpm6HglASFo9cZ-GgP5E5f5WQ/m=__features__","https://apis.google.com","","","","",null,1,"es_plusone_gc_20221004.0_p0","pl",null,0],[0.009999999776482582,"pl","538",[null,"","0",null,1,5184000,null,null,"",null,null,null,null,null,0,null,0,0,1,0,0,0,null,null,0,0,null,0,0,0,0,0],null,null,null,0,null,null,["5061451","google\\.(com|ru|ca|by|kz|com\\.mx|com\\.tr)$",1]],[1,1,null,40400,538,"POL","pl","484929242.0",8,0.009999999776482582,0,0,null,null,null,null,"3700949",null,null,null,"zLxjY9SFC_-8xc8P7P-4kAc",0,0,0,null,2,5,"rd",339,0],[[null,null,null,"https://www.gstatic.com/og/_/js/k=og.qtm.en_US.5jB2FJqR1F4.O/rt=j/m=qabr,q_dnp,qcwid,qapid,qald/exm=qaaw,qadd,qaid,qein,qhaw,qhbr,qhch,qhga,qhid,qhin,qhpr/d=1/ed=1/rs=AA2YrTs00lPzmx9En6HZbOBSxvbnXpv0pA"],[null,null,null,"https://www.gstatic.com/og/_/ss/k=og.qtm.8pE41sYUTwg.L.W.O/m=qcwid/excm=qaaw,qadd,qaid,qein,qhaw,qhbr,qhch,qhga,qhid,qhin,qhpr/d=1/ed=1/ct=zgms/rs=AA2YrTuXeWsNpP9J282uZWD7GaEqvRiYYQ"]],null,null,null,[[[null,null,[null,null,null,"https://ogs.google.com/widget/app/so?eom=1"],0,448,328,57,4,1,0,0,63,64,8000,"https://www.google.pl/intl/pl/about/products",67,1,69,null,1,70,"Podczas wczytywania zestawu aplikacji wystąpił problem. Spróbuj ponownie za kilka minut lub przejdź na stronę %1$susług Google%2$s.",3,0,0,74,0,null,null,null,null,null,null,null,"/widget/app/so"]],0,[null,null,null,"https://www.gstatic.com/og/_/js/k=og.qtm.en_US.5jB2FJqR1F4.O/rt=j/m=qdsh/d=1/ed=1/rs=AA2YrTs00lPzmx9En6HZbOBSxvbnXpv0pA"],"1","538",1,0,null,"pl",0,null,0,0,0]]],};this.gbar_=this.gbar_||{};(function(_){var window=this;
+try{
+/*
+ Copyright The Closure Library Authors.
+ SPDX-License-Identifier: Apache-2.0
+*/
+var ka,wa,ya,za,Ca,Ea,Ga,Ha,La,Oa,Ka,Pa,Sa,Xa,Ya,Za,$a,ab,bb,db,eb,ib,jb;_.aa=function(a,b){if(Error.captureStackTrace)Error.captureStackTrace(this,_.aa);else{var c=Error().stack;c&amp;&amp;(this.stack=c)}a&amp;&amp;(this.message=String(a));void 0!==b&amp;&amp;(this.cause=b)};_.ba=function(){var a=_.n.navigator;return a&amp;&amp;(a=a.userAgent)?a:""};_.p=function(a){return-1!=_.ba().indexOf(a)};_.da=function(){return _.p("Opera")};_.ea=function(){return _.p("Trident")||_.p("MSIE")};_.fa=function(){return _.p("Firefox")||_.p("FxiOS")};
+_.ia=function(){return _.p("Safari")&amp;&amp;!(_.ha()||_.p("Coast")||_.da()||_.p("Edge")||_.p("Edg/")||_.p("OPR")||_.fa()||_.p("Silk")||_.p("Android"))};_.ha=function(){return(_.p("Chrome")||_.p("CriOS"))&amp;&amp;!_.p("Edge")||_.p("Silk")};_.ja=function(){return _.p("Android")&amp;&amp;!(_.ha()||_.fa()||_.da()||_.p("Silk"))};ka=function(){return _.p("iPhone")&amp;&amp;!_.p("iPod")&amp;&amp;!_.p("iPad")};_.la=function(){return ka()||_.p("iPad")||_.p("iPod")};
+_.ma=function(a){var b=a.length;if(0&lt;b){for(var c=Array(b),d=0;d&lt;b;d++)c[d]=a[d];return c}return[]};_.na=function(){return-1!=_.ba().toLowerCase().indexOf("webkit")&amp;&amp;!_.p("Edge")};_.pa=function(a){return oa&amp;&amp;null!=a&amp;&amp;a instanceof Uint8Array};_.ra=function(a,b){Object.isFrozen(a)||(qa?a[qa]|=b:void 0!==a.Sb?a.Sb|=b:Object.defineProperties(a,{Sb:{value:b,configurable:!0,writable:!0,enumerable:!1}}))};_.sa=function(a,b){Object.isExtensible(a)&amp;&amp;(qa?a[qa]&amp;&amp;(a[qa]&amp;=~b):void 0!==a.Sb&amp;&amp;(a.Sb&amp;=~b))};
+_.ta=function(a){var b;qa?b=a[qa]:b=a.Sb;return null==b?0:b};_.ua=function(a,b){qa?a[qa]=b:void 0!==a.Sb?a.Sb=b:Object.defineProperties(a,{Sb:{value:b,configurable:!0,writable:!0,enumerable:!1}})};_.va=function(a){_.ra(a,1);return a};wa=function(a){_.ra(a,17);return a};_.xa=function(a){return a?!!(_.ta(a)&amp;2):!1};ya=function(a,b){_.ua(b,(_.ta(a)|18)&amp;-33)};za=function(a){return null!==a&amp;&amp;"object"===typeof a&amp;&amp;!Array.isArray(a)&amp;&amp;a.constructor===Object};
+Ca=function(a){switch(typeof a){case "number":return isFinite(a)?a:String(a);case "object":if(a&amp;&amp;!Array.isArray(a)){if(_.pa(a))return _.Aa(a);if(a instanceof _.Ba){var b=a.Aa;return null==b?"":"string"===typeof b?b:a.Aa=_.Aa(b)}}}return a};Ea=function(a,b,c,d){if(null!=a){if(Array.isArray(a))a=_.Da(a,b,c,void 0!==d);else if(za(a)){var e={},f;for(f in a)e[f]=Ea(a[f],b,c,d);a=e}else a=b(a,d);return a}};
+_.Da=function(a,b,c,d){d=d?!!(_.ta(a)&amp;16):void 0;var e=Array.prototype.slice.call(a);c(a,e);for(a=0;a&lt;e.length;a++)e[a]=Ea(e[a],b,c,d);return e};Ga=function(a){return a.he===_.Fa?a.toJSON():Ca(a)};Ha=function(){};_.Ia=function(a,b){return null==a?b:a};La=function(a){if(_.xa(a)&amp;&amp;Object.isFrozen(a))return a;var b=_.Ja(a,Ka);ya(a,b);Object.freeze(b);return b};
+Oa=function(a,b){if(null!=a){if(oa&amp;&amp;a instanceof Uint8Array)return a.length?new _.Ba(new Uint8Array(a),_.Ma):_.Na();if(Array.isArray(a)){if(_.xa(a))return a;b&amp;&amp;(b=_.ta(a),b=!(b&amp;32)&amp;&amp;(!!(b&amp;16)||0===b));if(b)return _.ra(a,2),a;a=_.Da(a,Oa,ya);_.ta(a)&amp;4&amp;&amp;Object.freeze(a);return a}return a.he===_.Fa?Ka(a):a}};Ka=function(a){if(_.xa(a.na))return a;a=Pa(a);_.ra(a.na,2);return a};
+Pa=function(a){var b=new a.constructor;a.qc&amp;&amp;(b.qc=a.qc.slice());for(var c=a.na,d=!!(_.ta(c)&amp;16),e=0;e&lt;c.length;e++){var f=c[e];if(e===c.length-1&amp;&amp;za(f))for(var g in f){var h=+g;if(Number.isNaN(h))(b.Oa||(b.Oa=b.na[b.tc+b.nc]={}))[h]=f[h];else{var l=f[g],m=a.Wa&amp;&amp;a.Wa[h];m?_.Qa(b,h,La(m),!0):_.q(b,h,Oa(l,d),!0)}}else h=e-a.nc,(l=a.Wa&amp;&amp;a.Wa[h])?_.Qa(b,h,La(l),!1):_.q(b,h,Oa(f,d),!1)}return b};_.Ra=function(a){if(!_.xa(a.na))return a;var b=Pa(a);b.j=a;return b};Sa=function(a,b){return Ca(b)};
+_.t=function(a,b){return null!=a?!!a:!!b};_.u=function(a,b){void 0==b&amp;&amp;(b="");return null!=a?a:b};_.Ta=function(a,b){void 0==b&amp;&amp;(b=0);return null!=a?a:b};_.Ua=function(a,b,c){for(var d in a)b.call(c,a[d],d,a)};_.Wa=function(a,b){for(var c,d,e=1;e&lt;arguments.length;e++){d=arguments[e];for(c in d)a[c]=d[c];for(var f=0;f&lt;Va.length;f++)c=Va[f],Object.prototype.hasOwnProperty.call(d,c)&amp;&amp;(a[c]=d[c])}};Xa=function(a){var b=0;return function(){return b&lt;a.length?{done:!1,value:a[b++]}:{done:!0}}};
+Ya="function"==typeof Object.defineProperties?Object.defineProperty:function(a,b,c){if(a==Array.prototype||a==Object.prototype)return a;a[b]=c.value;return a};Za=function(a){a=["object"==typeof globalThis&amp;&amp;globalThis,a,"object"==typeof window&amp;&amp;window,"object"==typeof self&amp;&amp;self,"object"==typeof global&amp;&amp;global];for(var b=0;b&lt;a.length;++b){var c=a[b];if(c&amp;&amp;c.Math==Math)return c}throw Error("a");};$a=Za(this);
+ab=function(a,b){if(b)a:{var c=$a;a=a.split(".");for(var d=0;d&lt;a.length-1;d++){var e=a[d];if(!(e in c))break a;c=c[e]}a=a[a.length-1];d=c[a];b=b(d);b!=d&amp;&amp;null!=b&amp;&amp;Ya(c,a,{configurable:!0,writable:!0,value:b})}};
+ab("Symbol",function(a){if(a)return a;var b=function(f,g){this.j=f;Ya(this,"description",{configurable:!0,writable:!0,value:g})};b.prototype.toString=function(){return this.j};var c="jscomp_symbol_"+(1E9*Math.random()&gt;&gt;&gt;0)+"_",d=0,e=function(f){if(this instanceof e)throw new TypeError("b");return new b(c+(f||"")+"_"+d++,f)};return e});
+ab("Symbol.iterator",function(a){if(a)return a;a=Symbol("c");for(var b="Array Int8Array Uint8Array Uint8ClampedArray Int16Array Uint16Array Int32Array Uint32Array Float32Array Float64Array".split(" "),c=0;c&lt;b.length;c++){var d=$a[b[c]];"function"===typeof d&amp;&amp;"function"!=typeof d.prototype[a]&amp;&amp;Ya(d.prototype,a,{configurable:!0,writable:!0,value:function(){return bb(Xa(this))}})}return a});bb=function(a){a={next:a};a[Symbol.iterator]=function(){return this};return a};
+_.cb=function(a){var b="undefined"!=typeof Symbol&amp;&amp;Symbol.iterator&amp;&amp;a[Symbol.iterator];return b?b.call(a):{next:Xa(a)}};db="function"==typeof Object.create?Object.create:function(a){var b=function(){};b.prototype=a;return new b};if("function"==typeof Object.setPrototypeOf)eb=Object.setPrototypeOf;else{var fb;a:{var gb={a:!0},hb={};try{hb.__proto__=gb;fb=hb.a;break a}catch(a){}fb=!1}eb=fb?function(a,b){a.__proto__=b;if(a.__proto__!==b)throw new TypeError("d`"+a);return a}:null}ib=eb;
+_.w=function(a,b){a.prototype=db(b.prototype);a.prototype.constructor=a;if(ib)ib(a,b);else for(var c in b)if("prototype"!=c)if(Object.defineProperties){var d=Object.getOwnPropertyDescriptor(b,c);d&amp;&amp;Object.defineProperty(a,c,d)}else a[c]=b[c];a.Y=b.prototype};jb=function(a,b,c){if(null==a)throw new TypeError("e`"+c);if(b instanceof RegExp)throw new TypeError("f`"+c);return a+""};
+ab("String.prototype.startsWith",function(a){return a?a:function(b,c){var d=jb(this,b,"startsWith"),e=d.length,f=b.length;c=Math.max(0,Math.min(c|0,d.length));for(var g=0;g&lt;f&amp;&amp;c&lt;e;)if(d[c++]!=b[g++])return!1;return g&gt;=f}});ab("Array.prototype.find",function(a){return a?a:function(b,c){a:{var d=this;d instanceof String&amp;&amp;(d=String(d));for(var e=d.length,f=0;f&lt;e;f++){var g=d[f];if(b.call(c,g,f,d)){b=g;break a}}b=void 0}return b}});var kb=function(a,b){return Object.prototype.hasOwnProperty.call(a,b)};
+ab("WeakMap",function(a){function b(){}function c(l){var m=typeof l;return"object"===m&amp;&amp;null!==l||"function"===m}function d(l){if(!kb(l,f)){var m=new b;Ya(l,f,{value:m})}}function e(l){var m=Object[l];m&amp;&amp;(Object[l]=function(r){if(r instanceof b)return r;Object.isExtensible(r)&amp;&amp;d(r);return m(r)})}if(function(){if(!a||!Object.seal)return!1;try{var l=Object.seal({}),m=Object.seal({}),r=new a([[l,2],[m,3]]);if(2!=r.get(l)||3!=r.get(m))return!1;r.delete(l);r.set(m,4);return!r.has(l)&amp;&amp;4==r.get(m)}catch(v){return!1}}())return a;
+var f="$jscomp_hidden_"+Math.random();e("freeze");e("preventExtensions");e("seal");var g=0,h=function(l){this.j=(g+=Math.random()+1).toString();if(l){l=_.cb(l);for(var m;!(m=l.next()).done;)m=m.value,this.set(m[0],m[1])}};h.prototype.set=function(l,m){if(!c(l))throw Error("g");d(l);if(!kb(l,f))throw Error("h`"+l);l[f][this.j]=m;return this};h.prototype.get=function(l){return c(l)&amp;&amp;kb(l,f)?l[f][this.j]:void 0};h.prototype.has=function(l){return c(l)&amp;&amp;kb(l,f)&amp;&amp;kb(l[f],this.j)};h.prototype.delete=function(l){return c(l)&amp;&amp;
+kb(l,f)&amp;&amp;kb(l[f],this.j)?delete l[f][this.j]:!1};return h});
+ab("Map",function(a){if(function(){if(!a||"function"!=typeof a||!a.prototype.entries||"function"!=typeof Object.seal)return!1;try{var h=Object.seal({x:4}),l=new a(_.cb([[h,"s"]]));if("s"!=l.get(h)||1!=l.size||l.get({x:4})||l.set({x:4},"t")!=l||2!=l.size)return!1;var m=l.entries(),r=m.next();if(r.done||r.value[0]!=h||"s"!=r.value[1])return!1;r=m.next();return r.done||4!=r.value[0].x||"t"!=r.value[1]||!m.next().done?!1:!0}catch(v){return!1}}())return a;var b=new WeakMap,c=function(h){this.o={};this.j=
+f();this.size=0;if(h){h=_.cb(h);for(var l;!(l=h.next()).done;)l=l.value,this.set(l[0],l[1])}};c.prototype.set=function(h,l){h=0===h?0:h;var m=d(this,h);m.list||(m.list=this.o[m.id]=[]);m.Va?m.Va.value=l:(m.Va={next:this.j,lc:this.j.lc,head:this.j,key:h,value:l},m.list.push(m.Va),this.j.lc.next=m.Va,this.j.lc=m.Va,this.size++);return this};c.prototype.delete=function(h){h=d(this,h);return h.Va&amp;&amp;h.list?(h.list.splice(h.index,1),h.list.length||delete this.o[h.id],h.Va.lc.next=h.Va.next,h.Va.next.lc=
+h.Va.lc,h.Va.head=null,this.size--,!0):!1};c.prototype.clear=function(){this.o={};this.j=this.j.lc=f();this.size=0};c.prototype.has=function(h){return!!d(this,h).Va};c.prototype.get=function(h){return(h=d(this,h).Va)&amp;&amp;h.value};c.prototype.entries=function(){return e(this,function(h){return[h.key,h.value]})};c.prototype.keys=function(){return e(this,function(h){return h.key})};c.prototype.values=function(){return e(this,function(h){return h.value})};c.prototype.forEach=function(h,l){for(var m=this.entries(),
+r;!(r=m.next()).done;)r=r.value,h.call(l,r[1],r[0],this)};c.prototype[Symbol.iterator]=c.prototype.entries;var d=function(h,l){var m=l&amp;&amp;typeof l;"object"==m||"function"==m?b.has(l)?m=b.get(l):(m=""+ ++g,b.set(l,m)):m="p_"+l;var r=h.o[m];if(r&amp;&amp;kb(h.o,m))for(h=0;h&lt;r.length;h++){var v=r[h];if(l!==l&amp;&amp;v.key!==v.key||l===v.key)return{id:m,list:r,index:h,Va:v}}return{id:m,list:r,index:-1,Va:void 0}},e=function(h,l){var m=h.j;return bb(function(){if(m){for(;m.head!=h.j;)m=m.lc;for(;m.next!=m.head;)return m=
+m.next,{done:!1,value:l(m)};m=null}return{done:!0,value:void 0}})},f=function(){var h={};return h.lc=h.next=h.head=h},g=0;return c});ab("Number.MAX_SAFE_INTEGER",function(){return 9007199254740991});var lb=function(a,b){a instanceof String&amp;&amp;(a+="");var c=0,d=!1,e={next:function(){if(!d&amp;&amp;c&lt;a.length){var f=c++;return{value:b(f,a[f]),done:!1}}d=!0;return{done:!0,value:void 0}}};e[Symbol.iterator]=function(){return e};return e};
+ab("Array.prototype.entries",function(a){return a?a:function(){return lb(this,function(b,c){return[b,c]})}});ab("Array.from",function(a){return a?a:function(b,c,d){c=null!=c?c:function(h){return h};var e=[],f="undefined"!=typeof Symbol&amp;&amp;Symbol.iterator&amp;&amp;b[Symbol.iterator];if("function"==typeof f){b=f.call(b);for(var g=0;!(f=b.next()).done;)e.push(c.call(d,f.value,g++))}else for(f=b.length,g=0;g&lt;f;g++)e.push(c.call(d,b[g],g));return e}});
+ab("Array.prototype.keys",function(a){return a?a:function(){return lb(this,function(b){return b})}});ab("Number.isNaN",function(a){return a?a:function(b){return"number"===typeof b&amp;&amp;isNaN(b)}});ab("Array.prototype.fill",function(a){return a?a:function(b,c,d){var e=this.length||0;0&gt;c&amp;&amp;(c=Math.max(0,e+c));if(null==d||d&gt;e)d=e;d=Number(d);0&gt;d&amp;&amp;(d=Math.max(0,e+d));for(c=Number(c||0);c&lt;d;c++)this[c]=b;return this}});var mb=function(a){return a?a:Array.prototype.fill};ab("Int8Array.prototype.fill",mb);
+ab("Uint8Array.prototype.fill",mb);ab("Uint8ClampedArray.prototype.fill",mb);ab("Int16Array.prototype.fill",mb);ab("Uint16Array.prototype.fill",mb);ab("Int32Array.prototype.fill",mb);ab("Uint32Array.prototype.fill",mb);ab("Float32Array.prototype.fill",mb);ab("Float64Array.prototype.fill",mb);var nb="function"==typeof Object.assign?Object.assign:function(a,b){for(var c=1;c&lt;arguments.length;c++){var d=arguments[c];if(d)for(var e in d)kb(d,e)&amp;&amp;(a[e]=d[e])}return a};
+ab("Object.assign",function(a){return a||nb});ab("Object.entries",function(a){return a?a:function(b){var c=[],d;for(d in b)kb(b,d)&amp;&amp;c.push([d,b[d]]);return c}});ab("Array.prototype.values",function(a){return a?a:function(){return lb(this,function(b,c){return c})}});ab("Object.is",function(a){return a?a:function(b,c){return b===c?0!==b||1/b===1/c:b!==b&amp;&amp;c!==c}});
+ab("Array.prototype.includes",function(a){return a?a:function(b,c){var d=this;d instanceof String&amp;&amp;(d=String(d));var e=d.length;c=c</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>tak</t>
         </is>
       </c>
     </row>
@@ -612,7 +995,70 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="d6826b7f06cb63ce79e98297c0816dc3", element="1a75054a-e27c-45d3-85b4-c38317c8bfbc")&gt;</t>
+          <t>(function(){window.google={kEI:'1bxjY4qbH6-_xc8P3Puc2AM',kEXPI:'31',kBL:'y__Z'};google.sn='webhp';google.kHL='pl';})();(function(){
+var f=this||self;var h,k=[];function l(a){for(var b;a&amp;&amp;(!a.getAttribute||!(b=a.getAttribute("eid")));)a=a.parentNode;return b||h}function m(a){for(var b=null;a&amp;&amp;(!a.getAttribute||!(b=a.getAttribute("leid")));)a=a.parentNode;return b}
+function n(a,b,c,d,g){var e="";c||-1!==b.search("&amp;ei=")||(e="&amp;ei="+l(d),-1===b.search("&amp;lei=")&amp;&amp;(d=m(d))&amp;&amp;(e+="&amp;lei="+d));d="";!c&amp;&amp;f._cshid&amp;&amp;-1===b.search("&amp;cshid=")&amp;&amp;"slh"!==a&amp;&amp;(d="&amp;cshid="+f._cshid);c=c||"/"+(g||"gen_204")+"?atyp=i&amp;ct="+a+"&amp;cad="+b+e+"&amp;zx="+Date.now()+d;/^http:/i.test(c)&amp;&amp;"https:"===window.location.protocol&amp;&amp;(google.ml&amp;&amp;google.ml(Error("a"),!1,{src:c,glmm:1}),c="");return c};h=google.kEI;google.getEI=l;google.getLEI=m;google.ml=function(){return null};google.log=function(a,b,c,d,g){if(c=n(a,b,c,d,g)){a=new Image;var e=k.length;k[e]=a;a.onerror=a.onload=a.onabort=function(){delete k[e]};a.src=c}};google.logUrl=n;}).call(this);(function(){
+google.y={};google.sy=[];google.x=function(a,b){if(a)var c=a.id;else{do c=Math.random();while(google.y[c])}google.y[c]=[a,b];return!1};google.sx=function(a){google.sy.push(a)};google.lm=[];google.plm=function(a){google.lm.push.apply(google.lm,a)};google.lq=[];google.load=function(a,b,c){google.lq.push([[a],b,c])};google.loadAll=function(a,b){google.lq.push([a,b])};google.bx=!1;google.lx=function(){};}).call(this);google.f={};(function(){
+document.documentElement.addEventListener("submit",function(b){var a;if(a=b.target){var c=a.getAttribute("data-submitfalse");a="1"===c||"q"===c&amp;&amp;!a.elements.q.value?!0:!1}else a=!1;a&amp;&amp;(b.preventDefault(),b.stopPropagation())},!0);document.documentElement.addEventListener("click",function(b){var a;a:{for(a=b.target;a&amp;&amp;a!==document.documentElement;a=a.parentElement)if("A"===a.tagName){a="1"===a.getAttribute("data-nohref");break a}a=!1}a&amp;&amp;b.preventDefault()},!0);}).call(this);(function(){google.hs={h:true,nhs:false,sie:false};})();(function(){google.c={ataf:false,btfi:false,cap:2000,fil:true,frt:false,gecoh:false,gl:true,lhc:false,llt:true,lrt:false,raf:false,sxs:false,taf:false,timl:false};})();(function(){
+var f=this||self;var g=window.performance;function h(a,b,d,c){a.addEventListener?a.addEventListener(b,d,c||!1):a.attachEvent&amp;&amp;a.attachEvent("on"+b,d)}function k(a,b,d,c){"addEventListener"in a?a.removeEventListener(b,d,c||!1):a.attachEvent&amp;&amp;a.detachEvent("on"+b,d)};google.c.iim=google.c.iim||{};function l(a){a&amp;&amp;f.google.aft(a.target)}var m;function n(){k(document.documentElement,"load",m,!0);k(document.documentElement,"error",m,!0)};google.timers={};google.startTick=function(a){google.timers[a]={t:{start:Date.now()},e:{},m:{}}};google.tick=function(a,b,d){google.timers[a]||google.startTick(a);d=void 0!==d?d:Date.now();b instanceof Array||(b=[b]);for(var c=0,e;e=b[c++];)google.timers[a].t[e]=d};google.c.e=function(a,b,d){google.timers[a].e[b]=d};google.c.b=function(a,b){b=google.timers[b||"load"].m;b[a]&amp;&amp;google.ml(Error("a"),!1,{m:a});b[a]=!0};google.c.u=function(a,b){var d=google.timers[b||"load"],c=d.m;if(c[a]){c[a]=!1;for(a in c)if(c[a])return;google.csiReport(d,"load2"===b?"all2":"all")}else{b="";for(var e in c)b+=e+":"+c[e]+";";google.ml(Error("b"),!1,{m:a,b:!1===c[a],s:b})}};google.rll=function(a,b,d){function c(e){d(e);k(a,"load",c);k(a,"error",c)}h(a,"load",c);b&amp;&amp;h(a,"error",c)};f.google.aft=function(a){a.setAttribute("data-iml",String(Date.now()))};google.startTick("load");var p=google.timers.load;a:{var q=p.t;if(g){var r=g.timing;if(r){var t=r.navigationStart,u=r.responseStart;if(u&gt;t&amp;&amp;u&lt;=q.start){q.start=u;p.wsrt=u-t;break a}}g.now&amp;&amp;(p.wsrt=Math.floor(g.now()))}}google.c.b("pr","load");google.c.b("xe","load");function v(a){if("hidden"===document.visibilityState){google.c.fh=a;var b;window.performance&amp;&amp;window.performance.timing&amp;&amp;(b=Math.floor(window.performance.timing.navigationStart+a));google.tick("load","fht",b);return!0}return!1}
+function w(a){v(a.timeStamp)&amp;&amp;k(document,"visibilitychange",w,!0)}google.c.fh=Infinity;h(document,"visibilitychange",w,!0);v(0);google.c.gl&amp;&amp;(m=l,h(document.documentElement,"load",m,!0),google.c.glu=n);}).call(this);(function(){
+function g(){return window.performance&amp;&amp;window.performance.navigation&amp;&amp;window.performance.navigation.type};function k(a,b){if(!a||m(a))return 0;if(!a.getBoundingClientRect)return 1;var c=function(d){return d.getBoundingClientRect()};return r(a,c,b)?0:t(a,c)}function r(a,b,c){a:{for(var d=a;d&amp;&amp;void 0!==d;d=d.parentElement)if("hidden"===d.style.overflow||c&amp;&amp;"G-EXPANDABLE-CONTENT"===d.tagName&amp;&amp;"hidden"===getComputedStyle(d).getPropertyValue("overflow")){c=d;break a}c=null}if(!c)return!1;a=b(a);b=b(c);return a.bottom&lt;b.top||a.top&gt;=b.bottom||a.right&lt;b.left||a.left&gt;=b.right}
+function m(a){return"none"===a.style.display?!0:document.defaultView&amp;&amp;document.defaultView.getComputedStyle?(a=document.defaultView.getComputedStyle(a),!!a&amp;&amp;("hidden"===a.visibility||"0px"===a.height&amp;&amp;"0px"===a.width)):!1}
+function t(a,b){var c=b(a);a=c.left+window.pageXOffset;b=c.top+window.pageYOffset;var d=c.width;c=c.height;var e=0;if(0&gt;=c&amp;&amp;0&gt;=d)return e;var f=window.innerHeight||document.documentElement.clientHeight;0&gt;b+c?e=2:b&gt;=f&amp;&amp;(e=4);if(0&gt;a+d||a&gt;=(window.innerWidth||document.documentElement.clientWidth))e|=8;e||(e=1,b+c&gt;f&amp;&amp;(e|=4));return e};var u=window.location,v="aft afti afts cbs cbt fht frt hct prt sct".split(" ");function w(a){return(a=u.search.match(new RegExp("[?&amp;]"+a+"=(\\d+)")))?Number(a[1]):-1}
+function x(a,b){var c=google.timers[b||"load"];b=c.m;if(!b||!b.prs){var d=g()?0:w("qsubts");0&lt;d&amp;&amp;(b=w("fbts"),0&lt;b&amp;&amp;(c.t.start=Math.max(d,b)));var e=c.t,f=e.start;b={wsrt:c.wsrt||0};if(f)for(var p=0,n;n=v[p++];){var l=e[n];l&amp;&amp;(b[n]=Math.max(l-f,0))}0&lt;d&amp;&amp;(b.gsasrt=c.t.start-d);c=c.e;a="/gen_204?s="+google.sn+"&amp;t="+a+"&amp;atyp=csi&amp;ei="+google.kEI+"&amp;rt=";d="";for(h in b)a+=""+d+h+"."+b[h],d=",";for(var q in c)a+="&amp;"+q+"="+c[q];window._cshid&amp;&amp;(a+="&amp;cshid="+window._cshid);2===g()&amp;&amp;(a+="&amp;bb=1");1===g()&amp;&amp;(a+=
+"&amp;r=1");if("gsasrt"in b){var h=w("qsd");0&lt;h&amp;&amp;(a+="&amp;qsd="+h)}google.kBL&amp;&amp;(a+="&amp;bl="+google.kBL);h=a;navigator.sendBeacon?navigator.sendBeacon(h,""):google.log("","",h)}};function y(a){a&amp;&amp;google.tick("load","cbs",a);google.tick("load","cbt");x("cap")};var z="src bsrc url ll image img-url".split(" ");function A(a){for(var b=0;b&lt;z.length;++b)if(a.getAttribute("data-"+z[b]))return!0;return!1}function B(a){var b=a.parentElement;if(b&amp;&amp;("G-IMG"===b.tagName||b.classList.contains("uhHOwf"))&amp;&amp;(b.style.height||b.style.width)){var c=b.getBoundingClientRect(),d=a.getBoundingClientRect();if(c.height&lt;=d.height||c.width&lt;=d.width)a=b}var e;return k(a,null==(e=google.c)?void 0:e.gecoh)}google.c.iim=google.c.iim||{};var C=window.innerHeight||document.documentElement.clientHeight,D=0,E=0,F=0,G=0,H=0,I=0,J=0,K=!0,L=!0,M=-1,N,P=google.c.sxs?"load2":"load";function Q(a,b,c,d){var e=google.timers[P].t[a];e&amp;&amp;(c||d&amp;&amp;null!=b&amp;&amp;b&lt;e)||google.tick(P,a,b)}function R(a,b,c){"1"===a.getAttribute("data-frt")&amp;&amp;(Q("frt",c,!1,!0),++G,S());b&amp;&amp;(Q("aft",c,!1,!0),Q("afti",c,!1,!0),++I,S());google.c.timl&amp;&amp;Q("iml",c,!1,!0);++E;a.setAttribute("data-frt","0");(google.c.timl||b)&amp;&amp;T()}
+function T(){var a=google.c.timl?E===D:H===I;!L&amp;&amp;a&amp;&amp;google.c.u("il",P)}
+function S(){if(!K){var a=I===H,b=G===F;a&amp;&amp;b&amp;&amp;(google.c.e(P,"ima",String(H)),google.c.e(P,"imad",String(J)),google.c.e(P,"aftp",String(Math.round(M))),document.getElementsByClassName("Ib7Efc").length&amp;&amp;google.c.e(P,"ddl","1"),N&amp;&amp;clearTimeout(N),x(google.c.sxs?"aft2":"aft",P));"hidden"===document.visibilityState&amp;&amp;google.c.e(P,"hddn","1");if(!google.c.sxs&amp;&amp;null!==google.aftq&amp;&amp;(2===google.fevent||3===google.fevent?google.fevent:1)&amp;((a?1:0)|(b?2:0))){google.tick("load","aftqf",Date.now());var c;for(a=
+0;b=null==(c=google.aftq)?void 0:c[a++];)try{b()}catch(d){google.ml(d,!1)}google.aftq=null}}}function U(a,b){0===b||b&amp;8||(a.setAttribute("data-frt","1"),++F)}if(0&lt;google.c.cap&amp;&amp;!google.c.sxs)a:{var V=google.c.cap;if(window.performance&amp;&amp;window.performance.timing&amp;&amp;"navigationStart"in window.performance.timing){var W=window.performance.now(),X=V-W;if(0&lt;X){N=setTimeout(y,X,Math.floor(window.performance.timing.navigationStart+W));break a}y()}N=void 0}google.c.wh=Math.floor(window.innerHeight||document.documentElement.clientHeight);google.c.e(P,"wh",String(google.c.wh));google.c.b("il",P);google.c.setup=function(a,b,c){var d=a.getAttribute("data-atf");if(d)return c=Number(d),b&amp;&amp;!a.hasAttribute("data-frt")&amp;&amp;U(a,c),c;var e="string"!==typeof a.src||!a.src,f=!!a.getAttribute("data-bsrc"),p=!!a.getAttribute("data-deferred"),n=!p&amp;&amp;A(a);n&amp;&amp;a.setAttribute("data-lzy_","1");d=B(a);a.setAttribute("data-atf",String(d));var l=!!(d&amp;1);e=(e||a.complete)&amp;&amp;!p&amp;&amp;!f&amp;&amp;!(l&amp;&amp;n);f=!google.c.lhc&amp;&amp;Number(a.getAttribute("data-iml"))||0;++D;if(e&amp;&amp;!f||a.hasAttribute("data-noaft"))a.setAttribute("data-frt","0"),++E;else{var q=google.c.btfi&amp;&amp;d&amp;4&amp;&amp;f&amp;&amp;M&lt;C;if(q){var h=a.getBoundingClientRect().top+window.pageYOffset;!c||h&lt;c?M=l?C:h:q=!1}l&amp;&amp;(++H,p&amp;&amp;++J);b&amp;&amp;U(a,d);q&amp;&amp;(Q("aft",f,!1,!0),Q("aftb",f,!1,!0));if(e&amp;&amp;f)R(a,l,google.c.btfi?0:f);else{l&amp;&amp;(!c||c&gt;=C)&amp;&amp;(M=C);var O=a.src;google.rll(a,!0,function(){google.c.fil&amp;&amp;(p||n)&amp;&amp;O&amp;&amp;O===a.src?google.rll(a,!0,function(){R(a,l,Date.now())}):R(a,l,Date.now())})}}return d};google.c.ubr=function(a,b,c,d){google.c.taf&amp;&amp;M&lt;C?(M=c||-1,Q("aft",b)):0&gt;M&amp;&amp;(c&amp;&amp;(M=c),google.c.btfi&amp;&amp;Q("aft",b));a||Q("afts",b,!0);d||(Q("aft",b,!0),K&amp;&amp;!google.c.frt&amp;&amp;(K=!1,S()),a&amp;&amp;L&amp;&amp;(Q("prt",b),google.c.timl&amp;&amp;Q("iml",b,!0),L=!1,T(),google.c.setup=function(){return 0},google.c.ubr=function(){}))};}).call(this);(function(){
+var b=[function(){google.tick&amp;&amp;google.tick("load","dcl")}];google.dclc=function(a){b.length?b.push(a):a()};function c(){for(var a=b.shift();a;)a(),a=b.shift()}window.addEventListener?(document.addEventListener("DOMContentLoaded",c,!1),window.addEventListener("load",c,!1)):window.attachEvent&amp;&amp;window.attachEvent("onload",c);}).call(this);(function(){
+var b=[];google.jsc={xx:b,x:function(a){b.push(a)},mm:[],m:function(a){google.jsc.mm.length||(google.jsc.mm=a)}};}).call(this);(function(){
+var e=this||self;
+var f={};function w(a,c){if(null===c)return!1;if("contains"in a&amp;&amp;1==c.nodeType)return a.contains(c);if("compareDocumentPosition"in a)return a==c||!!(a.compareDocumentPosition(c)&amp;16);for(;c&amp;&amp;a!=c;)c=c.parentNode;return c==a};var y=function(a,c){return function(d){d||(d=window.event);return c.call(a,d)}},z="undefined"!=typeof navigator&amp;&amp;/Macintosh/.test(navigator.userAgent),E=function(){this._mouseEventsPrevented=!0};var F=function(a){this.g=a;this.h=[]},G=function(a){for(var c=0;c&lt;a.h.length;++c){var d=a.g,b=a.h[c];d.removeEventListener?d.removeEventListener(b.eventType,b.o,b.capture):d.detachEvent&amp;&amp;d.detachEvent("on"+b.eventType,b.o)}a.h=[]};
+var H=e._jsa||{};H._cfc=void 0;H._aeh=void 0;var I=function(){this.h=this.g=null},K=function(a,c){var d=J;d.g=a;d.h=c;return d};I.prototype.i=function(){var a=this.g;this.g&amp;&amp;this.g!=this.h?this.g=this.g.__owner||this.g.parentNode:this.g=null;return a};var L=function(){var a;this.j=a=void 0===a?[]:a;this.g=0;this.h=null;this.l=!1},N=function(a,c){var d=M;d.j=a;d.g=0;d.h=c;d.l=!1;return d};L.prototype.i=function(){if(this.l)return J.i();if(this.g!=this.j.length){var a=this.j[this.g];this.g++;a!=this.h&amp;&amp;a&amp;&amp;a.__owner&amp;&amp;(this.l=!0,K(a.__owner,this.h));return a}return null};var J=new I,M=new L;
+var Q=function(){this.s=[];this.g=[];this.h=[];this.l={};this.i=null;this.j=[];P(this,"_custom")},R=function(a){return String.prototype.trim?a.trim():a.replace(/^\s+/,"").replace(/\s+$/,"")},ia=function(a,c){return function m(b,g){g=void 0===g?!0:g;var l=c;if("_custom"==l){l=b.detail;if(!l||!l._type)return;l=l._type}var k=l;"click"==k&amp;&amp;(z&amp;&amp;b.metaKey||!z&amp;&amp;b.ctrlKey||2==b.which||null==b.which&amp;&amp;4==b.button||b.shiftKey)?k="clickmod":"keydown"==k&amp;&amp;!b.a11ysc&amp;&amp;(k="maybe_click");var u=b.srcElement||b.target;l=S(k,b,u,"",null);var aa=b.path?N(b.path,this):b.composedPath?N(b.composedPath(),this):K(u,this);for(var r;r=aa.i();){var h=r;var p=void 0;r=h;var q=k,ba=b;var n=r.__jsaction;if(!n){var x;n=null;"getAttribute"in r&amp;&amp;(n=r.getAttribute("jsaction"));if(x=n){n=f[x];if(!n){n={};for(var A=x.split(ca),da=A?A.length:0,B=0;B&lt;da;B++){var v=A[B];if(v){var C=v.indexOf(":"),O=-1!=C,fa=O?R(v.substr(0,C)):ea;v=O?R(v.substr(C+1)):v;n[fa]=v}}f[x]=n}r.__jsaction=n}else n=ha,r.__jsaction=n}"maybe_click"==q&amp;&amp;n.click?(p=q,q="click"):"clickkey"==q?q="click":"click"!=q||n.click||(q="clickonly");p=H._cfc&amp;&amp;n.click?H._cfc(r,ba,n,q,p):{eventType:p?p:q,action:n[q]||"",event:null,ignore:!1};l=S(p.eventType,p.event||b,u,p.action||"",h,l.timeStamp);if(p.ignore||p.action)break}l&amp;&amp;"touchend"==l.eventType&amp;&amp;(l.event._preventMouseEvents=E);if(p&amp;&amp;p.action){if("mouseenter"==k||"mouseleave"==k||"pointerenter"==k||"pointerleave"==k)if(u=b.relatedTarget,!("mouseover"==b.type&amp;&amp;"mouseenter"==k||"mouseout"==b.type&amp;&amp;"mouseleave"==k||
+"pointerover"==b.type&amp;&amp;"pointerenter"==k||"pointerout"==b.type&amp;&amp;"pointerleave"==k)||u&amp;&amp;(u===h||w(h,u)))l.action="",l.actionElement=null;else{k={};for(var t in b)"function"!==typeof b[t]&amp;&amp;"srcElement"!==t&amp;&amp;"target"!==t&amp;&amp;(k[t]=b[t]);k.type="mouseover"==b.type?"mouseenter":"mouseout"==b.type?"mouseleave":"pointerover"==b.type?"pointerenter":"pointerleave";k.target=k.srcElement=h;k.bubbles=!1;l.event=k;l.targetElement=h}}else l.action="",l.actionElement=null;h=l;a.i&amp;&amp;!h.event.a11ysgd&amp;&amp;(t=S(h.eventType,h.event,h.targetElement,h.action,h.actionElement,h.timeStamp),"clickonly"==t.eventType&amp;&amp;(t.eventType="click"),a.i(t,!0));if(h.actionElement||"maybe_click"==h.eventType){if(a.i){if(!h.actionElement||"A"!=h.actionElement.tagName||"click"!=h.eventType&amp;&amp;"clickmod"!=h.eventType||(b.preventDefault?b.preventDefault():b.returnValue=!1),(b=a.i(h))&amp;&amp;g){m.call(this,b,!1);return}}else{if((g=e.document)&amp;&amp;!g.createEvent&amp;&amp;g.createEventObject)try{var D=g.createEventObject(b)}catch(la){D=b}else D=b;h.event=D;a.j.push(h)}H._aeh&amp;&amp;
+H._aeh(h)}}},S=function(a,c,d,b,g,m){return{eventType:a,event:c,targetElement:d,action:b,actionElement:g,timeStamp:m||Date.now()}},ja=function(a,c){return function(d){var b=a,g=c,m=!1;"mouseenter"==b?b="mouseover":"mouseleave"==b?b="mouseout":"pointerenter"==b?b="pointerover":"pointerleave"==b&amp;&amp;(b="pointerout");if(d.addEventListener){if("focus"==b||"blur"==b||"error"==b||"load"==b||"toggle"==b)m=!0;d.addEventListener(b,g,m)}else d.attachEvent&amp;&amp;("focus"==b?b="focusin":"blur"==b&amp;&amp;(b="focusout"),g=y(d,g),d.attachEvent("on"+b,g));return{eventType:b,o:g,capture:m}}},P=function(a,c){if(!a.l.hasOwnProperty(c)){var d=ia(a,c),b=ja(c,d);a.l[c]=d;a.s.push(b);for(d=0;d&lt;a.g.length;++d){var g=a.g[d];g.h.push(b.call(null,g.g))}"click"==c&amp;&amp;P(a,"keydown")}};Q.prototype.o=function(a){return this.l[a]};var W=function(a,c){var d=new F(c);a:{for(var b=0;b&lt;a.g.length;b++)if(T(a.g[b].g,c)){c=!0;break a}c=!1}if(c)return a.h.push(d),d;U(a,d);a.g.push(d);V(a);return d},V=function(a){for(var c=a.h.concat(a.g),d=[],b=[],g=0;g&lt;a.g.length;++g){var m=a.g[g];X(m,c)?(d.push(m),G(m)):b.push(m)}for(g=0;g&lt;a.h.length;++g)m=a.h[g],X(m,c)?d.push(m):(b.push(m),U(a,m));a.g=b;a.h=d},U=function(a,c){var d=c.g;ka&amp;&amp;(d.style.cursor="pointer");for(d=0;d&lt;a.s.length;++d)c.h.push(a.s[d].call(null,c.g))},Y=function(a,c){a.i=c;a.j&amp;&amp;(0&lt;a.j.length&amp;&amp;c(a.j),a.j=null)},X=function(a,c){for(var d=0;d&lt;c.length;++d)if(c[d].g!=a.g&amp;&amp;T(c[d].g,a.g))return!0;return!1},T=function(a,c){for(;a!=c&amp;&amp;c.parentNode;)c=c.parentNode;return a==c},ka="undefined"!=typeof navigator&amp;&amp;/iPhone|iPad|iPod/.test(navigator.userAgent),ca=/\s*;\s*/,ea="click",ha={};var Z=new Q;W(Z,window.document.documentElement);P(Z,"click");P(Z,"focus");P(Z,"focusin");P(Z,"blur");P(Z,"focusout");P(Z,"error");P(Z,"load");P(Z,"auxclick");P(Z,"change");P(Z,"dblclick");P(Z,"beforeinput");P(Z,"input");P(Z,"keyup");P(Z,"keydown");P(Z,"keypress");P(Z,"mousedown");P(Z,"mouseenter");P(Z,"mouseleave");P(Z,"mouseout");P(Z,"mouseover");P(Z,"mouseup");P(Z,"paste");P(Z,"touchstart");P(Z,"touchend");P(Z,"touchcancel");P(Z,"transitioncancel");P(Z,"transitionend");P(Z,"transitionrun");P(Z,"transitionstart");P(Z,"dragover");P(Z,"dragenter");P(Z,"dragleave");P(Z,"drop");P(Z,"dragstart");P(Z,"dragend");P(Z,"speech");(function(a){google.jsad=function(c){Y(a,c)};google.jsaac=function(c){return W(a,c)};google.jsarc=function(c){G(c);for(var d=!1,b=0;b&lt;a.g.length;++b)if(a.g[b]===c){a.g.splice(b,1);d=!0;break}if(!d)for(d=0;d&lt;a.h.length;++d)if(a.h[d]===c){a.h.splice(d,1);break}V(a)}})(Z);e.gws_wizbind=function(a){return{trigger:function(c){var d=a.o(c.type);d||(P(a,c.type),d=a.o(c.type));var b=c.target||c.srcElement;d&amp;&amp;d.call(b.ownerDocument.documentElement,c)},bind:function(c){Y(a,c)}}}(Z);}).call(this);(function(){window._skwEvts=[];})();(function(){window.google.erd={jsr:1,bv:1681,sd:true,de:true};})();(function(){var sdo=false;var mei=10;
+var h=this||self;var k,l=null!=(k=h.mei)?k:1,n,p=null!=(n=h.sdo)?n:!0,q=0,r,t=google.erd,v=t.jsr;google.ml=function(a,b,d,m,e){e=void 0===e?2:e;b&amp;&amp;(r=a&amp;&amp;a.message);if(google.dl)return google.dl(a,e,d),null;if(0&gt;v){window.console&amp;&amp;console.error(a,d);if(-2===v)throw a;b=!1}else b=!a||!a.message||"Error loading script"===a.message||q&gt;=l&amp;&amp;!m?!1:!0;if(!b)return null;q++;d=d||{};b=encodeURIComponent;var c="/gen_204?atyp=i&amp;ei="+b(google.kEI);google.kEXPI&amp;&amp;(c+="&amp;jexpid="+b(google.kEXPI));c+="&amp;srcpg="+b(google.sn)+"&amp;jsr="+b(t.jsr)+"&amp;bver="+b(t.bv);var f=a.lineNumber;void 0!==f&amp;&amp;(c+="&amp;line="+f);var g=
+a.fileName;g&amp;&amp;(0&lt;g.indexOf("-extension:/")&amp;&amp;(e=3),c+="&amp;script="+b(g),f&amp;&amp;g===window.location.href&amp;&amp;(f=document.documentElement.outerHTML.split("\n")[f],c+="&amp;cad="+b(f?f.substring(0,300):"No script found.")));c+="&amp;jsel="+e;for(var u in d)c+="&amp;",c+=b(u),c+="=",c+=b(d[u]);c=c+"&amp;emsg="+b(a.name+": "+a.message);c=c+"&amp;jsst="+b(a.stack||"N/A");12288&lt;=c.length&amp;&amp;(c=c.substr(0,12288));a=c;m||google.log(0,"",a);return a};window.onerror=function(a,b,d,m,e){r!==a&amp;&amp;(a=e instanceof Error?e:Error(a),void 0===d||"lineNumber"in a||(a.lineNumber=d),void 0===b||"fileName"in a||(a.fileName=b),google.ml(a,!1,void 0,!1,"SyntaxError"===a.name||"SyntaxError"===a.message.substring(0,11)||-1!==a.message.indexOf("Script error")?3:0));r=null;p&amp;&amp;q&gt;=l&amp;&amp;(window.onerror=null)};})();;this.gbar_={CONFIG:[[[0,"www.gstatic.com","og.qtm.en_US.5jB2FJqR1F4.O","pl","pl","538",0,[4,2,"","","","484929242","0"],null,"1bxjY6meIJm8xc8Pt8i3mAM",null,0,"og.qtm.8pE41sYUTwg.L.W.O","AA2YrTs00lPzmx9En6HZbOBSxvbnXpv0pA","AA2YrTuXeWsNpP9J282uZWD7GaEqvRiYYQ","",2,1,200,"POL",null,null,"1","538",1],null,[1,0.1000000014901161,2,1],[1,0.001000000047497451,1],[0,0,0,null,"","","",""],[0,0,"",1,0,0,0,0,0,0,null,0,0,null,0,0,null,null,0,0,0,"","","","","","",null,0,0,0,0,0,null,null,null,"rgba(32,33,36,1)","rgba(255,255,255,1)",0,0,1,null,null,1,0,0],null,null,["1","gci_91f30755d6a6b787dcc2a4062e6e9824.js","googleapis.client:gapi.iframes","","pl"],null,null,null,null,["m;/_/scs/abc-static/_/js/k=gapi.gapi.en.7I3T5S8x4Qg.O/d=1/rs=AHpOoo9SzNpm6HglASFo9cZ-GgP5E5f5WQ/m=__features__","https://apis.google.com","","","","",null,1,"es_plusone_gc_20221004.0_p0","pl",null,0],[0.009999999776482582,"pl","538",[null,"","0",null,1,5184000,null,null,"",null,null,null,null,null,0,null,0,0,1,0,0,0,null,null,0,0,null,0,0,0,0,0],null,null,null,0,null,null,["5061451","google\\.(com|ru|ca|by|kz|com\\.mx|com\\.tr)$",1]],[1,1,null,40400,538,"POL","pl","484929242.0",8,0.009999999776482582,0,0,null,null,null,null,"3700942",null,null,null,"1bxjY6meIJm8xc8Pt8i3mAM",0,0,0,null,2,5,"rd",321,0],[[null,null,null,"https://www.gstatic.com/og/_/js/k=og.qtm.en_US.5jB2FJqR1F4.O/rt=j/m=qabr,q_dnp,qcwid,qapid,qald/exm=qaaw,qadd,qaid,qein,qhaw,qhbr,qhch,qhga,qhid,qhin,qhpr/d=1/ed=1/rs=AA2YrTs00lPzmx9En6HZbOBSxvbnXpv0pA"],[null,null,null,"https://www.gstatic.com/og/_/ss/k=og.qtm.8pE41sYUTwg.L.W.O/m=qcwid/excm=qaaw,qadd,qaid,qein,qhaw,qhbr,qhch,qhga,qhid,qhin,qhpr/d=1/ed=1/ct=zgms/rs=AA2YrTuXeWsNpP9J282uZWD7GaEqvRiYYQ"]],null,null,null,[[[null,null,[null,null,null,"https://ogs.google.com/widget/app/so?eom=1"],0,448,328,57,4,1,0,0,63,64,8000,"https://www.google.pl/intl/pl/about/products",67,1,69,null,1,70,"Podczas wczytywania zestawu aplikacji wystąpił problem. Spróbuj ponownie za kilka minut lub przejdź na stronę %1$susług Google%2$s.",3,0,0,74,0,null,null,null,null,null,null,null,"/widget/app/so"]],0,[null,null,null,"https://www.gstatic.com/og/_/js/k=og.qtm.en_US.5jB2FJqR1F4.O/rt=j/m=qdsh/d=1/ed=1/rs=AA2YrTs00lPzmx9En6HZbOBSxvbnXpv0pA"],"1","538",1,0,null,"pl",0,null,0,0,0]]],};this.gbar_=this.gbar_||{};(function(_){var window=this;
+try{
+/*
+ Copyright The Closure Library Authors.
+ SPDX-License-Identifier: Apache-2.0
+*/
+var ka,wa,ya,za,Ca,Ea,Ga,Ha,La,Oa,Ka,Pa,Sa,Xa,Ya,Za,$a,ab,bb,db,eb,ib,jb;_.aa=function(a,b){if(Error.captureStackTrace)Error.captureStackTrace(this,_.aa);else{var c=Error().stack;c&amp;&amp;(this.stack=c)}a&amp;&amp;(this.message=String(a));void 0!==b&amp;&amp;(this.cause=b)};_.ba=function(){var a=_.n.navigator;return a&amp;&amp;(a=a.userAgent)?a:""};_.p=function(a){return-1!=_.ba().indexOf(a)};_.da=function(){return _.p("Opera")};_.ea=function(){return _.p("Trident")||_.p("MSIE")};_.fa=function(){return _.p("Firefox")||_.p("FxiOS")};
+_.ia=function(){return _.p("Safari")&amp;&amp;!(_.ha()||_.p("Coast")||_.da()||_.p("Edge")||_.p("Edg/")||_.p("OPR")||_.fa()||_.p("Silk")||_.p("Android"))};_.ha=function(){return(_.p("Chrome")||_.p("CriOS"))&amp;&amp;!_.p("Edge")||_.p("Silk")};_.ja=function(){return _.p("Android")&amp;&amp;!(_.ha()||_.fa()||_.da()||_.p("Silk"))};ka=function(){return _.p("iPhone")&amp;&amp;!_.p("iPod")&amp;&amp;!_.p("iPad")};_.la=function(){return ka()||_.p("iPad")||_.p("iPod")};
+_.ma=function(a){var b=a.length;if(0&lt;b){for(var c=Array(b),d=0;d&lt;b;d++)c[d]=a[d];return c}return[]};_.na=function(){return-1!=_.ba().toLowerCase().indexOf("webkit")&amp;&amp;!_.p("Edge")};_.pa=function(a){return oa&amp;&amp;null!=a&amp;&amp;a instanceof Uint8Array};_.ra=function(a,b){Object.isFrozen(a)||(qa?a[qa]|=b:void 0!==a.Sb?a.Sb|=b:Object.defineProperties(a,{Sb:{value:b,configurable:!0,writable:!0,enumerable:!1}}))};_.sa=function(a,b){Object.isExtensible(a)&amp;&amp;(qa?a[qa]&amp;&amp;(a[qa]&amp;=~b):void 0!==a.Sb&amp;&amp;(a.Sb&amp;=~b))};
+_.ta=function(a){var b;qa?b=a[qa]:b=a.Sb;return null==b?0:b};_.ua=function(a,b){qa?a[qa]=b:void 0!==a.Sb?a.Sb=b:Object.defineProperties(a,{Sb:{value:b,configurable:!0,writable:!0,enumerable:!1}})};_.va=function(a){_.ra(a,1);return a};wa=function(a){_.ra(a,17);return a};_.xa=function(a){return a?!!(_.ta(a)&amp;2):!1};ya=function(a,b){_.ua(b,(_.ta(a)|18)&amp;-33)};za=function(a){return null!==a&amp;&amp;"object"===typeof a&amp;&amp;!Array.isArray(a)&amp;&amp;a.constructor===Object};
+Ca=function(a){switch(typeof a){case "number":return isFinite(a)?a:String(a);case "object":if(a&amp;&amp;!Array.isArray(a)){if(_.pa(a))return _.Aa(a);if(a instanceof _.Ba){var b=a.Aa;return null==b?"":"string"===typeof b?b:a.Aa=_.Aa(b)}}}return a};Ea=function(a,b,c,d){if(null!=a){if(Array.isArray(a))a=_.Da(a,b,c,void 0!==d);else if(za(a)){var e={},f;for(f in a)e[f]=Ea(a[f],b,c,d);a=e}else a=b(a,d);return a}};
+_.Da=function(a,b,c,d){d=d?!!(_.ta(a)&amp;16):void 0;var e=Array.prototype.slice.call(a);c(a,e);for(a=0;a&lt;e.length;a++)e[a]=Ea(e[a],b,c,d);return e};Ga=function(a){return a.he===_.Fa?a.toJSON():Ca(a)};Ha=function(){};_.Ia=function(a,b){return null==a?b:a};La=function(a){if(_.xa(a)&amp;&amp;Object.isFrozen(a))return a;var b=_.Ja(a,Ka);ya(a,b);Object.freeze(b);return b};
+Oa=function(a,b){if(null!=a){if(oa&amp;&amp;a instanceof Uint8Array)return a.length?new _.Ba(new Uint8Array(a),_.Ma):_.Na();if(Array.isArray(a)){if(_.xa(a))return a;b&amp;&amp;(b=_.ta(a),b=!(b&amp;32)&amp;&amp;(!!(b&amp;16)||0===b));if(b)return _.ra(a,2),a;a=_.Da(a,Oa,ya);_.ta(a)&amp;4&amp;&amp;Object.freeze(a);return a}return a.he===_.Fa?Ka(a):a}};Ka=function(a){if(_.xa(a.na))return a;a=Pa(a);_.ra(a.na,2);return a};
+Pa=function(a){var b=new a.constructor;a.qc&amp;&amp;(b.qc=a.qc.slice());for(var c=a.na,d=!!(_.ta(c)&amp;16),e=0;e&lt;c.length;e++){var f=c[e];if(e===c.length-1&amp;&amp;za(f))for(var g in f){var h=+g;if(Number.isNaN(h))(b.Oa||(b.Oa=b.na[b.tc+b.nc]={}))[h]=f[h];else{var l=f[g],m=a.Wa&amp;&amp;a.Wa[h];m?_.Qa(b,h,La(m),!0):_.q(b,h,Oa(l,d),!0)}}else h=e-a.nc,(l=a.Wa&amp;&amp;a.Wa[h])?_.Qa(b,h,La(l),!1):_.q(b,h,Oa(f,d),!1)}return b};_.Ra=function(a){if(!_.xa(a.na))return a;var b=Pa(a);b.j=a;return b};Sa=function(a,b){return Ca(b)};
+_.t=function(a,b){return null!=a?!!a:!!b};_.u=function(a,b){void 0==b&amp;&amp;(b="");return null!=a?a:b};_.Ta=function(a,b){void 0==b&amp;&amp;(b=0);return null!=a?a:b};_.Ua=function(a,b,c){for(var d in a)b.call(c,a[d],d,a)};_.Wa=function(a,b){for(var c,d,e=1;e&lt;arguments.length;e++){d=arguments[e];for(c in d)a[c]=d[c];for(var f=0;f&lt;Va.length;f++)c=Va[f],Object.prototype.hasOwnProperty.call(d,c)&amp;&amp;(a[c]=d[c])}};Xa=function(a){var b=0;return function(){return b&lt;a.length?{done:!1,value:a[b++]}:{done:!0}}};
+Ya="function"==typeof Object.defineProperties?Object.defineProperty:function(a,b,c){if(a==Array.prototype||a==Object.prototype)return a;a[b]=c.value;return a};Za=function(a){a=["object"==typeof globalThis&amp;&amp;globalThis,a,"object"==typeof window&amp;&amp;window,"object"==typeof self&amp;&amp;self,"object"==typeof global&amp;&amp;global];for(var b=0;b&lt;a.length;++b){var c=a[b];if(c&amp;&amp;c.Math==Math)return c}throw Error("a");};$a=Za(this);
+ab=function(a,b){if(b)a:{var c=$a;a=a.split(".");for(var d=0;d&lt;a.length-1;d++){var e=a[d];if(!(e in c))break a;c=c[e]}a=a[a.length-1];d=c[a];b=b(d);b!=d&amp;&amp;null!=b&amp;&amp;Ya(c,a,{configurable:!0,writable:!0,value:b})}};
+ab("Symbol",function(a){if(a)return a;var b=function(f,g){this.j=f;Ya(this,"description",{configurable:!0,writable:!0,value:g})};b.prototype.toString=function(){return this.j};var c="jscomp_symbol_"+(1E9*Math.random()&gt;&gt;&gt;0)+"_",d=0,e=function(f){if(this instanceof e)throw new TypeError("b");return new b(c+(f||"")+"_"+d++,f)};return e});
+ab("Symbol.iterator",function(a){if(a)return a;a=Symbol("c");for(var b="Array Int8Array Uint8Array Uint8ClampedArray Int16Array Uint16Array Int32Array Uint32Array Float32Array Float64Array".split(" "),c=0;c&lt;b.length;c++){var d=$a[b[c]];"function"===typeof d&amp;&amp;"function"!=typeof d.prototype[a]&amp;&amp;Ya(d.prototype,a,{configurable:!0,writable:!0,value:function(){return bb(Xa(this))}})}return a});bb=function(a){a={next:a};a[Symbol.iterator]=function(){return this};return a};
+_.cb=function(a){var b="undefined"!=typeof Symbol&amp;&amp;Symbol.iterator&amp;&amp;a[Symbol.iterator];return b?b.call(a):{next:Xa(a)}};db="function"==typeof Object.create?Object.create:function(a){var b=function(){};b.prototype=a;return new b};if("function"==typeof Object.setPrototypeOf)eb=Object.setPrototypeOf;else{var fb;a:{var gb={a:!0},hb={};try{hb.__proto__=gb;fb=hb.a;break a}catch(a){}fb=!1}eb=fb?function(a,b){a.__proto__=b;if(a.__proto__!==b)throw new TypeError("d`"+a);return a}:null}ib=eb;
+_.w=function(a,b){a.prototype=db(b.prototype);a.prototype.constructor=a;if(ib)ib(a,b);else for(var c in b)if("prototype"!=c)if(Object.defineProperties){var d=Object.getOwnPropertyDescriptor(b,c);d&amp;&amp;Object.defineProperty(a,c,d)}else a[c]=b[c];a.Y=b.prototype};jb=function(a,b,c){if(null==a)throw new TypeError("e`"+c);if(b instanceof RegExp)throw new TypeError("f`"+c);return a+""};
+ab("String.prototype.startsWith",function(a){return a?a:function(b,c){var d=jb(this,b,"startsWith"),e=d.length,f=b.length;c=Math.max(0,Math.min(c|0,d.length));for(var g=0;g&lt;f&amp;&amp;c&lt;e;)if(d[c++]!=b[g++])return!1;return g&gt;=f}});ab("Array.prototype.find",function(a){return a?a:function(b,c){a:{var d=this;d instanceof String&amp;&amp;(d=String(d));for(var e=d.length,f=0;f&lt;e;f++){var g=d[f];if(b.call(c,g,f,d)){b=g;break a}}b=void 0}return b}});var kb=function(a,b){return Object.prototype.hasOwnProperty.call(a,b)};
+ab("WeakMap",function(a){function b(){}function c(l){var m=typeof l;return"object"===m&amp;&amp;null!==l||"function"===m}function d(l){if(!kb(l,f)){var m=new b;Ya(l,f,{value:m})}}function e(l){var m=Object[l];m&amp;&amp;(Object[l]=function(r){if(r instanceof b)return r;Object.isExtensible(r)&amp;&amp;d(r);return m(r)})}if(function(){if(!a||!Object.seal)return!1;try{var l=Object.seal({}),m=Object.seal({}),r=new a([[l,2],[m,3]]);if(2!=r.get(l)||3!=r.get(m))return!1;r.delete(l);r.set(m,4);return!r.has(l)&amp;&amp;4==r.get(m)}catch(v){return!1}}())return a;
+var f="$jscomp_hidden_"+Math.random();e("freeze");e("preventExtensions");e("seal");var g=0,h=function(l){this.j=(g+=Math.random()+1).toString();if(l){l=_.cb(l);for(var m;!(m=l.next()).done;)m=m.value,this.set(m[0],m[1])}};h.prototype.set=function(l,m){if(!c(l))throw Error("g");d(l);if(!kb(l,f))throw Error("h`"+l);l[f][this.j]=m;return this};h.prototype.get=function(l){return c(l)&amp;&amp;kb(l,f)?l[f][this.j]:void 0};h.prototype.has=function(l){return c(l)&amp;&amp;kb(l,f)&amp;&amp;kb(l[f],this.j)};h.prototype.delete=function(l){return c(l)&amp;&amp;
+kb(l,f)&amp;&amp;kb(l[f],this.j)?delete l[f][this.j]:!1};return h});
+ab("Map",function(a){if(function(){if(!a||"function"!=typeof a||!a.prototype.entries||"function"!=typeof Object.seal)return!1;try{var h=Object.seal({x:4}),l=new a(_.cb([[h,"s"]]));if("s"!=l.get(h)||1!=l.size||l.get({x:4})||l.set({x:4},"t")!=l||2!=l.size)return!1;var m=l.entries(),r=m.next();if(r.done||r.value[0]!=h||"s"!=r.value[1])return!1;r=m.next();return r.done||4!=r.value[0].x||"t"!=r.value[1]||!m.next().done?!1:!0}catch(v){return!1}}())return a;var b=new WeakMap,c=function(h){this.o={};this.j=
+f();this.size=0;if(h){h=_.cb(h);for(var l;!(l=h.next()).done;)l=l.value,this.set(l[0],l[1])}};c.prototype.set=function(h,l){h=0===h?0:h;var m=d(this,h);m.list||(m.list=this.o[m.id]=[]);m.Va?m.Va.value=l:(m.Va={next:this.j,lc:this.j.lc,head:this.j,key:h,value:l},m.list.push(m.Va),this.j.lc.next=m.Va,this.j.lc=m.Va,this.size++);return this};c.prototype.delete=function(h){h=d(this,h);return h.Va&amp;&amp;h.list?(h.list.splice(h.index,1),h.list.length||delete this.o[h.id],h.Va.lc.next=h.Va.next,h.Va.next.lc=
+h.Va.lc,h.Va.head=null,this.size--,!0):!1};c.prototype.clear=function(){this.o={};this.j=this.j.lc=f();this.size=0};c.prototype.has=function(h){return!!d(this,h).Va};c.prototype.get=function(h){return(h=d(this,h).Va)&amp;&amp;h.value};c.prototype.entries=function(){return e(this,function(h){return[h.key,h.value]})};c.prototype.keys=function(){return e(this,function(h){return h.key})};c.prototype.values=function(){return e(this,function(h){return h.value})};c.prototype.forEach=function(h,l){for(var m=this.entries(),
+r;!(r=m.next()).done;)r=r.value,h.call(l,r[1],r[0],this)};c.prototype[Symbol.iterator]=c.prototype.entries;var d=function(h,l){var m=l&amp;&amp;typeof l;"object"==m||"function"==m?b.has(l)?m=b.get(l):(m=""+ ++g,b.set(l,m)):m="p_"+l;var r=h.o[m];if(r&amp;&amp;kb(h.o,m))for(h=0;h&lt;r.length;h++){var v=r[h];if(l!==l&amp;&amp;v.key!==v.key||l===v.key)return{id:m,list:r,index:h,Va:v}}return{id:m,list:r,index:-1,Va:void 0}},e=function(h,l){var m=h.j;return bb(function(){if(m){for(;m.head!=h.j;)m=m.lc;for(;m.next!=m.head;)return m=
+m.next,{done:!1,value:l(m)};m=null}return{done:!0,value:void 0}})},f=function(){var h={};return h.lc=h.next=h.head=h},g=0;return c});ab("Number.MAX_SAFE_INTEGER",function(){return 9007199254740991});var lb=function(a,b){a instanceof String&amp;&amp;(a+="");var c=0,d=!1,e={next:function(){if(!d&amp;&amp;c&lt;a.length){var f=c++;return{value:b(f,a[f]),done:!1}}d=!0;return{done:!0,value:void 0}}};e[Symbol.iterator]=function(){return e};return e};
+ab("Array.prototype.entries",function(a){return a?a:function(){return lb(this,function(b,c){return[b,c]})}});ab("Array.from",function(a){return a?a:function(b,c,d){c=null!=c?c:function(h){return h};var e=[],f="undefined"!=typeof Symbol&amp;&amp;Symbol.iterator&amp;&amp;b[Symbol.iterator];if("function"==typeof f){b=f.call(b);for(var g=0;!(f=b.next()).done;)e.push(c.call(d,f.value,g++))}else for(f=b.length,g=0;g&lt;f;g++)e.push(c.call(d,b[g],g));return e}});
+ab("Array.prototype.keys",function(a){return a?a:function(){return lb(this,function(b){return b})}});ab("Number.isNaN",function(a){return a?a:function(b){return"number"===typeof b&amp;&amp;isNaN(b)}});ab("Array.prototype.fill",function(a){return a?a:function(b,c,d){var e=this.length||0;0&gt;c&amp;&amp;(c=Math.max(0,e+c));if(null==d||d&gt;e)d=e;d=Number(d);0&gt;d&amp;&amp;(d=Math.max(0,e+d));for(c=Number(c||0);c&lt;d;c++)this[c]=b;return this}});var mb=function(a){return a?a:Array.prototype.fill};ab("Int8Array.prototype.fill",mb);
+ab("Uint8Array.prototype.fill",mb);ab("Uint8ClampedArray.prototype.fill",mb);ab("Int16Array.prototype.fill",mb);ab("Uint16Array.prototype.fill",mb);ab("Int32Array.prototype.fill",mb);ab("Uint32Array.prototype.fill",mb);ab("Float32Array.prototype.fill",mb);ab("Float64Array.prototype.fill",mb);var nb="function"==typeof Object.assign?Object.assign:function(a,b){for(var c=1;c&lt;arguments.length;c++){var d=arguments[c];if(d)for(var e in d)kb(d,e)&amp;&amp;(a[e]=d[e])}return a};
+ab("Object.assign",function(a){return a||nb});ab("Object.entries",function(a){return a?a:function(b){var c=[],d;for(d in b)kb(b,d)&amp;&amp;c.push([d,b[d]]);return c}});ab("Array.prototype.values",function(a){return a?a:function(){return lb(this,function(b,c){return c})}});ab("Object.is",function(a){return a?a:function(b,c){return b===c?0!==b||1/b===1/c:b!==b&amp;&amp;c!==c}});
+ab("Array.prototype.includes",function(a){return a?a:function(b,c){var d=this;d instanceof String&amp;&amp;(d=String(d));var e=d.length;c=c|</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>tak</t>
         </is>
       </c>
     </row>
@@ -635,7 +1081,156 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="f1e4ca55a5365e4ca75ec317fdd12017", element="4972740d-0b78-47f6-bc63-c7d5684542f6")&gt;</t>
+          <t>(function(){window.google={kEI:'3rxjY42aHpa_xc8PhqKK2AM',kEXPI:'31',kBL:'y__Z'};google.sn='webhp';google.kHL='pl';})();(function(){
+var f=this||self;var h,k=[];function l(a){for(var b;a&amp;&amp;(!a.getAttribute||!(b=a.getAttribute("eid")));)a=a.parentNode;return b||h}function m(a){for(var b=null;a&amp;&amp;(!a.getAttribute||!(b=a.getAttribute("leid")));)a=a.parentNode;return b}
+function n(a,b,c,d,g){var e="";c||-1!==b.search("&amp;ei=")||(e="&amp;ei="+l(d),-1===b.search("&amp;lei=")&amp;&amp;(d=m(d))&amp;&amp;(e+="&amp;lei="+d));d="";!c&amp;&amp;f._cshid&amp;&amp;-1===b.search("&amp;cshid=")&amp;&amp;"slh"!==a&amp;&amp;(d="&amp;cshid="+f._cshid);c=c||"/"+(g||"gen_204")+"?atyp=i&amp;ct="+a+"&amp;cad="+b+e+"&amp;zx="+Date.now()+d;/^http:/i.test(c)&amp;&amp;"https:"===window.location.protocol&amp;&amp;(google.ml&amp;&amp;google.ml(Error("a"),!1,{src:c,glmm:1}),c="");return c};h=google.kEI;google.getEI=l;google.getLEI=m;google.ml=function(){return null};google.log=function(a,b,c,d,g){if(c=n(a,b,c,d,g)){a=new Image;var e=k.length;k[e]=a;a.onerror=a.onload=a.onabort=function(){delete k[e]};a.src=c}};google.logUrl=n;}).call(this);(function(){
+google.y={};google.sy=[];google.x=function(a,b){if(a)var c=a.id;else{do c=Math.random();while(google.y[c])}google.y[c]=[a,b];return!1};google.sx=function(a){google.sy.push(a)};google.lm=[];google.plm=function(a){google.lm.push.apply(google.lm,a)};google.lq=[];google.load=function(a,b,c){google.lq.push([[a],b,c])};google.loadAll=function(a,b){google.lq.push([a,b])};google.bx=!1;google.lx=function(){};}).call(this);google.f={};(function(){
+document.documentElement.addEventListener("submit",function(b){var a;if(a=b.target){var c=a.getAttribute("data-submitfalse");a="1"===c||"q"===c&amp;&amp;!a.elements.q.value?!0:!1}else a=!1;a&amp;&amp;(b.preventDefault(),b.stopPropagation())},!0);document.documentElement.addEventListener("click",function(b){var a;a:{for(a=b.target;a&amp;&amp;a!==document.documentElement;a=a.parentElement)if("A"===a.tagName){a="1"===a.getAttribute("data-nohref");break a}a=!1}a&amp;&amp;b.preventDefault()},!0);}).call(this);(function(){google.hs={h:true,nhs:false,sie:false};})();(function(){google.c={ataf:false,btfi:false,cap:2000,fil:true,frt:false,gecoh:false,gl:true,lhc:false,llt:false,lrt:false,raf:false,sxs:false,taf:false,timl:false};})();(function(){
+var f=this||self;var g=window.performance;function h(a,b,d,c){a.addEventListener?a.addEventListener(b,d,c||!1):a.attachEvent&amp;&amp;a.attachEvent("on"+b,d)}function k(a,b,d,c){"addEventListener"in a?a.removeEventListener(b,d,c||!1):a.attachEvent&amp;&amp;a.detachEvent("on"+b,d)};google.c.iim=google.c.iim||{};function l(a){a&amp;&amp;f.google.aft(a.target)}var m;function n(){k(document.documentElement,"load",m,!0);k(document.documentElement,"error",m,!0)};google.timers={};google.startTick=function(a){google.timers[a]={t:{start:Date.now()},e:{},m:{}}};google.tick=function(a,b,d){google.timers[a]||google.startTick(a);d=void 0!==d?d:Date.now();b instanceof Array||(b=[b]);for(var c=0,e;e=b[c++];)google.timers[a].t[e]=d};google.c.e=function(a,b,d){google.timers[a].e[b]=d};google.c.b=function(a,b){b=google.timers[b||"load"].m;b[a]&amp;&amp;google.ml(Error("a"),!1,{m:a});b[a]=!0};google.c.u=function(a,b){var d=google.timers[b||"load"],c=d.m;if(c[a]){c[a]=!1;for(a in c)if(c[a])return;google.csiReport(d,"load2"===b?"all2":"all")}else{b="";for(var e in c)b+=e+":"+c[e]+";";google.ml(Error("b"),!1,{m:a,b:!1===c[a],s:b})}};google.rll=function(a,b,d){function c(e){d(e);k(a,"load",c);k(a,"error",c)}h(a,"load",c);b&amp;&amp;h(a,"error",c)};f.google.aft=function(a){a.setAttribute("data-iml",String(Date.now()))};google.startTick("load");var p=google.timers.load;a:{var q=p.t;if(g){var r=g.timing;if(r){var t=r.navigationStart,u=r.responseStart;if(u&gt;t&amp;&amp;u&lt;=q.start){q.start=u;p.wsrt=u-t;break a}}g.now&amp;&amp;(p.wsrt=Math.floor(g.now()))}}google.c.b("pr","load");google.c.b("xe","load");function v(a){if("hidden"===document.visibilityState){google.c.fh=a;var b;window.performance&amp;&amp;window.performance.timing&amp;&amp;(b=Math.floor(window.performance.timing.navigationStart+a));google.tick("load","fht",b);return!0}return!1}
+function w(a){v(a.timeStamp)&amp;&amp;k(document,"visibilitychange",w,!0)}google.c.fh=Infinity;h(document,"visibilitychange",w,!0);v(0);google.c.gl&amp;&amp;(m=l,h(document.documentElement,"load",m,!0),google.c.glu=n);}).call(this);(function(){
+function g(){return window.performance&amp;&amp;window.performance.navigation&amp;&amp;window.performance.navigation.type};function k(a,b){if(!a||m(a))return 0;if(!a.getBoundingClientRect)return 1;var c=function(d){return d.getBoundingClientRect()};return r(a,c,b)?0:t(a,c)}function r(a,b,c){a:{for(var d=a;d&amp;&amp;void 0!==d;d=d.parentElement)if("hidden"===d.style.overflow||c&amp;&amp;"G-EXPANDABLE-CONTENT"===d.tagName&amp;&amp;"hidden"===getComputedStyle(d).getPropertyValue("overflow")){c=d;break a}c=null}if(!c)return!1;a=b(a);b=b(c);return a.bottom&lt;b.top||a.top&gt;=b.bottom||a.right&lt;b.left||a.left&gt;=b.right}
+function m(a){return"none"===a.style.display?!0:document.defaultView&amp;&amp;document.defaultView.getComputedStyle?(a=document.defaultView.getComputedStyle(a),!!a&amp;&amp;("hidden"===a.visibility||"0px"===a.height&amp;&amp;"0px"===a.width)):!1}
+function t(a,b){var c=b(a);a=c.left+window.pageXOffset;b=c.top+window.pageYOffset;var d=c.width;c=c.height;var e=0;if(0&gt;=c&amp;&amp;0&gt;=d)return e;var f=window.innerHeight||document.documentElement.clientHeight;0&gt;b+c?e=2:b&gt;=f&amp;&amp;(e=4);if(0&gt;a+d||a&gt;=(window.innerWidth||document.documentElement.clientWidth))e|=8;e||(e=1,b+c&gt;f&amp;&amp;(e|=4));return e};var u=window.location,v="aft afti afts cbs cbt fht frt hct prt sct".split(" ");function w(a){return(a=u.search.match(new RegExp("[?&amp;]"+a+"=(\\d+)")))?Number(a[1]):-1}
+function x(a,b){var c=google.timers[b||"load"];b=c.m;if(!b||!b.prs){var d=g()?0:w("qsubts");0&lt;d&amp;&amp;(b=w("fbts"),0&lt;b&amp;&amp;(c.t.start=Math.max(d,b)));var e=c.t,f=e.start;b={wsrt:c.wsrt||0};if(f)for(var p=0,n;n=v[p++];){var l=e[n];l&amp;&amp;(b[n]=Math.max(l-f,0))}0&lt;d&amp;&amp;(b.gsasrt=c.t.start-d);c=c.e;a="/gen_204?s="+google.sn+"&amp;t="+a+"&amp;atyp=csi&amp;ei="+google.kEI+"&amp;rt=";d="";for(h in b)a+=""+d+h+"."+b[h],d=",";for(var q in c)a+="&amp;"+q+"="+c[q];window._cshid&amp;&amp;(a+="&amp;cshid="+window._cshid);2===g()&amp;&amp;(a+="&amp;bb=1");1===g()&amp;&amp;(a+=
+"&amp;r=1");if("gsasrt"in b){var h=w("qsd");0&lt;h&amp;&amp;(a+="&amp;qsd="+h)}google.kBL&amp;&amp;(a+="&amp;bl="+google.kBL);h=a;navigator.sendBeacon?navigator.sendBeacon(h,""):google.log("","",h)}};function y(a){a&amp;&amp;google.tick("load","cbs",a);google.tick("load","cbt");x("cap")};var z="src bsrc url ll image img-url".split(" ");function A(a){for(var b=0;b&lt;z.length;++b)if(a.getAttribute("data-"+z[b]))return!0;return!1}function B(a){var b=a.parentElement;if(b&amp;&amp;("G-IMG"===b.tagName||b.classList.contains("uhHOwf"))&amp;&amp;(b.style.height||b.style.width)){var c=b.getBoundingClientRect(),d=a.getBoundingClientRect();if(c.height&lt;=d.height||c.width&lt;=d.width)a=b}var e;return k(a,null==(e=google.c)?void 0:e.gecoh)}google.c.iim=google.c.iim||{};var C=window.innerHeight||document.documentElement.clientHeight,D=0,E=0,F=0,G=0,H=0,I=0,J=0,K=!0,L=!0,M=-1,N,P=google.c.sxs?"load2":"load";function Q(a,b,c,d){var e=google.timers[P].t[a];e&amp;&amp;(c||d&amp;&amp;null!=b&amp;&amp;b&lt;e)||google.tick(P,a,b)}function R(a,b,c){"1"===a.getAttribute("data-frt")&amp;&amp;(Q("frt",c,!1,!0),++G,S());b&amp;&amp;(Q("aft",c,!1,!0),Q("afti",c,!1,!0),++I,S());google.c.timl&amp;&amp;Q("iml",c,!1,!0);++E;a.setAttribute("data-frt","0");(google.c.timl||b)&amp;&amp;T()}
+function T(){var a=google.c.timl?E===D:H===I;!L&amp;&amp;a&amp;&amp;google.c.u("il",P)}
+function S(){if(!K){var a=I===H,b=G===F;a&amp;&amp;b&amp;&amp;(google.c.e(P,"ima",String(H)),google.c.e(P,"imad",String(J)),google.c.e(P,"aftp",String(Math.round(M))),document.getElementsByClassName("Ib7Efc").length&amp;&amp;google.c.e(P,"ddl","1"),N&amp;&amp;clearTimeout(N),x(google.c.sxs?"aft2":"aft",P));"hidden"===document.visibilityState&amp;&amp;google.c.e(P,"hddn","1");if(!google.c.sxs&amp;&amp;null!==google.aftq&amp;&amp;(2===google.fevent||3===google.fevent?google.fevent:1)&amp;((a?1:0)|(b?2:0))){google.tick("load","aftqf",Date.now());var c;for(a=
+0;b=null==(c=google.aftq)?void 0:c[a++];)try{b()}catch(d){google.ml(d,!1)}google.aftq=null}}}function U(a,b){0===b||b&amp;8||(a.setAttribute("data-frt","1"),++F)}if(0&lt;google.c.cap&amp;&amp;!google.c.sxs)a:{var V=google.c.cap;if(window.performance&amp;&amp;window.performance.timing&amp;&amp;"navigationStart"in window.performance.timing){var W=window.performance.now(),X=V-W;if(0&lt;X){N=setTimeout(y,X,Math.floor(window.performance.timing.navigationStart+W));break a}y()}N=void 0}google.c.wh=Math.floor(window.innerHeight||document.documentElement.clientHeight);google.c.e(P,"wh",String(google.c.wh));google.c.b("il",P);google.c.setup=function(a,b,c){var d=a.getAttribute("data-atf");if(d)return c=Number(d),b&amp;&amp;!a.hasAttribute("data-frt")&amp;&amp;U(a,c),c;var e="string"!==typeof a.src||!a.src,f=!!a.getAttribute("data-bsrc"),p=!!a.getAttribute("data-deferred"),n=!p&amp;&amp;A(a);n&amp;&amp;a.setAttribute("data-lzy_","1");d=B(a);a.setAttribute("data-atf",String(d));var l=!!(d&amp;1);e=(e||a.complete)&amp;&amp;!p&amp;&amp;!f&amp;&amp;!(l&amp;&amp;n);f=!google.c.lhc&amp;&amp;Number(a.getAttribute("data-iml"))||0;++D;if(e&amp;&amp;!f||a.hasAttribute("data-noaft"))a.setAttribute("data-frt","0"),++E;else{var q=google.c.btfi&amp;&amp;d&amp;4&amp;&amp;f&amp;&amp;M&lt;C;if(q){var h=a.getBoundingClientRect().top+window.pageYOffset;!c||h&lt;c?M=l?C:h:q=!1}l&amp;&amp;(++H,p&amp;&amp;++J);b&amp;&amp;U(a,d);q&amp;&amp;(Q("aft",f,!1,!0),Q("aftb",f,!1,!0));if(e&amp;&amp;f)R(a,l,google.c.btfi?0:f);else{l&amp;&amp;(!c||c&gt;=C)&amp;&amp;(M=C);var O=a.src;google.rll(a,!0,function(){google.c.fil&amp;&amp;(p||n)&amp;&amp;O&amp;&amp;O===a.src?google.rll(a,!0,function(){R(a,l,Date.now())}):R(a,l,Date.now())})}}return d};google.c.ubr=function(a,b,c,d){google.c.taf&amp;&amp;M&lt;C?(M=c||-1,Q("aft",b)):0&gt;M&amp;&amp;(c&amp;&amp;(M=c),google.c.btfi&amp;&amp;Q("aft",b));a||Q("afts",b,!0);d||(Q("aft",b,!0),K&amp;&amp;!google.c.frt&amp;&amp;(K=!1,S()),a&amp;&amp;L&amp;&amp;(Q("prt",b),google.c.timl&amp;&amp;Q("iml",b,!0),L=!1,T(),google.c.setup=function(){return 0},google.c.ubr=function(){}))};}).call(this);(function(){
+var b=[function(){google.tick&amp;&amp;google.tick("load","dcl")}];google.dclc=function(a){b.length?b.push(a):a()};function c(){for(var a=b.shift();a;)a(),a=b.shift()}window.addEventListener?(document.addEventListener("DOMContentLoaded",c,!1),window.addEventListener("load",c,!1)):window.attachEvent&amp;&amp;window.attachEvent("onload",c);}).call(this);(function(){
+var b=[];google.jsc={xx:b,x:function(a){b.push(a)},mm:[],m:function(a){google.jsc.mm.length||(google.jsc.mm=a)}};}).call(this);(function(){
+var e=this||self;
+var f={};function w(a,c){if(null===c)return!1;if("contains"in a&amp;&amp;1==c.nodeType)return a.contains(c);if("compareDocumentPosition"in a)return a==c||!!(a.compareDocumentPosition(c)&amp;16);for(;c&amp;&amp;a!=c;)c=c.parentNode;return c==a};var y=function(a,c){return function(d){d||(d=window.event);return c.call(a,d)}},z="undefined"!=typeof navigator&amp;&amp;/Macintosh/.test(navigator.userAgent),E=function(){this._mouseEventsPrevented=!0};var F=function(a){this.g=a;this.h=[]},G=function(a){for(var c=0;c&lt;a.h.length;++c){var d=a.g,b=a.h[c];d.removeEventListener?d.removeEventListener(b.eventType,b.o,b.capture):d.detachEvent&amp;&amp;d.detachEvent("on"+b.eventType,b.o)}a.h=[]};
+var H=e._jsa||{};H._cfc=void 0;H._aeh=void 0;var I=function(){this.h=this.g=null},K=function(a,c){var d=J;d.g=a;d.h=c;return d};I.prototype.i=function(){var a=this.g;this.g&amp;&amp;this.g!=this.h?this.g=this.g.__owner||this.g.parentNode:this.g=null;return a};var L=function(){var a;this.j=a=void 0===a?[]:a;this.g=0;this.h=null;this.l=!1},N=function(a,c){var d=M;d.j=a;d.g=0;d.h=c;d.l=!1;return d};L.prototype.i=function(){if(this.l)return J.i();if(this.g!=this.j.length){var a=this.j[this.g];this.g++;a!=this.h&amp;&amp;a&amp;&amp;a.__owner&amp;&amp;(this.l=!0,K(a.__owner,this.h));return a}return null};var J=new I,M=new L;
+var Q=function(){this.s=[];this.g=[];this.h=[];this.l={};this.i=null;this.j=[];P(this,"_custom")},R=function(a){return String.prototype.trim?a.trim():a.replace(/^\s+/,"").replace(/\s+$/,"")},ia=function(a,c){return function m(b,g){g=void 0===g?!0:g;var l=c;if("_custom"==l){l=b.detail;if(!l||!l._type)return;l=l._type}var k=l;"click"==k&amp;&amp;(z&amp;&amp;b.metaKey||!z&amp;&amp;b.ctrlKey||2==b.which||null==b.which&amp;&amp;4==b.button||b.shiftKey)?k="clickmod":"keydown"==k&amp;&amp;!b.a11ysc&amp;&amp;(k="maybe_click");var u=b.srcElement||b.target;l=S(k,b,u,"",null);var aa=b.path?N(b.path,this):b.composedPath?N(b.composedPath(),this):K(u,this);for(var r;r=aa.i();){var h=r;var p=void 0;r=h;var q=k,ba=b;var n=r.__jsaction;if(!n){var x;n=null;"getAttribute"in r&amp;&amp;(n=r.getAttribute("jsaction"));if(x=n){n=f[x];if(!n){n={};for(var A=x.split(ca),da=A?A.length:0,B=0;B&lt;da;B++){var v=A[B];if(v){var C=v.indexOf(":"),O=-1!=C,fa=O?R(v.substr(0,C)):ea;v=O?R(v.substr(C+1)):v;n[fa]=v}}f[x]=n}r.__jsaction=n}else n=ha,r.__jsaction=n}"maybe_click"==q&amp;&amp;n.click?(p=q,q="click"):"clickkey"==q?q="click":"click"!=q||n.click||(q="clickonly");p=H._cfc&amp;&amp;n.click?H._cfc(r,ba,n,q,p):{eventType:p?p:q,action:n[q]||"",event:null,ignore:!1};l=S(p.eventType,p.event||b,u,p.action||"",h,l.timeStamp);if(p.ignore||p.action)break}l&amp;&amp;"touchend"==l.eventType&amp;&amp;(l.event._preventMouseEvents=E);if(p&amp;&amp;p.action){if("mouseenter"==k||"mouseleave"==k||"pointerenter"==k||"pointerleave"==k)if(u=b.relatedTarget,!("mouseover"==b.type&amp;&amp;"mouseenter"==k||"mouseout"==b.type&amp;&amp;"mouseleave"==k||
+"pointerover"==b.type&amp;&amp;"pointerenter"==k||"pointerout"==b.type&amp;&amp;"pointerleave"==k)||u&amp;&amp;(u===h||w(h,u)))l.action="",l.actionElement=null;else{k={};for(var t in b)"function"!==typeof b[t]&amp;&amp;"srcElement"!==t&amp;&amp;"target"!==t&amp;&amp;(k[t]=b[t]);k.type="mouseover"==b.type?"mouseenter":"mouseout"==b.type?"mouseleave":"pointerover"==b.type?"pointerenter":"pointerleave";k.target=k.srcElement=h;k.bubbles=!1;l.event=k;l.targetElement=h}}else l.action="",l.actionElement=null;h=l;a.i&amp;&amp;!h.event.a11ysgd&amp;&amp;(t=S(h.eventType,h.event,h.targetElement,h.action,h.actionElement,h.timeStamp),"clickonly"==t.eventType&amp;&amp;(t.eventType="click"),a.i(t,!0));if(h.actionElement||"maybe_click"==h.eventType){if(a.i){if(!h.actionElement||"A"!=h.actionElement.tagName||"click"!=h.eventType&amp;&amp;"clickmod"!=h.eventType||(b.preventDefault?b.preventDefault():b.returnValue=!1),(b=a.i(h))&amp;&amp;g){m.call(this,b,!1);return}}else{if((g=e.document)&amp;&amp;!g.createEvent&amp;&amp;g.createEventObject)try{var D=g.createEventObject(b)}catch(la){D=b}else D=b;h.event=D;a.j.push(h)}H._aeh&amp;&amp;
+H._aeh(h)}}},S=function(a,c,d,b,g,m){return{eventType:a,event:c,targetElement:d,action:b,actionElement:g,timeStamp:m||Date.now()}},ja=function(a,c){return function(d){var b=a,g=c,m=!1;"mouseenter"==b?b="mouseover":"mouseleave"==b?b="mouseout":"pointerenter"==b?b="pointerover":"pointerleave"==b&amp;&amp;(b="pointerout");if(d.addEventListener){if("focus"==b||"blur"==b||"error"==b||"load"==b||"toggle"==b)m=!0;d.addEventListener(b,g,m)}else d.attachEvent&amp;&amp;("focus"==b?b="focusin":"blur"==b&amp;&amp;(b="focusout"),g=y(d,g),d.attachEvent("on"+b,g));return{eventType:b,o:g,capture:m}}},P=function(a,c){if(!a.l.hasOwnProperty(c)){var d=ia(a,c),b=ja(c,d);a.l[c]=d;a.s.push(b);for(d=0;d&lt;a.g.length;++d){var g=a.g[d];g.h.push(b.call(null,g.g))}"click"==c&amp;&amp;P(a,"keydown")}};Q.prototype.o=function(a){return this.l[a]};var W=function(a,c){var d=new F(c);a:{for(var b=0;b&lt;a.g.length;b++)if(T(a.g[b].g,c)){c=!0;break a}c=!1}if(c)return a.h.push(d),d;U(a,d);a.g.push(d);V(a);return d},V=function(a){for(var c=a.h.concat(a.g),d=[],b=[],g=0;g&lt;a.g.length;++g){var m=a.g[g];X(m,c)?(d.push(m),G(m)):b.push(m)}for(g=0;g&lt;a.h.length;++g)m=a.h[g],X(m,c)?d.push(m):(b.push(m),U(a,m));a.g=b;a.h=d},U=function(a,c){var d=c.g;ka&amp;&amp;(d.style.cursor="pointer");for(d=0;d&lt;a.s.length;++d)c.h.push(a.s[d].call(null,c.g))},Y=function(a,c){a.i=c;a.j&amp;&amp;(0&lt;a.j.length&amp;&amp;c(a.j),a.j=null)},X=function(a,c){for(var d=0;d&lt;c.length;++d)if(c[d].g!=a.g&amp;&amp;T(c[d].g,a.g))return!0;return!1},T=function(a,c){for(;a!=c&amp;&amp;c.parentNode;)c=c.parentNode;return a==c},ka="undefined"!=typeof navigator&amp;&amp;/iPhone|iPad|iPod/.test(navigator.userAgent),ca=/\s*;\s*/,ea="click",ha={};var Z=new Q;W(Z,window.document.documentElement);P(Z,"click");P(Z,"focus");P(Z,"focusin");P(Z,"blur");P(Z,"focusout");P(Z,"error");P(Z,"load");P(Z,"auxclick");P(Z,"change");P(Z,"dblclick");P(Z,"beforeinput");P(Z,"input");P(Z,"keyup");P(Z,"keydown");P(Z,"keypress");P(Z,"mousedown");P(Z,"mouseenter");P(Z,"mouseleave");P(Z,"mouseout");P(Z,"mouseover");P(Z,"mouseup");P(Z,"paste");P(Z,"touchstart");P(Z,"touchend");P(Z,"touchcancel");P(Z,"transitioncancel");P(Z,"transitionend");P(Z,"transitionrun");P(Z,"transitionstart");P(Z,"dragover");P(Z,"dragenter");P(Z,"dragleave");P(Z,"drop");P(Z,"dragstart");P(Z,"dragend");P(Z,"speech");(function(a){google.jsad=function(c){Y(a,c)};google.jsaac=function(c){return W(a,c)};google.jsarc=function(c){G(c);for(var d=!1,b=0;b&lt;a.g.length;++b)if(a.g[b]===c){a.g.splice(b,1);d=!0;break}if(!d)for(d=0;d&lt;a.h.length;++d)if(a.h[d]===c){a.h.splice(d,1);break}V(a)}})(Z);e.gws_wizbind=function(a){return{trigger:function(c){var d=a.o(c.type);d||(P(a,c.type),d=a.o(c.type));var b=c.target||c.srcElement;d&amp;&amp;d.call(b.ownerDocument.documentElement,c)},bind:function(c){Y(a,c)}}}(Z);}).call(this);(function(){window._skwEvts=[];})();(function(){window.google.erd={jsr:1,bv:1681,sd:true,de:true};})();(function(){var sdo=false;var mei=10;
+var h=this||self;var k,l=null!=(k=h.mei)?k:1,n,p=null!=(n=h.sdo)?n:!0,q=0,r,t=google.erd,v=t.jsr;google.ml=function(a,b,d,m,e){e=void 0===e?2:e;b&amp;&amp;(r=a&amp;&amp;a.message);if(google.dl)return google.dl(a,e,d),null;if(0&gt;v){window.console&amp;&amp;console.error(a,d);if(-2===v)throw a;b=!1}else b=!a||!a.message||"Error loading script"===a.message||q&gt;=l&amp;&amp;!m?!1:!0;if(!b)return null;q++;d=d||{};b=encodeURIComponent;var c="/gen_204?atyp=i&amp;ei="+b(google.kEI);google.kEXPI&amp;&amp;(c+="&amp;jexpid="+b(google.kEXPI));c+="&amp;srcpg="+b(google.sn)+"&amp;jsr="+b(t.jsr)+"&amp;bver="+b(t.bv);var f=a.lineNumber;void 0!==f&amp;&amp;(c+="&amp;line="+f);var g=
+a.fileName;g&amp;&amp;(0&lt;g.indexOf("-extension:/")&amp;&amp;(e=3),c+="&amp;script="+b(g),f&amp;&amp;g===window.location.href&amp;&amp;(f=document.documentElement.outerHTML.split("\n")[f],c+="&amp;cad="+b(f?f.substring(0,300):"No script found.")));c+="&amp;jsel="+e;for(var u in d)c+="&amp;",c+=b(u),c+="=",c+=b(d[u]);c=c+"&amp;emsg="+b(a.name+": "+a.message);c=c+"&amp;jsst="+b(a.stack||"N/A");12288&lt;=c.length&amp;&amp;(c=c.substr(0,12288));a=c;m||google.log(0,"",a);return a};window.onerror=function(a,b,d,m,e){r!==a&amp;&amp;(a=e instanceof Error?e:Error(a),void 0===d||"lineNumber"in a||(a.lineNumber=d),void 0===b||"fileName"in a||(a.fileName=b),google.ml(a,!1,void 0,!1,"SyntaxError"===a.name||"SyntaxError"===a.message.substring(0,11)||-1!==a.message.indexOf("Script error")?3:0));r=null;p&amp;&amp;q&gt;=l&amp;&amp;(window.onerror=null)};})();;this.gbar_={CONFIG:[[[0,"www.gstatic.com","og.qtm.en_US.5jB2FJqR1F4.O","pl","pl","538",0,[4,2,"","","","484929242","0"],null,"3rxjY-meH5i7xc8PisuL4Ak",null,0,"og.qtm.8pE41sYUTwg.L.W.O","AA2YrTs00lPzmx9En6HZbOBSxvbnXpv0pA","AA2YrTuXeWsNpP9J282uZWD7GaEqvRiYYQ","",2,1,200,"POL",null,null,"1","538",1],null,[1,0.1000000014901161,2,1],[1,0.001000000047497451,1],[0,0,0,null,"","","",""],[0,0,"",1,0,0,0,0,0,0,null,0,0,null,0,0,null,null,0,0,0,"","","","","","",null,0,0,0,0,0,null,null,null,"rgba(32,33,36,1)","rgba(255,255,255,1)",0,0,1,null,null,1,0,0],null,null,["1","gci_91f30755d6a6b787dcc2a4062e6e9824.js","googleapis.client:gapi.iframes","","pl"],null,null,null,null,["m;/_/scs/abc-static/_/js/k=gapi.gapi.en.7I3T5S8x4Qg.O/d=1/rs=AHpOoo9SzNpm6HglASFo9cZ-GgP5E5f5WQ/m=__features__","https://apis.google.com","","","","",null,1,"es_plusone_gc_20221004.0_p0","pl",null,0],[0.009999999776482582,"pl","538",[null,"","0",null,1,5184000,null,null,"",null,null,null,null,null,0,null,0,0,1,0,0,0,null,null,0,0,null,0,0,0,0,0],null,null,null,0,null,null,["5061451","google\\.(com|ru|ca|by|kz|com\\.mx|com\\.tr)$",1]],[1,1,null,40400,538,"POL","pl","484929242.0",8,0.009999999776482582,0,0,null,null,null,null,"",null,null,null,"3rxjY-meH5i7xc8PisuL4Ak",0,0,0,null,2,5,"rd",275,0],[[null,null,null,"https://www.gstatic.com/og/_/js/k=og.qtm.en_US.5jB2FJqR1F4.O/rt=j/m=qabr,q_dnp,qcwid,qapid,qald/exm=qaaw,qadd,qaid,qein,qhaw,qhbr,qhch,qhga,qhid,qhin,qhpr/d=1/ed=1/rs=AA2YrTs00lPzmx9En6HZbOBSxvbnXpv0pA"],[null,null,null,"https://www.gstatic.com/og/_/ss/k=og.qtm.8pE41sYUTwg.L.W.O/m=qcwid/excm=qaaw,qadd,qaid,qein,qhaw,qhbr,qhch,qhga,qhid,qhin,qhpr/d=1/ed=1/ct=zgms/rs=AA2YrTuXeWsNpP9J282uZWD7GaEqvRiYYQ"]],null,null,null,[[[null,null,[null,null,null,"https://ogs.google.com/widget/app/so?eom=1"],0,448,328,57,4,1,0,0,63,64,8000,"https://www.google.pl/intl/pl/about/products",67,1,69,null,1,70,"Podczas wczytywania zestawu aplikacji wystąpił problem. Spróbuj ponownie za kilka minut lub przejdź na stronę %1$susług Google%2$s.",3,0,0,74,0,null,null,null,null,null,null,null,"/widget/app/so"]],0,[null,null,null,"https://www.gstatic.com/og/_/js/k=og.qtm.en_US.5jB2FJqR1F4.O/rt=j/m=qdsh/d=1/ed=1/rs=AA2YrTs00lPzmx9En6HZbOBSxvbnXpv0pA"],"1","538",1,0,null,"pl",0,null,0,0,0]]],};this.gbar_=this.gbar_||{};(function(_){var window=this;
+try{
+/*
+ Copyright The Closure Library Authors.
+ SPDX-License-Identifier: Apache-2.0
+*/
+var ka,wa,ya,za,Ca,Ea,Ga,Ha,La,Oa,Ka,Pa,Sa,Xa,Ya,Za,$a,ab,bb,db,eb,ib,jb;_.aa=function(a,b){if(Error.captureStackTrace)Error.captureStackTrace(this,_.aa);else{var c=Error().stack;c&amp;&amp;(this.stack=c)}a&amp;&amp;(this.message=String(a));void 0!==b&amp;&amp;(this.cause=b)};_.ba=function(){var a=_.n.navigator;return a&amp;&amp;(a=a.userAgent)?a:""};_.p=function(a){return-1!=_.ba().indexOf(a)};_.da=function(){return _.p("Opera")};_.ea=function(){return _.p("Trident")||_.p("MSIE")};_.fa=function(){return _.p("Firefox")||_.p("FxiOS")};
+_.ia=function(){return _.p("Safari")&amp;&amp;!(_.ha()||_.p("Coast")||_.da()||_.p("Edge")||_.p("Edg/")||_.p("OPR")||_.fa()||_.p("Silk")||_.p("Android"))};_.ha=function(){return(_.p("Chrome")||_.p("CriOS"))&amp;&amp;!_.p("Edge")||_.p("Silk")};_.ja=function(){return _.p("Android")&amp;&amp;!(_.ha()||_.fa()||_.da()||_.p("Silk"))};ka=function(){return _.p("iPhone")&amp;&amp;!_.p("iPod")&amp;&amp;!_.p("iPad")};_.la=function(){return ka()||_.p("iPad")||_.p("iPod")};
+_.ma=function(a){var b=a.length;if(0&lt;b){for(var c=Array(b),d=0;d&lt;b;d++)c[d]=a[d];return c}return[]};_.na=function(){return-1!=_.ba().toLowerCase().indexOf("webkit")&amp;&amp;!_.p("Edge")};_.pa=function(a){return oa&amp;&amp;null!=a&amp;&amp;a instanceof Uint8Array};_.ra=function(a,b){Object.isFrozen(a)||(qa?a[qa]|=b:void 0!==a.Sb?a.Sb|=b:Object.defineProperties(a,{Sb:{value:b,configurable:!0,writable:!0,enumerable:!1}}))};_.sa=function(a,b){Object.isExtensible(a)&amp;&amp;(qa?a[qa]&amp;&amp;(a[qa]&amp;=~b):void 0!==a.Sb&amp;&amp;(a.Sb&amp;=~b))};
+_.ta=function(a){var b;qa?b=a[qa]:b=a.Sb;return null==b?0:b};_.ua=function(a,b){qa?a[qa]=b:void 0!==a.Sb?a.Sb=b:Object.defineProperties(a,{Sb:{value:b,configurable:!0,writable:!0,enumerable:!1}})};_.va=function(a){_.ra(a,1);return a};wa=function(a){_.ra(a,17);return a};_.xa=function(a){return a?!!(_.ta(a)&amp;2):!1};ya=function(a,b){_.ua(b,(_.ta(a)|18)&amp;-33)};za=function(a){return null!==a&amp;&amp;"object"===typeof a&amp;&amp;!Array.isArray(a)&amp;&amp;a.constructor===Object};
+Ca=function(a){switch(typeof a){case "number":return isFinite(a)?a:String(a);case "object":if(a&amp;&amp;!Array.isArray(a)){if(_.pa(a))return _.Aa(a);if(a instanceof _.Ba){var b=a.Aa;return null==b?"":"string"===typeof b?b:a.Aa=_.Aa(b)}}}return a};Ea=function(a,b,c,d){if(null!=a){if(Array.isArray(a))a=_.Da(a,b,c,void 0!==d);else if(za(a)){var e={},f;for(f in a)e[f]=Ea(a[f],b,c,d);a=e}else a=b(a,d);return a}};
+_.Da=function(a,b,c,d){d=d?!!(_.ta(a)&amp;16):void 0;var e=Array.prototype.slice.call(a);c(a,e);for(a=0;a&lt;e.length;a++)e[a]=Ea(e[a],b,c,d);return e};Ga=function(a){return a.he===_.Fa?a.toJSON():Ca(a)};Ha=function(){};_.Ia=function(a,b){return null==a?b:a};La=function(a){if(_.xa(a)&amp;&amp;Object.isFrozen(a))return a;var b=_.Ja(a,Ka);ya(a,b);Object.freeze(b);return b};
+Oa=function(a,b){if(null!=a){if(oa&amp;&amp;a instanceof Uint8Array)return a.length?new _.Ba(new Uint8Array(a),_.Ma):_.Na();if(Array.isArray(a)){if(_.xa(a))return a;b&amp;&amp;(b=_.ta(a),b=!(b&amp;32)&amp;&amp;(!!(b&amp;16)||0===b));if(b)return _.ra(a,2),a;a=_.Da(a,Oa,ya);_.ta(a)&amp;4&amp;&amp;Object.freeze(a);return a}return a.he===_.Fa?Ka(a):a}};Ka=function(a){if(_.xa(a.na))return a;a=Pa(a);_.ra(a.na,2);return a};
+Pa=function(a){var b=new a.constructor;a.qc&amp;&amp;(b.qc=a.qc.slice());for(var c=a.na,d=!!(_.ta(c)&amp;16),e=0;e&lt;c.length;e++){var f=c[e];if(e===c.length-1&amp;&amp;za(f))for(var g in f){var h=+g;if(Number.isNaN(h))(b.Oa||(b.Oa=b.na[b.tc+b.nc]={}))[h]=f[h];else{var l=f[g],m=a.Wa&amp;&amp;a.Wa[h];m?_.Qa(b,h,La(m),!0):_.q(b,h,Oa(l,d),!0)}}else h=e-a.nc,(l=a.Wa&amp;&amp;a.Wa[h])?_.Qa(b,h,La(l),!1):_.q(b,h,Oa(f,d),!1)}return b};_.Ra=function(a){if(!_.xa(a.na))return a;var b=Pa(a);b.j=a;return b};Sa=function(a,b){return Ca(b)};
+_.t=function(a,b){return null!=a?!!a:!!b};_.u=function(a,b){void 0==b&amp;&amp;(b="");return null!=a?a:b};_.Ta=function(a,b){void 0==b&amp;&amp;(b=0);return null!=a?a:b};_.Ua=function(a,b,c){for(var d in a)b.call(c,a[d],d,a)};_.Wa=function(a,b){for(var c,d,e=1;e&lt;arguments.length;e++){d=arguments[e];for(c in d)a[c]=d[c];for(var f=0;f&lt;Va.length;f++)c=Va[f],Object.prototype.hasOwnProperty.call(d,c)&amp;&amp;(a[c]=d[c])}};Xa=function(a){var b=0;return function(){return b&lt;a.length?{done:!1,value:a[b++]}:{done:!0}}};
+Ya="function"==typeof Object.defineProperties?Object.defineProperty:function(a,b,c){if(a==Array.prototype||a==Object.prototype)return a;a[b]=c.value;return a};Za=function(a){a=["object"==typeof globalThis&amp;&amp;globalThis,a,"object"==typeof window&amp;&amp;window,"object"==typeof self&amp;&amp;self,"object"==typeof global&amp;&amp;global];for(var b=0;b&lt;a.length;++b){var c=a[b];if(c&amp;&amp;c.Math==Math)return c}throw Error("a");};$a=Za(this);
+ab=function(a,b){if(b)a:{var c=$a;a=a.split(".");for(var d=0;d&lt;a.length-1;d++){var e=a[d];if(!(e in c))break a;c=c[e]}a=a[a.length-1];d=c[a];b=b(d);b!=d&amp;&amp;null!=b&amp;&amp;Ya(c,a,{configurable:!0,writable:!0,value:b})}};
+ab("Symbol",function(a){if(a)return a;var b=function(f,g){this.j=f;Ya(this,"description",{configurable:!0,writable:!0,value:g})};b.prototype.toString=function(){return this.j};var c="jscomp_symbol_"+(1E9*Math.random()&gt;&gt;&gt;0)+"_",d=0,e=function(f){if(this instanceof e)throw new TypeError("b");return new b(c+(f||"")+"_"+d++,f)};return e});
+ab("Symbol.iterator",function(a){if(a)return a;a=Symbol("c");for(var b="Array Int8Array Uint8Array Uint8ClampedArray Int16Array Uint16Array Int32Array Uint32Array Float32Array Float64Array".split(" "),c=0;c&lt;b.length;c++){var d=$a[b[c]];"function"===typeof d&amp;&amp;"function"!=typeof d.prototype[a]&amp;&amp;Ya(d.prototype,a,{configurable:!0,writable:!0,value:function(){return bb(Xa(this))}})}return a});bb=function(a){a={next:a};a[Symbol.iterator]=function(){return this};return a};
+_.cb=function(a){var b="undefined"!=typeof Symbol&amp;&amp;Symbol.iterator&amp;&amp;a[Symbol.iterator];return b?b.call(a):{next:Xa(a)}};db="function"==typeof Object.create?Object.create:function(a){var b=function(){};b.prototype=a;return new b};if("function"==typeof Object.setPrototypeOf)eb=Object.setPrototypeOf;else{var fb;a:{var gb={a:!0},hb={};try{hb.__proto__=gb;fb=hb.a;break a}catch(a){}fb=!1}eb=fb?function(a,b){a.__proto__=b;if(a.__proto__!==b)throw new TypeError("d`"+a);return a}:null}ib=eb;
+_.w=function(a,b){a.prototype=db(b.prototype);a.prototype.constructor=a;if(ib)ib(a,b);else for(var c in b)if("prototype"!=c)if(Object.defineProperties){var d=Object.getOwnPropertyDescriptor(b,c);d&amp;&amp;Object.defineProperty(a,c,d)}else a[c]=b[c];a.Y=b.prototype};jb=function(a,b,c){if(null==a)throw new TypeError("e`"+c);if(b instanceof RegExp)throw new TypeError("f`"+c);return a+""};
+ab("String.prototype.startsWith",function(a){return a?a:function(b,c){var d=jb(this,b,"startsWith"),e=d.length,f=b.length;c=Math.max(0,Math.min(c|0,d.length));for(var g=0;g&lt;f&amp;&amp;c&lt;e;)if(d[c++]!=b[g++])return!1;return g&gt;=f}});ab("Array.prototype.find",function(a){return a?a:function(b,c){a:{var d=this;d instanceof String&amp;&amp;(d=String(d));for(var e=d.length,f=0;f&lt;e;f++){var g=d[f];if(b.call(c,g,f,d)){b=g;break a}}b=void 0}return b}});var kb=function(a,b){return Object.prototype.hasOwnProperty.call(a,b)};
+ab("WeakMap",function(a){function b(){}function c(l){var m=typeof l;return"object"===m&amp;&amp;null!==l||"function"===m}function d(l){if(!kb(l,f)){var m=new b;Ya(l,f,{value:m})}}function e(l){var m=Object[l];m&amp;&amp;(Object[l]=function(r){if(r instanceof b)return r;Object.isExtensible(r)&amp;&amp;d(r);return m(r)})}if(function(){if(!a||!Object.seal)return!1;try{var l=Object.seal({}),m=Object.seal({}),r=new a([[l,2],[m,3]]);if(2!=r.get(l)||3!=r.get(m))return!1;r.delete(l);r.set(m,4);return!r.has(l)&amp;&amp;4==r.get(m)}catch(v){return!1}}())return a;
+var f="$jscomp_hidden_"+Math.random();e("freeze");e("preventExtensions");e("seal");var g=0,h=function(l){this.j=(g+=Math.random()+1).toString();if(l){l=_.cb(l);for(var m;!(m=l.next()).done;)m=m.value,this.set(m[0],m[1])}};h.prototype.set=function(l,m){if(!c(l))throw Error("g");d(l);if(!kb(l,f))throw Error("h`"+l);l[f][this.j]=m;return this};h.prototype.get=function(l){return c(l)&amp;&amp;kb(l,f)?l[f][this.j]:void 0};h.prototype.has=function(l){return c(l)&amp;&amp;kb(l,f)&amp;&amp;kb(l[f],this.j)};h.prototype.delete=function(l){return c(l)&amp;&amp;
+kb(l,f)&amp;&amp;kb(l[f],this.j)?delete l[f][this.j]:!1};return h});
+ab("Map",function(a){if(function(){if(!a||"function"!=typeof a||!a.prototype.entries||"function"!=typeof Object.seal)return!1;try{var h=Object.seal({x:4}),l=new a(_.cb([[h,"s"]]));if("s"!=l.get(h)||1!=l.size||l.get({x:4})||l.set({x:4},"t")!=l||2!=l.size)return!1;var m=l.entries(),r=m.next();if(r.done||r.value[0]!=h||"s"!=r.value[1])return!1;r=m.next();return r.done||4!=r.value[0].x||"t"!=r.value[1]||!m.next().done?!1:!0}catch(v){return!1}}())return a;var b=new WeakMap,c=function(h){this.o={};this.j=
+f();this.size=0;if(h){h=_.cb(h);for(var l;!(l=h.next()).done;)l=l.value,this.set(l[0],l[1])}};c.prototype.set=function(h,l){h=0===h?0:h;var m=d(this,h);m.list||(m.list=this.o[m.id]=[]);m.Va?m.Va.value=l:(m.Va={next:this.j,lc:this.j.lc,head:this.j,key:h,value:l},m.list.push(m.Va),this.j.lc.next=m.Va,this.j.lc=m.Va,this.size++);return this};c.prototype.delete=function(h){h=d(this,h);return h.Va&amp;&amp;h.list?(h.list.splice(h.index,1),h.list.length||delete this.o[h.id],h.Va.lc.next=h.Va.next,h.Va.next.lc=
+h.Va.lc,h.Va.head=null,this.size--,!0):!1};c.prototype.clear=function(){this.o={};this.j=this.j.lc=f();this.size=0};c.prototype.has=function(h){return!!d(this,h).Va};c.prototype.get=function(h){return(h=d(this,h).Va)&amp;&amp;h.value};c.prototype.entries=function(){return e(this,function(h){return[h.key,h.value]})};c.prototype.keys=function(){return e(this,function(h){return h.key})};c.prototype.values=function(){return e(this,function(h){return h.value})};c.prototype.forEach=function(h,l){for(var m=this.entries(),
+r;!(r=m.next()).done;)r=r.value,h.call(l,r[1],r[0],this)};c.prototype[Symbol.iterator]=c.prototype.entries;var d=function(h,l){var m=l&amp;&amp;typeof l;"object"==m||"function"==m?b.has(l)?m=b.get(l):(m=""+ ++g,b.set(l,m)):m="p_"+l;var r=h.o[m];if(r&amp;&amp;kb(h.o,m))for(h=0;h&lt;r.length;h++){var v=r[h];if(l!==l&amp;&amp;v.key!==v.key||l===v.key)return{id:m,list:r,index:h,Va:v}}return{id:m,list:r,index:-1,Va:void 0}},e=function(h,l){var m=h.j;return bb(function(){if(m){for(;m.head!=h.j;)m=m.lc;for(;m.next!=m.head;)return m=
+m.next,{done:!1,value:l(m)};m=null}return{done:!0,value:void 0}})},f=function(){var h={};return h.lc=h.next=h.head=h},g=0;return c});ab("Number.MAX_SAFE_INTEGER",function(){return 9007199254740991});var lb=function(a,b){a instanceof String&amp;&amp;(a+="");var c=0,d=!1,e={next:function(){if(!d&amp;&amp;c&lt;a.length){var f=c++;return{value:b(f,a[f]),done:!1}}d=!0;return{done:!0,value:void 0}}};e[Symbol.iterator]=function(){return e};return e};
+ab("Array.prototype.entries",function(a){return a?a:function(){return lb(this,function(b,c){return[b,c]})}});ab("Array.from",function(a){return a?a:function(b,c,d){c=null!=c?c:function(h){return h};var e=[],f="undefined"!=typeof Symbol&amp;&amp;Symbol.iterator&amp;&amp;b[Symbol.iterator];if("function"==typeof f){b=f.call(b);for(var g=0;!(f=b.next()).done;)e.push(c.call(d,f.value,g++))}else for(f=b.length,g=0;g&lt;f;g++)e.push(c.call(d,b[g],g));return e}});
+ab("Array.prototype.keys",function(a){return a?a:function(){return lb(this,function(b){return b})}});ab("Number.isNaN",function(a){return a?a:function(b){return"number"===typeof b&amp;&amp;isNaN(b)}});ab("Array.prototype.fill",function(a){return a?a:function(b,c,d){var e=this.length||0;0&gt;c&amp;&amp;(c=Math.max(0,e+c));if(null==d||d&gt;e)d=e;d=Number(d);0&gt;d&amp;&amp;(d=Math.max(0,e+d));for(c=Number(c||0);c&lt;d;c++)this[c]=b;return this}});var mb=function(a){return a?a:Array.prototype.fill};ab("Int8Array.prototype.fill",mb);
+ab("Uint8Array.prototype.fill",mb);ab("Uint8ClampedArray.prototype.fill",mb);ab("Int16Array.prototype.fill",mb);ab("Uint16Array.prototype.fill",mb);ab("Int32Array.prototype.fill",mb);ab("Uint32Array.prototype.fill",mb);ab("Float32Array.prototype.fill",mb);ab("Float64Array.prototype.fill",mb);var nb="function"==typeof Object.assign?Object.assign:function(a,b){for(var c=1;c&lt;arguments.length;c++){var d=arguments[c];if(d)for(var e in d)kb(d,e)&amp;&amp;(a[e]=d[e])}return a};
+ab("Object.assign",function(a){return a||nb});ab("Object.entries",function(a){return a?a:function(b){var c=[],d;for(d in b)kb(b,d)&amp;&amp;c.push([d,b[d]]);return c}});ab("Array.prototype.values",function(a){return a?a:function(){return lb(this,function(b,c){return c})}});ab("Object.is",function(a){return a?a:function(b,c){return b===c?0!==b||1/b===1/c:b!==b&amp;&amp;c!==c}});
+ab("Array.prototype.includes",function(a){return a?a:function(b,c){var d=this;d instanceof String&amp;&amp;(d=String(d));var e=d.length;c=c||0;for</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>tak</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>GOOGLE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>(function(){window.google={kEI:'57xjY6XaLYuLxc8PoM-6mAo',kEXPI:'31',kBL:'y__Z'};google.sn='webhp';google.kHL='pl';})();(function(){
+var f=this||self;var h,k=[];function l(a){for(var b;a&amp;&amp;(!a.getAttribute||!(b=a.getAttribute("eid")));)a=a.parentNode;return b||h}function m(a){for(var b=null;a&amp;&amp;(!a.getAttribute||!(b=a.getAttribute("leid")));)a=a.parentNode;return b}
+function n(a,b,c,d,g){var e="";c||-1!==b.search("&amp;ei=")||(e="&amp;ei="+l(d),-1===b.search("&amp;lei=")&amp;&amp;(d=m(d))&amp;&amp;(e+="&amp;lei="+d));d="";!c&amp;&amp;f._cshid&amp;&amp;-1===b.search("&amp;cshid=")&amp;&amp;"slh"!==a&amp;&amp;(d="&amp;cshid="+f._cshid);c=c||"/"+(g||"gen_204")+"?atyp=i&amp;ct="+a+"&amp;cad="+b+e+"&amp;zx="+Date.now()+d;/^http:/i.test(c)&amp;&amp;"https:"===window.location.protocol&amp;&amp;(google.ml&amp;&amp;google.ml(Error("a"),!1,{src:c,glmm:1}),c="");return c};h=google.kEI;google.getEI=l;google.getLEI=m;google.ml=function(){return null};google.log=function(a,b,c,d,g){if(c=n(a,b,c,d,g)){a=new Image;var e=k.length;k[e]=a;a.onerror=a.onload=a.onabort=function(){delete k[e]};a.src=c}};google.logUrl=n;}).call(this);(function(){
+google.y={};google.sy=[];google.x=function(a,b){if(a)var c=a.id;else{do c=Math.random();while(google.y[c])}google.y[c]=[a,b];return!1};google.sx=function(a){google.sy.push(a)};google.lm=[];google.plm=function(a){google.lm.push.apply(google.lm,a)};google.lq=[];google.load=function(a,b,c){google.lq.push([[a],b,c])};google.loadAll=function(a,b){google.lq.push([a,b])};google.bx=!1;google.lx=function(){};}).call(this);google.f={};(function(){
+document.documentElement.addEventListener("submit",function(b){var a;if(a=b.target){var c=a.getAttribute("data-submitfalse");a="1"===c||"q"===c&amp;&amp;!a.elements.q.value?!0:!1}else a=!1;a&amp;&amp;(b.preventDefault(),b.stopPropagation())},!0);document.documentElement.addEventListener("click",function(b){var a;a:{for(a=b.target;a&amp;&amp;a!==document.documentElement;a=a.parentElement)if("A"===a.tagName){a="1"===a.getAttribute("data-nohref");break a}a=!1}a&amp;&amp;b.preventDefault()},!0);}).call(this);(function(){google.hs={h:true,nhs:false,sie:false};})();(function(){google.c={ataf:false,btfi:false,cap:2000,fil:true,frt:false,gecoh:false,gl:true,lhc:false,llt:false,lrt:false,raf:false,sxs:false,taf:false,timl:false};})();(function(){
+var f=this||self;var g=window.performance;function h(a,b,d,c){a.addEventListener?a.addEventListener(b,d,c||!1):a.attachEvent&amp;&amp;a.attachEvent("on"+b,d)}function k(a,b,d,c){"addEventListener"in a?a.removeEventListener(b,d,c||!1):a.attachEvent&amp;&amp;a.detachEvent("on"+b,d)};google.c.iim=google.c.iim||{};function l(a){a&amp;&amp;f.google.aft(a.target)}var m;function n(){k(document.documentElement,"load",m,!0);k(document.documentElement,"error",m,!0)};google.timers={};google.startTick=function(a){google.timers[a]={t:{start:Date.now()},e:{},m:{}}};google.tick=function(a,b,d){google.timers[a]||google.startTick(a);d=void 0!==d?d:Date.now();b instanceof Array||(b=[b]);for(var c=0,e;e=b[c++];)google.timers[a].t[e]=d};google.c.e=function(a,b,d){google.timers[a].e[b]=d};google.c.b=function(a,b){b=google.timers[b||"load"].m;b[a]&amp;&amp;google.ml(Error("a"),!1,{m:a});b[a]=!0};google.c.u=function(a,b){var d=google.timers[b||"load"],c=d.m;if(c[a]){c[a]=!1;for(a in c)if(c[a])return;google.csiReport(d,"load2"===b?"all2":"all")}else{b="";for(var e in c)b+=e+":"+c[e]+";";google.ml(Error("b"),!1,{m:a,b:!1===c[a],s:b})}};google.rll=function(a,b,d){function c(e){d(e);k(a,"load",c);k(a,"error",c)}h(a,"load",c);b&amp;&amp;h(a,"error",c)};f.google.aft=function(a){a.setAttribute("data-iml",String(Date.now()))};google.startTick("load");var p=google.timers.load;a:{var q=p.t;if(g){var r=g.timing;if(r){var t=r.navigationStart,u=r.responseStart;if(u&gt;t&amp;&amp;u&lt;=q.start){q.start=u;p.wsrt=u-t;break a}}g.now&amp;&amp;(p.wsrt=Math.floor(g.now()))}}google.c.b("pr","load");google.c.b("xe","load");function v(a){if("hidden"===document.visibilityState){google.c.fh=a;var b;window.performance&amp;&amp;window.performance.timing&amp;&amp;(b=Math.floor(window.performance.timing.navigationStart+a));google.tick("load","fht",b);return!0}return!1}
+function w(a){v(a.timeStamp)&amp;&amp;k(document,"visibilitychange",w,!0)}google.c.fh=Infinity;h(document,"visibilitychange",w,!0);v(0);google.c.gl&amp;&amp;(m=l,h(document.documentElement,"load",m,!0),google.c.glu=n);}).call(this);(function(){
+function g(){return window.performance&amp;&amp;window.performance.navigation&amp;&amp;window.performance.navigation.type};function k(a,b){if(!a||m(a))return 0;if(!a.getBoundingClientRect)return 1;var c=function(d){return d.getBoundingClientRect()};return r(a,c,b)?0:t(a,c)}function r(a,b,c){a:{for(var d=a;d&amp;&amp;void 0!==d;d=d.parentElement)if("hidden"===d.style.overflow||c&amp;&amp;"G-EXPANDABLE-CONTENT"===d.tagName&amp;&amp;"hidden"===getComputedStyle(d).getPropertyValue("overflow")){c=d;break a}c=null}if(!c)return!1;a=b(a);b=b(c);return a.bottom&lt;b.top||a.top&gt;=b.bottom||a.right&lt;b.left||a.left&gt;=b.right}
+function m(a){return"none"===a.style.display?!0:document.defaultView&amp;&amp;document.defaultView.getComputedStyle?(a=document.defaultView.getComputedStyle(a),!!a&amp;&amp;("hidden"===a.visibility||"0px"===a.height&amp;&amp;"0px"===a.width)):!1}
+function t(a,b){var c=b(a);a=c.left+window.pageXOffset;b=c.top+window.pageYOffset;var d=c.width;c=c.height;var e=0;if(0&gt;=c&amp;&amp;0&gt;=d)return e;var f=window.innerHeight||document.documentElement.clientHeight;0&gt;b+c?e=2:b&gt;=f&amp;&amp;(e=4);if(0&gt;a+d||a&gt;=(window.innerWidth||document.documentElement.clientWidth))e|=8;e||(e=1,b+c&gt;f&amp;&amp;(e|=4));return e};var u=window.location,v="aft afti afts cbs cbt fht frt hct prt sct".split(" ");function w(a){return(a=u.search.match(new RegExp("[?&amp;]"+a+"=(\\d+)")))?Number(a[1]):-1}
+function x(a,b){var c=google.timers[b||"load"];b=c.m;if(!b||!b.prs){var d=g()?0:w("qsubts");0&lt;d&amp;&amp;(b=w("fbts"),0&lt;b&amp;&amp;(c.t.start=Math.max(d,b)));var e=c.t,f=e.start;b={wsrt:c.wsrt||0};if(f)for(var p=0,n;n=v[p++];){var l=e[n];l&amp;&amp;(b[n]=Math.max(l-f,0))}0&lt;d&amp;&amp;(b.gsasrt=c.t.start-d);c=c.e;a="/gen_204?s="+google.sn+"&amp;t="+a+"&amp;atyp=csi&amp;ei="+google.kEI+"&amp;rt=";d="";for(h in b)a+=""+d+h+"."+b[h],d=",";for(var q in c)a+="&amp;"+q+"="+c[q];window._cshid&amp;&amp;(a+="&amp;cshid="+window._cshid);2===g()&amp;&amp;(a+="&amp;bb=1");1===g()&amp;&amp;(a+=
+"&amp;r=1");if("gsasrt"in b){var h=w("qsd");0&lt;h&amp;&amp;(a+="&amp;qsd="+h)}google.kBL&amp;&amp;(a+="&amp;bl="+google.kBL);h=a;navigator.sendBeacon?navigator.sendBeacon(h,""):google.log("","",h)}};function y(a){a&amp;&amp;google.tick("load","cbs",a);google.tick("load","cbt");x("cap")};var z="src bsrc url ll image img-url".split(" ");function A(a){for(var b=0;b&lt;z.length;++b)if(a.getAttribute("data-"+z[b]))return!0;return!1}function B(a){var b=a.parentElement;if(b&amp;&amp;("G-IMG"===b.tagName||b.classList.contains("uhHOwf"))&amp;&amp;(b.style.height||b.style.width)){var c=b.getBoundingClientRect(),d=a.getBoundingClientRect();if(c.height&lt;=d.height||c.width&lt;=d.width)a=b}var e;return k(a,null==(e=google.c)?void 0:e.gecoh)}google.c.iim=google.c.iim||{};var C=window.innerHeight||document.documentElement.clientHeight,D=0,E=0,F=0,G=0,H=0,I=0,J=0,K=!0,L=!0,M=-1,N,P=google.c.sxs?"load2":"load";function Q(a,b,c,d){var e=google.timers[P].t[a];e&amp;&amp;(c||d&amp;&amp;null!=b&amp;&amp;b&lt;e)||google.tick(P,a,b)}function R(a,b,c){"1"===a.getAttribute("data-frt")&amp;&amp;(Q("frt",c,!1,!0),++G,S());b&amp;&amp;(Q("aft",c,!1,!0),Q("afti",c,!1,!0),++I,S());google.c.timl&amp;&amp;Q("iml",c,!1,!0);++E;a.setAttribute("data-frt","0");(google.c.timl||b)&amp;&amp;T()}
+function T(){var a=google.c.timl?E===D:H===I;!L&amp;&amp;a&amp;&amp;google.c.u("il",P)}
+function S(){if(!K){var a=I===H,b=G===F;a&amp;&amp;b&amp;&amp;(google.c.e(P,"ima",String(H)),google.c.e(P,"imad",String(J)),google.c.e(P,"aftp",String(Math.round(M))),document.getElementsByClassName("Ib7Efc").length&amp;&amp;google.c.e(P,"ddl","1"),N&amp;&amp;clearTimeout(N),x(google.c.sxs?"aft2":"aft",P));"hidden"===document.visibilityState&amp;&amp;google.c.e(P,"hddn","1");if(!google.c.sxs&amp;&amp;null!==google.aftq&amp;&amp;(2===google.fevent||3===google.fevent?google.fevent:1)&amp;((a?1:0)|(b?2:0))){google.tick("load","aftqf",Date.now());var c;for(a=
+0;b=null==(c=google.aftq)?void 0:c[a++];)try{b()}catch(d){google.ml(d,!1)}google.aftq=null}}}function U(a,b){0===b||b&amp;8||(a.setAttribute("data-frt","1"),++F)}if(0&lt;google.c.cap&amp;&amp;!google.c.sxs)a:{var V=google.c.cap;if(window.performance&amp;&amp;window.performance.timing&amp;&amp;"navigationStart"in window.performance.timing){var W=window.performance.now(),X=V-W;if(0&lt;X){N=setTimeout(y,X,Math.floor(window.performance.timing.navigationStart+W));break a}y()}N=void 0}google.c.wh=Math.floor(window.innerHeight||document.documentElement.clientHeight);google.c.e(P,"wh",String(google.c.wh));google.c.b("il",P);google.c.setup=function(a,b,c){var d=a.getAttribute("data-atf");if(d)return c=Number(d),b&amp;&amp;!a.hasAttribute("data-frt")&amp;&amp;U(a,c),c;var e="string"!==typeof a.src||!a.src,f=!!a.getAttribute("data-bsrc"),p=!!a.getAttribute("data-deferred"),n=!p&amp;&amp;A(a);n&amp;&amp;a.setAttribute("data-lzy_","1");d=B(a);a.setAttribute("data-atf",String(d));var l=!!(d&amp;1);e=(e||a.complete)&amp;&amp;!p&amp;&amp;!f&amp;&amp;!(l&amp;&amp;n);f=!google.c.lhc&amp;&amp;Number(a.getAttribute("data-iml"))||0;++D;if(e&amp;&amp;!f||a.hasAttribute("data-noaft"))a.setAttribute("data-frt","0"),++E;else{var q=google.c.btfi&amp;&amp;d&amp;4&amp;&amp;f&amp;&amp;M&lt;C;if(q){var h=a.getBoundingClientRect().top+window.pageYOffset;!c||h&lt;c?M=l?C:h:q=!1}l&amp;&amp;(++H,p&amp;&amp;++J);b&amp;&amp;U(a,d);q&amp;&amp;(Q("aft",f,!1,!0),Q("aftb",f,!1,!0));if(e&amp;&amp;f)R(a,l,google.c.btfi?0:f);else{l&amp;&amp;(!c||c&gt;=C)&amp;&amp;(M=C);var O=a.src;google.rll(a,!0,function(){google.c.fil&amp;&amp;(p||n)&amp;&amp;O&amp;&amp;O===a.src?google.rll(a,!0,function(){R(a,l,Date.now())}):R(a,l,Date.now())})}}return d};google.c.ubr=function(a,b,c,d){google.c.taf&amp;&amp;M&lt;C?(M=c||-1,Q("aft",b)):0&gt;M&amp;&amp;(c&amp;&amp;(M=c),google.c.btfi&amp;&amp;Q("aft",b));a||Q("afts",b,!0);d||(Q("aft",b,!0),K&amp;&amp;!google.c.frt&amp;&amp;(K=!1,S()),a&amp;&amp;L&amp;&amp;(Q("prt",b),google.c.timl&amp;&amp;Q("iml",b,!0),L=!1,T(),google.c.setup=function(){return 0},google.c.ubr=function(){}))};}).call(this);(function(){
+var b=[function(){google.tick&amp;&amp;google.tick("load","dcl")}];google.dclc=function(a){b.length?b.push(a):a()};function c(){for(var a=b.shift();a;)a(),a=b.shift()}window.addEventListener?(document.addEventListener("DOMContentLoaded",c,!1),window.addEventListener("load",c,!1)):window.attachEvent&amp;&amp;window.attachEvent("onload",c);}).call(this);(function(){
+var b=[];google.jsc={xx:b,x:function(a){b.push(a)},mm:[],m:function(a){google.jsc.mm.length||(google.jsc.mm=a)}};}).call(this);(function(){
+var e=this||self;
+var f={};function w(a,c){if(null===c)return!1;if("contains"in a&amp;&amp;1==c.nodeType)return a.contains(c);if("compareDocumentPosition"in a)return a==c||!!(a.compareDocumentPosition(c)&amp;16);for(;c&amp;&amp;a!=c;)c=c.parentNode;return c==a};var y=function(a,c){return function(d){d||(d=window.event);return c.call(a,d)}},z="undefined"!=typeof navigator&amp;&amp;/Macintosh/.test(navigator.userAgent),E=function(){this._mouseEventsPrevented=!0};var F=function(a){this.g=a;this.h=[]},G=function(a){for(var c=0;c&lt;a.h.length;++c){var d=a.g,b=a.h[c];d.removeEventListener?d.removeEventListener(b.eventType,b.o,b.capture):d.detachEvent&amp;&amp;d.detachEvent("on"+b.eventType,b.o)}a.h=[]};
+var H=e._jsa||{};H._cfc=void 0;H._aeh=void 0;var I=function(){this.h=this.g=null},K=function(a,c){var d=J;d.g=a;d.h=c;return d};I.prototype.i=function(){var a=this.g;this.g&amp;&amp;this.g!=this.h?this.g=this.g.__owner||this.g.parentNode:this.g=null;return a};var L=function(){var a;this.j=a=void 0===a?[]:a;this.g=0;this.h=null;this.l=!1},N=function(a,c){var d=M;d.j=a;d.g=0;d.h=c;d.l=!1;return d};L.prototype.i=function(){if(this.l)return J.i();if(this.g!=this.j.length){var a=this.j[this.g];this.g++;a!=this.h&amp;&amp;a&amp;&amp;a.__owner&amp;&amp;(this.l=!0,K(a.__owner,this.h));return a}return null};var J=new I,M=new L;
+var Q=function(){this.s=[];this.g=[];this.h=[];this.l={};this.i=null;this.j=[];P(this,"_custom")},R=function(a){return String.prototype.trim?a.trim():a.replace(/^\s+/,"").replace(/\s+$/,"")},ia=function(a,c){return function m(b,g){g=void 0===g?!0:g;var l=c;if("_custom"==l){l=b.detail;if(!l||!l._type)return;l=l._type}var k=l;"click"==k&amp;&amp;(z&amp;&amp;b.metaKey||!z&amp;&amp;b.ctrlKey||2==b.which||null==b.which&amp;&amp;4==b.button||b.shiftKey)?k="clickmod":"keydown"==k&amp;&amp;!b.a11ysc&amp;&amp;(k="maybe_click");var u=b.srcElement||b.target;l=S(k,b,u,"",null);var aa=b.path?N(b.path,this):b.composedPath?N(b.composedPath(),this):K(u,this);for(var r;r=aa.i();){var h=r;var p=void 0;r=h;var q=k,ba=b;var n=r.__jsaction;if(!n){var x;n=null;"getAttribute"in r&amp;&amp;(n=r.getAttribute("jsaction"));if(x=n){n=f[x];if(!n){n={};for(var A=x.split(ca),da=A?A.length:0,B=0;B&lt;da;B++){var v=A[B];if(v){var C=v.indexOf(":"),O=-1!=C,fa=O?R(v.substr(0,C)):ea;v=O?R(v.substr(C+1)):v;n[fa]=v}}f[x]=n}r.__jsaction=n}else n=ha,r.__jsaction=n}"maybe_click"==q&amp;&amp;n.click?(p=q,q="click"):"clickkey"==q?q="click":"click"!=q||n.click||(q="clickonly");p=H._cfc&amp;&amp;n.click?H._cfc(r,ba,n,q,p):{eventType:p?p:q,action:n[q]||"",event:null,ignore:!1};l=S(p.eventType,p.event||b,u,p.action||"",h,l.timeStamp);if(p.ignore||p.action)break}l&amp;&amp;"touchend"==l.eventType&amp;&amp;(l.event._preventMouseEvents=E);if(p&amp;&amp;p.action){if("mouseenter"==k||"mouseleave"==k||"pointerenter"==k||"pointerleave"==k)if(u=b.relatedTarget,!("mouseover"==b.type&amp;&amp;"mouseenter"==k||"mouseout"==b.type&amp;&amp;"mouseleave"==k||
+"pointerover"==b.type&amp;&amp;"pointerenter"==k||"pointerout"==b.type&amp;&amp;"pointerleave"==k)||u&amp;&amp;(u===h||w(h,u)))l.action="",l.actionElement=null;else{k={};for(var t in b)"function"!==typeof b[t]&amp;&amp;"srcElement"!==t&amp;&amp;"target"!==t&amp;&amp;(k[t]=b[t]);k.type="mouseover"==b.type?"mouseenter":"mouseout"==b.type?"mouseleave":"pointerover"==b.type?"pointerenter":"pointerleave";k.target=k.srcElement=h;k.bubbles=!1;l.event=k;l.targetElement=h}}else l.action="",l.actionElement=null;h=l;a.i&amp;&amp;!h.event.a11ysgd&amp;&amp;(t=S(h.eventType,h.event,h.targetElement,h.action,h.actionElement,h.timeStamp),"clickonly"==t.eventType&amp;&amp;(t.eventType="click"),a.i(t,!0));if(h.actionElement||"maybe_click"==h.eventType){if(a.i){if(!h.actionElement||"A"!=h.actionElement.tagName||"click"!=h.eventType&amp;&amp;"clickmod"!=h.eventType||(b.preventDefault?b.preventDefault():b.returnValue=!1),(b=a.i(h))&amp;&amp;g){m.call(this,b,!1);return}}else{if((g=e.document)&amp;&amp;!g.createEvent&amp;&amp;g.createEventObject)try{var D=g.createEventObject(b)}catch(la){D=b}else D=b;h.event=D;a.j.push(h)}H._aeh&amp;&amp;
+H._aeh(h)}}},S=function(a,c,d,b,g,m){return{eventType:a,event:c,targetElement:d,action:b,actionElement:g,timeStamp:m||Date.now()}},ja=function(a,c){return function(d){var b=a,g=c,m=!1;"mouseenter"==b?b="mouseover":"mouseleave"==b?b="mouseout":"pointerenter"==b?b="pointerover":"pointerleave"==b&amp;&amp;(b="pointerout");if(d.addEventListener){if("focus"==b||"blur"==b||"error"==b||"load"==b||"toggle"==b)m=!0;d.addEventListener(b,g,m)}else d.attachEvent&amp;&amp;("focus"==b?b="focusin":"blur"==b&amp;&amp;(b="focusout"),g=y(d,g),d.attachEvent("on"+b,g));return{eventType:b,o:g,capture:m}}},P=function(a,c){if(!a.l.hasOwnProperty(c)){var d=ia(a,c),b=ja(c,d);a.l[c]=d;a.s.push(b);for(d=0;d&lt;a.g.length;++d){var g=a.g[d];g.h.push(b.call(null,g.g))}"click"==c&amp;&amp;P(a,"keydown")}};Q.prototype.o=function(a){return this.l[a]};var W=function(a,c){var d=new F(c);a:{for(var b=0;b&lt;a.g.length;b++)if(T(a.g[b].g,c)){c=!0;break a}c=!1}if(c)return a.h.push(d),d;U(a,d);a.g.push(d);V(a);return d},V=function(a){for(var c=a.h.concat(a.g),d=[],b=[],g=0;g&lt;a.g.length;++g){var m=a.g[g];X(m,c)?(d.push(m),G(m)):b.push(m)}for(g=0;g&lt;a.h.length;++g)m=a.h[g],X(m,c)?d.push(m):(b.push(m),U(a,m));a.g=b;a.h=d},U=function(a,c){var d=c.g;ka&amp;&amp;(d.style.cursor="pointer");for(d=0;d&lt;a.s.length;++d)c.h.push(a.s[d].call(null,c.g))},Y=function(a,c){a.i=c;a.j&amp;&amp;(0&lt;a.j.length&amp;&amp;c(a.j),a.j=null)},X=function(a,c){for(var d=0;d&lt;c.length;++d)if(c[d].g!=a.g&amp;&amp;T(c[d].g,a.g))return!0;return!1},T=function(a,c){for(;a!=c&amp;&amp;c.parentNode;)c=c.parentNode;return a==c},ka="undefined"!=typeof navigator&amp;&amp;/iPhone|iPad|iPod/.test(navigator.userAgent),ca=/\s*;\s*/,ea="click",ha={};var Z=new Q;W(Z,window.document.documentElement);P(Z,"click");P(Z,"focus");P(Z,"focusin");P(Z,"blur");P(Z,"focusout");P(Z,"error");P(Z,"load");P(Z,"auxclick");P(Z,"change");P(Z,"dblclick");P(Z,"beforeinput");P(Z,"input");P(Z,"keyup");P(Z,"keydown");P(Z,"keypress");P(Z,"mousedown");P(Z,"mouseenter");P(Z,"mouseleave");P(Z,"mouseout");P(Z,"mouseover");P(Z,"mouseup");P(Z,"paste");P(Z,"touchstart");P(Z,"touchend");P(Z,"touchcancel");P(Z,"transitioncancel");P(Z,"transitionend");P(Z,"transitionrun");P(Z,"transitionstart");P(Z,"dragover");P(Z,"dragenter");P(Z,"dragleave");P(Z,"drop");P(Z,"dragstart");P(Z,"dragend");P(Z,"speech");(function(a){google.jsad=function(c){Y(a,c)};google.jsaac=function(c){return W(a,c)};google.jsarc=function(c){G(c);for(var d=!1,b=0;b&lt;a.g.length;++b)if(a.g[b]===c){a.g.splice(b,1);d=!0;break}if(!d)for(d=0;d&lt;a.h.length;++d)if(a.h[d]===c){a.h.splice(d,1);break}V(a)}})(Z);e.gws_wizbind=function(a){return{trigger:function(c){var d=a.o(c.type);d||(P(a,c.type),d=a.o(c.type));var b=c.target||c.srcElement;d&amp;&amp;d.call(b.ownerDocument.documentElement,c)},bind:function(c){Y(a,c)}}}(Z);}).call(this);(function(){window._skwEvts=[];})();(function(){window.google.erd={jsr:1,bv:1681,sd:true,de:true};})();(function(){var sdo=false;var mei=10;
+var h=this||self;var k,l=null!=(k=h.mei)?k:1,n,p=null!=(n=h.sdo)?n:!0,q=0,r,t=google.erd,v=t.jsr;google.ml=function(a,b,d,m,e){e=void 0===e?2:e;b&amp;&amp;(r=a&amp;&amp;a.message);if(google.dl)return google.dl(a,e,d),null;if(0&gt;v){window.console&amp;&amp;console.error(a,d);if(-2===v)throw a;b=!1}else b=!a||!a.message||"Error loading script"===a.message||q&gt;=l&amp;&amp;!m?!1:!0;if(!b)return null;q++;d=d||{};b=encodeURIComponent;var c="/gen_204?atyp=i&amp;ei="+b(google.kEI);google.kEXPI&amp;&amp;(c+="&amp;jexpid="+b(google.kEXPI));c+="&amp;srcpg="+b(google.sn)+"&amp;jsr="+b(t.jsr)+"&amp;bver="+b(t.bv);var f=a.lineNumber;void 0!==f&amp;&amp;(c+="&amp;line="+f);var g=
+a.fileName;g&amp;&amp;(0&lt;g.indexOf("-extension:/")&amp;&amp;(e=3),c+="&amp;script="+b(g),f&amp;&amp;g===window.location.href&amp;&amp;(f=document.documentElement.outerHTML.split("\n")[f],c+="&amp;cad="+b(f?f.substring(0,300):"No script found.")));c+="&amp;jsel="+e;for(var u in d)c+="&amp;",c+=b(u),c+="=",c+=b(d[u]);c=c+"&amp;emsg="+b(a.name+": "+a.message);c=c+"&amp;jsst="+b(a.stack||"N/A");12288&lt;=c.length&amp;&amp;(c=c.substr(0,12288));a=c;m||google.log(0,"",a);return a};window.onerror=function(a,b,d,m,e){r!==a&amp;&amp;(a=e instanceof Error?e:Error(a),void 0===d||"lineNumber"in a||(a.lineNumber=d),void 0===b||"fileName"in a||(a.fileName=b),google.ml(a,!1,void 0,!1,"SyntaxError"===a.name||"SyntaxError"===a.message.substring(0,11)||-1!==a.message.indexOf("Script error")?3:0));r=null;p&amp;&amp;q&gt;=l&amp;&amp;(window.onerror=null)};})();;this.gbar_={CONFIG:[[[0,"www.gstatic.com","og.qtm.en_US.5jB2FJqR1F4.O","pl","pl","538",0,[4,2,"","","","484929242","0"],null,"57xjY4nSLvG8xc8P5bWckAQ",null,0,"og.qtm.8pE41sYUTwg.L.W.O","AA2YrTs00lPzmx9En6HZbOBSxvbnXpv0pA","AA2YrTuXeWsNpP9J282uZWD7GaEqvRiYYQ","",2,1,200,"POL",null,null,"1","538",1],null,[1,0.1000000014901161,2,1],[1,0.001000000047497451,1],[0,0,0,null,"","","",""],[0,0,"",1,0,0,0,0,0,0,null,0,0,null,0,0,null,null,0,0,0,"","","","","","",null,0,0,0,0,0,null,null,null,"rgba(32,33,36,1)","rgba(255,255,255,1)",0,0,1,null,null,1,0,0],null,null,["1","gci_91f30755d6a6b787dcc2a4062e6e9824.js","googleapis.client:gapi.iframes","","pl"],null,null,null,null,["m;/_/scs/abc-static/_/js/k=gapi.gapi.en.7I3T5S8x4Qg.O/d=1/rs=AHpOoo9SzNpm6HglASFo9cZ-GgP5E5f5WQ/m=__features__","https://apis.google.com","","","","",null,1,"es_plusone_gc_20221004.0_p0","pl",null,0],[0.009999999776482582,"pl","538",[null,"","0",null,1,5184000,null,null,"",null,null,null,null,null,0,null,0,0,1,0,0,0,null,null,0,0,null,0,0,0,0,0],null,null,null,0,null,null,["5061451","google\\.(com|ru|ca|by|kz|com\\.mx|com\\.tr)$",1]],[1,1,null,40400,538,"POL","pl","484929242.0",8,0.009999999776482582,0,0,null,null,null,null,"",null,null,null,"57xjY4nSLvG8xc8P5bWckAQ",0,0,0,null,2,5,"rd",66,0],[[null,null,null,"https://www.gstatic.com/og/_/js/k=og.qtm.en_US.5jB2FJqR1F4.O/rt=j/m=qabr,q_dnp,qcwid,qapid,qald/exm=qaaw,qadd,qaid,qein,qhaw,qhbr,qhch,qhga,qhid,qhin,qhpr/d=1/ed=1/rs=AA2YrTs00lPzmx9En6HZbOBSxvbnXpv0pA"],[null,null,null,"https://www.gstatic.com/og/_/ss/k=og.qtm.8pE41sYUTwg.L.W.O/m=qcwid/excm=qaaw,qadd,qaid,qein,qhaw,qhbr,qhch,qhga,qhid,qhin,qhpr/d=1/ed=1/ct=zgms/rs=AA2YrTuXeWsNpP9J282uZWD7GaEqvRiYYQ"]],null,null,null,[[[null,null,[null,null,null,"https://ogs.google.com/widget/app/so?eom=1"],0,448,328,57,4,1,0,0,63,64,8000,"https://www.google.pl/intl/pl/about/products",67,1,69,null,1,70,"Podczas wczytywania zestawu aplikacji wystąpił problem. Spróbuj ponownie za kilka minut lub przejdź na stronę %1$susług Google%2$s.",3,0,0,74,0,null,null,null,null,null,null,null,"/widget/app/so"]],0,[null,null,null,"https://www.gstatic.com/og/_/js/k=og.qtm.en_US.5jB2FJqR1F4.O/rt=j/m=qdsh/d=1/ed=1/rs=AA2YrTs00lPzmx9En6HZbOBSxvbnXpv0pA"],"1","538",1,0,null,"pl",0,null,0,0,0]]],};this.gbar_=this.gbar_||{};(function(_){var window=this;
+try{
+/*
+ Copyright The Closure Library Authors.
+ SPDX-License-Identifier: Apache-2.0
+*/
+var ka,wa,ya,za,Ca,Ea,Ga,Ha,La,Oa,Ka,Pa,Sa,Xa,Ya,Za,$a,ab,bb,db,eb,ib,jb;_.aa=function(a,b){if(Error.captureStackTrace)Error.captureStackTrace(this,_.aa);else{var c=Error().stack;c&amp;&amp;(this.stack=c)}a&amp;&amp;(this.message=String(a));void 0!==b&amp;&amp;(this.cause=b)};_.ba=function(){var a=_.n.navigator;return a&amp;&amp;(a=a.userAgent)?a:""};_.p=function(a){return-1!=_.ba().indexOf(a)};_.da=function(){return _.p("Opera")};_.ea=function(){return _.p("Trident")||_.p("MSIE")};_.fa=function(){return _.p("Firefox")||_.p("FxiOS")};
+_.ia=function(){return _.p("Safari")&amp;&amp;!(_.ha()||_.p("Coast")||_.da()||_.p("Edge")||_.p("Edg/")||_.p("OPR")||_.fa()||_.p("Silk")||_.p("Android"))};_.ha=function(){return(_.p("Chrome")||_.p("CriOS"))&amp;&amp;!_.p("Edge")||_.p("Silk")};_.ja=function(){return _.p("Android")&amp;&amp;!(_.ha()||_.fa()||_.da()||_.p("Silk"))};ka=function(){return _.p("iPhone")&amp;&amp;!_.p("iPod")&amp;&amp;!_.p("iPad")};_.la=function(){return ka()||_.p("iPad")||_.p("iPod")};
+_.ma=function(a){var b=a.length;if(0&lt;b){for(var c=Array(b),d=0;d&lt;b;d++)c[d]=a[d];return c}return[]};_.na=function(){return-1!=_.ba().toLowerCase().indexOf("webkit")&amp;&amp;!_.p("Edge")};_.pa=function(a){return oa&amp;&amp;null!=a&amp;&amp;a instanceof Uint8Array};_.ra=function(a,b){Object.isFrozen(a)||(qa?a[qa]|=b:void 0!==a.Sb?a.Sb|=b:Object.defineProperties(a,{Sb:{value:b,configurable:!0,writable:!0,enumerable:!1}}))};_.sa=function(a,b){Object.isExtensible(a)&amp;&amp;(qa?a[qa]&amp;&amp;(a[qa]&amp;=~b):void 0!==a.Sb&amp;&amp;(a.Sb&amp;=~b))};
+_.ta=function(a){var b;qa?b=a[qa]:b=a.Sb;return null==b?0:b};_.ua=function(a,b){qa?a[qa]=b:void 0!==a.Sb?a.Sb=b:Object.defineProperties(a,{Sb:{value:b,configurable:!0,writable:!0,enumerable:!1}})};_.va=function(a){_.ra(a,1);return a};wa=function(a){_.ra(a,17);return a};_.xa=function(a){return a?!!(_.ta(a)&amp;2):!1};ya=function(a,b){_.ua(b,(_.ta(a)|18)&amp;-33)};za=function(a){return null!==a&amp;&amp;"object"===typeof a&amp;&amp;!Array.isArray(a)&amp;&amp;a.constructor===Object};
+Ca=function(a){switch(typeof a){case "number":return isFinite(a)?a:String(a);case "object":if(a&amp;&amp;!Array.isArray(a)){if(_.pa(a))return _.Aa(a);if(a instanceof _.Ba){var b=a.Aa;return null==b?"":"string"===typeof b?b:a.Aa=_.Aa(b)}}}return a};Ea=function(a,b,c,d){if(null!=a){if(Array.isArray(a))a=_.Da(a,b,c,void 0!==d);else if(za(a)){var e={},f;for(f in a)e[f]=Ea(a[f],b,c,d);a=e}else a=b(a,d);return a}};
+_.Da=function(a,b,c,d){d=d?!!(_.ta(a)&amp;16):void 0;var e=Array.prototype.slice.call(a);c(a,e);for(a=0;a&lt;e.length;a++)e[a]=Ea(e[a],b,c,d);return e};Ga=function(a){return a.he===_.Fa?a.toJSON():Ca(a)};Ha=function(){};_.Ia=function(a,b){return null==a?b:a};La=function(a){if(_.xa(a)&amp;&amp;Object.isFrozen(a))return a;var b=_.Ja(a,Ka);ya(a,b);Object.freeze(b);return b};
+Oa=function(a,b){if(null!=a){if(oa&amp;&amp;a instanceof Uint8Array)return a.length?new _.Ba(new Uint8Array(a),_.Ma):_.Na();if(Array.isArray(a)){if(_.xa(a))return a;b&amp;&amp;(b=_.ta(a),b=!(b&amp;32)&amp;&amp;(!!(b&amp;16)||0===b));if(b)return _.ra(a,2),a;a=_.Da(a,Oa,ya);_.ta(a)&amp;4&amp;&amp;Object.freeze(a);return a}return a.he===_.Fa?Ka(a):a}};Ka=function(a){if(_.xa(a.na))return a;a=Pa(a);_.ra(a.na,2);return a};
+Pa=function(a){var b=new a.constructor;a.qc&amp;&amp;(b.qc=a.qc.slice());for(var c=a.na,d=!!(_.ta(c)&amp;16),e=0;e&lt;c.length;e++){var f=c[e];if(e===c.length-1&amp;&amp;za(f))for(var g in f){var h=+g;if(Number.isNaN(h))(b.Oa||(b.Oa=b.na[b.tc+b.nc]={}))[h]=f[h];else{var l=f[g],m=a.Wa&amp;&amp;a.Wa[h];m?_.Qa(b,h,La(m),!0):_.q(b,h,Oa(l,d),!0)}}else h=e-a.nc,(l=a.Wa&amp;&amp;a.Wa[h])?_.Qa(b,h,La(l),!1):_.q(b,h,Oa(f,d),!1)}return b};_.Ra=function(a){if(!_.xa(a.na))return a;var b=Pa(a);b.j=a;return b};Sa=function(a,b){return Ca(b)};
+_.t=function(a,b){return null!=a?!!a:!!b};_.u=function(a,b){void 0==b&amp;&amp;(b="");return null!=a?a:b};_.Ta=function(a,b){void 0==b&amp;&amp;(b=0);return null!=a?a:b};_.Ua=function(a,b,c){for(var d in a)b.call(c,a[d],d,a)};_.Wa=function(a,b){for(var c,d,e=1;e&lt;arguments.length;e++){d=arguments[e];for(c in d)a[c]=d[c];for(var f=0;f&lt;Va.length;f++)c=Va[f],Object.prototype.hasOwnProperty.call(d,c)&amp;&amp;(a[c]=d[c])}};Xa=function(a){var b=0;return function(){return b&lt;a.length?{done:!1,value:a[b++]}:{done:!0}}};
+Ya="function"==typeof Object.defineProperties?Object.defineProperty:function(a,b,c){if(a==Array.prototype||a==Object.prototype)return a;a[b]=c.value;return a};Za=function(a){a=["object"==typeof globalThis&amp;&amp;globalThis,a,"object"==typeof window&amp;&amp;window,"object"==typeof self&amp;&amp;self,"object"==typeof global&amp;&amp;global];for(var b=0;b&lt;a.length;++b){var c=a[b];if(c&amp;&amp;c.Math==Math)return c}throw Error("a");};$a=Za(this);
+ab=function(a,b){if(b)a:{var c=$a;a=a.split(".");for(var d=0;d&lt;a.length-1;d++){var e=a[d];if(!(e in c))break a;c=c[e]}a=a[a.length-1];d=c[a];b=b(d);b!=d&amp;&amp;null!=b&amp;&amp;Ya(c,a,{configurable:!0,writable:!0,value:b})}};
+ab("Symbol",function(a){if(a)return a;var b=function(f,g){this.j=f;Ya(this,"description",{configurable:!0,writable:!0,value:g})};b.prototype.toString=function(){return this.j};var c="jscomp_symbol_"+(1E9*Math.random()&gt;&gt;&gt;0)+"_",d=0,e=function(f){if(this instanceof e)throw new TypeError("b");return new b(c+(f||"")+"_"+d++,f)};return e});
+ab("Symbol.iterator",function(a){if(a)return a;a=Symbol("c");for(var b="Array Int8Array Uint8Array Uint8ClampedArray Int16Array Uint16Array Int32Array Uint32Array Float32Array Float64Array".split(" "),c=0;c&lt;b.length;c++){var d=$a[b[c]];"function"===typeof d&amp;&amp;"function"!=typeof d.prototype[a]&amp;&amp;Ya(d.prototype,a,{configurable:!0,writable:!0,value:function(){return bb(Xa(this))}})}return a});bb=function(a){a={next:a};a[Symbol.iterator]=function(){return this};return a};
+_.cb=function(a){var b="undefined"!=typeof Symbol&amp;&amp;Symbol.iterator&amp;&amp;a[Symbol.iterator];return b?b.call(a):{next:Xa(a)}};db="function"==typeof Object.create?Object.create:function(a){var b=function(){};b.prototype=a;return new b};if("function"==typeof Object.setPrototypeOf)eb=Object.setPrototypeOf;else{var fb;a:{var gb={a:!0},hb={};try{hb.__proto__=gb;fb=hb.a;break a}catch(a){}fb=!1}eb=fb?function(a,b){a.__proto__=b;if(a.__proto__!==b)throw new TypeError("d`"+a);return a}:null}ib=eb;
+_.w=function(a,b){a.prototype=db(b.prototype);a.prototype.constructor=a;if(ib)ib(a,b);else for(var c in b)if("prototype"!=c)if(Object.defineProperties){var d=Object.getOwnPropertyDescriptor(b,c);d&amp;&amp;Object.defineProperty(a,c,d)}else a[c]=b[c];a.Y=b.prototype};jb=function(a,b,c){if(null==a)throw new TypeError("e`"+c);if(b instanceof RegExp)throw new TypeError("f`"+c);return a+""};
+ab("String.prototype.startsWith",function(a){return a?a:function(b,c){var d=jb(this,b,"startsWith"),e=d.length,f=b.length;c=Math.max(0,Math.min(c|0,d.length));for(var g=0;g&lt;f&amp;&amp;c&lt;e;)if(d[c++]!=b[g++])return!1;return g&gt;=f}});ab("Array.prototype.find",function(a){return a?a:function(b,c){a:{var d=this;d instanceof String&amp;&amp;(d=String(d));for(var e=d.length,f=0;f&lt;e;f++){var g=d[f];if(b.call(c,g,f,d)){b=g;break a}}b=void 0}return b}});var kb=function(a,b){return Object.prototype.hasOwnProperty.call(a,b)};
+ab("WeakMap",function(a){function b(){}function c(l){var m=typeof l;return"object"===m&amp;&amp;null!==l||"function"===m}function d(l){if(!kb(l,f)){var m=new b;Ya(l,f,{value:m})}}function e(l){var m=Object[l];m&amp;&amp;(Object[l]=function(r){if(r instanceof b)return r;Object.isExtensible(r)&amp;&amp;d(r);return m(r)})}if(function(){if(!a||!Object.seal)return!1;try{var l=Object.seal({}),m=Object.seal({}),r=new a([[l,2],[m,3]]);if(2!=r.get(l)||3!=r.get(m))return!1;r.delete(l);r.set(m,4);return!r.has(l)&amp;&amp;4==r.get(m)}catch(v){return!1}}())return a;
+var f="$jscomp_hidden_"+Math.random();e("freeze");e("preventExtensions");e("seal");var g=0,h=function(l){this.j=(g+=Math.random()+1).toString();if(l){l=_.cb(l);for(var m;!(m=l.next()).done;)m=m.value,this.set(m[0],m[1])}};h.prototype.set=function(l,m){if(!c(l))throw Error("g");d(l);if(!kb(l,f))throw Error("h`"+l);l[f][this.j]=m;return this};h.prototype.get=function(l){return c(l)&amp;&amp;kb(l,f)?l[f][this.j]:void 0};h.prototype.has=function(l){return c(l)&amp;&amp;kb(l,f)&amp;&amp;kb(l[f],this.j)};h.prototype.delete=function(l){return c(l)&amp;&amp;
+kb(l,f)&amp;&amp;kb(l[f],this.j)?delete l[f][this.j]:!1};return h});
+ab("Map",function(a){if(function(){if(!a||"function"!=typeof a||!a.prototype.entries||"function"!=typeof Object.seal)return!1;try{var h=Object.seal({x:4}),l=new a(_.cb([[h,"s"]]));if("s"!=l.get(h)||1!=l.size||l.get({x:4})||l.set({x:4},"t")!=l||2!=l.size)return!1;var m=l.entries(),r=m.next();if(r.done||r.value[0]!=h||"s"!=r.value[1])return!1;r=m.next();return r.done||4!=r.value[0].x||"t"!=r.value[1]||!m.next().done?!1:!0}catch(v){return!1}}())return a;var b=new WeakMap,c=function(h){this.o={};this.j=
+f();this.size=0;if(h){h=_.cb(h);for(var l;!(l=h.next()).done;)l=l.value,this.set(l[0],l[1])}};c.prototype.set=function(h,l){h=0===h?0:h;var m=d(this,h);m.list||(m.list=this.o[m.id]=[]);m.Va?m.Va.value=l:(m.Va={next:this.j,lc:this.j.lc,head:this.j,key:h,value:l},m.list.push(m.Va),this.j.lc.next=m.Va,this.j.lc=m.Va,this.size++);return this};c.prototype.delete=function(h){h=d(this,h);return h.Va&amp;&amp;h.list?(h.list.splice(h.index,1),h.list.length||delete this.o[h.id],h.Va.lc.next=h.Va.next,h.Va.next.lc=
+h.Va.lc,h.Va.head=null,this.size--,!0):!1};c.prototype.clear=function(){this.o={};this.j=this.j.lc=f();this.size=0};c.prototype.has=function(h){return!!d(this,h).Va};c.prototype.get=function(h){return(h=d(this,h).Va)&amp;&amp;h.value};c.prototype.entries=function(){return e(this,function(h){return[h.key,h.value]})};c.prototype.keys=function(){return e(this,function(h){return h.key})};c.prototype.values=function(){return e(this,function(h){return h.value})};c.prototype.forEach=function(h,l){for(var m=this.entries(),
+r;!(r=m.next()).done;)r=r.value,h.call(l,r[1],r[0],this)};c.prototype[Symbol.iterator]=c.prototype.entries;var d=function(h,l){var m=l&amp;&amp;typeof l;"object"==m||"function"==m?b.has(l)?m=b.get(l):(m=""+ ++g,b.set(l,m)):m="p_"+l;var r=h.o[m];if(r&amp;&amp;kb(h.o,m))for(h=0;h&lt;r.length;h++){var v=r[h];if(l!==l&amp;&amp;v.key!==v.key||l===v.key)return{id:m,list:r,index:h,Va:v}}return{id:m,list:r,index:-1,Va:void 0}},e=function(h,l){var m=h.j;return bb(function(){if(m){for(;m.head!=h.j;)m=m.lc;for(;m.next!=m.head;)return m=
+m.next,{done:!1,value:l(m)};m=null}return{done:!0,value:void 0}})},f=function(){var h={};return h.lc=h.next=h.head=h},g=0;return c});ab("Number.MAX_SAFE_INTEGER",function(){return 9007199254740991});var lb=function(a,b){a instanceof String&amp;&amp;(a+="");var c=0,d=!1,e={next:function(){if(!d&amp;&amp;c&lt;a.length){var f=c++;return{value:b(f,a[f]),done:!1}}d=!0;return{done:!0,value:void 0}}};e[Symbol.iterator]=function(){return e};return e};
+ab("Array.prototype.entries",function(a){return a?a:function(){return lb(this,function(b,c){return[b,c]})}});ab("Array.from",function(a){return a?a:function(b,c,d){c=null!=c?c:function(h){return h};var e=[],f="undefined"!=typeof Symbol&amp;&amp;Symbol.iterator&amp;&amp;b[Symbol.iterator];if("function"==typeof f){b=f.call(b);for(var g=0;!(f=b.next()).done;)e.push(c.call(d,f.value,g++))}else for(f=b.length,g=0;g&lt;f;g++)e.push(c.call(d,b[g],g));return e}});
+ab("Array.prototype.keys",function(a){return a?a:function(){return lb(this,function(b){return b})}});ab("Number.isNaN",function(a){return a?a:function(b){return"number"===typeof b&amp;&amp;isNaN(b)}});ab("Array.prototype.fill",function(a){return a?a:function(b,c,d){var e=this.length||0;0&gt;c&amp;&amp;(c=Math.max(0,e+c));if(null==d||d&gt;e)d=e;d=Number(d);0&gt;d&amp;&amp;(d=Math.max(0,e+d));for(c=Number(c||0);c&lt;d;c++)this[c]=b;return this}});var mb=function(a){return a?a:Array.prototype.fill};ab("Int8Array.prototype.fill",mb);
+ab("Uint8Array.prototype.fill",mb);ab("Uint8ClampedArray.prototype.fill",mb);ab("Int16Array.prototype.fill",mb);ab("Uint16Array.prototype.fill",mb);ab("Int32Array.prototype.fill",mb);ab("Uint32Array.prototype.fill",mb);ab("Float32Array.prototype.fill",mb);ab("Float64Array.prototype.fill",mb);var nb="function"==typeof Object.assign?Object.assign:function(a,b){for(var c=1;c&lt;arguments.length;c++){var d=arguments[c];if(d)for(var e in d)kb(d,e)&amp;&amp;(a[e]=d[e])}return a};
+ab("Object.assign",function(a){return a||nb});ab("Object.entries",function(a){return a?a:function(b){var c=[],d;for(d in b)kb(b,d)&amp;&amp;c.push([d,b[d]]);return c}});ab("Array.prototype.values",function(a){return a?a:function(){return lb(this,function(b,c){return c})}});ab("Object.is",function(a){return a?a:function(b,c){return b===c?0!==b||1/b===1/c:b!==b&amp;&amp;c!==c}});
+ab("Array.prototype.includes",function(a){return a?a:function(b,c){var d=this;d instanceof String&amp;&amp;(d=String(d));var e=d.length;c=c||0;for(</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>tak</t>
         </is>
       </c>
     </row>
